--- a/stock_historical_data/1d/SHAILY.NS.xlsx
+++ b/stock_historical_data/1d/SHAILY.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q542"/>
+  <dimension ref="A1:R543"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>detect_structure</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -682,6 +693,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -735,6 +749,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -788,6 +805,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -841,6 +861,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -894,6 +917,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -947,6 +973,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1000,6 +1029,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1053,6 +1085,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1106,6 +1141,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1159,6 +1197,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1212,6 +1253,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1265,6 +1309,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1318,6 +1365,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1371,6 +1421,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1424,6 +1477,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1477,6 +1533,9 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1530,6 +1589,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1583,6 +1645,9 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1636,6 +1701,9 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1689,6 +1757,9 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1742,6 +1813,9 @@
       <c r="Q24" t="n">
         <v>0</v>
       </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1795,6 +1869,9 @@
       <c r="Q25" t="n">
         <v>0</v>
       </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1848,6 +1925,9 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1901,6 +1981,9 @@
       <c r="Q27" t="n">
         <v>0</v>
       </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1954,6 +2037,9 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -2007,6 +2093,9 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -2060,6 +2149,9 @@
       <c r="Q30" t="n">
         <v>0</v>
       </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2113,6 +2205,9 @@
       <c r="Q31" t="n">
         <v>0</v>
       </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2166,6 +2261,9 @@
       <c r="Q32" t="n">
         <v>0</v>
       </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2219,6 +2317,9 @@
       <c r="Q33" t="n">
         <v>0</v>
       </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2272,6 +2373,9 @@
       <c r="Q34" t="n">
         <v>0</v>
       </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2325,6 +2429,9 @@
       <c r="Q35" t="n">
         <v>0</v>
       </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2378,6 +2485,9 @@
       <c r="Q36" t="n">
         <v>0</v>
       </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2431,6 +2541,9 @@
       <c r="Q37" t="n">
         <v>0</v>
       </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2484,6 +2597,9 @@
       <c r="Q38" t="n">
         <v>0</v>
       </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2537,6 +2653,9 @@
       <c r="Q39" t="n">
         <v>0</v>
       </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2590,6 +2709,9 @@
       <c r="Q40" t="n">
         <v>0</v>
       </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2643,6 +2765,9 @@
       <c r="Q41" t="n">
         <v>0</v>
       </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2696,6 +2821,9 @@
       <c r="Q42" t="n">
         <v>0</v>
       </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2749,6 +2877,9 @@
       <c r="Q43" t="n">
         <v>0</v>
       </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2802,6 +2933,9 @@
       <c r="Q44" t="n">
         <v>0</v>
       </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2855,6 +2989,9 @@
       <c r="Q45" t="n">
         <v>0</v>
       </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2908,6 +3045,9 @@
       <c r="Q46" t="n">
         <v>0</v>
       </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2961,6 +3101,9 @@
       <c r="Q47" t="n">
         <v>0</v>
       </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -3014,6 +3157,9 @@
       <c r="Q48" t="n">
         <v>0</v>
       </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -3067,6 +3213,9 @@
       <c r="Q49" t="n">
         <v>0</v>
       </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -3120,6 +3269,9 @@
       <c r="Q50" t="n">
         <v>0</v>
       </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3173,6 +3325,9 @@
       <c r="Q51" t="n">
         <v>0</v>
       </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3226,6 +3381,9 @@
       <c r="Q52" t="n">
         <v>0</v>
       </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3279,6 +3437,9 @@
       <c r="Q53" t="n">
         <v>0</v>
       </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3332,6 +3493,9 @@
       <c r="Q54" t="n">
         <v>0</v>
       </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3385,6 +3549,9 @@
       <c r="Q55" t="n">
         <v>0</v>
       </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3438,6 +3605,9 @@
       <c r="Q56" t="n">
         <v>0</v>
       </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3491,6 +3661,9 @@
       <c r="Q57" t="n">
         <v>0</v>
       </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3544,6 +3717,9 @@
       <c r="Q58" t="n">
         <v>0</v>
       </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3597,6 +3773,9 @@
       <c r="Q59" t="n">
         <v>0</v>
       </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3650,6 +3829,9 @@
       <c r="Q60" t="n">
         <v>0</v>
       </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3703,6 +3885,9 @@
       <c r="Q61" t="n">
         <v>0</v>
       </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3756,6 +3941,9 @@
       <c r="Q62" t="n">
         <v>0</v>
       </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3809,6 +3997,9 @@
       <c r="Q63" t="n">
         <v>0</v>
       </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3862,6 +4053,9 @@
       <c r="Q64" t="n">
         <v>0</v>
       </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3915,6 +4109,9 @@
       <c r="Q65" t="n">
         <v>0</v>
       </c>
+      <c r="R65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3968,6 +4165,9 @@
       <c r="Q66" t="n">
         <v>0</v>
       </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -4021,6 +4221,9 @@
       <c r="Q67" t="n">
         <v>0</v>
       </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -4074,6 +4277,9 @@
       <c r="Q68" t="n">
         <v>0</v>
       </c>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -4127,6 +4333,9 @@
       <c r="Q69" t="n">
         <v>0</v>
       </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -4180,6 +4389,9 @@
       <c r="Q70" t="n">
         <v>0</v>
       </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -4233,6 +4445,9 @@
       <c r="Q71" t="n">
         <v>0</v>
       </c>
+      <c r="R71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -4286,6 +4501,9 @@
       <c r="Q72" t="n">
         <v>0</v>
       </c>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -4339,6 +4557,9 @@
       <c r="Q73" t="n">
         <v>0</v>
       </c>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -4392,6 +4613,9 @@
       <c r="Q74" t="n">
         <v>0</v>
       </c>
+      <c r="R74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4445,6 +4669,9 @@
       <c r="Q75" t="n">
         <v>0</v>
       </c>
+      <c r="R75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4498,6 +4725,9 @@
       <c r="Q76" t="n">
         <v>0</v>
       </c>
+      <c r="R76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4551,6 +4781,9 @@
       <c r="Q77" t="n">
         <v>0</v>
       </c>
+      <c r="R77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4604,6 +4837,9 @@
       <c r="Q78" t="n">
         <v>0</v>
       </c>
+      <c r="R78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4657,6 +4893,9 @@
       <c r="Q79" t="n">
         <v>0</v>
       </c>
+      <c r="R79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4710,6 +4949,9 @@
       <c r="Q80" t="n">
         <v>0</v>
       </c>
+      <c r="R80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4763,6 +5005,9 @@
       <c r="Q81" t="n">
         <v>0</v>
       </c>
+      <c r="R81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4816,6 +5061,9 @@
       <c r="Q82" t="n">
         <v>0</v>
       </c>
+      <c r="R82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4869,6 +5117,9 @@
       <c r="Q83" t="n">
         <v>0</v>
       </c>
+      <c r="R83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4922,6 +5173,9 @@
       <c r="Q84" t="n">
         <v>0</v>
       </c>
+      <c r="R84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4975,6 +5229,9 @@
       <c r="Q85" t="n">
         <v>0</v>
       </c>
+      <c r="R85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -5028,6 +5285,9 @@
       <c r="Q86" t="n">
         <v>0</v>
       </c>
+      <c r="R86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -5081,6 +5341,9 @@
       <c r="Q87" t="n">
         <v>0</v>
       </c>
+      <c r="R87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -5134,6 +5397,9 @@
       <c r="Q88" t="n">
         <v>0</v>
       </c>
+      <c r="R88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -5187,6 +5453,9 @@
       <c r="Q89" t="n">
         <v>0</v>
       </c>
+      <c r="R89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -5240,6 +5509,9 @@
       <c r="Q90" t="n">
         <v>0</v>
       </c>
+      <c r="R90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -5293,6 +5565,9 @@
       <c r="Q91" t="n">
         <v>0</v>
       </c>
+      <c r="R91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -5346,6 +5621,9 @@
       <c r="Q92" t="n">
         <v>0</v>
       </c>
+      <c r="R92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -5399,6 +5677,9 @@
       <c r="Q93" t="n">
         <v>0</v>
       </c>
+      <c r="R93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -5452,6 +5733,9 @@
       <c r="Q94" t="n">
         <v>0</v>
       </c>
+      <c r="R94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5505,6 +5789,9 @@
       <c r="Q95" t="n">
         <v>0</v>
       </c>
+      <c r="R95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5558,6 +5845,9 @@
       <c r="Q96" t="n">
         <v>0</v>
       </c>
+      <c r="R96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5611,6 +5901,9 @@
       <c r="Q97" t="n">
         <v>0</v>
       </c>
+      <c r="R97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5664,6 +5957,9 @@
       <c r="Q98" t="n">
         <v>0</v>
       </c>
+      <c r="R98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5717,6 +6013,9 @@
       <c r="Q99" t="n">
         <v>0</v>
       </c>
+      <c r="R99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5770,6 +6069,9 @@
       <c r="Q100" t="n">
         <v>0</v>
       </c>
+      <c r="R100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5823,6 +6125,9 @@
       <c r="Q101" t="n">
         <v>0</v>
       </c>
+      <c r="R101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5876,6 +6181,9 @@
       <c r="Q102" t="n">
         <v>0</v>
       </c>
+      <c r="R102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -5929,6 +6237,9 @@
       <c r="Q103" t="n">
         <v>0</v>
       </c>
+      <c r="R103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -5982,6 +6293,9 @@
       <c r="Q104" t="n">
         <v>0</v>
       </c>
+      <c r="R104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -6035,6 +6349,9 @@
       <c r="Q105" t="n">
         <v>0</v>
       </c>
+      <c r="R105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -6088,6 +6405,9 @@
       <c r="Q106" t="n">
         <v>0</v>
       </c>
+      <c r="R106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -6141,6 +6461,9 @@
       <c r="Q107" t="n">
         <v>0</v>
       </c>
+      <c r="R107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -6194,6 +6517,9 @@
       <c r="Q108" t="n">
         <v>0</v>
       </c>
+      <c r="R108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -6247,6 +6573,9 @@
       <c r="Q109" t="n">
         <v>0</v>
       </c>
+      <c r="R109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -6300,6 +6629,9 @@
       <c r="Q110" t="n">
         <v>0</v>
       </c>
+      <c r="R110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -6353,6 +6685,9 @@
       <c r="Q111" t="n">
         <v>0</v>
       </c>
+      <c r="R111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -6406,6 +6741,9 @@
       <c r="Q112" t="n">
         <v>0</v>
       </c>
+      <c r="R112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -6459,6 +6797,9 @@
       <c r="Q113" t="n">
         <v>0</v>
       </c>
+      <c r="R113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -6512,6 +6853,9 @@
       <c r="Q114" t="n">
         <v>0</v>
       </c>
+      <c r="R114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -6565,6 +6909,9 @@
       <c r="Q115" t="n">
         <v>0</v>
       </c>
+      <c r="R115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -6618,6 +6965,9 @@
       <c r="Q116" t="n">
         <v>0</v>
       </c>
+      <c r="R116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -6671,6 +7021,9 @@
       <c r="Q117" t="n">
         <v>0</v>
       </c>
+      <c r="R117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -6724,6 +7077,9 @@
       <c r="Q118" t="n">
         <v>0</v>
       </c>
+      <c r="R118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -6777,6 +7133,9 @@
       <c r="Q119" t="n">
         <v>0</v>
       </c>
+      <c r="R119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -6830,6 +7189,9 @@
       <c r="Q120" t="n">
         <v>0</v>
       </c>
+      <c r="R120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -6883,6 +7245,9 @@
       <c r="Q121" t="n">
         <v>0</v>
       </c>
+      <c r="R121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -6936,6 +7301,9 @@
       <c r="Q122" t="n">
         <v>0</v>
       </c>
+      <c r="R122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -6989,6 +7357,9 @@
       <c r="Q123" t="n">
         <v>0</v>
       </c>
+      <c r="R123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -7042,6 +7413,9 @@
       <c r="Q124" t="n">
         <v>0</v>
       </c>
+      <c r="R124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -7095,6 +7469,9 @@
       <c r="Q125" t="n">
         <v>0</v>
       </c>
+      <c r="R125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -7148,6 +7525,9 @@
       <c r="Q126" t="n">
         <v>0</v>
       </c>
+      <c r="R126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -7201,6 +7581,9 @@
       <c r="Q127" t="n">
         <v>0</v>
       </c>
+      <c r="R127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -7254,6 +7637,9 @@
       <c r="Q128" t="n">
         <v>0</v>
       </c>
+      <c r="R128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -7307,6 +7693,9 @@
       <c r="Q129" t="n">
         <v>0</v>
       </c>
+      <c r="R129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -7360,6 +7749,9 @@
       <c r="Q130" t="n">
         <v>0</v>
       </c>
+      <c r="R130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -7413,6 +7805,9 @@
       <c r="Q131" t="n">
         <v>0</v>
       </c>
+      <c r="R131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -7466,6 +7861,9 @@
       <c r="Q132" t="n">
         <v>0</v>
       </c>
+      <c r="R132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -7519,6 +7917,9 @@
       <c r="Q133" t="n">
         <v>0</v>
       </c>
+      <c r="R133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -7572,6 +7973,9 @@
       <c r="Q134" t="n">
         <v>0</v>
       </c>
+      <c r="R134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -7625,6 +8029,9 @@
       <c r="Q135" t="n">
         <v>0</v>
       </c>
+      <c r="R135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -7678,6 +8085,9 @@
       <c r="Q136" t="n">
         <v>0</v>
       </c>
+      <c r="R136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -7731,6 +8141,9 @@
       <c r="Q137" t="n">
         <v>0</v>
       </c>
+      <c r="R137" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -7784,6 +8197,9 @@
       <c r="Q138" t="n">
         <v>0</v>
       </c>
+      <c r="R138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -7837,6 +8253,9 @@
       <c r="Q139" t="n">
         <v>0</v>
       </c>
+      <c r="R139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -7890,6 +8309,9 @@
       <c r="Q140" t="n">
         <v>0</v>
       </c>
+      <c r="R140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -7943,6 +8365,9 @@
       <c r="Q141" t="n">
         <v>0</v>
       </c>
+      <c r="R141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -7996,6 +8421,9 @@
       <c r="Q142" t="n">
         <v>0</v>
       </c>
+      <c r="R142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -8049,6 +8477,9 @@
       <c r="Q143" t="n">
         <v>0</v>
       </c>
+      <c r="R143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -8102,6 +8533,9 @@
       <c r="Q144" t="n">
         <v>0</v>
       </c>
+      <c r="R144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -8155,6 +8589,9 @@
       <c r="Q145" t="n">
         <v>0</v>
       </c>
+      <c r="R145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -8208,6 +8645,9 @@
       <c r="Q146" t="n">
         <v>0</v>
       </c>
+      <c r="R146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -8261,6 +8701,9 @@
       <c r="Q147" t="n">
         <v>0</v>
       </c>
+      <c r="R147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -8314,6 +8757,9 @@
       <c r="Q148" t="n">
         <v>0</v>
       </c>
+      <c r="R148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -8367,6 +8813,9 @@
       <c r="Q149" t="n">
         <v>0</v>
       </c>
+      <c r="R149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -8420,6 +8869,9 @@
       <c r="Q150" t="n">
         <v>0</v>
       </c>
+      <c r="R150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -8473,6 +8925,9 @@
       <c r="Q151" t="n">
         <v>0</v>
       </c>
+      <c r="R151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -8526,6 +8981,9 @@
       <c r="Q152" t="n">
         <v>0</v>
       </c>
+      <c r="R152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -8579,6 +9037,9 @@
       <c r="Q153" t="n">
         <v>0</v>
       </c>
+      <c r="R153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -8632,6 +9093,9 @@
       <c r="Q154" t="n">
         <v>0</v>
       </c>
+      <c r="R154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -8685,6 +9149,9 @@
       <c r="Q155" t="n">
         <v>0</v>
       </c>
+      <c r="R155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -8738,6 +9205,9 @@
       <c r="Q156" t="n">
         <v>0</v>
       </c>
+      <c r="R156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -8791,6 +9261,9 @@
       <c r="Q157" t="n">
         <v>0</v>
       </c>
+      <c r="R157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -8844,6 +9317,9 @@
       <c r="Q158" t="n">
         <v>0</v>
       </c>
+      <c r="R158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -8897,6 +9373,9 @@
       <c r="Q159" t="n">
         <v>0</v>
       </c>
+      <c r="R159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -8950,6 +9429,9 @@
       <c r="Q160" t="n">
         <v>0</v>
       </c>
+      <c r="R160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -9003,6 +9485,9 @@
       <c r="Q161" t="n">
         <v>0</v>
       </c>
+      <c r="R161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -9056,6 +9541,9 @@
       <c r="Q162" t="n">
         <v>0</v>
       </c>
+      <c r="R162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
@@ -9109,6 +9597,9 @@
       <c r="Q163" t="n">
         <v>0</v>
       </c>
+      <c r="R163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
@@ -9162,6 +9653,9 @@
       <c r="Q164" t="n">
         <v>0</v>
       </c>
+      <c r="R164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -9215,6 +9709,9 @@
       <c r="Q165" t="n">
         <v>0</v>
       </c>
+      <c r="R165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
@@ -9268,6 +9765,9 @@
       <c r="Q166" t="n">
         <v>0</v>
       </c>
+      <c r="R166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -9321,6 +9821,9 @@
       <c r="Q167" t="n">
         <v>0</v>
       </c>
+      <c r="R167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
@@ -9374,6 +9877,9 @@
       <c r="Q168" t="n">
         <v>0</v>
       </c>
+      <c r="R168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -9427,6 +9933,9 @@
       <c r="Q169" t="n">
         <v>0</v>
       </c>
+      <c r="R169" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
@@ -9480,6 +9989,9 @@
       <c r="Q170" t="n">
         <v>0</v>
       </c>
+      <c r="R170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
@@ -9533,6 +10045,9 @@
       <c r="Q171" t="n">
         <v>0</v>
       </c>
+      <c r="R171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
@@ -9586,6 +10101,9 @@
       <c r="Q172" t="n">
         <v>0</v>
       </c>
+      <c r="R172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
@@ -9639,6 +10157,9 @@
       <c r="Q173" t="n">
         <v>0</v>
       </c>
+      <c r="R173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
@@ -9692,6 +10213,9 @@
       <c r="Q174" t="n">
         <v>0</v>
       </c>
+      <c r="R174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
@@ -9745,6 +10269,9 @@
       <c r="Q175" t="n">
         <v>0</v>
       </c>
+      <c r="R175" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
@@ -9798,6 +10325,9 @@
       <c r="Q176" t="n">
         <v>0</v>
       </c>
+      <c r="R176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
@@ -9851,6 +10381,9 @@
       <c r="Q177" t="n">
         <v>0</v>
       </c>
+      <c r="R177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
@@ -9904,6 +10437,9 @@
       <c r="Q178" t="n">
         <v>0</v>
       </c>
+      <c r="R178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
@@ -9957,6 +10493,9 @@
       <c r="Q179" t="n">
         <v>0</v>
       </c>
+      <c r="R179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
@@ -10010,6 +10549,9 @@
       <c r="Q180" t="n">
         <v>0</v>
       </c>
+      <c r="R180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
@@ -10063,6 +10605,9 @@
       <c r="Q181" t="n">
         <v>0</v>
       </c>
+      <c r="R181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
@@ -10116,6 +10661,9 @@
       <c r="Q182" t="n">
         <v>0</v>
       </c>
+      <c r="R182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
@@ -10169,6 +10717,9 @@
       <c r="Q183" t="n">
         <v>0</v>
       </c>
+      <c r="R183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
@@ -10222,6 +10773,9 @@
       <c r="Q184" t="n">
         <v>0</v>
       </c>
+      <c r="R184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
@@ -10275,6 +10829,9 @@
       <c r="Q185" t="n">
         <v>0</v>
       </c>
+      <c r="R185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
@@ -10328,6 +10885,9 @@
       <c r="Q186" t="n">
         <v>0</v>
       </c>
+      <c r="R186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
@@ -10381,6 +10941,9 @@
       <c r="Q187" t="n">
         <v>0</v>
       </c>
+      <c r="R187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
@@ -10434,6 +10997,9 @@
       <c r="Q188" t="n">
         <v>0</v>
       </c>
+      <c r="R188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
@@ -10487,6 +11053,9 @@
       <c r="Q189" t="n">
         <v>0</v>
       </c>
+      <c r="R189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
@@ -10540,6 +11109,9 @@
       <c r="Q190" t="n">
         <v>0</v>
       </c>
+      <c r="R190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
@@ -10593,6 +11165,9 @@
       <c r="Q191" t="n">
         <v>0</v>
       </c>
+      <c r="R191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
@@ -10646,6 +11221,9 @@
       <c r="Q192" t="n">
         <v>0</v>
       </c>
+      <c r="R192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
@@ -10699,6 +11277,9 @@
       <c r="Q193" t="n">
         <v>0</v>
       </c>
+      <c r="R193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
@@ -10752,6 +11333,9 @@
       <c r="Q194" t="n">
         <v>0</v>
       </c>
+      <c r="R194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
@@ -10805,6 +11389,9 @@
       <c r="Q195" t="n">
         <v>0</v>
       </c>
+      <c r="R195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
@@ -10858,6 +11445,9 @@
       <c r="Q196" t="n">
         <v>0</v>
       </c>
+      <c r="R196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
@@ -10911,6 +11501,9 @@
       <c r="Q197" t="n">
         <v>0</v>
       </c>
+      <c r="R197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -10964,6 +11557,9 @@
       <c r="Q198" t="n">
         <v>0</v>
       </c>
+      <c r="R198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -11017,6 +11613,9 @@
       <c r="Q199" t="n">
         <v>0</v>
       </c>
+      <c r="R199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -11070,6 +11669,9 @@
       <c r="Q200" t="n">
         <v>0</v>
       </c>
+      <c r="R200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
@@ -11123,6 +11725,9 @@
       <c r="Q201" t="n">
         <v>0</v>
       </c>
+      <c r="R201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
@@ -11176,6 +11781,9 @@
       <c r="Q202" t="n">
         <v>0</v>
       </c>
+      <c r="R202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
@@ -11229,6 +11837,9 @@
       <c r="Q203" t="n">
         <v>0</v>
       </c>
+      <c r="R203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
@@ -11282,6 +11893,9 @@
       <c r="Q204" t="n">
         <v>0</v>
       </c>
+      <c r="R204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
@@ -11335,6 +11949,9 @@
       <c r="Q205" t="n">
         <v>0</v>
       </c>
+      <c r="R205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
@@ -11388,6 +12005,9 @@
       <c r="Q206" t="n">
         <v>0</v>
       </c>
+      <c r="R206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
@@ -11441,6 +12061,9 @@
       <c r="Q207" t="n">
         <v>0</v>
       </c>
+      <c r="R207" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
@@ -11494,6 +12117,9 @@
       <c r="Q208" t="n">
         <v>0</v>
       </c>
+      <c r="R208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -11547,6 +12173,9 @@
       <c r="Q209" t="n">
         <v>0</v>
       </c>
+      <c r="R209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -11600,6 +12229,9 @@
       <c r="Q210" t="n">
         <v>0</v>
       </c>
+      <c r="R210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -11653,6 +12285,9 @@
       <c r="Q211" t="n">
         <v>0</v>
       </c>
+      <c r="R211" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
@@ -11706,6 +12341,9 @@
       <c r="Q212" t="n">
         <v>0</v>
       </c>
+      <c r="R212" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
@@ -11759,6 +12397,9 @@
       <c r="Q213" t="n">
         <v>0</v>
       </c>
+      <c r="R213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
@@ -11812,6 +12453,9 @@
       <c r="Q214" t="n">
         <v>0</v>
       </c>
+      <c r="R214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
@@ -11865,6 +12509,9 @@
       <c r="Q215" t="n">
         <v>0</v>
       </c>
+      <c r="R215" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
@@ -11918,6 +12565,9 @@
       <c r="Q216" t="n">
         <v>0</v>
       </c>
+      <c r="R216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -11971,6 +12621,9 @@
       <c r="Q217" t="n">
         <v>0</v>
       </c>
+      <c r="R217" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
@@ -12024,6 +12677,9 @@
       <c r="Q218" t="n">
         <v>0</v>
       </c>
+      <c r="R218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
@@ -12077,6 +12733,9 @@
       <c r="Q219" t="n">
         <v>0</v>
       </c>
+      <c r="R219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -12130,6 +12789,9 @@
       <c r="Q220" t="n">
         <v>0</v>
       </c>
+      <c r="R220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
@@ -12183,6 +12845,9 @@
       <c r="Q221" t="n">
         <v>0</v>
       </c>
+      <c r="R221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
@@ -12236,6 +12901,9 @@
       <c r="Q222" t="n">
         <v>0</v>
       </c>
+      <c r="R222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
@@ -12289,6 +12957,9 @@
       <c r="Q223" t="n">
         <v>2</v>
       </c>
+      <c r="R223" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
@@ -12342,6 +13013,9 @@
       <c r="Q224" t="n">
         <v>0</v>
       </c>
+      <c r="R224" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
@@ -12395,6 +13069,9 @@
       <c r="Q225" t="n">
         <v>0</v>
       </c>
+      <c r="R225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
@@ -12448,6 +13125,9 @@
       <c r="Q226" t="n">
         <v>0</v>
       </c>
+      <c r="R226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -12501,6 +13181,9 @@
       <c r="Q227" t="n">
         <v>0</v>
       </c>
+      <c r="R227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -12554,6 +13237,9 @@
       <c r="Q228" t="n">
         <v>0</v>
       </c>
+      <c r="R228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
@@ -12607,6 +13293,9 @@
       <c r="Q229" t="n">
         <v>0</v>
       </c>
+      <c r="R229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
@@ -12660,6 +13349,9 @@
       <c r="Q230" t="n">
         <v>0</v>
       </c>
+      <c r="R230" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
@@ -12713,6 +13405,9 @@
       <c r="Q231" t="n">
         <v>0</v>
       </c>
+      <c r="R231" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
@@ -12766,6 +13461,9 @@
       <c r="Q232" t="n">
         <v>0</v>
       </c>
+      <c r="R232" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
@@ -12819,6 +13517,9 @@
       <c r="Q233" t="n">
         <v>0</v>
       </c>
+      <c r="R233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
@@ -12872,6 +13573,9 @@
       <c r="Q234" t="n">
         <v>0</v>
       </c>
+      <c r="R234" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
@@ -12925,6 +13629,9 @@
       <c r="Q235" t="n">
         <v>0</v>
       </c>
+      <c r="R235" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
@@ -12978,6 +13685,9 @@
       <c r="Q236" t="n">
         <v>0</v>
       </c>
+      <c r="R236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
@@ -13031,6 +13741,9 @@
       <c r="Q237" t="n">
         <v>0</v>
       </c>
+      <c r="R237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
@@ -13084,6 +13797,9 @@
       <c r="Q238" t="n">
         <v>0</v>
       </c>
+      <c r="R238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
@@ -13137,6 +13853,9 @@
       <c r="Q239" t="n">
         <v>0</v>
       </c>
+      <c r="R239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
@@ -13190,6 +13909,9 @@
       <c r="Q240" t="n">
         <v>0</v>
       </c>
+      <c r="R240" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
@@ -13243,6 +13965,9 @@
       <c r="Q241" t="n">
         <v>0</v>
       </c>
+      <c r="R241" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
@@ -13296,6 +14021,9 @@
       <c r="Q242" t="n">
         <v>0</v>
       </c>
+      <c r="R242" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
@@ -13349,6 +14077,9 @@
       <c r="Q243" t="n">
         <v>0</v>
       </c>
+      <c r="R243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
@@ -13402,6 +14133,9 @@
       <c r="Q244" t="n">
         <v>0</v>
       </c>
+      <c r="R244" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
@@ -13455,6 +14189,9 @@
       <c r="Q245" t="n">
         <v>0</v>
       </c>
+      <c r="R245" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
@@ -13508,6 +14245,9 @@
       <c r="Q246" t="n">
         <v>0</v>
       </c>
+      <c r="R246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
@@ -13561,6 +14301,9 @@
       <c r="Q247" t="n">
         <v>0</v>
       </c>
+      <c r="R247" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
@@ -13614,6 +14357,9 @@
       <c r="Q248" t="n">
         <v>0</v>
       </c>
+      <c r="R248" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
@@ -13667,6 +14413,9 @@
       <c r="Q249" t="n">
         <v>0</v>
       </c>
+      <c r="R249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
@@ -13720,6 +14469,9 @@
       <c r="Q250" t="n">
         <v>0</v>
       </c>
+      <c r="R250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
@@ -13773,6 +14525,9 @@
       <c r="Q251" t="n">
         <v>0</v>
       </c>
+      <c r="R251" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
@@ -13826,6 +14581,9 @@
       <c r="Q252" t="n">
         <v>1</v>
       </c>
+      <c r="R252" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
@@ -13879,6 +14637,9 @@
       <c r="Q253" t="n">
         <v>0</v>
       </c>
+      <c r="R253" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
@@ -13932,6 +14693,9 @@
       <c r="Q254" t="n">
         <v>0</v>
       </c>
+      <c r="R254" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
@@ -13985,6 +14749,9 @@
       <c r="Q255" t="n">
         <v>0</v>
       </c>
+      <c r="R255" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
@@ -14038,6 +14805,9 @@
       <c r="Q256" t="n">
         <v>0</v>
       </c>
+      <c r="R256" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
@@ -14091,6 +14861,9 @@
       <c r="Q257" t="n">
         <v>0</v>
       </c>
+      <c r="R257" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
@@ -14144,6 +14917,9 @@
       <c r="Q258" t="n">
         <v>0</v>
       </c>
+      <c r="R258" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
@@ -14197,6 +14973,9 @@
       <c r="Q259" t="n">
         <v>0</v>
       </c>
+      <c r="R259" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
@@ -14250,6 +15029,9 @@
       <c r="Q260" t="n">
         <v>0</v>
       </c>
+      <c r="R260" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
@@ -14303,6 +15085,9 @@
       <c r="Q261" t="n">
         <v>0</v>
       </c>
+      <c r="R261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
@@ -14356,6 +15141,9 @@
       <c r="Q262" t="n">
         <v>0</v>
       </c>
+      <c r="R262" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
@@ -14409,6 +15197,9 @@
       <c r="Q263" t="n">
         <v>2</v>
       </c>
+      <c r="R263" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
@@ -14462,6 +15253,9 @@
       <c r="Q264" t="n">
         <v>0</v>
       </c>
+      <c r="R264" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
@@ -14515,6 +15309,9 @@
       <c r="Q265" t="n">
         <v>0</v>
       </c>
+      <c r="R265" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
@@ -14568,6 +15365,9 @@
       <c r="Q266" t="n">
         <v>0</v>
       </c>
+      <c r="R266" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
@@ -14621,6 +15421,9 @@
       <c r="Q267" t="n">
         <v>0</v>
       </c>
+      <c r="R267" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
@@ -14674,6 +15477,9 @@
       <c r="Q268" t="n">
         <v>0</v>
       </c>
+      <c r="R268" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
@@ -14727,6 +15533,9 @@
       <c r="Q269" t="n">
         <v>0</v>
       </c>
+      <c r="R269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
@@ -14780,6 +15589,9 @@
       <c r="Q270" t="n">
         <v>1</v>
       </c>
+      <c r="R270" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
@@ -14833,6 +15645,9 @@
       <c r="Q271" t="n">
         <v>0</v>
       </c>
+      <c r="R271" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
@@ -14886,6 +15701,9 @@
       <c r="Q272" t="n">
         <v>0</v>
       </c>
+      <c r="R272" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
@@ -14939,6 +15757,9 @@
       <c r="Q273" t="n">
         <v>0</v>
       </c>
+      <c r="R273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
@@ -14992,6 +15813,9 @@
       <c r="Q274" t="n">
         <v>0</v>
       </c>
+      <c r="R274" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
@@ -15045,6 +15869,9 @@
       <c r="Q275" t="n">
         <v>0</v>
       </c>
+      <c r="R275" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
@@ -15098,6 +15925,9 @@
       <c r="Q276" t="n">
         <v>0</v>
       </c>
+      <c r="R276" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
@@ -15151,6 +15981,9 @@
       <c r="Q277" t="n">
         <v>0</v>
       </c>
+      <c r="R277" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
@@ -15204,6 +16037,9 @@
       <c r="Q278" t="n">
         <v>0</v>
       </c>
+      <c r="R278" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
@@ -15257,6 +16093,9 @@
       <c r="Q279" t="n">
         <v>0</v>
       </c>
+      <c r="R279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
@@ -15310,6 +16149,9 @@
       <c r="Q280" t="n">
         <v>0</v>
       </c>
+      <c r="R280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
@@ -15363,6 +16205,9 @@
       <c r="Q281" t="n">
         <v>0</v>
       </c>
+      <c r="R281" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
@@ -15416,6 +16261,9 @@
       <c r="Q282" t="n">
         <v>0</v>
       </c>
+      <c r="R282" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
@@ -15469,6 +16317,9 @@
       <c r="Q283" t="n">
         <v>0</v>
       </c>
+      <c r="R283" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
@@ -15522,6 +16373,9 @@
       <c r="Q284" t="n">
         <v>0</v>
       </c>
+      <c r="R284" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
@@ -15575,6 +16429,9 @@
       <c r="Q285" t="n">
         <v>0</v>
       </c>
+      <c r="R285" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
@@ -15628,6 +16485,9 @@
       <c r="Q286" t="n">
         <v>0</v>
       </c>
+      <c r="R286" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
@@ -15681,6 +16541,9 @@
       <c r="Q287" t="n">
         <v>0</v>
       </c>
+      <c r="R287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
@@ -15734,6 +16597,9 @@
       <c r="Q288" t="n">
         <v>0</v>
       </c>
+      <c r="R288" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
@@ -15787,6 +16653,9 @@
       <c r="Q289" t="n">
         <v>0</v>
       </c>
+      <c r="R289" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
@@ -15840,6 +16709,9 @@
       <c r="Q290" t="n">
         <v>0</v>
       </c>
+      <c r="R290" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
@@ -15893,6 +16765,9 @@
       <c r="Q291" t="n">
         <v>0</v>
       </c>
+      <c r="R291" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
@@ -15946,6 +16821,9 @@
       <c r="Q292" t="n">
         <v>0</v>
       </c>
+      <c r="R292" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
@@ -15999,6 +16877,9 @@
       <c r="Q293" t="n">
         <v>0</v>
       </c>
+      <c r="R293" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
@@ -16052,6 +16933,9 @@
       <c r="Q294" t="n">
         <v>0</v>
       </c>
+      <c r="R294" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
@@ -16105,6 +16989,9 @@
       <c r="Q295" t="n">
         <v>0</v>
       </c>
+      <c r="R295" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
@@ -16158,6 +17045,9 @@
       <c r="Q296" t="n">
         <v>0</v>
       </c>
+      <c r="R296" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
@@ -16211,6 +17101,9 @@
       <c r="Q297" t="n">
         <v>0</v>
       </c>
+      <c r="R297" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
@@ -16264,6 +17157,9 @@
       <c r="Q298" t="n">
         <v>0</v>
       </c>
+      <c r="R298" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
@@ -16317,6 +17213,9 @@
       <c r="Q299" t="n">
         <v>0</v>
       </c>
+      <c r="R299" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
@@ -16370,6 +17269,9 @@
       <c r="Q300" t="n">
         <v>0</v>
       </c>
+      <c r="R300" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
@@ -16423,6 +17325,9 @@
       <c r="Q301" t="n">
         <v>0</v>
       </c>
+      <c r="R301" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
@@ -16476,6 +17381,9 @@
       <c r="Q302" t="n">
         <v>0</v>
       </c>
+      <c r="R302" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
@@ -16529,6 +17437,9 @@
       <c r="Q303" t="n">
         <v>0</v>
       </c>
+      <c r="R303" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
@@ -16582,6 +17493,9 @@
       <c r="Q304" t="n">
         <v>0</v>
       </c>
+      <c r="R304" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
@@ -16635,6 +17549,9 @@
       <c r="Q305" t="n">
         <v>0</v>
       </c>
+      <c r="R305" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
@@ -16688,6 +17605,9 @@
       <c r="Q306" t="n">
         <v>0</v>
       </c>
+      <c r="R306" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
@@ -16741,6 +17661,9 @@
       <c r="Q307" t="n">
         <v>0</v>
       </c>
+      <c r="R307" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
@@ -16794,6 +17717,9 @@
       <c r="Q308" t="n">
         <v>0</v>
       </c>
+      <c r="R308" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
@@ -16847,6 +17773,9 @@
       <c r="Q309" t="n">
         <v>0</v>
       </c>
+      <c r="R309" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
@@ -16900,6 +17829,9 @@
       <c r="Q310" t="n">
         <v>0</v>
       </c>
+      <c r="R310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
@@ -16953,6 +17885,9 @@
       <c r="Q311" t="n">
         <v>0</v>
       </c>
+      <c r="R311" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
@@ -17006,6 +17941,9 @@
       <c r="Q312" t="n">
         <v>0</v>
       </c>
+      <c r="R312" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
@@ -17059,6 +17997,9 @@
       <c r="Q313" t="n">
         <v>0</v>
       </c>
+      <c r="R313" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
@@ -17112,6 +18053,9 @@
       <c r="Q314" t="n">
         <v>0</v>
       </c>
+      <c r="R314" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
@@ -17165,6 +18109,9 @@
       <c r="Q315" t="n">
         <v>0</v>
       </c>
+      <c r="R315" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
@@ -17218,6 +18165,9 @@
       <c r="Q316" t="n">
         <v>0</v>
       </c>
+      <c r="R316" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
@@ -17271,6 +18221,9 @@
       <c r="Q317" t="n">
         <v>0</v>
       </c>
+      <c r="R317" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
@@ -17324,6 +18277,9 @@
       <c r="Q318" t="n">
         <v>0</v>
       </c>
+      <c r="R318" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
@@ -17377,6 +18333,9 @@
       <c r="Q319" t="n">
         <v>0</v>
       </c>
+      <c r="R319" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
@@ -17430,6 +18389,9 @@
       <c r="Q320" t="n">
         <v>0</v>
       </c>
+      <c r="R320" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
@@ -17483,6 +18445,9 @@
       <c r="Q321" t="n">
         <v>0</v>
       </c>
+      <c r="R321" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
@@ -17536,6 +18501,9 @@
       <c r="Q322" t="n">
         <v>0</v>
       </c>
+      <c r="R322" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
@@ -17589,6 +18557,9 @@
       <c r="Q323" t="n">
         <v>0</v>
       </c>
+      <c r="R323" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
@@ -17642,6 +18613,9 @@
       <c r="Q324" t="n">
         <v>0</v>
       </c>
+      <c r="R324" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
@@ -17695,6 +18669,9 @@
       <c r="Q325" t="n">
         <v>0</v>
       </c>
+      <c r="R325" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
@@ -17748,6 +18725,9 @@
       <c r="Q326" t="n">
         <v>0</v>
       </c>
+      <c r="R326" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
@@ -17801,6 +18781,9 @@
       <c r="Q327" t="n">
         <v>0</v>
       </c>
+      <c r="R327" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
@@ -17854,6 +18837,9 @@
       <c r="Q328" t="n">
         <v>0</v>
       </c>
+      <c r="R328" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
@@ -17907,6 +18893,9 @@
       <c r="Q329" t="n">
         <v>0</v>
       </c>
+      <c r="R329" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
@@ -17960,6 +18949,9 @@
       <c r="Q330" t="n">
         <v>0</v>
       </c>
+      <c r="R330" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
@@ -18013,6 +19005,9 @@
       <c r="Q331" t="n">
         <v>0</v>
       </c>
+      <c r="R331" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
@@ -18066,6 +19061,9 @@
       <c r="Q332" t="n">
         <v>0</v>
       </c>
+      <c r="R332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
@@ -18119,6 +19117,9 @@
       <c r="Q333" t="n">
         <v>0</v>
       </c>
+      <c r="R333" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
@@ -18172,6 +19173,9 @@
       <c r="Q334" t="n">
         <v>0</v>
       </c>
+      <c r="R334" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
@@ -18225,6 +19229,9 @@
       <c r="Q335" t="n">
         <v>0</v>
       </c>
+      <c r="R335" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
@@ -18278,6 +19285,9 @@
       <c r="Q336" t="n">
         <v>0</v>
       </c>
+      <c r="R336" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
@@ -18331,6 +19341,9 @@
       <c r="Q337" t="n">
         <v>0</v>
       </c>
+      <c r="R337" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
@@ -18384,6 +19397,9 @@
       <c r="Q338" t="n">
         <v>0</v>
       </c>
+      <c r="R338" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
@@ -18437,6 +19453,9 @@
       <c r="Q339" t="n">
         <v>0</v>
       </c>
+      <c r="R339" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
@@ -18490,6 +19509,9 @@
       <c r="Q340" t="n">
         <v>0</v>
       </c>
+      <c r="R340" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
@@ -18543,6 +19565,9 @@
       <c r="Q341" t="n">
         <v>0</v>
       </c>
+      <c r="R341" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
@@ -18596,6 +19621,9 @@
       <c r="Q342" t="n">
         <v>0</v>
       </c>
+      <c r="R342" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
@@ -18649,6 +19677,9 @@
       <c r="Q343" t="n">
         <v>0</v>
       </c>
+      <c r="R343" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
@@ -18702,6 +19733,9 @@
       <c r="Q344" t="n">
         <v>0</v>
       </c>
+      <c r="R344" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
@@ -18755,6 +19789,9 @@
       <c r="Q345" t="n">
         <v>0</v>
       </c>
+      <c r="R345" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
@@ -18808,6 +19845,9 @@
       <c r="Q346" t="n">
         <v>0</v>
       </c>
+      <c r="R346" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
@@ -18861,6 +19901,9 @@
       <c r="Q347" t="n">
         <v>0</v>
       </c>
+      <c r="R347" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
@@ -18914,6 +19957,9 @@
       <c r="Q348" t="n">
         <v>0</v>
       </c>
+      <c r="R348" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
@@ -18967,6 +20013,9 @@
       <c r="Q349" t="n">
         <v>0</v>
       </c>
+      <c r="R349" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
@@ -19020,6 +20069,9 @@
       <c r="Q350" t="n">
         <v>0</v>
       </c>
+      <c r="R350" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
@@ -19073,6 +20125,9 @@
       <c r="Q351" t="n">
         <v>0</v>
       </c>
+      <c r="R351" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
@@ -19126,6 +20181,9 @@
       <c r="Q352" t="n">
         <v>0</v>
       </c>
+      <c r="R352" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
@@ -19179,6 +20237,9 @@
       <c r="Q353" t="n">
         <v>0</v>
       </c>
+      <c r="R353" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
@@ -19232,6 +20293,9 @@
       <c r="Q354" t="n">
         <v>0</v>
       </c>
+      <c r="R354" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
@@ -19285,6 +20349,9 @@
       <c r="Q355" t="n">
         <v>0</v>
       </c>
+      <c r="R355" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
@@ -19338,6 +20405,9 @@
       <c r="Q356" t="n">
         <v>0</v>
       </c>
+      <c r="R356" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
@@ -19391,6 +20461,9 @@
       <c r="Q357" t="n">
         <v>0</v>
       </c>
+      <c r="R357" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
@@ -19444,6 +20517,9 @@
       <c r="Q358" t="n">
         <v>0</v>
       </c>
+      <c r="R358" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
@@ -19497,6 +20573,9 @@
       <c r="Q359" t="n">
         <v>0</v>
       </c>
+      <c r="R359" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
@@ -19550,6 +20629,9 @@
       <c r="Q360" t="n">
         <v>0</v>
       </c>
+      <c r="R360" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
@@ -19603,6 +20685,9 @@
       <c r="Q361" t="n">
         <v>0</v>
       </c>
+      <c r="R361" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
@@ -19656,6 +20741,9 @@
       <c r="Q362" t="n">
         <v>0</v>
       </c>
+      <c r="R362" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
@@ -19709,6 +20797,9 @@
       <c r="Q363" t="n">
         <v>0</v>
       </c>
+      <c r="R363" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
@@ -19762,6 +20853,9 @@
       <c r="Q364" t="n">
         <v>0</v>
       </c>
+      <c r="R364" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
@@ -19815,6 +20909,9 @@
       <c r="Q365" t="n">
         <v>0</v>
       </c>
+      <c r="R365" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
@@ -19868,6 +20965,9 @@
       <c r="Q366" t="n">
         <v>0</v>
       </c>
+      <c r="R366" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
@@ -19921,6 +21021,9 @@
       <c r="Q367" t="n">
         <v>0</v>
       </c>
+      <c r="R367" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
@@ -19974,6 +21077,9 @@
       <c r="Q368" t="n">
         <v>0</v>
       </c>
+      <c r="R368" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
@@ -20027,6 +21133,9 @@
       <c r="Q369" t="n">
         <v>0</v>
       </c>
+      <c r="R369" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
@@ -20080,6 +21189,9 @@
       <c r="Q370" t="n">
         <v>0</v>
       </c>
+      <c r="R370" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
@@ -20133,6 +21245,9 @@
       <c r="Q371" t="n">
         <v>0</v>
       </c>
+      <c r="R371" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
@@ -20186,6 +21301,9 @@
       <c r="Q372" t="n">
         <v>0</v>
       </c>
+      <c r="R372" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
@@ -20239,6 +21357,9 @@
       <c r="Q373" t="n">
         <v>0</v>
       </c>
+      <c r="R373" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
@@ -20292,6 +21413,9 @@
       <c r="Q374" t="n">
         <v>0</v>
       </c>
+      <c r="R374" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
@@ -20345,6 +21469,9 @@
       <c r="Q375" t="n">
         <v>0</v>
       </c>
+      <c r="R375" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
@@ -20398,6 +21525,9 @@
       <c r="Q376" t="n">
         <v>0</v>
       </c>
+      <c r="R376" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
@@ -20451,6 +21581,9 @@
       <c r="Q377" t="n">
         <v>0</v>
       </c>
+      <c r="R377" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
@@ -20504,6 +21637,9 @@
       <c r="Q378" t="n">
         <v>0</v>
       </c>
+      <c r="R378" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
@@ -20557,6 +21693,9 @@
       <c r="Q379" t="n">
         <v>0</v>
       </c>
+      <c r="R379" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
@@ -20610,6 +21749,9 @@
       <c r="Q380" t="n">
         <v>0</v>
       </c>
+      <c r="R380" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
@@ -20663,6 +21805,9 @@
       <c r="Q381" t="n">
         <v>0</v>
       </c>
+      <c r="R381" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
@@ -20716,6 +21861,9 @@
       <c r="Q382" t="n">
         <v>0</v>
       </c>
+      <c r="R382" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
@@ -20769,6 +21917,9 @@
       <c r="Q383" t="n">
         <v>0</v>
       </c>
+      <c r="R383" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
@@ -20822,6 +21973,9 @@
       <c r="Q384" t="n">
         <v>0</v>
       </c>
+      <c r="R384" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
@@ -20875,6 +22029,9 @@
       <c r="Q385" t="n">
         <v>0</v>
       </c>
+      <c r="R385" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
@@ -20928,6 +22085,9 @@
       <c r="Q386" t="n">
         <v>0</v>
       </c>
+      <c r="R386" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
@@ -20981,6 +22141,9 @@
       <c r="Q387" t="n">
         <v>0</v>
       </c>
+      <c r="R387" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
@@ -21034,6 +22197,9 @@
       <c r="Q388" t="n">
         <v>0</v>
       </c>
+      <c r="R388" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
@@ -21087,6 +22253,9 @@
       <c r="Q389" t="n">
         <v>0</v>
       </c>
+      <c r="R389" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
@@ -21140,6 +22309,9 @@
       <c r="Q390" t="n">
         <v>0</v>
       </c>
+      <c r="R390" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
@@ -21193,6 +22365,9 @@
       <c r="Q391" t="n">
         <v>0</v>
       </c>
+      <c r="R391" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
@@ -21246,6 +22421,9 @@
       <c r="Q392" t="n">
         <v>0</v>
       </c>
+      <c r="R392" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
@@ -21299,6 +22477,9 @@
       <c r="Q393" t="n">
         <v>0</v>
       </c>
+      <c r="R393" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
@@ -21352,6 +22533,9 @@
       <c r="Q394" t="n">
         <v>0</v>
       </c>
+      <c r="R394" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
@@ -21405,6 +22589,9 @@
       <c r="Q395" t="n">
         <v>2</v>
       </c>
+      <c r="R395" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
@@ -21458,6 +22645,9 @@
       <c r="Q396" t="n">
         <v>0</v>
       </c>
+      <c r="R396" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
@@ -21511,6 +22701,9 @@
       <c r="Q397" t="n">
         <v>0</v>
       </c>
+      <c r="R397" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
@@ -21564,6 +22757,9 @@
       <c r="Q398" t="n">
         <v>0</v>
       </c>
+      <c r="R398" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
@@ -21617,6 +22813,9 @@
       <c r="Q399" t="n">
         <v>0</v>
       </c>
+      <c r="R399" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
@@ -21670,6 +22869,9 @@
       <c r="Q400" t="n">
         <v>0</v>
       </c>
+      <c r="R400" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
@@ -21723,6 +22925,9 @@
       <c r="Q401" t="n">
         <v>0</v>
       </c>
+      <c r="R401" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
@@ -21776,6 +22981,9 @@
       <c r="Q402" t="n">
         <v>0</v>
       </c>
+      <c r="R402" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
@@ -21829,6 +23037,9 @@
       <c r="Q403" t="n">
         <v>0</v>
       </c>
+      <c r="R403" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
@@ -21882,6 +23093,9 @@
       <c r="Q404" t="n">
         <v>0</v>
       </c>
+      <c r="R404" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
@@ -21935,6 +23149,9 @@
       <c r="Q405" t="n">
         <v>0</v>
       </c>
+      <c r="R405" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
@@ -21988,6 +23205,9 @@
       <c r="Q406" t="n">
         <v>0</v>
       </c>
+      <c r="R406" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
@@ -22041,6 +23261,9 @@
       <c r="Q407" t="n">
         <v>0</v>
       </c>
+      <c r="R407" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
@@ -22094,6 +23317,9 @@
       <c r="Q408" t="n">
         <v>0</v>
       </c>
+      <c r="R408" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
@@ -22147,6 +23373,9 @@
       <c r="Q409" t="n">
         <v>0</v>
       </c>
+      <c r="R409" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
@@ -22200,6 +23429,9 @@
       <c r="Q410" t="n">
         <v>0</v>
       </c>
+      <c r="R410" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
@@ -22253,6 +23485,9 @@
       <c r="Q411" t="n">
         <v>0</v>
       </c>
+      <c r="R411" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
@@ -22306,6 +23541,9 @@
       <c r="Q412" t="n">
         <v>0</v>
       </c>
+      <c r="R412" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
@@ -22359,6 +23597,9 @@
       <c r="Q413" t="n">
         <v>0</v>
       </c>
+      <c r="R413" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
@@ -22412,6 +23653,9 @@
       <c r="Q414" t="n">
         <v>0</v>
       </c>
+      <c r="R414" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
@@ -22465,6 +23709,9 @@
       <c r="Q415" t="n">
         <v>0</v>
       </c>
+      <c r="R415" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
@@ -22518,6 +23765,9 @@
       <c r="Q416" t="n">
         <v>0</v>
       </c>
+      <c r="R416" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
@@ -22571,6 +23821,9 @@
       <c r="Q417" t="n">
         <v>0</v>
       </c>
+      <c r="R417" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
@@ -22624,6 +23877,9 @@
       <c r="Q418" t="n">
         <v>0</v>
       </c>
+      <c r="R418" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
@@ -22677,6 +23933,9 @@
       <c r="Q419" t="n">
         <v>2</v>
       </c>
+      <c r="R419" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
@@ -22730,6 +23989,9 @@
       <c r="Q420" t="n">
         <v>0</v>
       </c>
+      <c r="R420" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
@@ -22783,6 +24045,9 @@
       <c r="Q421" t="n">
         <v>0</v>
       </c>
+      <c r="R421" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
@@ -22836,6 +24101,9 @@
       <c r="Q422" t="n">
         <v>0</v>
       </c>
+      <c r="R422" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
@@ -22889,6 +24157,9 @@
       <c r="Q423" t="n">
         <v>0</v>
       </c>
+      <c r="R423" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
@@ -22942,6 +24213,9 @@
       <c r="Q424" t="n">
         <v>0</v>
       </c>
+      <c r="R424" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
@@ -22995,6 +24269,9 @@
       <c r="Q425" t="n">
         <v>0</v>
       </c>
+      <c r="R425" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
@@ -23048,6 +24325,9 @@
       <c r="Q426" t="n">
         <v>0</v>
       </c>
+      <c r="R426" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
@@ -23101,6 +24381,9 @@
       <c r="Q427" t="n">
         <v>0</v>
       </c>
+      <c r="R427" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
@@ -23154,6 +24437,9 @@
       <c r="Q428" t="n">
         <v>0</v>
       </c>
+      <c r="R428" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
@@ -23207,6 +24493,9 @@
       <c r="Q429" t="n">
         <v>0</v>
       </c>
+      <c r="R429" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
@@ -23260,6 +24549,9 @@
       <c r="Q430" t="n">
         <v>0</v>
       </c>
+      <c r="R430" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
@@ -23313,6 +24605,9 @@
       <c r="Q431" t="n">
         <v>0</v>
       </c>
+      <c r="R431" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
@@ -23366,6 +24661,9 @@
       <c r="Q432" t="n">
         <v>0</v>
       </c>
+      <c r="R432" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
@@ -23419,6 +24717,9 @@
       <c r="Q433" t="n">
         <v>0</v>
       </c>
+      <c r="R433" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
@@ -23472,6 +24773,9 @@
       <c r="Q434" t="n">
         <v>0</v>
       </c>
+      <c r="R434" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
@@ -23525,6 +24829,9 @@
       <c r="Q435" t="n">
         <v>0</v>
       </c>
+      <c r="R435" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
@@ -23578,6 +24885,9 @@
       <c r="Q436" t="n">
         <v>2</v>
       </c>
+      <c r="R436" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
@@ -23631,6 +24941,9 @@
       <c r="Q437" t="n">
         <v>0</v>
       </c>
+      <c r="R437" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
@@ -23684,6 +24997,9 @@
       <c r="Q438" t="n">
         <v>0</v>
       </c>
+      <c r="R438" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
@@ -23737,6 +25053,9 @@
       <c r="Q439" t="n">
         <v>0</v>
       </c>
+      <c r="R439" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
@@ -23790,6 +25109,9 @@
       <c r="Q440" t="n">
         <v>0</v>
       </c>
+      <c r="R440" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
@@ -23843,6 +25165,9 @@
       <c r="Q441" t="n">
         <v>0</v>
       </c>
+      <c r="R441" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
@@ -23896,6 +25221,9 @@
       <c r="Q442" t="n">
         <v>0</v>
       </c>
+      <c r="R442" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
@@ -23949,6 +25277,9 @@
       <c r="Q443" t="n">
         <v>0</v>
       </c>
+      <c r="R443" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
@@ -24002,6 +25333,9 @@
       <c r="Q444" t="n">
         <v>0</v>
       </c>
+      <c r="R444" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
@@ -24055,6 +25389,9 @@
       <c r="Q445" t="n">
         <v>0</v>
       </c>
+      <c r="R445" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
@@ -24108,6 +25445,9 @@
       <c r="Q446" t="n">
         <v>0</v>
       </c>
+      <c r="R446" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
@@ -24161,6 +25501,9 @@
       <c r="Q447" t="n">
         <v>0</v>
       </c>
+      <c r="R447" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
@@ -24214,6 +25557,9 @@
       <c r="Q448" t="n">
         <v>0</v>
       </c>
+      <c r="R448" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
@@ -24267,6 +25613,9 @@
       <c r="Q449" t="n">
         <v>0</v>
       </c>
+      <c r="R449" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
@@ -24320,6 +25669,9 @@
       <c r="Q450" t="n">
         <v>0</v>
       </c>
+      <c r="R450" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
@@ -24373,6 +25725,9 @@
       <c r="Q451" t="n">
         <v>0</v>
       </c>
+      <c r="R451" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
@@ -24426,6 +25781,9 @@
       <c r="Q452" t="n">
         <v>0</v>
       </c>
+      <c r="R452" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
@@ -24479,6 +25837,9 @@
       <c r="Q453" t="n">
         <v>0</v>
       </c>
+      <c r="R453" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
@@ -24532,6 +25893,9 @@
       <c r="Q454" t="n">
         <v>0</v>
       </c>
+      <c r="R454" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
@@ -24585,6 +25949,9 @@
       <c r="Q455" t="n">
         <v>0</v>
       </c>
+      <c r="R455" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
@@ -24638,6 +26005,9 @@
       <c r="Q456" t="n">
         <v>0</v>
       </c>
+      <c r="R456" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
@@ -24691,6 +26061,9 @@
       <c r="Q457" t="n">
         <v>0</v>
       </c>
+      <c r="R457" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
@@ -24744,6 +26117,9 @@
       <c r="Q458" t="n">
         <v>0</v>
       </c>
+      <c r="R458" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
@@ -24797,6 +26173,9 @@
       <c r="Q459" t="n">
         <v>0</v>
       </c>
+      <c r="R459" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
@@ -24850,6 +26229,9 @@
       <c r="Q460" t="n">
         <v>0</v>
       </c>
+      <c r="R460" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
@@ -24903,6 +26285,9 @@
       <c r="Q461" t="n">
         <v>0</v>
       </c>
+      <c r="R461" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
@@ -24956,6 +26341,9 @@
       <c r="Q462" t="n">
         <v>0</v>
       </c>
+      <c r="R462" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
@@ -25009,6 +26397,9 @@
       <c r="Q463" t="n">
         <v>0</v>
       </c>
+      <c r="R463" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
@@ -25062,6 +26453,9 @@
       <c r="Q464" t="n">
         <v>0</v>
       </c>
+      <c r="R464" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
@@ -25115,6 +26509,9 @@
       <c r="Q465" t="n">
         <v>0</v>
       </c>
+      <c r="R465" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
@@ -25168,6 +26565,9 @@
       <c r="Q466" t="n">
         <v>0</v>
       </c>
+      <c r="R466" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
@@ -25221,6 +26621,9 @@
       <c r="Q467" t="n">
         <v>0</v>
       </c>
+      <c r="R467" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
@@ -25274,6 +26677,9 @@
       <c r="Q468" t="n">
         <v>0</v>
       </c>
+      <c r="R468" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
@@ -25327,6 +26733,9 @@
       <c r="Q469" t="n">
         <v>0</v>
       </c>
+      <c r="R469" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
@@ -25380,6 +26789,9 @@
       <c r="Q470" t="n">
         <v>0</v>
       </c>
+      <c r="R470" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
@@ -25433,6 +26845,9 @@
       <c r="Q471" t="n">
         <v>0</v>
       </c>
+      <c r="R471" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
@@ -25486,6 +26901,9 @@
       <c r="Q472" t="n">
         <v>0</v>
       </c>
+      <c r="R472" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
@@ -25539,6 +26957,9 @@
       <c r="Q473" t="n">
         <v>0</v>
       </c>
+      <c r="R473" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
@@ -25592,6 +27013,9 @@
       <c r="Q474" t="n">
         <v>0</v>
       </c>
+      <c r="R474" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
@@ -25645,6 +27069,9 @@
       <c r="Q475" t="n">
         <v>0</v>
       </c>
+      <c r="R475" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
@@ -25698,6 +27125,9 @@
       <c r="Q476" t="n">
         <v>0</v>
       </c>
+      <c r="R476" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
@@ -25751,6 +27181,9 @@
       <c r="Q477" t="n">
         <v>0</v>
       </c>
+      <c r="R477" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
@@ -25804,6 +27237,9 @@
       <c r="Q478" t="n">
         <v>0</v>
       </c>
+      <c r="R478" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
@@ -25857,6 +27293,9 @@
       <c r="Q479" t="n">
         <v>0</v>
       </c>
+      <c r="R479" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
@@ -25910,6 +27349,9 @@
       <c r="Q480" t="n">
         <v>0</v>
       </c>
+      <c r="R480" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
@@ -25963,6 +27405,9 @@
       <c r="Q481" t="n">
         <v>0</v>
       </c>
+      <c r="R481" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
@@ -26016,6 +27461,9 @@
       <c r="Q482" t="n">
         <v>0</v>
       </c>
+      <c r="R482" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
@@ -26069,6 +27517,9 @@
       <c r="Q483" t="n">
         <v>0</v>
       </c>
+      <c r="R483" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
@@ -26122,6 +27573,9 @@
       <c r="Q484" t="n">
         <v>0</v>
       </c>
+      <c r="R484" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
@@ -26175,6 +27629,9 @@
       <c r="Q485" t="n">
         <v>0</v>
       </c>
+      <c r="R485" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
@@ -26228,6 +27685,9 @@
       <c r="Q486" t="n">
         <v>0</v>
       </c>
+      <c r="R486" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
@@ -26281,6 +27741,9 @@
       <c r="Q487" t="n">
         <v>0</v>
       </c>
+      <c r="R487" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
@@ -26334,6 +27797,9 @@
       <c r="Q488" t="n">
         <v>0</v>
       </c>
+      <c r="R488" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
@@ -26387,6 +27853,9 @@
       <c r="Q489" t="n">
         <v>0</v>
       </c>
+      <c r="R489" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
@@ -26440,6 +27909,9 @@
       <c r="Q490" t="n">
         <v>0</v>
       </c>
+      <c r="R490" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
@@ -26493,6 +27965,9 @@
       <c r="Q491" t="n">
         <v>0</v>
       </c>
+      <c r="R491" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
@@ -26546,6 +28021,9 @@
       <c r="Q492" t="n">
         <v>0</v>
       </c>
+      <c r="R492" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
@@ -26599,6 +28077,9 @@
       <c r="Q493" t="n">
         <v>0</v>
       </c>
+      <c r="R493" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
@@ -26652,6 +28133,9 @@
       <c r="Q494" t="n">
         <v>0</v>
       </c>
+      <c r="R494" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
@@ -26705,6 +28189,9 @@
       <c r="Q495" t="n">
         <v>0</v>
       </c>
+      <c r="R495" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
@@ -26758,6 +28245,9 @@
       <c r="Q496" t="n">
         <v>0</v>
       </c>
+      <c r="R496" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
@@ -26811,6 +28301,9 @@
       <c r="Q497" t="n">
         <v>0</v>
       </c>
+      <c r="R497" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
@@ -26864,6 +28357,9 @@
       <c r="Q498" t="n">
         <v>0</v>
       </c>
+      <c r="R498" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
@@ -26917,6 +28413,9 @@
       <c r="Q499" t="n">
         <v>0</v>
       </c>
+      <c r="R499" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
@@ -26970,6 +28469,9 @@
       <c r="Q500" t="n">
         <v>0</v>
       </c>
+      <c r="R500" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
@@ -27023,6 +28525,9 @@
       <c r="Q501" t="n">
         <v>0</v>
       </c>
+      <c r="R501" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
@@ -27076,6 +28581,9 @@
       <c r="Q502" t="n">
         <v>0</v>
       </c>
+      <c r="R502" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
@@ -27129,6 +28637,9 @@
       <c r="Q503" t="n">
         <v>0</v>
       </c>
+      <c r="R503" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
@@ -27182,6 +28693,9 @@
       <c r="Q504" t="n">
         <v>0</v>
       </c>
+      <c r="R504" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
@@ -27235,6 +28749,9 @@
       <c r="Q505" t="n">
         <v>0</v>
       </c>
+      <c r="R505" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
@@ -27288,6 +28805,9 @@
       <c r="Q506" t="n">
         <v>0</v>
       </c>
+      <c r="R506" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
@@ -27341,6 +28861,9 @@
       <c r="Q507" t="n">
         <v>0</v>
       </c>
+      <c r="R507" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
@@ -27394,6 +28917,9 @@
       <c r="Q508" t="n">
         <v>0</v>
       </c>
+      <c r="R508" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
@@ -27447,6 +28973,9 @@
       <c r="Q509" t="n">
         <v>0</v>
       </c>
+      <c r="R509" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
@@ -27500,6 +29029,9 @@
       <c r="Q510" t="n">
         <v>0</v>
       </c>
+      <c r="R510" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
@@ -27553,6 +29085,9 @@
       <c r="Q511" t="n">
         <v>0</v>
       </c>
+      <c r="R511" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
@@ -27606,6 +29141,9 @@
       <c r="Q512" t="n">
         <v>0</v>
       </c>
+      <c r="R512" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
@@ -27659,6 +29197,9 @@
       <c r="Q513" t="n">
         <v>0</v>
       </c>
+      <c r="R513" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
@@ -27712,6 +29253,9 @@
       <c r="Q514" t="n">
         <v>0</v>
       </c>
+      <c r="R514" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
@@ -27765,6 +29309,9 @@
       <c r="Q515" t="n">
         <v>0</v>
       </c>
+      <c r="R515" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
@@ -27818,6 +29365,9 @@
       <c r="Q516" t="n">
         <v>0</v>
       </c>
+      <c r="R516" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
@@ -27871,6 +29421,9 @@
       <c r="Q517" t="n">
         <v>0</v>
       </c>
+      <c r="R517" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
@@ -27924,6 +29477,9 @@
       <c r="Q518" t="n">
         <v>0</v>
       </c>
+      <c r="R518" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
@@ -27977,6 +29533,9 @@
       <c r="Q519" t="n">
         <v>0</v>
       </c>
+      <c r="R519" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
@@ -28030,6 +29589,9 @@
       <c r="Q520" t="n">
         <v>0</v>
       </c>
+      <c r="R520" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
@@ -28083,6 +29645,9 @@
       <c r="Q521" t="n">
         <v>0</v>
       </c>
+      <c r="R521" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
@@ -28136,6 +29701,9 @@
       <c r="Q522" t="n">
         <v>0</v>
       </c>
+      <c r="R522" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
@@ -28189,6 +29757,9 @@
       <c r="Q523" t="n">
         <v>0</v>
       </c>
+      <c r="R523" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
@@ -28242,6 +29813,9 @@
       <c r="Q524" t="n">
         <v>0</v>
       </c>
+      <c r="R524" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
@@ -28295,6 +29869,9 @@
       <c r="Q525" t="n">
         <v>0</v>
       </c>
+      <c r="R525" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
@@ -28348,6 +29925,9 @@
       <c r="Q526" t="n">
         <v>0</v>
       </c>
+      <c r="R526" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
@@ -28401,6 +29981,9 @@
       <c r="Q527" t="n">
         <v>0</v>
       </c>
+      <c r="R527" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
@@ -28454,6 +30037,9 @@
       <c r="Q528" t="n">
         <v>0</v>
       </c>
+      <c r="R528" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
@@ -28507,6 +30093,9 @@
       <c r="Q529" t="n">
         <v>0</v>
       </c>
+      <c r="R529" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
@@ -28560,6 +30149,9 @@
       <c r="Q530" t="n">
         <v>0</v>
       </c>
+      <c r="R530" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
@@ -28613,6 +30205,9 @@
       <c r="Q531" t="n">
         <v>0</v>
       </c>
+      <c r="R531" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
@@ -28666,6 +30261,9 @@
       <c r="Q532" t="n">
         <v>0</v>
       </c>
+      <c r="R532" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
@@ -28719,6 +30317,9 @@
       <c r="Q533" t="n">
         <v>0</v>
       </c>
+      <c r="R533" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
@@ -28772,6 +30373,9 @@
       <c r="Q534" t="n">
         <v>0</v>
       </c>
+      <c r="R534" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
@@ -28825,6 +30429,9 @@
       <c r="Q535" t="n">
         <v>0</v>
       </c>
+      <c r="R535" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
@@ -28878,6 +30485,9 @@
       <c r="Q536" t="n">
         <v>2</v>
       </c>
+      <c r="R536" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
@@ -28931,6 +30541,9 @@
       <c r="Q537" t="n">
         <v>0</v>
       </c>
+      <c r="R537" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
@@ -28984,6 +30597,9 @@
       <c r="Q538" t="n">
         <v>0</v>
       </c>
+      <c r="R538" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
@@ -29037,6 +30653,9 @@
       <c r="Q539" t="n">
         <v>0</v>
       </c>
+      <c r="R539" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
@@ -29090,6 +30709,9 @@
       <c r="Q540" t="n">
         <v>0</v>
       </c>
+      <c r="R540" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
@@ -29143,6 +30765,9 @@
       <c r="Q541" t="n">
         <v>0</v>
       </c>
+      <c r="R541" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
@@ -29196,6 +30821,63 @@
       <c r="Q542" t="n">
         <v>0</v>
       </c>
+      <c r="R542" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="2" t="n">
+        <v>45461</v>
+      </c>
+      <c r="B543" t="n">
+        <v>705</v>
+      </c>
+      <c r="C543" t="n">
+        <v>710</v>
+      </c>
+      <c r="D543" t="n">
+        <v>682</v>
+      </c>
+      <c r="E543" t="n">
+        <v>688</v>
+      </c>
+      <c r="F543" t="n">
+        <v>688</v>
+      </c>
+      <c r="G543" t="n">
+        <v>46040</v>
+      </c>
+      <c r="H543" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I543" t="n">
+        <v>6</v>
+      </c>
+      <c r="J543" t="n">
+        <v>18</v>
+      </c>
+      <c r="K543" t="n">
+        <v>0</v>
+      </c>
+      <c r="L543" t="n">
+        <v>0</v>
+      </c>
+      <c r="M543" t="n">
+        <v>0</v>
+      </c>
+      <c r="N543" t="n">
+        <v>25</v>
+      </c>
+      <c r="O543" t="n">
+        <v>0</v>
+      </c>
+      <c r="P543" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q543" t="n">
+        <v>0</v>
+      </c>
+      <c r="R543" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SHAILY.NS.xlsx
+++ b/stock_historical_data/1d/SHAILY.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R543"/>
+  <dimension ref="A1:R544"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30365,7 +30365,7 @@
         <v>23</v>
       </c>
       <c r="O534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P534" t="n">
         <v>0</v>
@@ -30877,7 +30877,63 @@
       <c r="Q543" t="n">
         <v>0</v>
       </c>
-      <c r="R543" t="inlineStr"/>
+      <c r="R543" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="2" t="n">
+        <v>45462</v>
+      </c>
+      <c r="B544" t="n">
+        <v>699.25</v>
+      </c>
+      <c r="C544" t="n">
+        <v>759.75</v>
+      </c>
+      <c r="D544" t="n">
+        <v>677.7000122070312</v>
+      </c>
+      <c r="E544" t="n">
+        <v>750.6500244140625</v>
+      </c>
+      <c r="F544" t="n">
+        <v>750.6500244140625</v>
+      </c>
+      <c r="G544" t="n">
+        <v>369673</v>
+      </c>
+      <c r="H544" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I544" t="n">
+        <v>6</v>
+      </c>
+      <c r="J544" t="n">
+        <v>19</v>
+      </c>
+      <c r="K544" t="n">
+        <v>0</v>
+      </c>
+      <c r="L544" t="n">
+        <v>0</v>
+      </c>
+      <c r="M544" t="n">
+        <v>0</v>
+      </c>
+      <c r="N544" t="n">
+        <v>25</v>
+      </c>
+      <c r="O544" t="n">
+        <v>0</v>
+      </c>
+      <c r="P544" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q544" t="n">
+        <v>0</v>
+      </c>
+      <c r="R544" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SHAILY.NS.xlsx
+++ b/stock_historical_data/1d/SHAILY.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R544"/>
+  <dimension ref="A1:R551"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30933,7 +30933,387 @@
       <c r="Q544" t="n">
         <v>0</v>
       </c>
-      <c r="R544" t="inlineStr"/>
+      <c r="R544" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="2" t="n">
+        <v>45463</v>
+      </c>
+      <c r="B545" t="n">
+        <v>751.1500244140625</v>
+      </c>
+      <c r="C545" t="n">
+        <v>792</v>
+      </c>
+      <c r="D545" t="n">
+        <v>751.1500244140625</v>
+      </c>
+      <c r="E545" t="n">
+        <v>771</v>
+      </c>
+      <c r="F545" t="n">
+        <v>771</v>
+      </c>
+      <c r="G545" t="n">
+        <v>345971</v>
+      </c>
+      <c r="H545" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I545" t="n">
+        <v>6</v>
+      </c>
+      <c r="J545" t="n">
+        <v>20</v>
+      </c>
+      <c r="K545" t="n">
+        <v>0</v>
+      </c>
+      <c r="L545" t="n">
+        <v>0</v>
+      </c>
+      <c r="M545" t="n">
+        <v>0</v>
+      </c>
+      <c r="N545" t="n">
+        <v>25</v>
+      </c>
+      <c r="O545" t="n">
+        <v>0</v>
+      </c>
+      <c r="P545" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q545" t="n">
+        <v>0</v>
+      </c>
+      <c r="R545" t="inlineStr"/>
+    </row>
+    <row r="546">
+      <c r="A546" s="2" t="n">
+        <v>45464</v>
+      </c>
+      <c r="B546" t="n">
+        <v>783</v>
+      </c>
+      <c r="C546" t="n">
+        <v>788.9500122070312</v>
+      </c>
+      <c r="D546" t="n">
+        <v>760.5</v>
+      </c>
+      <c r="E546" t="n">
+        <v>765.5499877929688</v>
+      </c>
+      <c r="F546" t="n">
+        <v>765.5499877929688</v>
+      </c>
+      <c r="G546" t="n">
+        <v>118196</v>
+      </c>
+      <c r="H546" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I546" t="n">
+        <v>6</v>
+      </c>
+      <c r="J546" t="n">
+        <v>21</v>
+      </c>
+      <c r="K546" t="n">
+        <v>0</v>
+      </c>
+      <c r="L546" t="n">
+        <v>0</v>
+      </c>
+      <c r="M546" t="n">
+        <v>0</v>
+      </c>
+      <c r="N546" t="n">
+        <v>25</v>
+      </c>
+      <c r="O546" t="n">
+        <v>0</v>
+      </c>
+      <c r="P546" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q546" t="n">
+        <v>0</v>
+      </c>
+      <c r="R546" t="inlineStr"/>
+    </row>
+    <row r="547">
+      <c r="A547" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B547" t="n">
+        <v>766.7000122070312</v>
+      </c>
+      <c r="C547" t="n">
+        <v>800</v>
+      </c>
+      <c r="D547" t="n">
+        <v>759</v>
+      </c>
+      <c r="E547" t="n">
+        <v>799.1500244140625</v>
+      </c>
+      <c r="F547" t="n">
+        <v>799.1500244140625</v>
+      </c>
+      <c r="G547" t="n">
+        <v>149626</v>
+      </c>
+      <c r="H547" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I547" t="n">
+        <v>6</v>
+      </c>
+      <c r="J547" t="n">
+        <v>24</v>
+      </c>
+      <c r="K547" t="n">
+        <v>0</v>
+      </c>
+      <c r="L547" t="n">
+        <v>0</v>
+      </c>
+      <c r="M547" t="n">
+        <v>0</v>
+      </c>
+      <c r="N547" t="n">
+        <v>26</v>
+      </c>
+      <c r="O547" t="n">
+        <v>0</v>
+      </c>
+      <c r="P547" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q547" t="n">
+        <v>0</v>
+      </c>
+      <c r="R547" t="inlineStr"/>
+    </row>
+    <row r="548">
+      <c r="A548" s="2" t="n">
+        <v>45468</v>
+      </c>
+      <c r="B548" t="n">
+        <v>804.4500122070312</v>
+      </c>
+      <c r="C548" t="n">
+        <v>835</v>
+      </c>
+      <c r="D548" t="n">
+        <v>799.2000122070312</v>
+      </c>
+      <c r="E548" t="n">
+        <v>809.5999755859375</v>
+      </c>
+      <c r="F548" t="n">
+        <v>809.5999755859375</v>
+      </c>
+      <c r="G548" t="n">
+        <v>122481</v>
+      </c>
+      <c r="H548" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I548" t="n">
+        <v>6</v>
+      </c>
+      <c r="J548" t="n">
+        <v>25</v>
+      </c>
+      <c r="K548" t="n">
+        <v>0</v>
+      </c>
+      <c r="L548" t="n">
+        <v>0</v>
+      </c>
+      <c r="M548" t="n">
+        <v>0</v>
+      </c>
+      <c r="N548" t="n">
+        <v>26</v>
+      </c>
+      <c r="O548" t="n">
+        <v>0</v>
+      </c>
+      <c r="P548" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q548" t="n">
+        <v>0</v>
+      </c>
+      <c r="R548" t="inlineStr"/>
+    </row>
+    <row r="549">
+      <c r="A549" s="2" t="n">
+        <v>45469</v>
+      </c>
+      <c r="B549" t="n">
+        <v>810</v>
+      </c>
+      <c r="C549" t="n">
+        <v>830</v>
+      </c>
+      <c r="D549" t="n">
+        <v>801</v>
+      </c>
+      <c r="E549" t="n">
+        <v>806.2000122070312</v>
+      </c>
+      <c r="F549" t="n">
+        <v>806.2000122070312</v>
+      </c>
+      <c r="G549" t="n">
+        <v>91222</v>
+      </c>
+      <c r="H549" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I549" t="n">
+        <v>6</v>
+      </c>
+      <c r="J549" t="n">
+        <v>26</v>
+      </c>
+      <c r="K549" t="n">
+        <v>0</v>
+      </c>
+      <c r="L549" t="n">
+        <v>0</v>
+      </c>
+      <c r="M549" t="n">
+        <v>0</v>
+      </c>
+      <c r="N549" t="n">
+        <v>26</v>
+      </c>
+      <c r="O549" t="n">
+        <v>0</v>
+      </c>
+      <c r="P549" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q549" t="n">
+        <v>0</v>
+      </c>
+      <c r="R549" t="inlineStr"/>
+    </row>
+    <row r="550">
+      <c r="A550" s="2" t="n">
+        <v>45470</v>
+      </c>
+      <c r="B550" t="n">
+        <v>810.3499755859375</v>
+      </c>
+      <c r="C550" t="n">
+        <v>827.9500122070312</v>
+      </c>
+      <c r="D550" t="n">
+        <v>785.0499877929688</v>
+      </c>
+      <c r="E550" t="n">
+        <v>789.4500122070312</v>
+      </c>
+      <c r="F550" t="n">
+        <v>789.4500122070312</v>
+      </c>
+      <c r="G550" t="n">
+        <v>65627</v>
+      </c>
+      <c r="H550" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I550" t="n">
+        <v>6</v>
+      </c>
+      <c r="J550" t="n">
+        <v>27</v>
+      </c>
+      <c r="K550" t="n">
+        <v>0</v>
+      </c>
+      <c r="L550" t="n">
+        <v>0</v>
+      </c>
+      <c r="M550" t="n">
+        <v>0</v>
+      </c>
+      <c r="N550" t="n">
+        <v>26</v>
+      </c>
+      <c r="O550" t="n">
+        <v>0</v>
+      </c>
+      <c r="P550" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q550" t="n">
+        <v>0</v>
+      </c>
+      <c r="R550" t="inlineStr"/>
+    </row>
+    <row r="551">
+      <c r="A551" s="2" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B551" t="n">
+        <v>792.7000122070312</v>
+      </c>
+      <c r="C551" t="n">
+        <v>809.5999755859375</v>
+      </c>
+      <c r="D551" t="n">
+        <v>784.7999877929688</v>
+      </c>
+      <c r="E551" t="n">
+        <v>801.7000122070312</v>
+      </c>
+      <c r="F551" t="n">
+        <v>801.7000122070312</v>
+      </c>
+      <c r="G551" t="n">
+        <v>54759</v>
+      </c>
+      <c r="H551" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I551" t="n">
+        <v>6</v>
+      </c>
+      <c r="J551" t="n">
+        <v>28</v>
+      </c>
+      <c r="K551" t="n">
+        <v>0</v>
+      </c>
+      <c r="L551" t="n">
+        <v>0</v>
+      </c>
+      <c r="M551" t="n">
+        <v>0</v>
+      </c>
+      <c r="N551" t="n">
+        <v>26</v>
+      </c>
+      <c r="O551" t="n">
+        <v>0</v>
+      </c>
+      <c r="P551" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q551" t="n">
+        <v>0</v>
+      </c>
+      <c r="R551" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SHAILY.NS.xlsx
+++ b/stock_historical_data/1d/SHAILY.NS.xlsx
@@ -30989,7 +30989,9 @@
       <c r="Q545" t="n">
         <v>0</v>
       </c>
-      <c r="R545" t="inlineStr"/>
+      <c r="R545" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
@@ -31043,7 +31045,9 @@
       <c r="Q546" t="n">
         <v>0</v>
       </c>
-      <c r="R546" t="inlineStr"/>
+      <c r="R546" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
@@ -31097,7 +31101,9 @@
       <c r="Q547" t="n">
         <v>0</v>
       </c>
-      <c r="R547" t="inlineStr"/>
+      <c r="R547" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
@@ -31151,7 +31157,9 @@
       <c r="Q548" t="n">
         <v>0</v>
       </c>
-      <c r="R548" t="inlineStr"/>
+      <c r="R548" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
@@ -31205,7 +31213,9 @@
       <c r="Q549" t="n">
         <v>0</v>
       </c>
-      <c r="R549" t="inlineStr"/>
+      <c r="R549" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
@@ -31259,7 +31269,9 @@
       <c r="Q550" t="n">
         <v>0</v>
       </c>
-      <c r="R550" t="inlineStr"/>
+      <c r="R550" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
@@ -31313,7 +31325,9 @@
       <c r="Q551" t="n">
         <v>0</v>
       </c>
-      <c r="R551" t="inlineStr"/>
+      <c r="R551" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SHAILY.NS.xlsx
+++ b/stock_historical_data/1d/SHAILY.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R551"/>
+  <dimension ref="A1:R556"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31329,6 +31329,276 @@
         <v>0</v>
       </c>
     </row>
+    <row r="552">
+      <c r="A552" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B552" t="n">
+        <v>812</v>
+      </c>
+      <c r="C552" t="n">
+        <v>867.5</v>
+      </c>
+      <c r="D552" t="n">
+        <v>795</v>
+      </c>
+      <c r="E552" t="n">
+        <v>836.7000122070312</v>
+      </c>
+      <c r="F552" t="n">
+        <v>836.7000122070312</v>
+      </c>
+      <c r="G552" t="n">
+        <v>129380</v>
+      </c>
+      <c r="H552" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I552" t="n">
+        <v>7</v>
+      </c>
+      <c r="J552" t="n">
+        <v>1</v>
+      </c>
+      <c r="K552" t="n">
+        <v>0</v>
+      </c>
+      <c r="L552" t="n">
+        <v>0</v>
+      </c>
+      <c r="M552" t="n">
+        <v>0</v>
+      </c>
+      <c r="N552" t="n">
+        <v>27</v>
+      </c>
+      <c r="O552" t="n">
+        <v>0</v>
+      </c>
+      <c r="P552" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q552" t="n">
+        <v>0</v>
+      </c>
+      <c r="R552" t="inlineStr"/>
+    </row>
+    <row r="553">
+      <c r="A553" s="2" t="n">
+        <v>45475</v>
+      </c>
+      <c r="B553" t="n">
+        <v>845.9500122070312</v>
+      </c>
+      <c r="C553" t="n">
+        <v>907.9500122070312</v>
+      </c>
+      <c r="D553" t="n">
+        <v>844.2999877929688</v>
+      </c>
+      <c r="E553" t="n">
+        <v>895.4000244140625</v>
+      </c>
+      <c r="F553" t="n">
+        <v>895.4000244140625</v>
+      </c>
+      <c r="G553" t="n">
+        <v>228724</v>
+      </c>
+      <c r="H553" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I553" t="n">
+        <v>7</v>
+      </c>
+      <c r="J553" t="n">
+        <v>2</v>
+      </c>
+      <c r="K553" t="n">
+        <v>0</v>
+      </c>
+      <c r="L553" t="n">
+        <v>0</v>
+      </c>
+      <c r="M553" t="n">
+        <v>0</v>
+      </c>
+      <c r="N553" t="n">
+        <v>27</v>
+      </c>
+      <c r="O553" t="n">
+        <v>0</v>
+      </c>
+      <c r="P553" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q553" t="n">
+        <v>0</v>
+      </c>
+      <c r="R553" t="inlineStr"/>
+    </row>
+    <row r="554">
+      <c r="A554" s="2" t="n">
+        <v>45476</v>
+      </c>
+      <c r="B554" t="n">
+        <v>899.9500122070312</v>
+      </c>
+      <c r="C554" t="n">
+        <v>924.75</v>
+      </c>
+      <c r="D554" t="n">
+        <v>885.0999755859375</v>
+      </c>
+      <c r="E554" t="n">
+        <v>898.0999755859375</v>
+      </c>
+      <c r="F554" t="n">
+        <v>898.0999755859375</v>
+      </c>
+      <c r="G554" t="n">
+        <v>102906</v>
+      </c>
+      <c r="H554" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I554" t="n">
+        <v>7</v>
+      </c>
+      <c r="J554" t="n">
+        <v>3</v>
+      </c>
+      <c r="K554" t="n">
+        <v>0</v>
+      </c>
+      <c r="L554" t="n">
+        <v>0</v>
+      </c>
+      <c r="M554" t="n">
+        <v>0</v>
+      </c>
+      <c r="N554" t="n">
+        <v>27</v>
+      </c>
+      <c r="O554" t="n">
+        <v>0</v>
+      </c>
+      <c r="P554" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q554" t="n">
+        <v>0</v>
+      </c>
+      <c r="R554" t="inlineStr"/>
+    </row>
+    <row r="555">
+      <c r="A555" s="2" t="n">
+        <v>45477</v>
+      </c>
+      <c r="B555" t="n">
+        <v>894.7999877929688</v>
+      </c>
+      <c r="C555" t="n">
+        <v>908.4500122070312</v>
+      </c>
+      <c r="D555" t="n">
+        <v>872.0999755859375</v>
+      </c>
+      <c r="E555" t="n">
+        <v>881.7999877929688</v>
+      </c>
+      <c r="F555" t="n">
+        <v>881.7999877929688</v>
+      </c>
+      <c r="G555" t="n">
+        <v>42839</v>
+      </c>
+      <c r="H555" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I555" t="n">
+        <v>7</v>
+      </c>
+      <c r="J555" t="n">
+        <v>4</v>
+      </c>
+      <c r="K555" t="n">
+        <v>0</v>
+      </c>
+      <c r="L555" t="n">
+        <v>0</v>
+      </c>
+      <c r="M555" t="n">
+        <v>0</v>
+      </c>
+      <c r="N555" t="n">
+        <v>27</v>
+      </c>
+      <c r="O555" t="n">
+        <v>0</v>
+      </c>
+      <c r="P555" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q555" t="n">
+        <v>0</v>
+      </c>
+      <c r="R555" t="inlineStr"/>
+    </row>
+    <row r="556">
+      <c r="A556" s="2" t="n">
+        <v>45478</v>
+      </c>
+      <c r="B556" t="n">
+        <v>881.7999877929688</v>
+      </c>
+      <c r="C556" t="n">
+        <v>919.7000122070312</v>
+      </c>
+      <c r="D556" t="n">
+        <v>879.0499877929688</v>
+      </c>
+      <c r="E556" t="n">
+        <v>888.0499877929688</v>
+      </c>
+      <c r="F556" t="n">
+        <v>888.0499877929688</v>
+      </c>
+      <c r="G556" t="n">
+        <v>75889</v>
+      </c>
+      <c r="H556" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I556" t="n">
+        <v>7</v>
+      </c>
+      <c r="J556" t="n">
+        <v>5</v>
+      </c>
+      <c r="K556" t="n">
+        <v>0</v>
+      </c>
+      <c r="L556" t="n">
+        <v>0</v>
+      </c>
+      <c r="M556" t="n">
+        <v>0</v>
+      </c>
+      <c r="N556" t="n">
+        <v>27</v>
+      </c>
+      <c r="O556" t="n">
+        <v>0</v>
+      </c>
+      <c r="P556" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q556" t="n">
+        <v>0</v>
+      </c>
+      <c r="R556" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/SHAILY.NS.xlsx
+++ b/stock_historical_data/1d/SHAILY.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R556"/>
+  <dimension ref="A1:R566"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27523,25 +27523,25 @@
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>45369</v>
+        <v>45366</v>
       </c>
       <c r="B484" t="n">
-        <v>494.9500122070312</v>
+        <v>488.8999938964844</v>
       </c>
       <c r="C484" t="n">
-        <v>501.6000061035156</v>
+        <v>504.9500122070312</v>
       </c>
       <c r="D484" t="n">
-        <v>475</v>
+        <v>473.5499877929688</v>
       </c>
       <c r="E484" t="n">
-        <v>498.8500061035156</v>
+        <v>492.5</v>
       </c>
       <c r="F484" t="n">
-        <v>498.8500061035156</v>
+        <v>492.5</v>
       </c>
       <c r="G484" t="n">
-        <v>75585</v>
+        <v>83775</v>
       </c>
       <c r="H484" t="n">
         <v>2024</v>
@@ -27550,7 +27550,7 @@
         <v>3</v>
       </c>
       <c r="J484" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K484" t="n">
         <v>0</v>
@@ -27562,7 +27562,7 @@
         <v>0</v>
       </c>
       <c r="N484" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O484" t="n">
         <v>0</v>
@@ -27573,31 +27573,29 @@
       <c r="Q484" t="n">
         <v>0</v>
       </c>
-      <c r="R484" t="n">
-        <v>0</v>
-      </c>
+      <c r="R484" t="inlineStr"/>
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>45370</v>
+        <v>45369</v>
       </c>
       <c r="B485" t="n">
-        <v>498</v>
+        <v>494.9500122070312</v>
       </c>
       <c r="C485" t="n">
-        <v>503.75</v>
+        <v>501.6000061035156</v>
       </c>
       <c r="D485" t="n">
-        <v>482.1499938964844</v>
+        <v>475</v>
       </c>
       <c r="E485" t="n">
-        <v>484.0499877929688</v>
+        <v>498.8500061035156</v>
       </c>
       <c r="F485" t="n">
-        <v>484.0499877929688</v>
+        <v>498.8500061035156</v>
       </c>
       <c r="G485" t="n">
-        <v>64412</v>
+        <v>75585</v>
       </c>
       <c r="H485" t="n">
         <v>2024</v>
@@ -27606,7 +27604,7 @@
         <v>3</v>
       </c>
       <c r="J485" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K485" t="n">
         <v>0</v>
@@ -27635,25 +27633,25 @@
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>45371</v>
+        <v>45370</v>
       </c>
       <c r="B486" t="n">
+        <v>498</v>
+      </c>
+      <c r="C486" t="n">
+        <v>503.75</v>
+      </c>
+      <c r="D486" t="n">
+        <v>482.1499938964844</v>
+      </c>
+      <c r="E486" t="n">
         <v>484.0499877929688</v>
       </c>
-      <c r="C486" t="n">
-        <v>492.6000061035156</v>
-      </c>
-      <c r="D486" t="n">
-        <v>467.2000122070312</v>
-      </c>
-      <c r="E486" t="n">
-        <v>470.1499938964844</v>
-      </c>
       <c r="F486" t="n">
-        <v>470.1499938964844</v>
+        <v>484.0499877929688</v>
       </c>
       <c r="G486" t="n">
-        <v>121292</v>
+        <v>64412</v>
       </c>
       <c r="H486" t="n">
         <v>2024</v>
@@ -27662,7 +27660,7 @@
         <v>3</v>
       </c>
       <c r="J486" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K486" t="n">
         <v>0</v>
@@ -27691,25 +27689,25 @@
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>45372</v>
+        <v>45371</v>
       </c>
       <c r="B487" t="n">
-        <v>477.2000122070312</v>
+        <v>484.0499877929688</v>
       </c>
       <c r="C487" t="n">
-        <v>497.8999938964844</v>
+        <v>492.6000061035156</v>
       </c>
       <c r="D487" t="n">
-        <v>477.1499938964844</v>
+        <v>467.2000122070312</v>
       </c>
       <c r="E487" t="n">
-        <v>483.6000061035156</v>
+        <v>470.1499938964844</v>
       </c>
       <c r="F487" t="n">
-        <v>483.6000061035156</v>
+        <v>470.1499938964844</v>
       </c>
       <c r="G487" t="n">
-        <v>95802</v>
+        <v>121292</v>
       </c>
       <c r="H487" t="n">
         <v>2024</v>
@@ -27718,7 +27716,7 @@
         <v>3</v>
       </c>
       <c r="J487" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K487" t="n">
         <v>0</v>
@@ -27747,25 +27745,25 @@
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>45373</v>
+        <v>45372</v>
       </c>
       <c r="B488" t="n">
+        <v>477.2000122070312</v>
+      </c>
+      <c r="C488" t="n">
+        <v>497.8999938964844</v>
+      </c>
+      <c r="D488" t="n">
+        <v>477.1499938964844</v>
+      </c>
+      <c r="E488" t="n">
         <v>483.6000061035156</v>
       </c>
-      <c r="C488" t="n">
-        <v>490.7999877929688</v>
-      </c>
-      <c r="D488" t="n">
-        <v>480</v>
-      </c>
-      <c r="E488" t="n">
-        <v>483.2999877929688</v>
-      </c>
       <c r="F488" t="n">
-        <v>483.2999877929688</v>
+        <v>483.6000061035156</v>
       </c>
       <c r="G488" t="n">
-        <v>112695</v>
+        <v>95802</v>
       </c>
       <c r="H488" t="n">
         <v>2024</v>
@@ -27774,7 +27772,7 @@
         <v>3</v>
       </c>
       <c r="J488" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K488" t="n">
         <v>0</v>
@@ -27803,25 +27801,25 @@
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>45377</v>
+        <v>45373</v>
       </c>
       <c r="B489" t="n">
-        <v>479.3500061035156</v>
+        <v>483.6000061035156</v>
       </c>
       <c r="C489" t="n">
-        <v>511</v>
+        <v>490.7999877929688</v>
       </c>
       <c r="D489" t="n">
-        <v>477.3999938964844</v>
+        <v>480</v>
       </c>
       <c r="E489" t="n">
-        <v>501.0499877929688</v>
+        <v>483.2999877929688</v>
       </c>
       <c r="F489" t="n">
-        <v>501.0499877929688</v>
+        <v>483.2999877929688</v>
       </c>
       <c r="G489" t="n">
-        <v>113490</v>
+        <v>112695</v>
       </c>
       <c r="H489" t="n">
         <v>2024</v>
@@ -27830,7 +27828,7 @@
         <v>3</v>
       </c>
       <c r="J489" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K489" t="n">
         <v>0</v>
@@ -27842,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="N489" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O489" t="n">
         <v>0</v>
@@ -27859,25 +27857,25 @@
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>45378</v>
+        <v>45377</v>
       </c>
       <c r="B490" t="n">
-        <v>510</v>
+        <v>479.3500061035156</v>
       </c>
       <c r="C490" t="n">
-        <v>530.9500122070312</v>
+        <v>511</v>
       </c>
       <c r="D490" t="n">
-        <v>509.7000122070312</v>
+        <v>477.3999938964844</v>
       </c>
       <c r="E490" t="n">
-        <v>519.0499877929688</v>
+        <v>501.0499877929688</v>
       </c>
       <c r="F490" t="n">
-        <v>519.0499877929688</v>
+        <v>501.0499877929688</v>
       </c>
       <c r="G490" t="n">
-        <v>101218</v>
+        <v>113490</v>
       </c>
       <c r="H490" t="n">
         <v>2024</v>
@@ -27886,7 +27884,7 @@
         <v>3</v>
       </c>
       <c r="J490" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K490" t="n">
         <v>0</v>
@@ -27915,25 +27913,25 @@
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>45379</v>
+        <v>45378</v>
       </c>
       <c r="B491" t="n">
-        <v>521.5</v>
+        <v>510</v>
       </c>
       <c r="C491" t="n">
-        <v>540</v>
+        <v>530.9500122070312</v>
       </c>
       <c r="D491" t="n">
-        <v>515.2999877929688</v>
+        <v>509.7000122070312</v>
       </c>
       <c r="E491" t="n">
-        <v>529.9500122070312</v>
+        <v>519.0499877929688</v>
       </c>
       <c r="F491" t="n">
-        <v>529.9500122070312</v>
+        <v>519.0499877929688</v>
       </c>
       <c r="G491" t="n">
-        <v>105759</v>
+        <v>101218</v>
       </c>
       <c r="H491" t="n">
         <v>2024</v>
@@ -27942,7 +27940,7 @@
         <v>3</v>
       </c>
       <c r="J491" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K491" t="n">
         <v>0</v>
@@ -27971,34 +27969,34 @@
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>45383</v>
+        <v>45379</v>
       </c>
       <c r="B492" t="n">
-        <v>535</v>
+        <v>521.5</v>
       </c>
       <c r="C492" t="n">
-        <v>537.4500122070312</v>
+        <v>540</v>
       </c>
       <c r="D492" t="n">
-        <v>505.3999938964844</v>
+        <v>515.2999877929688</v>
       </c>
       <c r="E492" t="n">
-        <v>508.7999877929688</v>
+        <v>529.9500122070312</v>
       </c>
       <c r="F492" t="n">
-        <v>508.7999877929688</v>
+        <v>529.9500122070312</v>
       </c>
       <c r="G492" t="n">
-        <v>88743</v>
+        <v>105759</v>
       </c>
       <c r="H492" t="n">
         <v>2024</v>
       </c>
       <c r="I492" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J492" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="K492" t="n">
         <v>0</v>
@@ -28010,7 +28008,7 @@
         <v>0</v>
       </c>
       <c r="N492" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O492" t="n">
         <v>0</v>
@@ -28027,25 +28025,25 @@
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>45384</v>
+        <v>45383</v>
       </c>
       <c r="B493" t="n">
-        <v>509.4500122070312</v>
+        <v>535</v>
       </c>
       <c r="C493" t="n">
-        <v>537.2999877929688</v>
+        <v>537.4500122070312</v>
       </c>
       <c r="D493" t="n">
-        <v>508.4500122070312</v>
+        <v>505.3999938964844</v>
       </c>
       <c r="E493" t="n">
-        <v>529.75</v>
+        <v>508.7999877929688</v>
       </c>
       <c r="F493" t="n">
-        <v>529.75</v>
+        <v>508.7999877929688</v>
       </c>
       <c r="G493" t="n">
-        <v>257949</v>
+        <v>88743</v>
       </c>
       <c r="H493" t="n">
         <v>2024</v>
@@ -28054,7 +28052,7 @@
         <v>4</v>
       </c>
       <c r="J493" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K493" t="n">
         <v>0</v>
@@ -28083,25 +28081,25 @@
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>45385</v>
+        <v>45384</v>
       </c>
       <c r="B494" t="n">
-        <v>532.0499877929688</v>
+        <v>509.4500122070312</v>
       </c>
       <c r="C494" t="n">
-        <v>578</v>
+        <v>537.2999877929688</v>
       </c>
       <c r="D494" t="n">
-        <v>532.0499877929688</v>
+        <v>508.4500122070312</v>
       </c>
       <c r="E494" t="n">
-        <v>548.9000244140625</v>
+        <v>529.75</v>
       </c>
       <c r="F494" t="n">
-        <v>548.9000244140625</v>
+        <v>529.75</v>
       </c>
       <c r="G494" t="n">
-        <v>316336</v>
+        <v>257949</v>
       </c>
       <c r="H494" t="n">
         <v>2024</v>
@@ -28110,7 +28108,7 @@
         <v>4</v>
       </c>
       <c r="J494" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K494" t="n">
         <v>0</v>
@@ -28134,30 +28132,30 @@
         <v>0</v>
       </c>
       <c r="R494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>45386</v>
+        <v>45385</v>
       </c>
       <c r="B495" t="n">
-        <v>557.1500244140625</v>
+        <v>532.0499877929688</v>
       </c>
       <c r="C495" t="n">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="D495" t="n">
-        <v>534</v>
+        <v>532.0499877929688</v>
       </c>
       <c r="E495" t="n">
-        <v>542.25</v>
+        <v>548.9000244140625</v>
       </c>
       <c r="F495" t="n">
-        <v>542.25</v>
+        <v>548.9000244140625</v>
       </c>
       <c r="G495" t="n">
-        <v>210244</v>
+        <v>316336</v>
       </c>
       <c r="H495" t="n">
         <v>2024</v>
@@ -28166,7 +28164,7 @@
         <v>4</v>
       </c>
       <c r="J495" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K495" t="n">
         <v>0</v>
@@ -28190,30 +28188,30 @@
         <v>0</v>
       </c>
       <c r="R495" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>45387</v>
+        <v>45386</v>
       </c>
       <c r="B496" t="n">
-        <v>544.4500122070312</v>
+        <v>557.1500244140625</v>
       </c>
       <c r="C496" t="n">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="D496" t="n">
-        <v>542.3499755859375</v>
+        <v>534</v>
       </c>
       <c r="E496" t="n">
-        <v>548.25</v>
+        <v>542.25</v>
       </c>
       <c r="F496" t="n">
-        <v>548.25</v>
+        <v>542.25</v>
       </c>
       <c r="G496" t="n">
-        <v>124693</v>
+        <v>210244</v>
       </c>
       <c r="H496" t="n">
         <v>2024</v>
@@ -28222,7 +28220,7 @@
         <v>4</v>
       </c>
       <c r="J496" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K496" t="n">
         <v>0</v>
@@ -28251,25 +28249,25 @@
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>45390</v>
+        <v>45387</v>
       </c>
       <c r="B497" t="n">
-        <v>554.25</v>
+        <v>544.4500122070312</v>
       </c>
       <c r="C497" t="n">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="D497" t="n">
-        <v>554.1500244140625</v>
+        <v>542.3499755859375</v>
       </c>
       <c r="E497" t="n">
-        <v>559.9000244140625</v>
+        <v>548.25</v>
       </c>
       <c r="F497" t="n">
-        <v>559.9000244140625</v>
+        <v>548.25</v>
       </c>
       <c r="G497" t="n">
-        <v>155955</v>
+        <v>124693</v>
       </c>
       <c r="H497" t="n">
         <v>2024</v>
@@ -28278,7 +28276,7 @@
         <v>4</v>
       </c>
       <c r="J497" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K497" t="n">
         <v>0</v>
@@ -28290,7 +28288,7 @@
         <v>0</v>
       </c>
       <c r="N497" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O497" t="n">
         <v>0</v>
@@ -28307,25 +28305,25 @@
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>45391</v>
+        <v>45390</v>
       </c>
       <c r="B498" t="n">
-        <v>565</v>
+        <v>554.25</v>
       </c>
       <c r="C498" t="n">
         <v>570</v>
       </c>
       <c r="D498" t="n">
-        <v>553.5499877929688</v>
+        <v>554.1500244140625</v>
       </c>
       <c r="E498" t="n">
-        <v>561.9500122070312</v>
+        <v>559.9000244140625</v>
       </c>
       <c r="F498" t="n">
-        <v>561.9500122070312</v>
+        <v>559.9000244140625</v>
       </c>
       <c r="G498" t="n">
-        <v>123753</v>
+        <v>155955</v>
       </c>
       <c r="H498" t="n">
         <v>2024</v>
@@ -28334,7 +28332,7 @@
         <v>4</v>
       </c>
       <c r="J498" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K498" t="n">
         <v>0</v>
@@ -28363,25 +28361,25 @@
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>45392</v>
+        <v>45391</v>
       </c>
       <c r="B499" t="n">
         <v>565</v>
       </c>
       <c r="C499" t="n">
-        <v>579.5</v>
+        <v>570</v>
       </c>
       <c r="D499" t="n">
-        <v>558.0499877929688</v>
+        <v>553.5499877929688</v>
       </c>
       <c r="E499" t="n">
-        <v>559.9000244140625</v>
+        <v>561.9500122070312</v>
       </c>
       <c r="F499" t="n">
-        <v>559.9000244140625</v>
+        <v>561.9500122070312</v>
       </c>
       <c r="G499" t="n">
-        <v>140500</v>
+        <v>123753</v>
       </c>
       <c r="H499" t="n">
         <v>2024</v>
@@ -28390,7 +28388,7 @@
         <v>4</v>
       </c>
       <c r="J499" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K499" t="n">
         <v>0</v>
@@ -28419,25 +28417,25 @@
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>45394</v>
+        <v>45392</v>
       </c>
       <c r="B500" t="n">
-        <v>557.25</v>
+        <v>565</v>
       </c>
       <c r="C500" t="n">
-        <v>571.0999755859375</v>
+        <v>579.5</v>
       </c>
       <c r="D500" t="n">
-        <v>552.3499755859375</v>
+        <v>558.0499877929688</v>
       </c>
       <c r="E500" t="n">
-        <v>563.4500122070312</v>
+        <v>559.9000244140625</v>
       </c>
       <c r="F500" t="n">
-        <v>563.4500122070312</v>
+        <v>559.9000244140625</v>
       </c>
       <c r="G500" t="n">
-        <v>126738</v>
+        <v>140500</v>
       </c>
       <c r="H500" t="n">
         <v>2024</v>
@@ -28446,7 +28444,7 @@
         <v>4</v>
       </c>
       <c r="J500" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K500" t="n">
         <v>0</v>
@@ -28475,25 +28473,25 @@
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>45397</v>
+        <v>45394</v>
       </c>
       <c r="B501" t="n">
-        <v>546.0499877929688</v>
+        <v>557.25</v>
       </c>
       <c r="C501" t="n">
-        <v>557.75</v>
+        <v>571.0999755859375</v>
       </c>
       <c r="D501" t="n">
-        <v>520</v>
+        <v>552.3499755859375</v>
       </c>
       <c r="E501" t="n">
-        <v>548.5</v>
+        <v>563.4500122070312</v>
       </c>
       <c r="F501" t="n">
-        <v>548.5</v>
+        <v>563.4500122070312</v>
       </c>
       <c r="G501" t="n">
-        <v>99272</v>
+        <v>126738</v>
       </c>
       <c r="H501" t="n">
         <v>2024</v>
@@ -28502,19 +28500,19 @@
         <v>4</v>
       </c>
       <c r="J501" t="n">
+        <v>12</v>
+      </c>
+      <c r="K501" t="n">
+        <v>0</v>
+      </c>
+      <c r="L501" t="n">
+        <v>0</v>
+      </c>
+      <c r="M501" t="n">
+        <v>0</v>
+      </c>
+      <c r="N501" t="n">
         <v>15</v>
-      </c>
-      <c r="K501" t="n">
-        <v>0</v>
-      </c>
-      <c r="L501" t="n">
-        <v>0</v>
-      </c>
-      <c r="M501" t="n">
-        <v>0</v>
-      </c>
-      <c r="N501" t="n">
-        <v>16</v>
       </c>
       <c r="O501" t="n">
         <v>0</v>
@@ -28531,25 +28529,25 @@
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
-        <v>45398</v>
+        <v>45397</v>
       </c>
       <c r="B502" t="n">
-        <v>541</v>
+        <v>546.0499877929688</v>
       </c>
       <c r="C502" t="n">
-        <v>615</v>
+        <v>557.75</v>
       </c>
       <c r="D502" t="n">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="E502" t="n">
-        <v>599.3499755859375</v>
+        <v>548.5</v>
       </c>
       <c r="F502" t="n">
-        <v>599.3499755859375</v>
+        <v>548.5</v>
       </c>
       <c r="G502" t="n">
-        <v>335692</v>
+        <v>99272</v>
       </c>
       <c r="H502" t="n">
         <v>2024</v>
@@ -28558,7 +28556,7 @@
         <v>4</v>
       </c>
       <c r="J502" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K502" t="n">
         <v>0</v>
@@ -28587,25 +28585,25 @@
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
-        <v>45400</v>
+        <v>45398</v>
       </c>
       <c r="B503" t="n">
-        <v>609.4500122070312</v>
+        <v>541</v>
       </c>
       <c r="C503" t="n">
-        <v>609.4500122070312</v>
+        <v>615</v>
       </c>
       <c r="D503" t="n">
-        <v>588</v>
+        <v>541</v>
       </c>
       <c r="E503" t="n">
-        <v>594.5</v>
+        <v>599.3499755859375</v>
       </c>
       <c r="F503" t="n">
-        <v>594.5</v>
+        <v>599.3499755859375</v>
       </c>
       <c r="G503" t="n">
-        <v>140417</v>
+        <v>335692</v>
       </c>
       <c r="H503" t="n">
         <v>2024</v>
@@ -28614,7 +28612,7 @@
         <v>4</v>
       </c>
       <c r="J503" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K503" t="n">
         <v>0</v>
@@ -28643,25 +28641,25 @@
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
-        <v>45401</v>
+        <v>45400</v>
       </c>
       <c r="B504" t="n">
-        <v>590.0499877929688</v>
+        <v>609.4500122070312</v>
       </c>
       <c r="C504" t="n">
-        <v>605.9000244140625</v>
+        <v>609.4500122070312</v>
       </c>
       <c r="D504" t="n">
-        <v>580.0499877929688</v>
+        <v>588</v>
       </c>
       <c r="E504" t="n">
-        <v>596.1500244140625</v>
+        <v>594.5</v>
       </c>
       <c r="F504" t="n">
-        <v>596.1500244140625</v>
+        <v>594.5</v>
       </c>
       <c r="G504" t="n">
-        <v>258291</v>
+        <v>140417</v>
       </c>
       <c r="H504" t="n">
         <v>2024</v>
@@ -28670,7 +28668,7 @@
         <v>4</v>
       </c>
       <c r="J504" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K504" t="n">
         <v>0</v>
@@ -28699,25 +28697,25 @@
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
-        <v>45404</v>
+        <v>45401</v>
       </c>
       <c r="B505" t="n">
-        <v>604.4500122070312</v>
+        <v>590.0499877929688</v>
       </c>
       <c r="C505" t="n">
-        <v>618</v>
+        <v>605.9000244140625</v>
       </c>
       <c r="D505" t="n">
-        <v>600.1500244140625</v>
+        <v>580.0499877929688</v>
       </c>
       <c r="E505" t="n">
-        <v>612.25</v>
+        <v>596.1500244140625</v>
       </c>
       <c r="F505" t="n">
-        <v>612.25</v>
+        <v>596.1500244140625</v>
       </c>
       <c r="G505" t="n">
-        <v>140857</v>
+        <v>258291</v>
       </c>
       <c r="H505" t="n">
         <v>2024</v>
@@ -28726,7 +28724,7 @@
         <v>4</v>
       </c>
       <c r="J505" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K505" t="n">
         <v>0</v>
@@ -28738,7 +28736,7 @@
         <v>0</v>
       </c>
       <c r="N505" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O505" t="n">
         <v>0</v>
@@ -28755,25 +28753,25 @@
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
-        <v>45405</v>
+        <v>45404</v>
       </c>
       <c r="B506" t="n">
-        <v>613.6500244140625</v>
+        <v>604.4500122070312</v>
       </c>
       <c r="C506" t="n">
-        <v>669.8499755859375</v>
+        <v>618</v>
       </c>
       <c r="D506" t="n">
-        <v>613.6500244140625</v>
+        <v>600.1500244140625</v>
       </c>
       <c r="E506" t="n">
-        <v>618.4500122070312</v>
+        <v>612.25</v>
       </c>
       <c r="F506" t="n">
-        <v>618.4500122070312</v>
+        <v>612.25</v>
       </c>
       <c r="G506" t="n">
-        <v>532866</v>
+        <v>140857</v>
       </c>
       <c r="H506" t="n">
         <v>2024</v>
@@ -28782,7 +28780,7 @@
         <v>4</v>
       </c>
       <c r="J506" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K506" t="n">
         <v>0</v>
@@ -28797,7 +28795,7 @@
         <v>17</v>
       </c>
       <c r="O506" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P506" t="n">
         <v>0</v>
@@ -28811,25 +28809,25 @@
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
-        <v>45406</v>
+        <v>45405</v>
       </c>
       <c r="B507" t="n">
-        <v>626.2000122070312</v>
+        <v>613.6500244140625</v>
       </c>
       <c r="C507" t="n">
-        <v>637</v>
+        <v>669.8499755859375</v>
       </c>
       <c r="D507" t="n">
-        <v>617.2000122070312</v>
+        <v>613.6500244140625</v>
       </c>
       <c r="E507" t="n">
-        <v>627.4500122070312</v>
+        <v>618.4500122070312</v>
       </c>
       <c r="F507" t="n">
-        <v>627.4500122070312</v>
+        <v>618.4500122070312</v>
       </c>
       <c r="G507" t="n">
-        <v>168990</v>
+        <v>532866</v>
       </c>
       <c r="H507" t="n">
         <v>2024</v>
@@ -28838,7 +28836,7 @@
         <v>4</v>
       </c>
       <c r="J507" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K507" t="n">
         <v>0</v>
@@ -28853,7 +28851,7 @@
         <v>17</v>
       </c>
       <c r="O507" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P507" t="n">
         <v>0</v>
@@ -28867,25 +28865,25 @@
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
-        <v>45407</v>
+        <v>45406</v>
       </c>
       <c r="B508" t="n">
-        <v>623.5499877929688</v>
+        <v>626.2000122070312</v>
       </c>
       <c r="C508" t="n">
-        <v>639.25</v>
+        <v>637</v>
       </c>
       <c r="D508" t="n">
-        <v>621.9500122070312</v>
+        <v>617.2000122070312</v>
       </c>
       <c r="E508" t="n">
-        <v>632.4500122070312</v>
+        <v>627.4500122070312</v>
       </c>
       <c r="F508" t="n">
-        <v>632.4500122070312</v>
+        <v>627.4500122070312</v>
       </c>
       <c r="G508" t="n">
-        <v>107153</v>
+        <v>168990</v>
       </c>
       <c r="H508" t="n">
         <v>2024</v>
@@ -28894,7 +28892,7 @@
         <v>4</v>
       </c>
       <c r="J508" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K508" t="n">
         <v>0</v>
@@ -28923,25 +28921,25 @@
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
-        <v>45408</v>
+        <v>45407</v>
       </c>
       <c r="B509" t="n">
-        <v>630.4500122070312</v>
+        <v>623.5499877929688</v>
       </c>
       <c r="C509" t="n">
-        <v>646.9500122070312</v>
+        <v>639.25</v>
       </c>
       <c r="D509" t="n">
-        <v>629.0499877929688</v>
+        <v>621.9500122070312</v>
       </c>
       <c r="E509" t="n">
-        <v>636.7999877929688</v>
+        <v>632.4500122070312</v>
       </c>
       <c r="F509" t="n">
-        <v>636.7999877929688</v>
+        <v>632.4500122070312</v>
       </c>
       <c r="G509" t="n">
-        <v>147320</v>
+        <v>107153</v>
       </c>
       <c r="H509" t="n">
         <v>2024</v>
@@ -28950,7 +28948,7 @@
         <v>4</v>
       </c>
       <c r="J509" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K509" t="n">
         <v>0</v>
@@ -28979,25 +28977,25 @@
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
-        <v>45411</v>
+        <v>45408</v>
       </c>
       <c r="B510" t="n">
-        <v>636.8499755859375</v>
+        <v>630.4500122070312</v>
       </c>
       <c r="C510" t="n">
-        <v>638.1500244140625</v>
+        <v>646.9500122070312</v>
       </c>
       <c r="D510" t="n">
-        <v>610.7000122070312</v>
+        <v>629.0499877929688</v>
       </c>
       <c r="E510" t="n">
-        <v>631.5999755859375</v>
+        <v>636.7999877929688</v>
       </c>
       <c r="F510" t="n">
-        <v>631.5999755859375</v>
+        <v>636.7999877929688</v>
       </c>
       <c r="G510" t="n">
-        <v>152178</v>
+        <v>147320</v>
       </c>
       <c r="H510" t="n">
         <v>2024</v>
@@ -29006,7 +29004,7 @@
         <v>4</v>
       </c>
       <c r="J510" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K510" t="n">
         <v>0</v>
@@ -29018,7 +29016,7 @@
         <v>0</v>
       </c>
       <c r="N510" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O510" t="n">
         <v>0</v>
@@ -29035,25 +29033,25 @@
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
-        <v>45412</v>
+        <v>45411</v>
       </c>
       <c r="B511" t="n">
-        <v>631</v>
+        <v>636.8499755859375</v>
       </c>
       <c r="C511" t="n">
-        <v>645.0999755859375</v>
+        <v>638.1500244140625</v>
       </c>
       <c r="D511" t="n">
-        <v>628.2999877929688</v>
+        <v>610.7000122070312</v>
       </c>
       <c r="E511" t="n">
-        <v>634.75</v>
+        <v>631.5999755859375</v>
       </c>
       <c r="F511" t="n">
-        <v>634.75</v>
+        <v>631.5999755859375</v>
       </c>
       <c r="G511" t="n">
-        <v>98558</v>
+        <v>152178</v>
       </c>
       <c r="H511" t="n">
         <v>2024</v>
@@ -29062,7 +29060,7 @@
         <v>4</v>
       </c>
       <c r="J511" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K511" t="n">
         <v>0</v>
@@ -29091,34 +29089,34 @@
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
-        <v>45414</v>
+        <v>45412</v>
       </c>
       <c r="B512" t="n">
-        <v>639.7000122070312</v>
+        <v>631</v>
       </c>
       <c r="C512" t="n">
-        <v>639.7000122070312</v>
+        <v>645.0999755859375</v>
       </c>
       <c r="D512" t="n">
-        <v>620</v>
+        <v>628.2999877929688</v>
       </c>
       <c r="E512" t="n">
-        <v>620.9500122070312</v>
+        <v>634.75</v>
       </c>
       <c r="F512" t="n">
-        <v>620.9500122070312</v>
+        <v>634.75</v>
       </c>
       <c r="G512" t="n">
-        <v>68165</v>
+        <v>98558</v>
       </c>
       <c r="H512" t="n">
         <v>2024</v>
       </c>
       <c r="I512" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J512" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="K512" t="n">
         <v>0</v>
@@ -29147,25 +29145,25 @@
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
-        <v>45415</v>
+        <v>45414</v>
       </c>
       <c r="B513" t="n">
+        <v>639.7000122070312</v>
+      </c>
+      <c r="C513" t="n">
+        <v>639.7000122070312</v>
+      </c>
+      <c r="D513" t="n">
         <v>620</v>
       </c>
-      <c r="C513" t="n">
-        <v>628</v>
-      </c>
-      <c r="D513" t="n">
-        <v>602.4000244140625</v>
-      </c>
       <c r="E513" t="n">
-        <v>618.3499755859375</v>
+        <v>620.9500122070312</v>
       </c>
       <c r="F513" t="n">
-        <v>618.3499755859375</v>
+        <v>620.9500122070312</v>
       </c>
       <c r="G513" t="n">
-        <v>116780</v>
+        <v>68165</v>
       </c>
       <c r="H513" t="n">
         <v>2024</v>
@@ -29174,7 +29172,7 @@
         <v>5</v>
       </c>
       <c r="J513" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K513" t="n">
         <v>0</v>
@@ -29203,25 +29201,25 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
-        <v>45418</v>
+        <v>45415</v>
       </c>
       <c r="B514" t="n">
+        <v>620</v>
+      </c>
+      <c r="C514" t="n">
         <v>628</v>
       </c>
-      <c r="C514" t="n">
-        <v>630</v>
-      </c>
       <c r="D514" t="n">
-        <v>592.4500122070312</v>
+        <v>602.4000244140625</v>
       </c>
       <c r="E514" t="n">
-        <v>610.7999877929688</v>
+        <v>618.3499755859375</v>
       </c>
       <c r="F514" t="n">
-        <v>610.7999877929688</v>
+        <v>618.3499755859375</v>
       </c>
       <c r="G514" t="n">
-        <v>109932</v>
+        <v>116780</v>
       </c>
       <c r="H514" t="n">
         <v>2024</v>
@@ -29230,7 +29228,7 @@
         <v>5</v>
       </c>
       <c r="J514" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K514" t="n">
         <v>0</v>
@@ -29242,7 +29240,7 @@
         <v>0</v>
       </c>
       <c r="N514" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O514" t="n">
         <v>0</v>
@@ -29259,25 +29257,25 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>45419</v>
+        <v>45418</v>
       </c>
       <c r="B515" t="n">
-        <v>614</v>
+        <v>628</v>
       </c>
       <c r="C515" t="n">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D515" t="n">
-        <v>592.2000122070312</v>
+        <v>592.4500122070312</v>
       </c>
       <c r="E515" t="n">
-        <v>604</v>
+        <v>610.7999877929688</v>
       </c>
       <c r="F515" t="n">
-        <v>604</v>
+        <v>610.7999877929688</v>
       </c>
       <c r="G515" t="n">
-        <v>99300</v>
+        <v>109932</v>
       </c>
       <c r="H515" t="n">
         <v>2024</v>
@@ -29286,7 +29284,7 @@
         <v>5</v>
       </c>
       <c r="J515" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K515" t="n">
         <v>0</v>
@@ -29315,25 +29313,25 @@
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
-        <v>45420</v>
+        <v>45419</v>
       </c>
       <c r="B516" t="n">
-        <v>605.0999755859375</v>
+        <v>614</v>
       </c>
       <c r="C516" t="n">
-        <v>611.5</v>
+        <v>628</v>
       </c>
       <c r="D516" t="n">
-        <v>595.7000122070312</v>
+        <v>592.2000122070312</v>
       </c>
       <c r="E516" t="n">
-        <v>603.5</v>
+        <v>604</v>
       </c>
       <c r="F516" t="n">
-        <v>603.5</v>
+        <v>604</v>
       </c>
       <c r="G516" t="n">
-        <v>42205</v>
+        <v>99300</v>
       </c>
       <c r="H516" t="n">
         <v>2024</v>
@@ -29342,7 +29340,7 @@
         <v>5</v>
       </c>
       <c r="J516" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K516" t="n">
         <v>0</v>
@@ -29371,25 +29369,25 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
-        <v>45421</v>
+        <v>45420</v>
       </c>
       <c r="B517" t="n">
-        <v>603.0499877929688</v>
+        <v>605.0999755859375</v>
       </c>
       <c r="C517" t="n">
-        <v>612.4000244140625</v>
+        <v>611.5</v>
       </c>
       <c r="D517" t="n">
-        <v>589.4500122070312</v>
+        <v>595.7000122070312</v>
       </c>
       <c r="E517" t="n">
-        <v>594.9000244140625</v>
+        <v>603.5</v>
       </c>
       <c r="F517" t="n">
-        <v>594.9000244140625</v>
+        <v>603.5</v>
       </c>
       <c r="G517" t="n">
-        <v>56812</v>
+        <v>42205</v>
       </c>
       <c r="H517" t="n">
         <v>2024</v>
@@ -29398,7 +29396,7 @@
         <v>5</v>
       </c>
       <c r="J517" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K517" t="n">
         <v>0</v>
@@ -29427,25 +29425,25 @@
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
-        <v>45422</v>
+        <v>45421</v>
       </c>
       <c r="B518" t="n">
-        <v>586</v>
+        <v>603.0499877929688</v>
       </c>
       <c r="C518" t="n">
-        <v>611.8499755859375</v>
+        <v>612.4000244140625</v>
       </c>
       <c r="D518" t="n">
-        <v>586</v>
+        <v>589.4500122070312</v>
       </c>
       <c r="E518" t="n">
-        <v>605.5499877929688</v>
+        <v>594.9000244140625</v>
       </c>
       <c r="F518" t="n">
-        <v>605.5499877929688</v>
+        <v>594.9000244140625</v>
       </c>
       <c r="G518" t="n">
-        <v>87858</v>
+        <v>56812</v>
       </c>
       <c r="H518" t="n">
         <v>2024</v>
@@ -29454,7 +29452,7 @@
         <v>5</v>
       </c>
       <c r="J518" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K518" t="n">
         <v>0</v>
@@ -29469,7 +29467,7 @@
         <v>19</v>
       </c>
       <c r="O518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P518" t="n">
         <v>0</v>
@@ -29483,25 +29481,25 @@
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
-        <v>45425</v>
+        <v>45422</v>
       </c>
       <c r="B519" t="n">
-        <v>609.9000244140625</v>
+        <v>586</v>
       </c>
       <c r="C519" t="n">
-        <v>669</v>
+        <v>611.8499755859375</v>
       </c>
       <c r="D519" t="n">
-        <v>605.5999755859375</v>
+        <v>586</v>
       </c>
       <c r="E519" t="n">
-        <v>660.2000122070312</v>
+        <v>605.5499877929688</v>
       </c>
       <c r="F519" t="n">
-        <v>660.2000122070312</v>
+        <v>605.5499877929688</v>
       </c>
       <c r="G519" t="n">
-        <v>151214</v>
+        <v>87858</v>
       </c>
       <c r="H519" t="n">
         <v>2024</v>
@@ -29510,7 +29508,7 @@
         <v>5</v>
       </c>
       <c r="J519" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K519" t="n">
         <v>0</v>
@@ -29522,10 +29520,10 @@
         <v>0</v>
       </c>
       <c r="N519" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P519" t="n">
         <v>0</v>
@@ -29539,25 +29537,25 @@
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
-        <v>45426</v>
+        <v>45425</v>
       </c>
       <c r="B520" t="n">
-        <v>670.8499755859375</v>
+        <v>609.9000244140625</v>
       </c>
       <c r="C520" t="n">
-        <v>670.9000244140625</v>
+        <v>669</v>
       </c>
       <c r="D520" t="n">
-        <v>648</v>
+        <v>605.5999755859375</v>
       </c>
       <c r="E520" t="n">
-        <v>652.25</v>
+        <v>660.2000122070312</v>
       </c>
       <c r="F520" t="n">
-        <v>652.25</v>
+        <v>660.2000122070312</v>
       </c>
       <c r="G520" t="n">
-        <v>57623</v>
+        <v>151214</v>
       </c>
       <c r="H520" t="n">
         <v>2024</v>
@@ -29566,7 +29564,7 @@
         <v>5</v>
       </c>
       <c r="J520" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K520" t="n">
         <v>0</v>
@@ -29595,25 +29593,25 @@
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
-        <v>45427</v>
+        <v>45426</v>
       </c>
       <c r="B521" t="n">
-        <v>672</v>
+        <v>670.8499755859375</v>
       </c>
       <c r="C521" t="n">
-        <v>672</v>
+        <v>670.9000244140625</v>
       </c>
       <c r="D521" t="n">
-        <v>652.5499877929688</v>
+        <v>648</v>
       </c>
       <c r="E521" t="n">
-        <v>665.1500244140625</v>
+        <v>652.25</v>
       </c>
       <c r="F521" t="n">
-        <v>665.1500244140625</v>
+        <v>652.25</v>
       </c>
       <c r="G521" t="n">
-        <v>29785</v>
+        <v>57623</v>
       </c>
       <c r="H521" t="n">
         <v>2024</v>
@@ -29622,7 +29620,7 @@
         <v>5</v>
       </c>
       <c r="J521" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K521" t="n">
         <v>0</v>
@@ -29651,25 +29649,25 @@
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
-        <v>45428</v>
+        <v>45427</v>
       </c>
       <c r="B522" t="n">
         <v>672</v>
       </c>
       <c r="C522" t="n">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="D522" t="n">
-        <v>650.5499877929688</v>
+        <v>652.5499877929688</v>
       </c>
       <c r="E522" t="n">
-        <v>659.5499877929688</v>
+        <v>665.1500244140625</v>
       </c>
       <c r="F522" t="n">
-        <v>659.5499877929688</v>
+        <v>665.1500244140625</v>
       </c>
       <c r="G522" t="n">
-        <v>31115</v>
+        <v>29785</v>
       </c>
       <c r="H522" t="n">
         <v>2024</v>
@@ -29678,7 +29676,7 @@
         <v>5</v>
       </c>
       <c r="J522" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K522" t="n">
         <v>0</v>
@@ -29707,25 +29705,25 @@
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
-        <v>45429</v>
+        <v>45428</v>
       </c>
       <c r="B523" t="n">
-        <v>655.0999755859375</v>
+        <v>672</v>
       </c>
       <c r="C523" t="n">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="D523" t="n">
-        <v>652.75</v>
+        <v>650.5499877929688</v>
       </c>
       <c r="E523" t="n">
-        <v>672.5999755859375</v>
+        <v>659.5499877929688</v>
       </c>
       <c r="F523" t="n">
-        <v>672.5999755859375</v>
+        <v>659.5499877929688</v>
       </c>
       <c r="G523" t="n">
-        <v>43701</v>
+        <v>31115</v>
       </c>
       <c r="H523" t="n">
         <v>2024</v>
@@ -29734,7 +29732,7 @@
         <v>5</v>
       </c>
       <c r="J523" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K523" t="n">
         <v>0</v>
@@ -29763,25 +29761,25 @@
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
-        <v>45433</v>
+        <v>45429</v>
       </c>
       <c r="B524" t="n">
-        <v>682</v>
+        <v>655.0999755859375</v>
       </c>
       <c r="C524" t="n">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="D524" t="n">
-        <v>652.7999877929688</v>
+        <v>652.75</v>
       </c>
       <c r="E524" t="n">
-        <v>668.75</v>
+        <v>672.5999755859375</v>
       </c>
       <c r="F524" t="n">
-        <v>668.75</v>
+        <v>672.5999755859375</v>
       </c>
       <c r="G524" t="n">
-        <v>33638</v>
+        <v>43701</v>
       </c>
       <c r="H524" t="n">
         <v>2024</v>
@@ -29790,7 +29788,7 @@
         <v>5</v>
       </c>
       <c r="J524" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K524" t="n">
         <v>0</v>
@@ -29802,7 +29800,7 @@
         <v>0</v>
       </c>
       <c r="N524" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O524" t="n">
         <v>0</v>
@@ -29819,25 +29817,25 @@
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
-        <v>45434</v>
+        <v>45433</v>
       </c>
       <c r="B525" t="n">
-        <v>657</v>
+        <v>682</v>
       </c>
       <c r="C525" t="n">
-        <v>692.0999755859375</v>
+        <v>682</v>
       </c>
       <c r="D525" t="n">
-        <v>657</v>
+        <v>652.7999877929688</v>
       </c>
       <c r="E525" t="n">
-        <v>669.7000122070312</v>
+        <v>668.75</v>
       </c>
       <c r="F525" t="n">
-        <v>669.7000122070312</v>
+        <v>668.75</v>
       </c>
       <c r="G525" t="n">
-        <v>72395</v>
+        <v>33638</v>
       </c>
       <c r="H525" t="n">
         <v>2024</v>
@@ -29846,7 +29844,7 @@
         <v>5</v>
       </c>
       <c r="J525" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K525" t="n">
         <v>0</v>
@@ -29861,7 +29859,7 @@
         <v>21</v>
       </c>
       <c r="O525" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P525" t="n">
         <v>0</v>
@@ -29875,25 +29873,25 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
-        <v>45435</v>
+        <v>45434</v>
       </c>
       <c r="B526" t="n">
-        <v>670</v>
+        <v>657</v>
       </c>
       <c r="C526" t="n">
-        <v>674</v>
+        <v>692.0999755859375</v>
       </c>
       <c r="D526" t="n">
-        <v>660.2999877929688</v>
+        <v>657</v>
       </c>
       <c r="E526" t="n">
-        <v>663.25</v>
+        <v>669.7000122070312</v>
       </c>
       <c r="F526" t="n">
-        <v>663.25</v>
+        <v>669.7000122070312</v>
       </c>
       <c r="G526" t="n">
-        <v>22060</v>
+        <v>72395</v>
       </c>
       <c r="H526" t="n">
         <v>2024</v>
@@ -29902,7 +29900,7 @@
         <v>5</v>
       </c>
       <c r="J526" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K526" t="n">
         <v>0</v>
@@ -29917,7 +29915,7 @@
         <v>21</v>
       </c>
       <c r="O526" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P526" t="n">
         <v>0</v>
@@ -29931,25 +29929,25 @@
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
-        <v>45436</v>
+        <v>45435</v>
       </c>
       <c r="B527" t="n">
-        <v>659.5999755859375</v>
+        <v>670</v>
       </c>
       <c r="C527" t="n">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="D527" t="n">
-        <v>659.5999755859375</v>
+        <v>660.2999877929688</v>
       </c>
       <c r="E527" t="n">
-        <v>669.9500122070312</v>
+        <v>663.25</v>
       </c>
       <c r="F527" t="n">
-        <v>669.9500122070312</v>
+        <v>663.25</v>
       </c>
       <c r="G527" t="n">
-        <v>30322</v>
+        <v>22060</v>
       </c>
       <c r="H527" t="n">
         <v>2024</v>
@@ -29958,7 +29956,7 @@
         <v>5</v>
       </c>
       <c r="J527" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K527" t="n">
         <v>0</v>
@@ -29987,25 +29985,25 @@
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
-        <v>45439</v>
+        <v>45436</v>
       </c>
       <c r="B528" t="n">
-        <v>690</v>
+        <v>659.5999755859375</v>
       </c>
       <c r="C528" t="n">
-        <v>692</v>
+        <v>678</v>
       </c>
       <c r="D528" t="n">
-        <v>641.2000122070312</v>
+        <v>659.5999755859375</v>
       </c>
       <c r="E528" t="n">
-        <v>647.5999755859375</v>
+        <v>669.9500122070312</v>
       </c>
       <c r="F528" t="n">
-        <v>647.5999755859375</v>
+        <v>669.9500122070312</v>
       </c>
       <c r="G528" t="n">
-        <v>88975</v>
+        <v>30322</v>
       </c>
       <c r="H528" t="n">
         <v>2024</v>
@@ -30014,7 +30012,7 @@
         <v>5</v>
       </c>
       <c r="J528" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K528" t="n">
         <v>0</v>
@@ -30026,7 +30024,7 @@
         <v>0</v>
       </c>
       <c r="N528" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O528" t="n">
         <v>0</v>
@@ -30043,25 +30041,25 @@
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
-        <v>45440</v>
+        <v>45439</v>
       </c>
       <c r="B529" t="n">
-        <v>651</v>
+        <v>690</v>
       </c>
       <c r="C529" t="n">
-        <v>670</v>
+        <v>692</v>
       </c>
       <c r="D529" t="n">
-        <v>612.6500244140625</v>
+        <v>641.2000122070312</v>
       </c>
       <c r="E529" t="n">
-        <v>621.4500122070312</v>
+        <v>647.5999755859375</v>
       </c>
       <c r="F529" t="n">
-        <v>621.4500122070312</v>
+        <v>647.5999755859375</v>
       </c>
       <c r="G529" t="n">
-        <v>63714</v>
+        <v>88975</v>
       </c>
       <c r="H529" t="n">
         <v>2024</v>
@@ -30070,7 +30068,7 @@
         <v>5</v>
       </c>
       <c r="J529" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K529" t="n">
         <v>0</v>
@@ -30099,25 +30097,25 @@
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>45441</v>
+        <v>45440</v>
       </c>
       <c r="B530" t="n">
-        <v>620</v>
+        <v>651</v>
       </c>
       <c r="C530" t="n">
-        <v>643.4000244140625</v>
+        <v>670</v>
       </c>
       <c r="D530" t="n">
-        <v>615.5499877929688</v>
+        <v>612.6500244140625</v>
       </c>
       <c r="E530" t="n">
-        <v>631.2000122070312</v>
+        <v>621.4500122070312</v>
       </c>
       <c r="F530" t="n">
-        <v>631.2000122070312</v>
+        <v>621.4500122070312</v>
       </c>
       <c r="G530" t="n">
-        <v>75844</v>
+        <v>63714</v>
       </c>
       <c r="H530" t="n">
         <v>2024</v>
@@ -30126,7 +30124,7 @@
         <v>5</v>
       </c>
       <c r="J530" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K530" t="n">
         <v>0</v>
@@ -30155,25 +30153,25 @@
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
-        <v>45442</v>
+        <v>45441</v>
       </c>
       <c r="B531" t="n">
-        <v>633</v>
+        <v>620</v>
       </c>
       <c r="C531" t="n">
-        <v>638.2000122070312</v>
+        <v>643.4000244140625</v>
       </c>
       <c r="D531" t="n">
-        <v>610.3499755859375</v>
+        <v>615.5499877929688</v>
       </c>
       <c r="E531" t="n">
-        <v>619.4000244140625</v>
+        <v>631.2000122070312</v>
       </c>
       <c r="F531" t="n">
-        <v>619.4000244140625</v>
+        <v>631.2000122070312</v>
       </c>
       <c r="G531" t="n">
-        <v>25367</v>
+        <v>75844</v>
       </c>
       <c r="H531" t="n">
         <v>2024</v>
@@ -30182,7 +30180,7 @@
         <v>5</v>
       </c>
       <c r="J531" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K531" t="n">
         <v>0</v>
@@ -30211,25 +30209,25 @@
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
-        <v>45443</v>
+        <v>45442</v>
       </c>
       <c r="B532" t="n">
-        <v>618.7000122070312</v>
+        <v>633</v>
       </c>
       <c r="C532" t="n">
-        <v>645.1500244140625</v>
+        <v>638.2000122070312</v>
       </c>
       <c r="D532" t="n">
-        <v>612.2000122070312</v>
+        <v>610.3499755859375</v>
       </c>
       <c r="E532" t="n">
-        <v>635.6500244140625</v>
+        <v>619.4000244140625</v>
       </c>
       <c r="F532" t="n">
-        <v>635.6500244140625</v>
+        <v>619.4000244140625</v>
       </c>
       <c r="G532" t="n">
-        <v>49807</v>
+        <v>25367</v>
       </c>
       <c r="H532" t="n">
         <v>2024</v>
@@ -30238,7 +30236,7 @@
         <v>5</v>
       </c>
       <c r="J532" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K532" t="n">
         <v>0</v>
@@ -30267,34 +30265,34 @@
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
-        <v>45446</v>
+        <v>45443</v>
       </c>
       <c r="B533" t="n">
-        <v>665</v>
+        <v>618.7000122070312</v>
       </c>
       <c r="C533" t="n">
-        <v>665</v>
+        <v>645.1500244140625</v>
       </c>
       <c r="D533" t="n">
-        <v>632.9500122070312</v>
+        <v>612.2000122070312</v>
       </c>
       <c r="E533" t="n">
-        <v>644.4500122070312</v>
+        <v>635.6500244140625</v>
       </c>
       <c r="F533" t="n">
-        <v>644.4500122070312</v>
+        <v>635.6500244140625</v>
       </c>
       <c r="G533" t="n">
-        <v>37347</v>
+        <v>49807</v>
       </c>
       <c r="H533" t="n">
         <v>2024</v>
       </c>
       <c r="I533" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J533" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="K533" t="n">
         <v>0</v>
@@ -30306,7 +30304,7 @@
         <v>0</v>
       </c>
       <c r="N533" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O533" t="n">
         <v>0</v>
@@ -30323,25 +30321,25 @@
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
-        <v>45447</v>
+        <v>45446</v>
       </c>
       <c r="B534" t="n">
-        <v>653.4500122070312</v>
+        <v>665</v>
       </c>
       <c r="C534" t="n">
-        <v>659.9500122070312</v>
+        <v>665</v>
       </c>
       <c r="D534" t="n">
-        <v>540.75</v>
+        <v>632.9500122070312</v>
       </c>
       <c r="E534" t="n">
-        <v>598.0499877929688</v>
+        <v>644.4500122070312</v>
       </c>
       <c r="F534" t="n">
-        <v>598.0499877929688</v>
+        <v>644.4500122070312</v>
       </c>
       <c r="G534" t="n">
-        <v>124789</v>
+        <v>37347</v>
       </c>
       <c r="H534" t="n">
         <v>2024</v>
@@ -30350,7 +30348,7 @@
         <v>6</v>
       </c>
       <c r="J534" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K534" t="n">
         <v>0</v>
@@ -30365,7 +30363,7 @@
         <v>23</v>
       </c>
       <c r="O534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P534" t="n">
         <v>0</v>
@@ -30379,25 +30377,25 @@
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
-        <v>45448</v>
+        <v>45447</v>
       </c>
       <c r="B535" t="n">
-        <v>583</v>
+        <v>653.4500122070312</v>
       </c>
       <c r="C535" t="n">
-        <v>627</v>
+        <v>659.9500122070312</v>
       </c>
       <c r="D535" t="n">
-        <v>581</v>
+        <v>540.75</v>
       </c>
       <c r="E535" t="n">
-        <v>622.4500122070312</v>
+        <v>598.0499877929688</v>
       </c>
       <c r="F535" t="n">
-        <v>622.4500122070312</v>
+        <v>598.0499877929688</v>
       </c>
       <c r="G535" t="n">
-        <v>67506</v>
+        <v>124789</v>
       </c>
       <c r="H535" t="n">
         <v>2024</v>
@@ -30406,7 +30404,7 @@
         <v>6</v>
       </c>
       <c r="J535" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K535" t="n">
         <v>0</v>
@@ -30421,7 +30419,7 @@
         <v>23</v>
       </c>
       <c r="O535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P535" t="n">
         <v>0</v>
@@ -30435,25 +30433,25 @@
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
-        <v>45449</v>
+        <v>45448</v>
       </c>
       <c r="B536" t="n">
-        <v>638</v>
+        <v>583</v>
       </c>
       <c r="C536" t="n">
-        <v>641.5499877929688</v>
+        <v>627</v>
       </c>
       <c r="D536" t="n">
-        <v>609.9500122070312</v>
+        <v>581</v>
       </c>
       <c r="E536" t="n">
-        <v>626.4000244140625</v>
+        <v>622.4500122070312</v>
       </c>
       <c r="F536" t="n">
-        <v>626.4000244140625</v>
+        <v>622.4500122070312</v>
       </c>
       <c r="G536" t="n">
-        <v>84010</v>
+        <v>67506</v>
       </c>
       <c r="H536" t="n">
         <v>2024</v>
@@ -30462,7 +30460,7 @@
         <v>6</v>
       </c>
       <c r="J536" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K536" t="n">
         <v>0</v>
@@ -30483,7 +30481,7 @@
         <v>0</v>
       </c>
       <c r="Q536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R536" t="n">
         <v>0</v>
@@ -30491,25 +30489,25 @@
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
-        <v>45450</v>
+        <v>45449</v>
       </c>
       <c r="B537" t="n">
-        <v>629</v>
+        <v>638</v>
       </c>
       <c r="C537" t="n">
-        <v>652.75</v>
+        <v>641.5499877929688</v>
       </c>
       <c r="D537" t="n">
-        <v>629</v>
+        <v>609.9500122070312</v>
       </c>
       <c r="E537" t="n">
-        <v>641.5999755859375</v>
+        <v>626.4000244140625</v>
       </c>
       <c r="F537" t="n">
-        <v>641.5999755859375</v>
+        <v>626.4000244140625</v>
       </c>
       <c r="G537" t="n">
-        <v>27135</v>
+        <v>84010</v>
       </c>
       <c r="H537" t="n">
         <v>2024</v>
@@ -30518,7 +30516,7 @@
         <v>6</v>
       </c>
       <c r="J537" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K537" t="n">
         <v>0</v>
@@ -30539,7 +30537,7 @@
         <v>0</v>
       </c>
       <c r="Q537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R537" t="n">
         <v>0</v>
@@ -30547,25 +30545,25 @@
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
-        <v>45453</v>
+        <v>45450</v>
       </c>
       <c r="B538" t="n">
-        <v>647.1500244140625</v>
+        <v>629</v>
       </c>
       <c r="C538" t="n">
-        <v>660</v>
+        <v>652.75</v>
       </c>
       <c r="D538" t="n">
-        <v>634.5999755859375</v>
+        <v>629</v>
       </c>
       <c r="E538" t="n">
-        <v>644.0499877929688</v>
+        <v>641.5999755859375</v>
       </c>
       <c r="F538" t="n">
-        <v>644.0499877929688</v>
+        <v>641.5999755859375</v>
       </c>
       <c r="G538" t="n">
-        <v>29080</v>
+        <v>27135</v>
       </c>
       <c r="H538" t="n">
         <v>2024</v>
@@ -30574,7 +30572,7 @@
         <v>6</v>
       </c>
       <c r="J538" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K538" t="n">
         <v>0</v>
@@ -30586,7 +30584,7 @@
         <v>0</v>
       </c>
       <c r="N538" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O538" t="n">
         <v>0</v>
@@ -30603,25 +30601,25 @@
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
-        <v>45454</v>
+        <v>45453</v>
       </c>
       <c r="B539" t="n">
-        <v>654.7000122070312</v>
+        <v>647.1500244140625</v>
       </c>
       <c r="C539" t="n">
-        <v>665.0499877929688</v>
+        <v>660</v>
       </c>
       <c r="D539" t="n">
-        <v>641.0999755859375</v>
+        <v>634.5999755859375</v>
       </c>
       <c r="E539" t="n">
-        <v>652.3499755859375</v>
+        <v>644.0499877929688</v>
       </c>
       <c r="F539" t="n">
-        <v>652.3499755859375</v>
+        <v>644.0499877929688</v>
       </c>
       <c r="G539" t="n">
-        <v>25295</v>
+        <v>29080</v>
       </c>
       <c r="H539" t="n">
         <v>2024</v>
@@ -30630,7 +30628,7 @@
         <v>6</v>
       </c>
       <c r="J539" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K539" t="n">
         <v>0</v>
@@ -30659,25 +30657,25 @@
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
-        <v>45455</v>
+        <v>45454</v>
       </c>
       <c r="B540" t="n">
-        <v>661</v>
+        <v>654.7000122070312</v>
       </c>
       <c r="C540" t="n">
-        <v>668.7999877929688</v>
+        <v>665.0499877929688</v>
       </c>
       <c r="D540" t="n">
-        <v>647.1500244140625</v>
+        <v>641.0999755859375</v>
       </c>
       <c r="E540" t="n">
-        <v>660.6500244140625</v>
+        <v>652.3499755859375</v>
       </c>
       <c r="F540" t="n">
-        <v>660.6500244140625</v>
+        <v>652.3499755859375</v>
       </c>
       <c r="G540" t="n">
-        <v>32754</v>
+        <v>25295</v>
       </c>
       <c r="H540" t="n">
         <v>2024</v>
@@ -30686,7 +30684,7 @@
         <v>6</v>
       </c>
       <c r="J540" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K540" t="n">
         <v>0</v>
@@ -30715,25 +30713,25 @@
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
-        <v>45456</v>
+        <v>45455</v>
       </c>
       <c r="B541" t="n">
-        <v>669.7999877929688</v>
+        <v>661</v>
       </c>
       <c r="C541" t="n">
-        <v>680.8499755859375</v>
+        <v>668.7999877929688</v>
       </c>
       <c r="D541" t="n">
-        <v>658</v>
+        <v>647.1500244140625</v>
       </c>
       <c r="E541" t="n">
-        <v>668.9500122070312</v>
+        <v>660.6500244140625</v>
       </c>
       <c r="F541" t="n">
-        <v>668.9500122070312</v>
+        <v>660.6500244140625</v>
       </c>
       <c r="G541" t="n">
-        <v>60184</v>
+        <v>32754</v>
       </c>
       <c r="H541" t="n">
         <v>2024</v>
@@ -30742,7 +30740,7 @@
         <v>6</v>
       </c>
       <c r="J541" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K541" t="n">
         <v>0</v>
@@ -30771,25 +30769,25 @@
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
-        <v>45457</v>
+        <v>45456</v>
       </c>
       <c r="B542" t="n">
-        <v>677</v>
+        <v>669.7999877929688</v>
       </c>
       <c r="C542" t="n">
-        <v>704</v>
+        <v>680.8499755859375</v>
       </c>
       <c r="D542" t="n">
-        <v>667.5499877929688</v>
+        <v>658</v>
       </c>
       <c r="E542" t="n">
-        <v>699.0499877929688</v>
+        <v>668.9500122070312</v>
       </c>
       <c r="F542" t="n">
-        <v>699.0499877929688</v>
+        <v>668.9500122070312</v>
       </c>
       <c r="G542" t="n">
-        <v>102699</v>
+        <v>60184</v>
       </c>
       <c r="H542" t="n">
         <v>2024</v>
@@ -30798,7 +30796,7 @@
         <v>6</v>
       </c>
       <c r="J542" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K542" t="n">
         <v>0</v>
@@ -30827,25 +30825,25 @@
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
-        <v>45461</v>
+        <v>45457</v>
       </c>
       <c r="B543" t="n">
-        <v>705</v>
+        <v>677</v>
       </c>
       <c r="C543" t="n">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="D543" t="n">
-        <v>682</v>
+        <v>667.5499877929688</v>
       </c>
       <c r="E543" t="n">
-        <v>688</v>
+        <v>699.0499877929688</v>
       </c>
       <c r="F543" t="n">
-        <v>688</v>
+        <v>699.0499877929688</v>
       </c>
       <c r="G543" t="n">
-        <v>46040</v>
+        <v>102699</v>
       </c>
       <c r="H543" t="n">
         <v>2024</v>
@@ -30854,7 +30852,7 @@
         <v>6</v>
       </c>
       <c r="J543" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K543" t="n">
         <v>0</v>
@@ -30866,7 +30864,7 @@
         <v>0</v>
       </c>
       <c r="N543" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O543" t="n">
         <v>0</v>
@@ -30883,25 +30881,25 @@
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
-        <v>45462</v>
+        <v>45461</v>
       </c>
       <c r="B544" t="n">
-        <v>699.25</v>
+        <v>705</v>
       </c>
       <c r="C544" t="n">
-        <v>759.75</v>
+        <v>710</v>
       </c>
       <c r="D544" t="n">
-        <v>677.7000122070312</v>
+        <v>682</v>
       </c>
       <c r="E544" t="n">
-        <v>750.6500244140625</v>
+        <v>688</v>
       </c>
       <c r="F544" t="n">
-        <v>750.6500244140625</v>
+        <v>688</v>
       </c>
       <c r="G544" t="n">
-        <v>369673</v>
+        <v>46040</v>
       </c>
       <c r="H544" t="n">
         <v>2024</v>
@@ -30910,7 +30908,7 @@
         <v>6</v>
       </c>
       <c r="J544" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K544" t="n">
         <v>0</v>
@@ -30939,25 +30937,25 @@
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>45463</v>
+        <v>45462</v>
       </c>
       <c r="B545" t="n">
-        <v>751.1500244140625</v>
+        <v>699.25</v>
       </c>
       <c r="C545" t="n">
-        <v>792</v>
+        <v>759.75</v>
       </c>
       <c r="D545" t="n">
-        <v>751.1500244140625</v>
+        <v>677.7000122070312</v>
       </c>
       <c r="E545" t="n">
-        <v>771</v>
+        <v>750.6500244140625</v>
       </c>
       <c r="F545" t="n">
-        <v>771</v>
+        <v>750.6500244140625</v>
       </c>
       <c r="G545" t="n">
-        <v>345971</v>
+        <v>369673</v>
       </c>
       <c r="H545" t="n">
         <v>2024</v>
@@ -30966,7 +30964,7 @@
         <v>6</v>
       </c>
       <c r="J545" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K545" t="n">
         <v>0</v>
@@ -30995,25 +30993,25 @@
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
-        <v>45464</v>
+        <v>45463</v>
       </c>
       <c r="B546" t="n">
-        <v>783</v>
+        <v>751.1500244140625</v>
       </c>
       <c r="C546" t="n">
-        <v>788.9500122070312</v>
+        <v>792</v>
       </c>
       <c r="D546" t="n">
-        <v>760.5</v>
+        <v>751.1500244140625</v>
       </c>
       <c r="E546" t="n">
-        <v>765.5499877929688</v>
+        <v>771</v>
       </c>
       <c r="F546" t="n">
-        <v>765.5499877929688</v>
+        <v>771</v>
       </c>
       <c r="G546" t="n">
-        <v>118196</v>
+        <v>345971</v>
       </c>
       <c r="H546" t="n">
         <v>2024</v>
@@ -31022,7 +31020,7 @@
         <v>6</v>
       </c>
       <c r="J546" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K546" t="n">
         <v>0</v>
@@ -31051,25 +31049,25 @@
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
-        <v>45467</v>
+        <v>45464</v>
       </c>
       <c r="B547" t="n">
-        <v>766.7000122070312</v>
+        <v>783</v>
       </c>
       <c r="C547" t="n">
-        <v>800</v>
+        <v>788.9500122070312</v>
       </c>
       <c r="D547" t="n">
-        <v>759</v>
+        <v>760.5</v>
       </c>
       <c r="E547" t="n">
-        <v>799.1500244140625</v>
+        <v>765.5499877929688</v>
       </c>
       <c r="F547" t="n">
-        <v>799.1500244140625</v>
+        <v>765.5499877929688</v>
       </c>
       <c r="G547" t="n">
-        <v>149626</v>
+        <v>118196</v>
       </c>
       <c r="H547" t="n">
         <v>2024</v>
@@ -31078,7 +31076,7 @@
         <v>6</v>
       </c>
       <c r="J547" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K547" t="n">
         <v>0</v>
@@ -31090,7 +31088,7 @@
         <v>0</v>
       </c>
       <c r="N547" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O547" t="n">
         <v>0</v>
@@ -31107,25 +31105,25 @@
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
-        <v>45468</v>
+        <v>45467</v>
       </c>
       <c r="B548" t="n">
-        <v>804.4500122070312</v>
+        <v>766.7000122070312</v>
       </c>
       <c r="C548" t="n">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D548" t="n">
-        <v>799.2000122070312</v>
+        <v>759</v>
       </c>
       <c r="E548" t="n">
-        <v>809.5999755859375</v>
+        <v>799.1500244140625</v>
       </c>
       <c r="F548" t="n">
-        <v>809.5999755859375</v>
+        <v>799.1500244140625</v>
       </c>
       <c r="G548" t="n">
-        <v>122481</v>
+        <v>149626</v>
       </c>
       <c r="H548" t="n">
         <v>2024</v>
@@ -31134,7 +31132,7 @@
         <v>6</v>
       </c>
       <c r="J548" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K548" t="n">
         <v>0</v>
@@ -31163,25 +31161,25 @@
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
-        <v>45469</v>
+        <v>45468</v>
       </c>
       <c r="B549" t="n">
-        <v>810</v>
+        <v>804.4500122070312</v>
       </c>
       <c r="C549" t="n">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="D549" t="n">
-        <v>801</v>
+        <v>799.2000122070312</v>
       </c>
       <c r="E549" t="n">
-        <v>806.2000122070312</v>
+        <v>809.5999755859375</v>
       </c>
       <c r="F549" t="n">
-        <v>806.2000122070312</v>
+        <v>809.5999755859375</v>
       </c>
       <c r="G549" t="n">
-        <v>91222</v>
+        <v>122481</v>
       </c>
       <c r="H549" t="n">
         <v>2024</v>
@@ -31190,7 +31188,7 @@
         <v>6</v>
       </c>
       <c r="J549" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K549" t="n">
         <v>0</v>
@@ -31219,25 +31217,25 @@
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
-        <v>45470</v>
+        <v>45469</v>
       </c>
       <c r="B550" t="n">
-        <v>810.3499755859375</v>
+        <v>810</v>
       </c>
       <c r="C550" t="n">
-        <v>827.9500122070312</v>
+        <v>830</v>
       </c>
       <c r="D550" t="n">
-        <v>785.0499877929688</v>
+        <v>801</v>
       </c>
       <c r="E550" t="n">
-        <v>789.4500122070312</v>
+        <v>806.2000122070312</v>
       </c>
       <c r="F550" t="n">
-        <v>789.4500122070312</v>
+        <v>806.2000122070312</v>
       </c>
       <c r="G550" t="n">
-        <v>65627</v>
+        <v>91222</v>
       </c>
       <c r="H550" t="n">
         <v>2024</v>
@@ -31246,7 +31244,7 @@
         <v>6</v>
       </c>
       <c r="J550" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K550" t="n">
         <v>0</v>
@@ -31275,25 +31273,25 @@
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
-        <v>45471</v>
+        <v>45470</v>
       </c>
       <c r="B551" t="n">
-        <v>792.7000122070312</v>
+        <v>810.3499755859375</v>
       </c>
       <c r="C551" t="n">
-        <v>809.5999755859375</v>
+        <v>827.9500122070312</v>
       </c>
       <c r="D551" t="n">
-        <v>784.7999877929688</v>
+        <v>785.0499877929688</v>
       </c>
       <c r="E551" t="n">
-        <v>801.7000122070312</v>
+        <v>789.4500122070312</v>
       </c>
       <c r="F551" t="n">
-        <v>801.7000122070312</v>
+        <v>789.4500122070312</v>
       </c>
       <c r="G551" t="n">
-        <v>54759</v>
+        <v>65627</v>
       </c>
       <c r="H551" t="n">
         <v>2024</v>
@@ -31302,7 +31300,7 @@
         <v>6</v>
       </c>
       <c r="J551" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K551" t="n">
         <v>0</v>
@@ -31331,34 +31329,34 @@
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
-        <v>45474</v>
+        <v>45471</v>
       </c>
       <c r="B552" t="n">
-        <v>812</v>
+        <v>792.7000122070312</v>
       </c>
       <c r="C552" t="n">
-        <v>867.5</v>
+        <v>809.5999755859375</v>
       </c>
       <c r="D552" t="n">
-        <v>795</v>
+        <v>784.7999877929688</v>
       </c>
       <c r="E552" t="n">
-        <v>836.7000122070312</v>
+        <v>801.7000122070312</v>
       </c>
       <c r="F552" t="n">
-        <v>836.7000122070312</v>
+        <v>801.7000122070312</v>
       </c>
       <c r="G552" t="n">
-        <v>129380</v>
+        <v>54759</v>
       </c>
       <c r="H552" t="n">
         <v>2024</v>
       </c>
       <c r="I552" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J552" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="K552" t="n">
         <v>0</v>
@@ -31370,7 +31368,7 @@
         <v>0</v>
       </c>
       <c r="N552" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O552" t="n">
         <v>0</v>
@@ -31381,29 +31379,31 @@
       <c r="Q552" t="n">
         <v>0</v>
       </c>
-      <c r="R552" t="inlineStr"/>
+      <c r="R552" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
-        <v>45475</v>
+        <v>45474</v>
       </c>
       <c r="B553" t="n">
-        <v>845.9500122070312</v>
+        <v>812</v>
       </c>
       <c r="C553" t="n">
-        <v>907.9500122070312</v>
+        <v>867.5</v>
       </c>
       <c r="D553" t="n">
-        <v>844.2999877929688</v>
+        <v>795</v>
       </c>
       <c r="E553" t="n">
-        <v>895.4000244140625</v>
+        <v>836.7000122070312</v>
       </c>
       <c r="F553" t="n">
-        <v>895.4000244140625</v>
+        <v>836.7000122070312</v>
       </c>
       <c r="G553" t="n">
-        <v>228724</v>
+        <v>129380</v>
       </c>
       <c r="H553" t="n">
         <v>2024</v>
@@ -31412,7 +31412,7 @@
         <v>7</v>
       </c>
       <c r="J553" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K553" t="n">
         <v>0</v>
@@ -31435,29 +31435,31 @@
       <c r="Q553" t="n">
         <v>0</v>
       </c>
-      <c r="R553" t="inlineStr"/>
+      <c r="R553" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
-        <v>45476</v>
+        <v>45475</v>
       </c>
       <c r="B554" t="n">
-        <v>899.9500122070312</v>
+        <v>845.9500122070312</v>
       </c>
       <c r="C554" t="n">
-        <v>924.75</v>
+        <v>907.9500122070312</v>
       </c>
       <c r="D554" t="n">
-        <v>885.0999755859375</v>
+        <v>844.2999877929688</v>
       </c>
       <c r="E554" t="n">
-        <v>898.0999755859375</v>
+        <v>895.4000244140625</v>
       </c>
       <c r="F554" t="n">
-        <v>898.0999755859375</v>
+        <v>895.4000244140625</v>
       </c>
       <c r="G554" t="n">
-        <v>102906</v>
+        <v>228724</v>
       </c>
       <c r="H554" t="n">
         <v>2024</v>
@@ -31466,7 +31468,7 @@
         <v>7</v>
       </c>
       <c r="J554" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K554" t="n">
         <v>0</v>
@@ -31489,29 +31491,31 @@
       <c r="Q554" t="n">
         <v>0</v>
       </c>
-      <c r="R554" t="inlineStr"/>
+      <c r="R554" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
-        <v>45477</v>
+        <v>45476</v>
       </c>
       <c r="B555" t="n">
-        <v>894.7999877929688</v>
+        <v>899.9500122070312</v>
       </c>
       <c r="C555" t="n">
-        <v>908.4500122070312</v>
+        <v>924.75</v>
       </c>
       <c r="D555" t="n">
-        <v>872.0999755859375</v>
+        <v>885.0999755859375</v>
       </c>
       <c r="E555" t="n">
-        <v>881.7999877929688</v>
+        <v>898.0999755859375</v>
       </c>
       <c r="F555" t="n">
-        <v>881.7999877929688</v>
+        <v>898.0999755859375</v>
       </c>
       <c r="G555" t="n">
-        <v>42839</v>
+        <v>102906</v>
       </c>
       <c r="H555" t="n">
         <v>2024</v>
@@ -31520,7 +31524,7 @@
         <v>7</v>
       </c>
       <c r="J555" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K555" t="n">
         <v>0</v>
@@ -31535,7 +31539,7 @@
         <v>27</v>
       </c>
       <c r="O555" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P555" t="n">
         <v>0</v>
@@ -31543,29 +31547,31 @@
       <c r="Q555" t="n">
         <v>0</v>
       </c>
-      <c r="R555" t="inlineStr"/>
+      <c r="R555" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>45478</v>
+        <v>45477</v>
       </c>
       <c r="B556" t="n">
+        <v>894.7999877929688</v>
+      </c>
+      <c r="C556" t="n">
+        <v>908.4500122070312</v>
+      </c>
+      <c r="D556" t="n">
+        <v>872.0999755859375</v>
+      </c>
+      <c r="E556" t="n">
         <v>881.7999877929688</v>
       </c>
-      <c r="C556" t="n">
-        <v>919.7000122070312</v>
-      </c>
-      <c r="D556" t="n">
-        <v>879.0499877929688</v>
-      </c>
-      <c r="E556" t="n">
-        <v>888.0499877929688</v>
-      </c>
       <c r="F556" t="n">
-        <v>888.0499877929688</v>
+        <v>881.7999877929688</v>
       </c>
       <c r="G556" t="n">
-        <v>75889</v>
+        <v>42839</v>
       </c>
       <c r="H556" t="n">
         <v>2024</v>
@@ -31574,7 +31580,7 @@
         <v>7</v>
       </c>
       <c r="J556" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K556" t="n">
         <v>0</v>
@@ -31597,7 +31603,551 @@
       <c r="Q556" t="n">
         <v>0</v>
       </c>
-      <c r="R556" t="inlineStr"/>
+      <c r="R556" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="2" t="n">
+        <v>45478</v>
+      </c>
+      <c r="B557" t="n">
+        <v>881.7999877929688</v>
+      </c>
+      <c r="C557" t="n">
+        <v>919.7000122070312</v>
+      </c>
+      <c r="D557" t="n">
+        <v>879.0499877929688</v>
+      </c>
+      <c r="E557" t="n">
+        <v>888.0499877929688</v>
+      </c>
+      <c r="F557" t="n">
+        <v>888.0499877929688</v>
+      </c>
+      <c r="G557" t="n">
+        <v>75889</v>
+      </c>
+      <c r="H557" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I557" t="n">
+        <v>7</v>
+      </c>
+      <c r="J557" t="n">
+        <v>5</v>
+      </c>
+      <c r="K557" t="n">
+        <v>0</v>
+      </c>
+      <c r="L557" t="n">
+        <v>0</v>
+      </c>
+      <c r="M557" t="n">
+        <v>0</v>
+      </c>
+      <c r="N557" t="n">
+        <v>27</v>
+      </c>
+      <c r="O557" t="n">
+        <v>0</v>
+      </c>
+      <c r="P557" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q557" t="n">
+        <v>0</v>
+      </c>
+      <c r="R557" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B558" t="n">
+        <v>914</v>
+      </c>
+      <c r="C558" t="n">
+        <v>917.25</v>
+      </c>
+      <c r="D558" t="n">
+        <v>887.8499755859375</v>
+      </c>
+      <c r="E558" t="n">
+        <v>901.3499755859375</v>
+      </c>
+      <c r="F558" t="n">
+        <v>901.3499755859375</v>
+      </c>
+      <c r="G558" t="n">
+        <v>69930</v>
+      </c>
+      <c r="H558" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I558" t="n">
+        <v>7</v>
+      </c>
+      <c r="J558" t="n">
+        <v>8</v>
+      </c>
+      <c r="K558" t="n">
+        <v>0</v>
+      </c>
+      <c r="L558" t="n">
+        <v>0</v>
+      </c>
+      <c r="M558" t="n">
+        <v>0</v>
+      </c>
+      <c r="N558" t="n">
+        <v>28</v>
+      </c>
+      <c r="O558" t="n">
+        <v>0</v>
+      </c>
+      <c r="P558" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q558" t="n">
+        <v>0</v>
+      </c>
+      <c r="R558" t="inlineStr"/>
+    </row>
+    <row r="559">
+      <c r="A559" s="2" t="n">
+        <v>45482</v>
+      </c>
+      <c r="B559" t="n">
+        <v>909</v>
+      </c>
+      <c r="C559" t="n">
+        <v>911.4500122070312</v>
+      </c>
+      <c r="D559" t="n">
+        <v>876.8499755859375</v>
+      </c>
+      <c r="E559" t="n">
+        <v>889.5499877929688</v>
+      </c>
+      <c r="F559" t="n">
+        <v>889.5499877929688</v>
+      </c>
+      <c r="G559" t="n">
+        <v>47025</v>
+      </c>
+      <c r="H559" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I559" t="n">
+        <v>7</v>
+      </c>
+      <c r="J559" t="n">
+        <v>9</v>
+      </c>
+      <c r="K559" t="n">
+        <v>0</v>
+      </c>
+      <c r="L559" t="n">
+        <v>0</v>
+      </c>
+      <c r="M559" t="n">
+        <v>0</v>
+      </c>
+      <c r="N559" t="n">
+        <v>28</v>
+      </c>
+      <c r="O559" t="n">
+        <v>0</v>
+      </c>
+      <c r="P559" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q559" t="n">
+        <v>0</v>
+      </c>
+      <c r="R559" t="inlineStr"/>
+    </row>
+    <row r="560">
+      <c r="A560" s="2" t="n">
+        <v>45483</v>
+      </c>
+      <c r="B560" t="n">
+        <v>879.6500244140625</v>
+      </c>
+      <c r="C560" t="n">
+        <v>893.8499755859375</v>
+      </c>
+      <c r="D560" t="n">
+        <v>818</v>
+      </c>
+      <c r="E560" t="n">
+        <v>858.5499877929688</v>
+      </c>
+      <c r="F560" t="n">
+        <v>858.5499877929688</v>
+      </c>
+      <c r="G560" t="n">
+        <v>191029</v>
+      </c>
+      <c r="H560" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I560" t="n">
+        <v>7</v>
+      </c>
+      <c r="J560" t="n">
+        <v>10</v>
+      </c>
+      <c r="K560" t="n">
+        <v>0</v>
+      </c>
+      <c r="L560" t="n">
+        <v>0</v>
+      </c>
+      <c r="M560" t="n">
+        <v>0</v>
+      </c>
+      <c r="N560" t="n">
+        <v>28</v>
+      </c>
+      <c r="O560" t="n">
+        <v>0</v>
+      </c>
+      <c r="P560" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q560" t="n">
+        <v>0</v>
+      </c>
+      <c r="R560" t="inlineStr"/>
+    </row>
+    <row r="561">
+      <c r="A561" s="2" t="n">
+        <v>45484</v>
+      </c>
+      <c r="B561" t="n">
+        <v>900</v>
+      </c>
+      <c r="C561" t="n">
+        <v>900</v>
+      </c>
+      <c r="D561" t="n">
+        <v>863.5</v>
+      </c>
+      <c r="E561" t="n">
+        <v>869.9500122070312</v>
+      </c>
+      <c r="F561" t="n">
+        <v>869.9500122070312</v>
+      </c>
+      <c r="G561" t="n">
+        <v>52528</v>
+      </c>
+      <c r="H561" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I561" t="n">
+        <v>7</v>
+      </c>
+      <c r="J561" t="n">
+        <v>11</v>
+      </c>
+      <c r="K561" t="n">
+        <v>0</v>
+      </c>
+      <c r="L561" t="n">
+        <v>0</v>
+      </c>
+      <c r="M561" t="n">
+        <v>0</v>
+      </c>
+      <c r="N561" t="n">
+        <v>28</v>
+      </c>
+      <c r="O561" t="n">
+        <v>0</v>
+      </c>
+      <c r="P561" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q561" t="n">
+        <v>0</v>
+      </c>
+      <c r="R561" t="inlineStr"/>
+    </row>
+    <row r="562">
+      <c r="A562" s="2" t="n">
+        <v>45485</v>
+      </c>
+      <c r="B562" t="n">
+        <v>874</v>
+      </c>
+      <c r="C562" t="n">
+        <v>874.5</v>
+      </c>
+      <c r="D562" t="n">
+        <v>835.9500122070312</v>
+      </c>
+      <c r="E562" t="n">
+        <v>851.0499877929688</v>
+      </c>
+      <c r="F562" t="n">
+        <v>851.0499877929688</v>
+      </c>
+      <c r="G562" t="n">
+        <v>81984</v>
+      </c>
+      <c r="H562" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I562" t="n">
+        <v>7</v>
+      </c>
+      <c r="J562" t="n">
+        <v>12</v>
+      </c>
+      <c r="K562" t="n">
+        <v>0</v>
+      </c>
+      <c r="L562" t="n">
+        <v>0</v>
+      </c>
+      <c r="M562" t="n">
+        <v>0</v>
+      </c>
+      <c r="N562" t="n">
+        <v>28</v>
+      </c>
+      <c r="O562" t="n">
+        <v>0</v>
+      </c>
+      <c r="P562" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q562" t="n">
+        <v>0</v>
+      </c>
+      <c r="R562" t="inlineStr"/>
+    </row>
+    <row r="563">
+      <c r="A563" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B563" t="n">
+        <v>853</v>
+      </c>
+      <c r="C563" t="n">
+        <v>875</v>
+      </c>
+      <c r="D563" t="n">
+        <v>835.5</v>
+      </c>
+      <c r="E563" t="n">
+        <v>864.0499877929688</v>
+      </c>
+      <c r="F563" t="n">
+        <v>864.0499877929688</v>
+      </c>
+      <c r="G563" t="n">
+        <v>103144</v>
+      </c>
+      <c r="H563" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I563" t="n">
+        <v>7</v>
+      </c>
+      <c r="J563" t="n">
+        <v>15</v>
+      </c>
+      <c r="K563" t="n">
+        <v>0</v>
+      </c>
+      <c r="L563" t="n">
+        <v>0</v>
+      </c>
+      <c r="M563" t="n">
+        <v>0</v>
+      </c>
+      <c r="N563" t="n">
+        <v>29</v>
+      </c>
+      <c r="O563" t="n">
+        <v>0</v>
+      </c>
+      <c r="P563" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q563" t="n">
+        <v>0</v>
+      </c>
+      <c r="R563" t="inlineStr"/>
+    </row>
+    <row r="564">
+      <c r="A564" s="2" t="n">
+        <v>45489</v>
+      </c>
+      <c r="B564" t="n">
+        <v>868.5499877929688</v>
+      </c>
+      <c r="C564" t="n">
+        <v>869.5</v>
+      </c>
+      <c r="D564" t="n">
+        <v>850</v>
+      </c>
+      <c r="E564" t="n">
+        <v>866.3499755859375</v>
+      </c>
+      <c r="F564" t="n">
+        <v>866.3499755859375</v>
+      </c>
+      <c r="G564" t="n">
+        <v>20980</v>
+      </c>
+      <c r="H564" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I564" t="n">
+        <v>7</v>
+      </c>
+      <c r="J564" t="n">
+        <v>16</v>
+      </c>
+      <c r="K564" t="n">
+        <v>0</v>
+      </c>
+      <c r="L564" t="n">
+        <v>0</v>
+      </c>
+      <c r="M564" t="n">
+        <v>0</v>
+      </c>
+      <c r="N564" t="n">
+        <v>29</v>
+      </c>
+      <c r="O564" t="n">
+        <v>0</v>
+      </c>
+      <c r="P564" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q564" t="n">
+        <v>0</v>
+      </c>
+      <c r="R564" t="inlineStr"/>
+    </row>
+    <row r="565">
+      <c r="A565" s="2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B565" t="n">
+        <v>869</v>
+      </c>
+      <c r="C565" t="n">
+        <v>869</v>
+      </c>
+      <c r="D565" t="n">
+        <v>835.5999755859375</v>
+      </c>
+      <c r="E565" t="n">
+        <v>843.0999755859375</v>
+      </c>
+      <c r="F565" t="n">
+        <v>843.0999755859375</v>
+      </c>
+      <c r="G565" t="n">
+        <v>31926</v>
+      </c>
+      <c r="H565" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I565" t="n">
+        <v>7</v>
+      </c>
+      <c r="J565" t="n">
+        <v>18</v>
+      </c>
+      <c r="K565" t="n">
+        <v>0</v>
+      </c>
+      <c r="L565" t="n">
+        <v>0</v>
+      </c>
+      <c r="M565" t="n">
+        <v>0</v>
+      </c>
+      <c r="N565" t="n">
+        <v>29</v>
+      </c>
+      <c r="O565" t="n">
+        <v>0</v>
+      </c>
+      <c r="P565" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q565" t="n">
+        <v>0</v>
+      </c>
+      <c r="R565" t="inlineStr"/>
+    </row>
+    <row r="566">
+      <c r="A566" s="2" t="n">
+        <v>45492</v>
+      </c>
+      <c r="B566" t="n">
+        <v>836</v>
+      </c>
+      <c r="C566" t="n">
+        <v>890.3499755859375</v>
+      </c>
+      <c r="D566" t="n">
+        <v>810</v>
+      </c>
+      <c r="E566" t="n">
+        <v>857.25</v>
+      </c>
+      <c r="F566" t="n">
+        <v>857.25</v>
+      </c>
+      <c r="G566" t="n">
+        <v>104122</v>
+      </c>
+      <c r="H566" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I566" t="n">
+        <v>7</v>
+      </c>
+      <c r="J566" t="n">
+        <v>19</v>
+      </c>
+      <c r="K566" t="n">
+        <v>0</v>
+      </c>
+      <c r="L566" t="n">
+        <v>0</v>
+      </c>
+      <c r="M566" t="n">
+        <v>0</v>
+      </c>
+      <c r="N566" t="n">
+        <v>29</v>
+      </c>
+      <c r="O566" t="n">
+        <v>0</v>
+      </c>
+      <c r="P566" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q566" t="n">
+        <v>0</v>
+      </c>
+      <c r="R566" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SHAILY.NS.xlsx
+++ b/stock_historical_data/1d/SHAILY.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R566"/>
+  <dimension ref="A1:R576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8139,7 +8139,7 @@
         <v>1</v>
       </c>
       <c r="Q137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R137" t="n">
         <v>1</v>
@@ -27573,7 +27573,9 @@
       <c r="Q484" t="n">
         <v>0</v>
       </c>
-      <c r="R484" t="inlineStr"/>
+      <c r="R484" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
@@ -28132,7 +28134,7 @@
         <v>0</v>
       </c>
       <c r="R494" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495">
@@ -28188,7 +28190,7 @@
         <v>0</v>
       </c>
       <c r="R495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496">
@@ -31715,7 +31717,9 @@
       <c r="Q558" t="n">
         <v>0</v>
       </c>
-      <c r="R558" t="inlineStr"/>
+      <c r="R558" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
@@ -31769,7 +31773,9 @@
       <c r="Q559" t="n">
         <v>0</v>
       </c>
-      <c r="R559" t="inlineStr"/>
+      <c r="R559" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
@@ -31823,7 +31829,9 @@
       <c r="Q560" t="n">
         <v>0</v>
       </c>
-      <c r="R560" t="inlineStr"/>
+      <c r="R560" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
@@ -31877,7 +31885,9 @@
       <c r="Q561" t="n">
         <v>0</v>
       </c>
-      <c r="R561" t="inlineStr"/>
+      <c r="R561" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
@@ -31931,7 +31941,9 @@
       <c r="Q562" t="n">
         <v>0</v>
       </c>
-      <c r="R562" t="inlineStr"/>
+      <c r="R562" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
@@ -31985,7 +31997,9 @@
       <c r="Q563" t="n">
         <v>0</v>
       </c>
-      <c r="R563" t="inlineStr"/>
+      <c r="R563" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
@@ -32039,7 +32053,9 @@
       <c r="Q564" t="n">
         <v>0</v>
       </c>
-      <c r="R564" t="inlineStr"/>
+      <c r="R564" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
@@ -32093,7 +32109,9 @@
       <c r="Q565" t="n">
         <v>0</v>
       </c>
-      <c r="R565" t="inlineStr"/>
+      <c r="R565" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
@@ -32139,7 +32157,7 @@
         <v>29</v>
       </c>
       <c r="O566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P566" t="n">
         <v>0</v>
@@ -32147,7 +32165,549 @@
       <c r="Q566" t="n">
         <v>0</v>
       </c>
-      <c r="R566" t="inlineStr"/>
+      <c r="R566" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B567" t="n">
+        <v>872</v>
+      </c>
+      <c r="C567" t="n">
+        <v>877</v>
+      </c>
+      <c r="D567" t="n">
+        <v>836.5999755859375</v>
+      </c>
+      <c r="E567" t="n">
+        <v>863.2000122070312</v>
+      </c>
+      <c r="F567" t="n">
+        <v>863.2000122070312</v>
+      </c>
+      <c r="G567" t="n">
+        <v>115112</v>
+      </c>
+      <c r="H567" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I567" t="n">
+        <v>7</v>
+      </c>
+      <c r="J567" t="n">
+        <v>22</v>
+      </c>
+      <c r="K567" t="n">
+        <v>0</v>
+      </c>
+      <c r="L567" t="n">
+        <v>0</v>
+      </c>
+      <c r="M567" t="n">
+        <v>0</v>
+      </c>
+      <c r="N567" t="n">
+        <v>30</v>
+      </c>
+      <c r="O567" t="n">
+        <v>0</v>
+      </c>
+      <c r="P567" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q567" t="n">
+        <v>0</v>
+      </c>
+      <c r="R567" t="inlineStr"/>
+    </row>
+    <row r="568">
+      <c r="A568" s="2" t="n">
+        <v>45496</v>
+      </c>
+      <c r="B568" t="n">
+        <v>869.9500122070312</v>
+      </c>
+      <c r="C568" t="n">
+        <v>869.9500122070312</v>
+      </c>
+      <c r="D568" t="n">
+        <v>823.25</v>
+      </c>
+      <c r="E568" t="n">
+        <v>850.9500122070312</v>
+      </c>
+      <c r="F568" t="n">
+        <v>850.9500122070312</v>
+      </c>
+      <c r="G568" t="n">
+        <v>47350</v>
+      </c>
+      <c r="H568" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I568" t="n">
+        <v>7</v>
+      </c>
+      <c r="J568" t="n">
+        <v>23</v>
+      </c>
+      <c r="K568" t="n">
+        <v>0</v>
+      </c>
+      <c r="L568" t="n">
+        <v>0</v>
+      </c>
+      <c r="M568" t="n">
+        <v>0</v>
+      </c>
+      <c r="N568" t="n">
+        <v>30</v>
+      </c>
+      <c r="O568" t="n">
+        <v>0</v>
+      </c>
+      <c r="P568" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q568" t="n">
+        <v>0</v>
+      </c>
+      <c r="R568" t="inlineStr"/>
+    </row>
+    <row r="569">
+      <c r="A569" s="2" t="n">
+        <v>45497</v>
+      </c>
+      <c r="B569" t="n">
+        <v>874</v>
+      </c>
+      <c r="C569" t="n">
+        <v>892.9500122070312</v>
+      </c>
+      <c r="D569" t="n">
+        <v>855.4000244140625</v>
+      </c>
+      <c r="E569" t="n">
+        <v>876.5</v>
+      </c>
+      <c r="F569" t="n">
+        <v>876.5</v>
+      </c>
+      <c r="G569" t="n">
+        <v>94475</v>
+      </c>
+      <c r="H569" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I569" t="n">
+        <v>7</v>
+      </c>
+      <c r="J569" t="n">
+        <v>24</v>
+      </c>
+      <c r="K569" t="n">
+        <v>0</v>
+      </c>
+      <c r="L569" t="n">
+        <v>0</v>
+      </c>
+      <c r="M569" t="n">
+        <v>0</v>
+      </c>
+      <c r="N569" t="n">
+        <v>30</v>
+      </c>
+      <c r="O569" t="n">
+        <v>0</v>
+      </c>
+      <c r="P569" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q569" t="n">
+        <v>0</v>
+      </c>
+      <c r="R569" t="inlineStr"/>
+    </row>
+    <row r="570">
+      <c r="A570" s="2" t="n">
+        <v>45498</v>
+      </c>
+      <c r="B570" t="n">
+        <v>883</v>
+      </c>
+      <c r="C570" t="n">
+        <v>885.5999755859375</v>
+      </c>
+      <c r="D570" t="n">
+        <v>855.3499755859375</v>
+      </c>
+      <c r="E570" t="n">
+        <v>863.4500122070312</v>
+      </c>
+      <c r="F570" t="n">
+        <v>863.4500122070312</v>
+      </c>
+      <c r="G570" t="n">
+        <v>85650</v>
+      </c>
+      <c r="H570" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I570" t="n">
+        <v>7</v>
+      </c>
+      <c r="J570" t="n">
+        <v>25</v>
+      </c>
+      <c r="K570" t="n">
+        <v>0</v>
+      </c>
+      <c r="L570" t="n">
+        <v>0</v>
+      </c>
+      <c r="M570" t="n">
+        <v>0</v>
+      </c>
+      <c r="N570" t="n">
+        <v>30</v>
+      </c>
+      <c r="O570" t="n">
+        <v>0</v>
+      </c>
+      <c r="P570" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q570" t="n">
+        <v>0</v>
+      </c>
+      <c r="R570" t="inlineStr"/>
+    </row>
+    <row r="571">
+      <c r="A571" s="2" t="n">
+        <v>45499</v>
+      </c>
+      <c r="B571" t="n">
+        <v>873</v>
+      </c>
+      <c r="C571" t="n">
+        <v>877.7999877929688</v>
+      </c>
+      <c r="D571" t="n">
+        <v>848</v>
+      </c>
+      <c r="E571" t="n">
+        <v>855.2999877929688</v>
+      </c>
+      <c r="F571" t="n">
+        <v>855.2999877929688</v>
+      </c>
+      <c r="G571" t="n">
+        <v>70337</v>
+      </c>
+      <c r="H571" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I571" t="n">
+        <v>7</v>
+      </c>
+      <c r="J571" t="n">
+        <v>26</v>
+      </c>
+      <c r="K571" t="n">
+        <v>0</v>
+      </c>
+      <c r="L571" t="n">
+        <v>0</v>
+      </c>
+      <c r="M571" t="n">
+        <v>0</v>
+      </c>
+      <c r="N571" t="n">
+        <v>30</v>
+      </c>
+      <c r="O571" t="n">
+        <v>0</v>
+      </c>
+      <c r="P571" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q571" t="n">
+        <v>0</v>
+      </c>
+      <c r="R571" t="inlineStr"/>
+    </row>
+    <row r="572">
+      <c r="A572" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B572" t="n">
+        <v>850.0499877929688</v>
+      </c>
+      <c r="C572" t="n">
+        <v>859.25</v>
+      </c>
+      <c r="D572" t="n">
+        <v>815</v>
+      </c>
+      <c r="E572" t="n">
+        <v>821.7000122070312</v>
+      </c>
+      <c r="F572" t="n">
+        <v>821.7000122070312</v>
+      </c>
+      <c r="G572" t="n">
+        <v>137697</v>
+      </c>
+      <c r="H572" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I572" t="n">
+        <v>7</v>
+      </c>
+      <c r="J572" t="n">
+        <v>29</v>
+      </c>
+      <c r="K572" t="n">
+        <v>0</v>
+      </c>
+      <c r="L572" t="n">
+        <v>0</v>
+      </c>
+      <c r="M572" t="n">
+        <v>0</v>
+      </c>
+      <c r="N572" t="n">
+        <v>31</v>
+      </c>
+      <c r="O572" t="n">
+        <v>0</v>
+      </c>
+      <c r="P572" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q572" t="n">
+        <v>0</v>
+      </c>
+      <c r="R572" t="inlineStr"/>
+    </row>
+    <row r="573">
+      <c r="A573" s="2" t="n">
+        <v>45503</v>
+      </c>
+      <c r="B573" t="n">
+        <v>838.1500244140625</v>
+      </c>
+      <c r="C573" t="n">
+        <v>851.9000244140625</v>
+      </c>
+      <c r="D573" t="n">
+        <v>830.5</v>
+      </c>
+      <c r="E573" t="n">
+        <v>837.7999877929688</v>
+      </c>
+      <c r="F573" t="n">
+        <v>837.7999877929688</v>
+      </c>
+      <c r="G573" t="n">
+        <v>107582</v>
+      </c>
+      <c r="H573" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I573" t="n">
+        <v>7</v>
+      </c>
+      <c r="J573" t="n">
+        <v>30</v>
+      </c>
+      <c r="K573" t="n">
+        <v>0</v>
+      </c>
+      <c r="L573" t="n">
+        <v>0</v>
+      </c>
+      <c r="M573" t="n">
+        <v>0</v>
+      </c>
+      <c r="N573" t="n">
+        <v>31</v>
+      </c>
+      <c r="O573" t="n">
+        <v>0</v>
+      </c>
+      <c r="P573" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q573" t="n">
+        <v>0</v>
+      </c>
+      <c r="R573" t="inlineStr"/>
+    </row>
+    <row r="574">
+      <c r="A574" s="2" t="n">
+        <v>45504</v>
+      </c>
+      <c r="B574" t="n">
+        <v>861</v>
+      </c>
+      <c r="C574" t="n">
+        <v>868.2000122070312</v>
+      </c>
+      <c r="D574" t="n">
+        <v>838.2000122070312</v>
+      </c>
+      <c r="E574" t="n">
+        <v>861.7999877929688</v>
+      </c>
+      <c r="F574" t="n">
+        <v>861.7999877929688</v>
+      </c>
+      <c r="G574" t="n">
+        <v>78521</v>
+      </c>
+      <c r="H574" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I574" t="n">
+        <v>7</v>
+      </c>
+      <c r="J574" t="n">
+        <v>31</v>
+      </c>
+      <c r="K574" t="n">
+        <v>0</v>
+      </c>
+      <c r="L574" t="n">
+        <v>0</v>
+      </c>
+      <c r="M574" t="n">
+        <v>0</v>
+      </c>
+      <c r="N574" t="n">
+        <v>31</v>
+      </c>
+      <c r="O574" t="n">
+        <v>0</v>
+      </c>
+      <c r="P574" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q574" t="n">
+        <v>0</v>
+      </c>
+      <c r="R574" t="inlineStr"/>
+    </row>
+    <row r="575">
+      <c r="A575" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B575" t="n">
+        <v>874.7999877929688</v>
+      </c>
+      <c r="C575" t="n">
+        <v>874.7999877929688</v>
+      </c>
+      <c r="D575" t="n">
+        <v>826.25</v>
+      </c>
+      <c r="E575" t="n">
+        <v>834.4500122070312</v>
+      </c>
+      <c r="F575" t="n">
+        <v>834.4500122070312</v>
+      </c>
+      <c r="G575" t="n">
+        <v>111434</v>
+      </c>
+      <c r="H575" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I575" t="n">
+        <v>8</v>
+      </c>
+      <c r="J575" t="n">
+        <v>1</v>
+      </c>
+      <c r="K575" t="n">
+        <v>0</v>
+      </c>
+      <c r="L575" t="n">
+        <v>0</v>
+      </c>
+      <c r="M575" t="n">
+        <v>0</v>
+      </c>
+      <c r="N575" t="n">
+        <v>31</v>
+      </c>
+      <c r="O575" t="n">
+        <v>0</v>
+      </c>
+      <c r="P575" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q575" t="n">
+        <v>0</v>
+      </c>
+      <c r="R575" t="inlineStr"/>
+    </row>
+    <row r="576">
+      <c r="A576" s="2" t="n">
+        <v>45506</v>
+      </c>
+      <c r="B576" t="n">
+        <v>834</v>
+      </c>
+      <c r="C576" t="n">
+        <v>854.9500122070312</v>
+      </c>
+      <c r="D576" t="n">
+        <v>826.9000244140625</v>
+      </c>
+      <c r="E576" t="n">
+        <v>846.2999877929688</v>
+      </c>
+      <c r="F576" t="n">
+        <v>846.2999877929688</v>
+      </c>
+      <c r="G576" t="n">
+        <v>100763</v>
+      </c>
+      <c r="H576" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I576" t="n">
+        <v>8</v>
+      </c>
+      <c r="J576" t="n">
+        <v>2</v>
+      </c>
+      <c r="K576" t="n">
+        <v>0</v>
+      </c>
+      <c r="L576" t="n">
+        <v>0</v>
+      </c>
+      <c r="M576" t="n">
+        <v>0</v>
+      </c>
+      <c r="N576" t="n">
+        <v>31</v>
+      </c>
+      <c r="O576" t="n">
+        <v>0</v>
+      </c>
+      <c r="P576" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q576" t="n">
+        <v>0</v>
+      </c>
+      <c r="R576" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SHAILY.NS.xlsx
+++ b/stock_historical_data/1d/SHAILY.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R576"/>
+  <dimension ref="A1:R581"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8139,7 +8139,7 @@
         <v>1</v>
       </c>
       <c r="Q137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R137" t="n">
         <v>1</v>
@@ -32221,7 +32221,9 @@
       <c r="Q567" t="n">
         <v>0</v>
       </c>
-      <c r="R567" t="inlineStr"/>
+      <c r="R567" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
@@ -32275,7 +32277,9 @@
       <c r="Q568" t="n">
         <v>0</v>
       </c>
-      <c r="R568" t="inlineStr"/>
+      <c r="R568" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
@@ -32329,7 +32333,9 @@
       <c r="Q569" t="n">
         <v>0</v>
       </c>
-      <c r="R569" t="inlineStr"/>
+      <c r="R569" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
@@ -32383,7 +32389,9 @@
       <c r="Q570" t="n">
         <v>0</v>
       </c>
-      <c r="R570" t="inlineStr"/>
+      <c r="R570" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
@@ -32437,7 +32445,9 @@
       <c r="Q571" t="n">
         <v>0</v>
       </c>
-      <c r="R571" t="inlineStr"/>
+      <c r="R571" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
@@ -32491,7 +32501,9 @@
       <c r="Q572" t="n">
         <v>0</v>
       </c>
-      <c r="R572" t="inlineStr"/>
+      <c r="R572" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
@@ -32545,7 +32557,9 @@
       <c r="Q573" t="n">
         <v>0</v>
       </c>
-      <c r="R573" t="inlineStr"/>
+      <c r="R573" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
@@ -32599,7 +32613,9 @@
       <c r="Q574" t="n">
         <v>0</v>
       </c>
-      <c r="R574" t="inlineStr"/>
+      <c r="R574" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
@@ -32653,7 +32669,9 @@
       <c r="Q575" t="n">
         <v>0</v>
       </c>
-      <c r="R575" t="inlineStr"/>
+      <c r="R575" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
@@ -32707,7 +32725,279 @@
       <c r="Q576" t="n">
         <v>0</v>
       </c>
-      <c r="R576" t="inlineStr"/>
+      <c r="R576" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B577" t="n">
+        <v>812</v>
+      </c>
+      <c r="C577" t="n">
+        <v>910.75</v>
+      </c>
+      <c r="D577" t="n">
+        <v>802.0499877929688</v>
+      </c>
+      <c r="E577" t="n">
+        <v>865.5999755859375</v>
+      </c>
+      <c r="F577" t="n">
+        <v>865.5999755859375</v>
+      </c>
+      <c r="G577" t="n">
+        <v>224437</v>
+      </c>
+      <c r="H577" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I577" t="n">
+        <v>8</v>
+      </c>
+      <c r="J577" t="n">
+        <v>5</v>
+      </c>
+      <c r="K577" t="n">
+        <v>0</v>
+      </c>
+      <c r="L577" t="n">
+        <v>0</v>
+      </c>
+      <c r="M577" t="n">
+        <v>0</v>
+      </c>
+      <c r="N577" t="n">
+        <v>32</v>
+      </c>
+      <c r="O577" t="n">
+        <v>0</v>
+      </c>
+      <c r="P577" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q577" t="n">
+        <v>0</v>
+      </c>
+      <c r="R577" t="inlineStr"/>
+    </row>
+    <row r="578">
+      <c r="A578" s="2" t="n">
+        <v>45510</v>
+      </c>
+      <c r="B578" t="n">
+        <v>897</v>
+      </c>
+      <c r="C578" t="n">
+        <v>897</v>
+      </c>
+      <c r="D578" t="n">
+        <v>825.5</v>
+      </c>
+      <c r="E578" t="n">
+        <v>829.3499755859375</v>
+      </c>
+      <c r="F578" t="n">
+        <v>829.3499755859375</v>
+      </c>
+      <c r="G578" t="n">
+        <v>88248</v>
+      </c>
+      <c r="H578" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I578" t="n">
+        <v>8</v>
+      </c>
+      <c r="J578" t="n">
+        <v>6</v>
+      </c>
+      <c r="K578" t="n">
+        <v>0</v>
+      </c>
+      <c r="L578" t="n">
+        <v>0</v>
+      </c>
+      <c r="M578" t="n">
+        <v>0</v>
+      </c>
+      <c r="N578" t="n">
+        <v>32</v>
+      </c>
+      <c r="O578" t="n">
+        <v>0</v>
+      </c>
+      <c r="P578" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q578" t="n">
+        <v>0</v>
+      </c>
+      <c r="R578" t="inlineStr"/>
+    </row>
+    <row r="579">
+      <c r="A579" s="2" t="n">
+        <v>45511</v>
+      </c>
+      <c r="B579" t="n">
+        <v>849</v>
+      </c>
+      <c r="C579" t="n">
+        <v>868.5</v>
+      </c>
+      <c r="D579" t="n">
+        <v>820.1500244140625</v>
+      </c>
+      <c r="E579" t="n">
+        <v>853.8499755859375</v>
+      </c>
+      <c r="F579" t="n">
+        <v>853.8499755859375</v>
+      </c>
+      <c r="G579" t="n">
+        <v>127416</v>
+      </c>
+      <c r="H579" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I579" t="n">
+        <v>8</v>
+      </c>
+      <c r="J579" t="n">
+        <v>7</v>
+      </c>
+      <c r="K579" t="n">
+        <v>0</v>
+      </c>
+      <c r="L579" t="n">
+        <v>0</v>
+      </c>
+      <c r="M579" t="n">
+        <v>0</v>
+      </c>
+      <c r="N579" t="n">
+        <v>32</v>
+      </c>
+      <c r="O579" t="n">
+        <v>0</v>
+      </c>
+      <c r="P579" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q579" t="n">
+        <v>0</v>
+      </c>
+      <c r="R579" t="inlineStr"/>
+    </row>
+    <row r="580">
+      <c r="A580" s="2" t="n">
+        <v>45512</v>
+      </c>
+      <c r="B580" t="n">
+        <v>852</v>
+      </c>
+      <c r="C580" t="n">
+        <v>885.5</v>
+      </c>
+      <c r="D580" t="n">
+        <v>844.9000244140625</v>
+      </c>
+      <c r="E580" t="n">
+        <v>875.4500122070312</v>
+      </c>
+      <c r="F580" t="n">
+        <v>875.4500122070312</v>
+      </c>
+      <c r="G580" t="n">
+        <v>205259</v>
+      </c>
+      <c r="H580" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I580" t="n">
+        <v>8</v>
+      </c>
+      <c r="J580" t="n">
+        <v>8</v>
+      </c>
+      <c r="K580" t="n">
+        <v>0</v>
+      </c>
+      <c r="L580" t="n">
+        <v>0</v>
+      </c>
+      <c r="M580" t="n">
+        <v>0</v>
+      </c>
+      <c r="N580" t="n">
+        <v>32</v>
+      </c>
+      <c r="O580" t="n">
+        <v>0</v>
+      </c>
+      <c r="P580" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q580" t="n">
+        <v>0</v>
+      </c>
+      <c r="R580" t="inlineStr"/>
+    </row>
+    <row r="581">
+      <c r="A581" s="2" t="n">
+        <v>45513</v>
+      </c>
+      <c r="B581" t="n">
+        <v>875</v>
+      </c>
+      <c r="C581" t="n">
+        <v>939.7999877929688</v>
+      </c>
+      <c r="D581" t="n">
+        <v>875</v>
+      </c>
+      <c r="E581" t="n">
+        <v>908</v>
+      </c>
+      <c r="F581" t="n">
+        <v>908</v>
+      </c>
+      <c r="G581" t="n">
+        <v>273053</v>
+      </c>
+      <c r="H581" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I581" t="n">
+        <v>8</v>
+      </c>
+      <c r="J581" t="n">
+        <v>9</v>
+      </c>
+      <c r="K581" t="n">
+        <v>0</v>
+      </c>
+      <c r="L581" t="n">
+        <v>0</v>
+      </c>
+      <c r="M581" t="n">
+        <v>0</v>
+      </c>
+      <c r="N581" t="n">
+        <v>32</v>
+      </c>
+      <c r="O581" t="n">
+        <v>0</v>
+      </c>
+      <c r="P581" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q581" t="n">
+        <v>0</v>
+      </c>
+      <c r="R581" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SHAILY.NS.xlsx
+++ b/stock_historical_data/1d/SHAILY.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R581"/>
+  <dimension ref="A1:R585"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32781,7 +32781,9 @@
       <c r="Q577" t="n">
         <v>0</v>
       </c>
-      <c r="R577" t="inlineStr"/>
+      <c r="R577" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
@@ -32835,7 +32837,9 @@
       <c r="Q578" t="n">
         <v>0</v>
       </c>
-      <c r="R578" t="inlineStr"/>
+      <c r="R578" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
@@ -32889,7 +32893,9 @@
       <c r="Q579" t="n">
         <v>0</v>
       </c>
-      <c r="R579" t="inlineStr"/>
+      <c r="R579" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
@@ -32943,7 +32949,9 @@
       <c r="Q580" t="n">
         <v>0</v>
       </c>
-      <c r="R580" t="inlineStr"/>
+      <c r="R580" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
@@ -32997,7 +33005,225 @@
       <c r="Q581" t="n">
         <v>0</v>
       </c>
-      <c r="R581" t="inlineStr"/>
+      <c r="R581" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B582" t="n">
+        <v>911</v>
+      </c>
+      <c r="C582" t="n">
+        <v>934.7000122070312</v>
+      </c>
+      <c r="D582" t="n">
+        <v>899</v>
+      </c>
+      <c r="E582" t="n">
+        <v>904.5999755859375</v>
+      </c>
+      <c r="F582" t="n">
+        <v>904.5999755859375</v>
+      </c>
+      <c r="G582" t="n">
+        <v>176870</v>
+      </c>
+      <c r="H582" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I582" t="n">
+        <v>8</v>
+      </c>
+      <c r="J582" t="n">
+        <v>12</v>
+      </c>
+      <c r="K582" t="n">
+        <v>0</v>
+      </c>
+      <c r="L582" t="n">
+        <v>0</v>
+      </c>
+      <c r="M582" t="n">
+        <v>0</v>
+      </c>
+      <c r="N582" t="n">
+        <v>33</v>
+      </c>
+      <c r="O582" t="n">
+        <v>0</v>
+      </c>
+      <c r="P582" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q582" t="n">
+        <v>0</v>
+      </c>
+      <c r="R582" t="inlineStr"/>
+    </row>
+    <row r="583">
+      <c r="A583" s="2" t="n">
+        <v>45517</v>
+      </c>
+      <c r="B583" t="n">
+        <v>928.7999877929688</v>
+      </c>
+      <c r="C583" t="n">
+        <v>928.7999877929688</v>
+      </c>
+      <c r="D583" t="n">
+        <v>904.9500122070312</v>
+      </c>
+      <c r="E583" t="n">
+        <v>916.1500244140625</v>
+      </c>
+      <c r="F583" t="n">
+        <v>916.1500244140625</v>
+      </c>
+      <c r="G583" t="n">
+        <v>208969</v>
+      </c>
+      <c r="H583" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I583" t="n">
+        <v>8</v>
+      </c>
+      <c r="J583" t="n">
+        <v>13</v>
+      </c>
+      <c r="K583" t="n">
+        <v>0</v>
+      </c>
+      <c r="L583" t="n">
+        <v>0</v>
+      </c>
+      <c r="M583" t="n">
+        <v>0</v>
+      </c>
+      <c r="N583" t="n">
+        <v>33</v>
+      </c>
+      <c r="O583" t="n">
+        <v>0</v>
+      </c>
+      <c r="P583" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q583" t="n">
+        <v>0</v>
+      </c>
+      <c r="R583" t="inlineStr"/>
+    </row>
+    <row r="584">
+      <c r="A584" s="2" t="n">
+        <v>45518</v>
+      </c>
+      <c r="B584" t="n">
+        <v>923.9000244140625</v>
+      </c>
+      <c r="C584" t="n">
+        <v>924</v>
+      </c>
+      <c r="D584" t="n">
+        <v>886.2000122070312</v>
+      </c>
+      <c r="E584" t="n">
+        <v>906.2000122070312</v>
+      </c>
+      <c r="F584" t="n">
+        <v>906.2000122070312</v>
+      </c>
+      <c r="G584" t="n">
+        <v>98419</v>
+      </c>
+      <c r="H584" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I584" t="n">
+        <v>8</v>
+      </c>
+      <c r="J584" t="n">
+        <v>14</v>
+      </c>
+      <c r="K584" t="n">
+        <v>0</v>
+      </c>
+      <c r="L584" t="n">
+        <v>0</v>
+      </c>
+      <c r="M584" t="n">
+        <v>0</v>
+      </c>
+      <c r="N584" t="n">
+        <v>33</v>
+      </c>
+      <c r="O584" t="n">
+        <v>0</v>
+      </c>
+      <c r="P584" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q584" t="n">
+        <v>0</v>
+      </c>
+      <c r="R584" t="inlineStr"/>
+    </row>
+    <row r="585">
+      <c r="A585" s="2" t="n">
+        <v>45520</v>
+      </c>
+      <c r="B585" t="n">
+        <v>910</v>
+      </c>
+      <c r="C585" t="n">
+        <v>1024</v>
+      </c>
+      <c r="D585" t="n">
+        <v>910</v>
+      </c>
+      <c r="E585" t="n">
+        <v>1005.549987792969</v>
+      </c>
+      <c r="F585" t="n">
+        <v>1005.549987792969</v>
+      </c>
+      <c r="G585" t="n">
+        <v>349640</v>
+      </c>
+      <c r="H585" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I585" t="n">
+        <v>8</v>
+      </c>
+      <c r="J585" t="n">
+        <v>16</v>
+      </c>
+      <c r="K585" t="n">
+        <v>0</v>
+      </c>
+      <c r="L585" t="n">
+        <v>0</v>
+      </c>
+      <c r="M585" t="n">
+        <v>0</v>
+      </c>
+      <c r="N585" t="n">
+        <v>33</v>
+      </c>
+      <c r="O585" t="n">
+        <v>0</v>
+      </c>
+      <c r="P585" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q585" t="n">
+        <v>0</v>
+      </c>
+      <c r="R585" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SHAILY.NS.xlsx
+++ b/stock_historical_data/1d/SHAILY.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R585"/>
+  <dimension ref="A1:R590"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32773,7 +32773,7 @@
         <v>32</v>
       </c>
       <c r="O577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P577" t="n">
         <v>0</v>
@@ -33061,7 +33061,9 @@
       <c r="Q582" t="n">
         <v>0</v>
       </c>
-      <c r="R582" t="inlineStr"/>
+      <c r="R582" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
@@ -33115,7 +33117,9 @@
       <c r="Q583" t="n">
         <v>0</v>
       </c>
-      <c r="R583" t="inlineStr"/>
+      <c r="R583" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
@@ -33169,7 +33173,9 @@
       <c r="Q584" t="n">
         <v>0</v>
       </c>
-      <c r="R584" t="inlineStr"/>
+      <c r="R584" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
@@ -33223,7 +33229,279 @@
       <c r="Q585" t="n">
         <v>0</v>
       </c>
-      <c r="R585" t="inlineStr"/>
+      <c r="R585" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B586" t="n">
+        <v>1019</v>
+      </c>
+      <c r="C586" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D586" t="n">
+        <v>974.0499877929688</v>
+      </c>
+      <c r="E586" t="n">
+        <v>985.4000244140625</v>
+      </c>
+      <c r="F586" t="n">
+        <v>985.4000244140625</v>
+      </c>
+      <c r="G586" t="n">
+        <v>177061</v>
+      </c>
+      <c r="H586" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I586" t="n">
+        <v>8</v>
+      </c>
+      <c r="J586" t="n">
+        <v>19</v>
+      </c>
+      <c r="K586" t="n">
+        <v>0</v>
+      </c>
+      <c r="L586" t="n">
+        <v>0</v>
+      </c>
+      <c r="M586" t="n">
+        <v>0</v>
+      </c>
+      <c r="N586" t="n">
+        <v>34</v>
+      </c>
+      <c r="O586" t="n">
+        <v>0</v>
+      </c>
+      <c r="P586" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q586" t="n">
+        <v>0</v>
+      </c>
+      <c r="R586" t="inlineStr"/>
+    </row>
+    <row r="587">
+      <c r="A587" s="2" t="n">
+        <v>45524</v>
+      </c>
+      <c r="B587" t="n">
+        <v>990.75</v>
+      </c>
+      <c r="C587" t="n">
+        <v>995.0999755859375</v>
+      </c>
+      <c r="D587" t="n">
+        <v>961.4000244140625</v>
+      </c>
+      <c r="E587" t="n">
+        <v>969.4500122070312</v>
+      </c>
+      <c r="F587" t="n">
+        <v>969.4500122070312</v>
+      </c>
+      <c r="G587" t="n">
+        <v>90861</v>
+      </c>
+      <c r="H587" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I587" t="n">
+        <v>8</v>
+      </c>
+      <c r="J587" t="n">
+        <v>20</v>
+      </c>
+      <c r="K587" t="n">
+        <v>0</v>
+      </c>
+      <c r="L587" t="n">
+        <v>0</v>
+      </c>
+      <c r="M587" t="n">
+        <v>0</v>
+      </c>
+      <c r="N587" t="n">
+        <v>34</v>
+      </c>
+      <c r="O587" t="n">
+        <v>0</v>
+      </c>
+      <c r="P587" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q587" t="n">
+        <v>0</v>
+      </c>
+      <c r="R587" t="inlineStr"/>
+    </row>
+    <row r="588">
+      <c r="A588" s="2" t="n">
+        <v>45525</v>
+      </c>
+      <c r="B588" t="n">
+        <v>971</v>
+      </c>
+      <c r="C588" t="n">
+        <v>994.7000122070312</v>
+      </c>
+      <c r="D588" t="n">
+        <v>960.6500244140625</v>
+      </c>
+      <c r="E588" t="n">
+        <v>975.4000244140625</v>
+      </c>
+      <c r="F588" t="n">
+        <v>975.4000244140625</v>
+      </c>
+      <c r="G588" t="n">
+        <v>98727</v>
+      </c>
+      <c r="H588" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I588" t="n">
+        <v>8</v>
+      </c>
+      <c r="J588" t="n">
+        <v>21</v>
+      </c>
+      <c r="K588" t="n">
+        <v>0</v>
+      </c>
+      <c r="L588" t="n">
+        <v>0</v>
+      </c>
+      <c r="M588" t="n">
+        <v>0</v>
+      </c>
+      <c r="N588" t="n">
+        <v>34</v>
+      </c>
+      <c r="O588" t="n">
+        <v>0</v>
+      </c>
+      <c r="P588" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q588" t="n">
+        <v>0</v>
+      </c>
+      <c r="R588" t="inlineStr"/>
+    </row>
+    <row r="589">
+      <c r="A589" s="2" t="n">
+        <v>45526</v>
+      </c>
+      <c r="B589" t="n">
+        <v>979.2000122070312</v>
+      </c>
+      <c r="C589" t="n">
+        <v>1005</v>
+      </c>
+      <c r="D589" t="n">
+        <v>975</v>
+      </c>
+      <c r="E589" t="n">
+        <v>980.8499755859375</v>
+      </c>
+      <c r="F589" t="n">
+        <v>980.8499755859375</v>
+      </c>
+      <c r="G589" t="n">
+        <v>61121</v>
+      </c>
+      <c r="H589" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I589" t="n">
+        <v>8</v>
+      </c>
+      <c r="J589" t="n">
+        <v>22</v>
+      </c>
+      <c r="K589" t="n">
+        <v>0</v>
+      </c>
+      <c r="L589" t="n">
+        <v>0</v>
+      </c>
+      <c r="M589" t="n">
+        <v>0</v>
+      </c>
+      <c r="N589" t="n">
+        <v>34</v>
+      </c>
+      <c r="O589" t="n">
+        <v>0</v>
+      </c>
+      <c r="P589" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q589" t="n">
+        <v>0</v>
+      </c>
+      <c r="R589" t="inlineStr"/>
+    </row>
+    <row r="590">
+      <c r="A590" s="2" t="n">
+        <v>45527</v>
+      </c>
+      <c r="B590" t="n">
+        <v>980.8499755859375</v>
+      </c>
+      <c r="C590" t="n">
+        <v>993.4500122070312</v>
+      </c>
+      <c r="D590" t="n">
+        <v>970</v>
+      </c>
+      <c r="E590" t="n">
+        <v>982.25</v>
+      </c>
+      <c r="F590" t="n">
+        <v>982.25</v>
+      </c>
+      <c r="G590" t="n">
+        <v>47094</v>
+      </c>
+      <c r="H590" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I590" t="n">
+        <v>8</v>
+      </c>
+      <c r="J590" t="n">
+        <v>23</v>
+      </c>
+      <c r="K590" t="n">
+        <v>0</v>
+      </c>
+      <c r="L590" t="n">
+        <v>0</v>
+      </c>
+      <c r="M590" t="n">
+        <v>0</v>
+      </c>
+      <c r="N590" t="n">
+        <v>34</v>
+      </c>
+      <c r="O590" t="n">
+        <v>0</v>
+      </c>
+      <c r="P590" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q590" t="n">
+        <v>0</v>
+      </c>
+      <c r="R590" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SHAILY.NS.xlsx
+++ b/stock_historical_data/1d/SHAILY.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R590"/>
+  <dimension ref="A1:R595"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33285,7 +33285,9 @@
       <c r="Q586" t="n">
         <v>0</v>
       </c>
-      <c r="R586" t="inlineStr"/>
+      <c r="R586" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
@@ -33339,7 +33341,9 @@
       <c r="Q587" t="n">
         <v>0</v>
       </c>
-      <c r="R587" t="inlineStr"/>
+      <c r="R587" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
@@ -33393,7 +33397,9 @@
       <c r="Q588" t="n">
         <v>0</v>
       </c>
-      <c r="R588" t="inlineStr"/>
+      <c r="R588" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
@@ -33447,7 +33453,9 @@
       <c r="Q589" t="n">
         <v>0</v>
       </c>
-      <c r="R589" t="inlineStr"/>
+      <c r="R589" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
@@ -33501,7 +33509,279 @@
       <c r="Q590" t="n">
         <v>0</v>
       </c>
-      <c r="R590" t="inlineStr"/>
+      <c r="R590" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B591" t="n">
+        <v>982.25</v>
+      </c>
+      <c r="C591" t="n">
+        <v>984.5499877929688</v>
+      </c>
+      <c r="D591" t="n">
+        <v>947.25</v>
+      </c>
+      <c r="E591" t="n">
+        <v>963.5999755859375</v>
+      </c>
+      <c r="F591" t="n">
+        <v>963.5999755859375</v>
+      </c>
+      <c r="G591" t="n">
+        <v>85848</v>
+      </c>
+      <c r="H591" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I591" t="n">
+        <v>8</v>
+      </c>
+      <c r="J591" t="n">
+        <v>26</v>
+      </c>
+      <c r="K591" t="n">
+        <v>0</v>
+      </c>
+      <c r="L591" t="n">
+        <v>0</v>
+      </c>
+      <c r="M591" t="n">
+        <v>0</v>
+      </c>
+      <c r="N591" t="n">
+        <v>35</v>
+      </c>
+      <c r="O591" t="n">
+        <v>0</v>
+      </c>
+      <c r="P591" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q591" t="n">
+        <v>0</v>
+      </c>
+      <c r="R591" t="inlineStr"/>
+    </row>
+    <row r="592">
+      <c r="A592" s="2" t="n">
+        <v>45531</v>
+      </c>
+      <c r="B592" t="n">
+        <v>968.7000122070312</v>
+      </c>
+      <c r="C592" t="n">
+        <v>994.4000244140625</v>
+      </c>
+      <c r="D592" t="n">
+        <v>895.6500244140625</v>
+      </c>
+      <c r="E592" t="n">
+        <v>918.9000244140625</v>
+      </c>
+      <c r="F592" t="n">
+        <v>918.9000244140625</v>
+      </c>
+      <c r="G592" t="n">
+        <v>690205</v>
+      </c>
+      <c r="H592" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I592" t="n">
+        <v>8</v>
+      </c>
+      <c r="J592" t="n">
+        <v>27</v>
+      </c>
+      <c r="K592" t="n">
+        <v>0</v>
+      </c>
+      <c r="L592" t="n">
+        <v>0</v>
+      </c>
+      <c r="M592" t="n">
+        <v>0</v>
+      </c>
+      <c r="N592" t="n">
+        <v>35</v>
+      </c>
+      <c r="O592" t="n">
+        <v>0</v>
+      </c>
+      <c r="P592" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q592" t="n">
+        <v>0</v>
+      </c>
+      <c r="R592" t="inlineStr"/>
+    </row>
+    <row r="593">
+      <c r="A593" s="2" t="n">
+        <v>45532</v>
+      </c>
+      <c r="B593" t="n">
+        <v>915</v>
+      </c>
+      <c r="C593" t="n">
+        <v>978.7999877929688</v>
+      </c>
+      <c r="D593" t="n">
+        <v>910.0999755859375</v>
+      </c>
+      <c r="E593" t="n">
+        <v>959.5499877929688</v>
+      </c>
+      <c r="F593" t="n">
+        <v>959.5499877929688</v>
+      </c>
+      <c r="G593" t="n">
+        <v>284088</v>
+      </c>
+      <c r="H593" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I593" t="n">
+        <v>8</v>
+      </c>
+      <c r="J593" t="n">
+        <v>28</v>
+      </c>
+      <c r="K593" t="n">
+        <v>0</v>
+      </c>
+      <c r="L593" t="n">
+        <v>0</v>
+      </c>
+      <c r="M593" t="n">
+        <v>0</v>
+      </c>
+      <c r="N593" t="n">
+        <v>35</v>
+      </c>
+      <c r="O593" t="n">
+        <v>0</v>
+      </c>
+      <c r="P593" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q593" t="n">
+        <v>0</v>
+      </c>
+      <c r="R593" t="inlineStr"/>
+    </row>
+    <row r="594">
+      <c r="A594" s="2" t="n">
+        <v>45533</v>
+      </c>
+      <c r="B594" t="n">
+        <v>965</v>
+      </c>
+      <c r="C594" t="n">
+        <v>1061.449951171875</v>
+      </c>
+      <c r="D594" t="n">
+        <v>965</v>
+      </c>
+      <c r="E594" t="n">
+        <v>1024.099975585938</v>
+      </c>
+      <c r="F594" t="n">
+        <v>1024.099975585938</v>
+      </c>
+      <c r="G594" t="n">
+        <v>687830</v>
+      </c>
+      <c r="H594" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I594" t="n">
+        <v>8</v>
+      </c>
+      <c r="J594" t="n">
+        <v>29</v>
+      </c>
+      <c r="K594" t="n">
+        <v>0</v>
+      </c>
+      <c r="L594" t="n">
+        <v>0</v>
+      </c>
+      <c r="M594" t="n">
+        <v>0</v>
+      </c>
+      <c r="N594" t="n">
+        <v>35</v>
+      </c>
+      <c r="O594" t="n">
+        <v>0</v>
+      </c>
+      <c r="P594" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q594" t="n">
+        <v>0</v>
+      </c>
+      <c r="R594" t="inlineStr"/>
+    </row>
+    <row r="595">
+      <c r="A595" s="2" t="n">
+        <v>45534</v>
+      </c>
+      <c r="B595" t="n">
+        <v>1028</v>
+      </c>
+      <c r="C595" t="n">
+        <v>1059.5</v>
+      </c>
+      <c r="D595" t="n">
+        <v>995</v>
+      </c>
+      <c r="E595" t="n">
+        <v>1054.550048828125</v>
+      </c>
+      <c r="F595" t="n">
+        <v>1054.550048828125</v>
+      </c>
+      <c r="G595" t="n">
+        <v>215538</v>
+      </c>
+      <c r="H595" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I595" t="n">
+        <v>8</v>
+      </c>
+      <c r="J595" t="n">
+        <v>30</v>
+      </c>
+      <c r="K595" t="n">
+        <v>0</v>
+      </c>
+      <c r="L595" t="n">
+        <v>0</v>
+      </c>
+      <c r="M595" t="n">
+        <v>0</v>
+      </c>
+      <c r="N595" t="n">
+        <v>35</v>
+      </c>
+      <c r="O595" t="n">
+        <v>0</v>
+      </c>
+      <c r="P595" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q595" t="n">
+        <v>0</v>
+      </c>
+      <c r="R595" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SHAILY.NS.xlsx
+++ b/stock_historical_data/1d/SHAILY.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R595"/>
+  <dimension ref="A1:R600"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33565,7 +33565,9 @@
       <c r="Q591" t="n">
         <v>0</v>
       </c>
-      <c r="R591" t="inlineStr"/>
+      <c r="R591" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
@@ -33619,7 +33621,9 @@
       <c r="Q592" t="n">
         <v>0</v>
       </c>
-      <c r="R592" t="inlineStr"/>
+      <c r="R592" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
@@ -33673,7 +33677,9 @@
       <c r="Q593" t="n">
         <v>0</v>
       </c>
-      <c r="R593" t="inlineStr"/>
+      <c r="R593" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
@@ -33727,7 +33733,9 @@
       <c r="Q594" t="n">
         <v>0</v>
       </c>
-      <c r="R594" t="inlineStr"/>
+      <c r="R594" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
@@ -33781,7 +33789,279 @@
       <c r="Q595" t="n">
         <v>0</v>
       </c>
-      <c r="R595" t="inlineStr"/>
+      <c r="R595" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B596" t="n">
+        <v>1042.050048828125</v>
+      </c>
+      <c r="C596" t="n">
+        <v>1042.050048828125</v>
+      </c>
+      <c r="D596" t="n">
+        <v>1007</v>
+      </c>
+      <c r="E596" t="n">
+        <v>1029</v>
+      </c>
+      <c r="F596" t="n">
+        <v>1029</v>
+      </c>
+      <c r="G596" t="n">
+        <v>110882</v>
+      </c>
+      <c r="H596" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I596" t="n">
+        <v>9</v>
+      </c>
+      <c r="J596" t="n">
+        <v>2</v>
+      </c>
+      <c r="K596" t="n">
+        <v>0</v>
+      </c>
+      <c r="L596" t="n">
+        <v>0</v>
+      </c>
+      <c r="M596" t="n">
+        <v>0</v>
+      </c>
+      <c r="N596" t="n">
+        <v>36</v>
+      </c>
+      <c r="O596" t="n">
+        <v>0</v>
+      </c>
+      <c r="P596" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q596" t="n">
+        <v>0</v>
+      </c>
+      <c r="R596" t="inlineStr"/>
+    </row>
+    <row r="597">
+      <c r="A597" s="2" t="n">
+        <v>45538</v>
+      </c>
+      <c r="B597" t="n">
+        <v>1034.849975585938</v>
+      </c>
+      <c r="C597" t="n">
+        <v>1048.349975585938</v>
+      </c>
+      <c r="D597" t="n">
+        <v>1009</v>
+      </c>
+      <c r="E597" t="n">
+        <v>1011.099975585938</v>
+      </c>
+      <c r="F597" t="n">
+        <v>1011.099975585938</v>
+      </c>
+      <c r="G597" t="n">
+        <v>93737</v>
+      </c>
+      <c r="H597" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I597" t="n">
+        <v>9</v>
+      </c>
+      <c r="J597" t="n">
+        <v>3</v>
+      </c>
+      <c r="K597" t="n">
+        <v>0</v>
+      </c>
+      <c r="L597" t="n">
+        <v>0</v>
+      </c>
+      <c r="M597" t="n">
+        <v>0</v>
+      </c>
+      <c r="N597" t="n">
+        <v>36</v>
+      </c>
+      <c r="O597" t="n">
+        <v>0</v>
+      </c>
+      <c r="P597" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q597" t="n">
+        <v>0</v>
+      </c>
+      <c r="R597" t="inlineStr"/>
+    </row>
+    <row r="598">
+      <c r="A598" s="2" t="n">
+        <v>45539</v>
+      </c>
+      <c r="B598" t="n">
+        <v>1006.549987792969</v>
+      </c>
+      <c r="C598" t="n">
+        <v>1030</v>
+      </c>
+      <c r="D598" t="n">
+        <v>996.0499877929688</v>
+      </c>
+      <c r="E598" t="n">
+        <v>1001.049987792969</v>
+      </c>
+      <c r="F598" t="n">
+        <v>1001.049987792969</v>
+      </c>
+      <c r="G598" t="n">
+        <v>131509</v>
+      </c>
+      <c r="H598" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I598" t="n">
+        <v>9</v>
+      </c>
+      <c r="J598" t="n">
+        <v>4</v>
+      </c>
+      <c r="K598" t="n">
+        <v>0</v>
+      </c>
+      <c r="L598" t="n">
+        <v>0</v>
+      </c>
+      <c r="M598" t="n">
+        <v>0</v>
+      </c>
+      <c r="N598" t="n">
+        <v>36</v>
+      </c>
+      <c r="O598" t="n">
+        <v>0</v>
+      </c>
+      <c r="P598" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q598" t="n">
+        <v>0</v>
+      </c>
+      <c r="R598" t="inlineStr"/>
+    </row>
+    <row r="599">
+      <c r="A599" s="2" t="n">
+        <v>45540</v>
+      </c>
+      <c r="B599" t="n">
+        <v>1000.549987792969</v>
+      </c>
+      <c r="C599" t="n">
+        <v>1017.099975585938</v>
+      </c>
+      <c r="D599" t="n">
+        <v>993</v>
+      </c>
+      <c r="E599" t="n">
+        <v>998.3499755859375</v>
+      </c>
+      <c r="F599" t="n">
+        <v>998.3499755859375</v>
+      </c>
+      <c r="G599" t="n">
+        <v>102329</v>
+      </c>
+      <c r="H599" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I599" t="n">
+        <v>9</v>
+      </c>
+      <c r="J599" t="n">
+        <v>5</v>
+      </c>
+      <c r="K599" t="n">
+        <v>0</v>
+      </c>
+      <c r="L599" t="n">
+        <v>0</v>
+      </c>
+      <c r="M599" t="n">
+        <v>0</v>
+      </c>
+      <c r="N599" t="n">
+        <v>36</v>
+      </c>
+      <c r="O599" t="n">
+        <v>0</v>
+      </c>
+      <c r="P599" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q599" t="n">
+        <v>0</v>
+      </c>
+      <c r="R599" t="inlineStr"/>
+    </row>
+    <row r="600">
+      <c r="A600" s="2" t="n">
+        <v>45541</v>
+      </c>
+      <c r="B600" t="n">
+        <v>1003.599975585938</v>
+      </c>
+      <c r="C600" t="n">
+        <v>1040.25</v>
+      </c>
+      <c r="D600" t="n">
+        <v>972.8499755859375</v>
+      </c>
+      <c r="E600" t="n">
+        <v>1004.549987792969</v>
+      </c>
+      <c r="F600" t="n">
+        <v>1004.549987792969</v>
+      </c>
+      <c r="G600" t="n">
+        <v>176596</v>
+      </c>
+      <c r="H600" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I600" t="n">
+        <v>9</v>
+      </c>
+      <c r="J600" t="n">
+        <v>6</v>
+      </c>
+      <c r="K600" t="n">
+        <v>0</v>
+      </c>
+      <c r="L600" t="n">
+        <v>0</v>
+      </c>
+      <c r="M600" t="n">
+        <v>0</v>
+      </c>
+      <c r="N600" t="n">
+        <v>36</v>
+      </c>
+      <c r="O600" t="n">
+        <v>0</v>
+      </c>
+      <c r="P600" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q600" t="n">
+        <v>0</v>
+      </c>
+      <c r="R600" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SHAILY.NS.xlsx
+++ b/stock_historical_data/1d/SHAILY.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R600"/>
+  <dimension ref="A1:R605"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33725,7 +33725,7 @@
         <v>35</v>
       </c>
       <c r="O594" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P594" t="n">
         <v>0</v>
@@ -33845,7 +33845,9 @@
       <c r="Q596" t="n">
         <v>0</v>
       </c>
-      <c r="R596" t="inlineStr"/>
+      <c r="R596" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
@@ -33899,7 +33901,9 @@
       <c r="Q597" t="n">
         <v>0</v>
       </c>
-      <c r="R597" t="inlineStr"/>
+      <c r="R597" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="598">
       <c r="A598" s="2" t="n">
@@ -33953,7 +33957,9 @@
       <c r="Q598" t="n">
         <v>0</v>
       </c>
-      <c r="R598" t="inlineStr"/>
+      <c r="R598" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="599">
       <c r="A599" s="2" t="n">
@@ -34007,7 +34013,9 @@
       <c r="Q599" t="n">
         <v>0</v>
       </c>
-      <c r="R599" t="inlineStr"/>
+      <c r="R599" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="600">
       <c r="A600" s="2" t="n">
@@ -34061,7 +34069,279 @@
       <c r="Q600" t="n">
         <v>0</v>
       </c>
-      <c r="R600" t="inlineStr"/>
+      <c r="R600" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B601" t="n">
+        <v>991.0999755859375</v>
+      </c>
+      <c r="C601" t="n">
+        <v>1005.099975585938</v>
+      </c>
+      <c r="D601" t="n">
+        <v>976.5499877929688</v>
+      </c>
+      <c r="E601" t="n">
+        <v>989.4500122070312</v>
+      </c>
+      <c r="F601" t="n">
+        <v>988.438720703125</v>
+      </c>
+      <c r="G601" t="n">
+        <v>66142</v>
+      </c>
+      <c r="H601" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I601" t="n">
+        <v>9</v>
+      </c>
+      <c r="J601" t="n">
+        <v>9</v>
+      </c>
+      <c r="K601" t="n">
+        <v>0</v>
+      </c>
+      <c r="L601" t="n">
+        <v>0</v>
+      </c>
+      <c r="M601" t="n">
+        <v>0</v>
+      </c>
+      <c r="N601" t="n">
+        <v>37</v>
+      </c>
+      <c r="O601" t="n">
+        <v>0</v>
+      </c>
+      <c r="P601" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q601" t="n">
+        <v>0</v>
+      </c>
+      <c r="R601" t="inlineStr"/>
+    </row>
+    <row r="602">
+      <c r="A602" s="2" t="n">
+        <v>45545</v>
+      </c>
+      <c r="B602" t="n">
+        <v>994.7000122070312</v>
+      </c>
+      <c r="C602" t="n">
+        <v>1005.099975585938</v>
+      </c>
+      <c r="D602" t="n">
+        <v>971.0999755859375</v>
+      </c>
+      <c r="E602" t="n">
+        <v>976.7000122070312</v>
+      </c>
+      <c r="F602" t="n">
+        <v>975.7017211914062</v>
+      </c>
+      <c r="G602" t="n">
+        <v>80718</v>
+      </c>
+      <c r="H602" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I602" t="n">
+        <v>9</v>
+      </c>
+      <c r="J602" t="n">
+        <v>10</v>
+      </c>
+      <c r="K602" t="n">
+        <v>0</v>
+      </c>
+      <c r="L602" t="n">
+        <v>0</v>
+      </c>
+      <c r="M602" t="n">
+        <v>0</v>
+      </c>
+      <c r="N602" t="n">
+        <v>37</v>
+      </c>
+      <c r="O602" t="n">
+        <v>0</v>
+      </c>
+      <c r="P602" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q602" t="n">
+        <v>0</v>
+      </c>
+      <c r="R602" t="inlineStr"/>
+    </row>
+    <row r="603">
+      <c r="A603" s="2" t="n">
+        <v>45546</v>
+      </c>
+      <c r="B603" t="n">
+        <v>990</v>
+      </c>
+      <c r="C603" t="n">
+        <v>990</v>
+      </c>
+      <c r="D603" t="n">
+        <v>943.8499755859375</v>
+      </c>
+      <c r="E603" t="n">
+        <v>955.3499755859375</v>
+      </c>
+      <c r="F603" t="n">
+        <v>954.37353515625</v>
+      </c>
+      <c r="G603" t="n">
+        <v>494093</v>
+      </c>
+      <c r="H603" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I603" t="n">
+        <v>9</v>
+      </c>
+      <c r="J603" t="n">
+        <v>11</v>
+      </c>
+      <c r="K603" t="n">
+        <v>0</v>
+      </c>
+      <c r="L603" t="n">
+        <v>0</v>
+      </c>
+      <c r="M603" t="n">
+        <v>0</v>
+      </c>
+      <c r="N603" t="n">
+        <v>37</v>
+      </c>
+      <c r="O603" t="n">
+        <v>0</v>
+      </c>
+      <c r="P603" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q603" t="n">
+        <v>0</v>
+      </c>
+      <c r="R603" t="inlineStr"/>
+    </row>
+    <row r="604">
+      <c r="A604" s="2" t="n">
+        <v>45547</v>
+      </c>
+      <c r="B604" t="n">
+        <v>1018.950012207031</v>
+      </c>
+      <c r="C604" t="n">
+        <v>1018.950012207031</v>
+      </c>
+      <c r="D604" t="n">
+        <v>971</v>
+      </c>
+      <c r="E604" t="n">
+        <v>978.4000244140625</v>
+      </c>
+      <c r="F604" t="n">
+        <v>977.4000244140625</v>
+      </c>
+      <c r="G604" t="n">
+        <v>342115</v>
+      </c>
+      <c r="H604" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I604" t="n">
+        <v>9</v>
+      </c>
+      <c r="J604" t="n">
+        <v>12</v>
+      </c>
+      <c r="K604" t="n">
+        <v>0</v>
+      </c>
+      <c r="L604" t="n">
+        <v>0</v>
+      </c>
+      <c r="M604" t="n">
+        <v>0</v>
+      </c>
+      <c r="N604" t="n">
+        <v>37</v>
+      </c>
+      <c r="O604" t="n">
+        <v>0</v>
+      </c>
+      <c r="P604" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q604" t="n">
+        <v>0</v>
+      </c>
+      <c r="R604" t="inlineStr"/>
+    </row>
+    <row r="605">
+      <c r="A605" s="2" t="n">
+        <v>45548</v>
+      </c>
+      <c r="B605" t="n">
+        <v>978</v>
+      </c>
+      <c r="C605" t="n">
+        <v>986.5499877929688</v>
+      </c>
+      <c r="D605" t="n">
+        <v>968.9500122070312</v>
+      </c>
+      <c r="E605" t="n">
+        <v>973.4000244140625</v>
+      </c>
+      <c r="F605" t="n">
+        <v>973.4000244140625</v>
+      </c>
+      <c r="G605" t="n">
+        <v>61159</v>
+      </c>
+      <c r="H605" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I605" t="n">
+        <v>9</v>
+      </c>
+      <c r="J605" t="n">
+        <v>13</v>
+      </c>
+      <c r="K605" t="n">
+        <v>0</v>
+      </c>
+      <c r="L605" t="n">
+        <v>0</v>
+      </c>
+      <c r="M605" t="n">
+        <v>0</v>
+      </c>
+      <c r="N605" t="n">
+        <v>37</v>
+      </c>
+      <c r="O605" t="n">
+        <v>0</v>
+      </c>
+      <c r="P605" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q605" t="n">
+        <v>0</v>
+      </c>
+      <c r="R605" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SHAILY.NS.xlsx
+++ b/stock_historical_data/1d/SHAILY.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R605"/>
+  <dimension ref="A1:R610"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34125,7 +34125,9 @@
       <c r="Q601" t="n">
         <v>0</v>
       </c>
-      <c r="R601" t="inlineStr"/>
+      <c r="R601" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="602">
       <c r="A602" s="2" t="n">
@@ -34179,7 +34181,9 @@
       <c r="Q602" t="n">
         <v>0</v>
       </c>
-      <c r="R602" t="inlineStr"/>
+      <c r="R602" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="603">
       <c r="A603" s="2" t="n">
@@ -34233,7 +34237,9 @@
       <c r="Q603" t="n">
         <v>0</v>
       </c>
-      <c r="R603" t="inlineStr"/>
+      <c r="R603" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="604">
       <c r="A604" s="2" t="n">
@@ -34287,7 +34293,9 @@
       <c r="Q604" t="n">
         <v>0</v>
       </c>
-      <c r="R604" t="inlineStr"/>
+      <c r="R604" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="605">
       <c r="A605" s="2" t="n">
@@ -34341,7 +34349,279 @@
       <c r="Q605" t="n">
         <v>0</v>
       </c>
-      <c r="R605" t="inlineStr"/>
+      <c r="R605" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B606" t="n">
+        <v>977</v>
+      </c>
+      <c r="C606" t="n">
+        <v>980</v>
+      </c>
+      <c r="D606" t="n">
+        <v>955.4000244140625</v>
+      </c>
+      <c r="E606" t="n">
+        <v>960.25</v>
+      </c>
+      <c r="F606" t="n">
+        <v>960.25</v>
+      </c>
+      <c r="G606" t="n">
+        <v>63587</v>
+      </c>
+      <c r="H606" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I606" t="n">
+        <v>9</v>
+      </c>
+      <c r="J606" t="n">
+        <v>16</v>
+      </c>
+      <c r="K606" t="n">
+        <v>0</v>
+      </c>
+      <c r="L606" t="n">
+        <v>0</v>
+      </c>
+      <c r="M606" t="n">
+        <v>0</v>
+      </c>
+      <c r="N606" t="n">
+        <v>38</v>
+      </c>
+      <c r="O606" t="n">
+        <v>0</v>
+      </c>
+      <c r="P606" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q606" t="n">
+        <v>0</v>
+      </c>
+      <c r="R606" t="inlineStr"/>
+    </row>
+    <row r="607">
+      <c r="A607" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="B607" t="n">
+        <v>960.25</v>
+      </c>
+      <c r="C607" t="n">
+        <v>1019.650024414062</v>
+      </c>
+      <c r="D607" t="n">
+        <v>950.0999755859375</v>
+      </c>
+      <c r="E607" t="n">
+        <v>996.7000122070312</v>
+      </c>
+      <c r="F607" t="n">
+        <v>996.7000122070312</v>
+      </c>
+      <c r="G607" t="n">
+        <v>910834</v>
+      </c>
+      <c r="H607" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I607" t="n">
+        <v>9</v>
+      </c>
+      <c r="J607" t="n">
+        <v>17</v>
+      </c>
+      <c r="K607" t="n">
+        <v>0</v>
+      </c>
+      <c r="L607" t="n">
+        <v>0</v>
+      </c>
+      <c r="M607" t="n">
+        <v>0</v>
+      </c>
+      <c r="N607" t="n">
+        <v>38</v>
+      </c>
+      <c r="O607" t="n">
+        <v>0</v>
+      </c>
+      <c r="P607" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q607" t="n">
+        <v>0</v>
+      </c>
+      <c r="R607" t="inlineStr"/>
+    </row>
+    <row r="608">
+      <c r="A608" s="2" t="n">
+        <v>45553</v>
+      </c>
+      <c r="B608" t="n">
+        <v>987.7000122070312</v>
+      </c>
+      <c r="C608" t="n">
+        <v>1015.950012207031</v>
+      </c>
+      <c r="D608" t="n">
+        <v>971.25</v>
+      </c>
+      <c r="E608" t="n">
+        <v>978.5999755859375</v>
+      </c>
+      <c r="F608" t="n">
+        <v>978.5999755859375</v>
+      </c>
+      <c r="G608" t="n">
+        <v>242067</v>
+      </c>
+      <c r="H608" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I608" t="n">
+        <v>9</v>
+      </c>
+      <c r="J608" t="n">
+        <v>18</v>
+      </c>
+      <c r="K608" t="n">
+        <v>0</v>
+      </c>
+      <c r="L608" t="n">
+        <v>0</v>
+      </c>
+      <c r="M608" t="n">
+        <v>0</v>
+      </c>
+      <c r="N608" t="n">
+        <v>38</v>
+      </c>
+      <c r="O608" t="n">
+        <v>0</v>
+      </c>
+      <c r="P608" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q608" t="n">
+        <v>0</v>
+      </c>
+      <c r="R608" t="inlineStr"/>
+    </row>
+    <row r="609">
+      <c r="A609" s="2" t="n">
+        <v>45554</v>
+      </c>
+      <c r="B609" t="n">
+        <v>980.5999755859375</v>
+      </c>
+      <c r="C609" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D609" t="n">
+        <v>960</v>
+      </c>
+      <c r="E609" t="n">
+        <v>982.5499877929688</v>
+      </c>
+      <c r="F609" t="n">
+        <v>982.5499877929688</v>
+      </c>
+      <c r="G609" t="n">
+        <v>261884</v>
+      </c>
+      <c r="H609" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I609" t="n">
+        <v>9</v>
+      </c>
+      <c r="J609" t="n">
+        <v>19</v>
+      </c>
+      <c r="K609" t="n">
+        <v>0</v>
+      </c>
+      <c r="L609" t="n">
+        <v>0</v>
+      </c>
+      <c r="M609" t="n">
+        <v>0</v>
+      </c>
+      <c r="N609" t="n">
+        <v>38</v>
+      </c>
+      <c r="O609" t="n">
+        <v>0</v>
+      </c>
+      <c r="P609" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q609" t="n">
+        <v>0</v>
+      </c>
+      <c r="R609" t="inlineStr"/>
+    </row>
+    <row r="610">
+      <c r="A610" s="2" t="n">
+        <v>45555</v>
+      </c>
+      <c r="B610" t="n">
+        <v>995.7999877929688</v>
+      </c>
+      <c r="C610" t="n">
+        <v>1059.400024414062</v>
+      </c>
+      <c r="D610" t="n">
+        <v>984.75</v>
+      </c>
+      <c r="E610" t="n">
+        <v>1040.599975585938</v>
+      </c>
+      <c r="F610" t="n">
+        <v>1040.599975585938</v>
+      </c>
+      <c r="G610" t="n">
+        <v>668671</v>
+      </c>
+      <c r="H610" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I610" t="n">
+        <v>9</v>
+      </c>
+      <c r="J610" t="n">
+        <v>20</v>
+      </c>
+      <c r="K610" t="n">
+        <v>0</v>
+      </c>
+      <c r="L610" t="n">
+        <v>0</v>
+      </c>
+      <c r="M610" t="n">
+        <v>0</v>
+      </c>
+      <c r="N610" t="n">
+        <v>38</v>
+      </c>
+      <c r="O610" t="n">
+        <v>0</v>
+      </c>
+      <c r="P610" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q610" t="n">
+        <v>0</v>
+      </c>
+      <c r="R610" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SHAILY.NS.xlsx
+++ b/stock_historical_data/1d/SHAILY.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R610"/>
+  <dimension ref="A1:R615"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34405,7 +34405,9 @@
       <c r="Q606" t="n">
         <v>0</v>
       </c>
-      <c r="R606" t="inlineStr"/>
+      <c r="R606" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="607">
       <c r="A607" s="2" t="n">
@@ -34459,7 +34461,9 @@
       <c r="Q607" t="n">
         <v>0</v>
       </c>
-      <c r="R607" t="inlineStr"/>
+      <c r="R607" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="608">
       <c r="A608" s="2" t="n">
@@ -34513,7 +34517,9 @@
       <c r="Q608" t="n">
         <v>0</v>
       </c>
-      <c r="R608" t="inlineStr"/>
+      <c r="R608" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="609">
       <c r="A609" s="2" t="n">
@@ -34567,7 +34573,9 @@
       <c r="Q609" t="n">
         <v>0</v>
       </c>
-      <c r="R609" t="inlineStr"/>
+      <c r="R609" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="610">
       <c r="A610" s="2" t="n">
@@ -34621,7 +34629,279 @@
       <c r="Q610" t="n">
         <v>0</v>
       </c>
-      <c r="R610" t="inlineStr"/>
+      <c r="R610" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B611" t="n">
+        <v>1060</v>
+      </c>
+      <c r="C611" t="n">
+        <v>1091</v>
+      </c>
+      <c r="D611" t="n">
+        <v>1035.550048828125</v>
+      </c>
+      <c r="E611" t="n">
+        <v>1043.150024414062</v>
+      </c>
+      <c r="F611" t="n">
+        <v>1043.150024414062</v>
+      </c>
+      <c r="G611" t="n">
+        <v>445368</v>
+      </c>
+      <c r="H611" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I611" t="n">
+        <v>9</v>
+      </c>
+      <c r="J611" t="n">
+        <v>23</v>
+      </c>
+      <c r="K611" t="n">
+        <v>0</v>
+      </c>
+      <c r="L611" t="n">
+        <v>0</v>
+      </c>
+      <c r="M611" t="n">
+        <v>0</v>
+      </c>
+      <c r="N611" t="n">
+        <v>39</v>
+      </c>
+      <c r="O611" t="n">
+        <v>0</v>
+      </c>
+      <c r="P611" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q611" t="n">
+        <v>0</v>
+      </c>
+      <c r="R611" t="inlineStr"/>
+    </row>
+    <row r="612">
+      <c r="A612" s="2" t="n">
+        <v>45559</v>
+      </c>
+      <c r="B612" t="n">
+        <v>1047</v>
+      </c>
+      <c r="C612" t="n">
+        <v>1067</v>
+      </c>
+      <c r="D612" t="n">
+        <v>1009.549987792969</v>
+      </c>
+      <c r="E612" t="n">
+        <v>1021.450012207031</v>
+      </c>
+      <c r="F612" t="n">
+        <v>1021.450012207031</v>
+      </c>
+      <c r="G612" t="n">
+        <v>222553</v>
+      </c>
+      <c r="H612" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I612" t="n">
+        <v>9</v>
+      </c>
+      <c r="J612" t="n">
+        <v>24</v>
+      </c>
+      <c r="K612" t="n">
+        <v>0</v>
+      </c>
+      <c r="L612" t="n">
+        <v>0</v>
+      </c>
+      <c r="M612" t="n">
+        <v>0</v>
+      </c>
+      <c r="N612" t="n">
+        <v>39</v>
+      </c>
+      <c r="O612" t="n">
+        <v>0</v>
+      </c>
+      <c r="P612" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q612" t="n">
+        <v>0</v>
+      </c>
+      <c r="R612" t="inlineStr"/>
+    </row>
+    <row r="613">
+      <c r="A613" s="2" t="n">
+        <v>45560</v>
+      </c>
+      <c r="B613" t="n">
+        <v>1027</v>
+      </c>
+      <c r="C613" t="n">
+        <v>1044.800048828125</v>
+      </c>
+      <c r="D613" t="n">
+        <v>1001.299987792969</v>
+      </c>
+      <c r="E613" t="n">
+        <v>1025.650024414062</v>
+      </c>
+      <c r="F613" t="n">
+        <v>1025.650024414062</v>
+      </c>
+      <c r="G613" t="n">
+        <v>189259</v>
+      </c>
+      <c r="H613" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I613" t="n">
+        <v>9</v>
+      </c>
+      <c r="J613" t="n">
+        <v>25</v>
+      </c>
+      <c r="K613" t="n">
+        <v>0</v>
+      </c>
+      <c r="L613" t="n">
+        <v>0</v>
+      </c>
+      <c r="M613" t="n">
+        <v>0</v>
+      </c>
+      <c r="N613" t="n">
+        <v>39</v>
+      </c>
+      <c r="O613" t="n">
+        <v>0</v>
+      </c>
+      <c r="P613" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q613" t="n">
+        <v>0</v>
+      </c>
+      <c r="R613" t="inlineStr"/>
+    </row>
+    <row r="614">
+      <c r="A614" s="2" t="n">
+        <v>45561</v>
+      </c>
+      <c r="B614" t="n">
+        <v>1026</v>
+      </c>
+      <c r="C614" t="n">
+        <v>1089</v>
+      </c>
+      <c r="D614" t="n">
+        <v>1014.5</v>
+      </c>
+      <c r="E614" t="n">
+        <v>1069.949951171875</v>
+      </c>
+      <c r="F614" t="n">
+        <v>1069.949951171875</v>
+      </c>
+      <c r="G614" t="n">
+        <v>242156</v>
+      </c>
+      <c r="H614" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I614" t="n">
+        <v>9</v>
+      </c>
+      <c r="J614" t="n">
+        <v>26</v>
+      </c>
+      <c r="K614" t="n">
+        <v>0</v>
+      </c>
+      <c r="L614" t="n">
+        <v>0</v>
+      </c>
+      <c r="M614" t="n">
+        <v>0</v>
+      </c>
+      <c r="N614" t="n">
+        <v>39</v>
+      </c>
+      <c r="O614" t="n">
+        <v>0</v>
+      </c>
+      <c r="P614" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q614" t="n">
+        <v>0</v>
+      </c>
+      <c r="R614" t="inlineStr"/>
+    </row>
+    <row r="615">
+      <c r="A615" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="B615" t="n">
+        <v>1059.25</v>
+      </c>
+      <c r="C615" t="n">
+        <v>1063.550048828125</v>
+      </c>
+      <c r="D615" t="n">
+        <v>1021</v>
+      </c>
+      <c r="E615" t="n">
+        <v>1025.449951171875</v>
+      </c>
+      <c r="F615" t="n">
+        <v>1025.449951171875</v>
+      </c>
+      <c r="G615" t="n">
+        <v>206880</v>
+      </c>
+      <c r="H615" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I615" t="n">
+        <v>9</v>
+      </c>
+      <c r="J615" t="n">
+        <v>27</v>
+      </c>
+      <c r="K615" t="n">
+        <v>0</v>
+      </c>
+      <c r="L615" t="n">
+        <v>0</v>
+      </c>
+      <c r="M615" t="n">
+        <v>0</v>
+      </c>
+      <c r="N615" t="n">
+        <v>39</v>
+      </c>
+      <c r="O615" t="n">
+        <v>0</v>
+      </c>
+      <c r="P615" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q615" t="n">
+        <v>0</v>
+      </c>
+      <c r="R615" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SHAILY.NS.xlsx
+++ b/stock_historical_data/1d/SHAILY.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R615"/>
+  <dimension ref="A1:R619"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34685,7 +34685,9 @@
       <c r="Q611" t="n">
         <v>0</v>
       </c>
-      <c r="R611" t="inlineStr"/>
+      <c r="R611" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="612">
       <c r="A612" s="2" t="n">
@@ -34739,7 +34741,9 @@
       <c r="Q612" t="n">
         <v>0</v>
       </c>
-      <c r="R612" t="inlineStr"/>
+      <c r="R612" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="613">
       <c r="A613" s="2" t="n">
@@ -34793,7 +34797,9 @@
       <c r="Q613" t="n">
         <v>0</v>
       </c>
-      <c r="R613" t="inlineStr"/>
+      <c r="R613" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="614">
       <c r="A614" s="2" t="n">
@@ -34847,7 +34853,9 @@
       <c r="Q614" t="n">
         <v>0</v>
       </c>
-      <c r="R614" t="inlineStr"/>
+      <c r="R614" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="615">
       <c r="A615" s="2" t="n">
@@ -34901,7 +34909,225 @@
       <c r="Q615" t="n">
         <v>0</v>
       </c>
-      <c r="R615" t="inlineStr"/>
+      <c r="R615" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B616" t="n">
+        <v>1025.449951171875</v>
+      </c>
+      <c r="C616" t="n">
+        <v>1028</v>
+      </c>
+      <c r="D616" t="n">
+        <v>1001.599975585938</v>
+      </c>
+      <c r="E616" t="n">
+        <v>1009.849975585938</v>
+      </c>
+      <c r="F616" t="n">
+        <v>1009.849975585938</v>
+      </c>
+      <c r="G616" t="n">
+        <v>109676</v>
+      </c>
+      <c r="H616" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I616" t="n">
+        <v>9</v>
+      </c>
+      <c r="J616" t="n">
+        <v>30</v>
+      </c>
+      <c r="K616" t="n">
+        <v>0</v>
+      </c>
+      <c r="L616" t="n">
+        <v>0</v>
+      </c>
+      <c r="M616" t="n">
+        <v>0</v>
+      </c>
+      <c r="N616" t="n">
+        <v>40</v>
+      </c>
+      <c r="O616" t="n">
+        <v>0</v>
+      </c>
+      <c r="P616" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q616" t="n">
+        <v>0</v>
+      </c>
+      <c r="R616" t="inlineStr"/>
+    </row>
+    <row r="617">
+      <c r="A617" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B617" t="n">
+        <v>1018.200012207031</v>
+      </c>
+      <c r="C617" t="n">
+        <v>1026.400024414062</v>
+      </c>
+      <c r="D617" t="n">
+        <v>1002.549987792969</v>
+      </c>
+      <c r="E617" t="n">
+        <v>1009.950012207031</v>
+      </c>
+      <c r="F617" t="n">
+        <v>1009.950012207031</v>
+      </c>
+      <c r="G617" t="n">
+        <v>69973</v>
+      </c>
+      <c r="H617" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I617" t="n">
+        <v>10</v>
+      </c>
+      <c r="J617" t="n">
+        <v>1</v>
+      </c>
+      <c r="K617" t="n">
+        <v>0</v>
+      </c>
+      <c r="L617" t="n">
+        <v>0</v>
+      </c>
+      <c r="M617" t="n">
+        <v>0</v>
+      </c>
+      <c r="N617" t="n">
+        <v>40</v>
+      </c>
+      <c r="O617" t="n">
+        <v>0</v>
+      </c>
+      <c r="P617" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q617" t="n">
+        <v>0</v>
+      </c>
+      <c r="R617" t="inlineStr"/>
+    </row>
+    <row r="618">
+      <c r="A618" s="2" t="n">
+        <v>45568</v>
+      </c>
+      <c r="B618" t="n">
+        <v>990.9500122070312</v>
+      </c>
+      <c r="C618" t="n">
+        <v>1018</v>
+      </c>
+      <c r="D618" t="n">
+        <v>953.0999755859375</v>
+      </c>
+      <c r="E618" t="n">
+        <v>977.3499755859375</v>
+      </c>
+      <c r="F618" t="n">
+        <v>977.3499755859375</v>
+      </c>
+      <c r="G618" t="n">
+        <v>96647</v>
+      </c>
+      <c r="H618" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I618" t="n">
+        <v>10</v>
+      </c>
+      <c r="J618" t="n">
+        <v>3</v>
+      </c>
+      <c r="K618" t="n">
+        <v>0</v>
+      </c>
+      <c r="L618" t="n">
+        <v>0</v>
+      </c>
+      <c r="M618" t="n">
+        <v>0</v>
+      </c>
+      <c r="N618" t="n">
+        <v>40</v>
+      </c>
+      <c r="O618" t="n">
+        <v>0</v>
+      </c>
+      <c r="P618" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q618" t="n">
+        <v>0</v>
+      </c>
+      <c r="R618" t="inlineStr"/>
+    </row>
+    <row r="619">
+      <c r="A619" s="2" t="n">
+        <v>45569</v>
+      </c>
+      <c r="B619" t="n">
+        <v>969.0499877929688</v>
+      </c>
+      <c r="C619" t="n">
+        <v>1017</v>
+      </c>
+      <c r="D619" t="n">
+        <v>956.5499877929688</v>
+      </c>
+      <c r="E619" t="n">
+        <v>984.25</v>
+      </c>
+      <c r="F619" t="n">
+        <v>984.25</v>
+      </c>
+      <c r="G619" t="n">
+        <v>160121</v>
+      </c>
+      <c r="H619" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I619" t="n">
+        <v>10</v>
+      </c>
+      <c r="J619" t="n">
+        <v>4</v>
+      </c>
+      <c r="K619" t="n">
+        <v>0</v>
+      </c>
+      <c r="L619" t="n">
+        <v>0</v>
+      </c>
+      <c r="M619" t="n">
+        <v>0</v>
+      </c>
+      <c r="N619" t="n">
+        <v>40</v>
+      </c>
+      <c r="O619" t="n">
+        <v>0</v>
+      </c>
+      <c r="P619" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q619" t="n">
+        <v>0</v>
+      </c>
+      <c r="R619" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SHAILY.NS.xlsx
+++ b/stock_historical_data/1d/SHAILY.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R619"/>
+  <dimension ref="A1:R624"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34677,7 +34677,7 @@
         <v>39</v>
       </c>
       <c r="O611" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P611" t="n">
         <v>0</v>
@@ -34965,7 +34965,9 @@
       <c r="Q616" t="n">
         <v>0</v>
       </c>
-      <c r="R616" t="inlineStr"/>
+      <c r="R616" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="617">
       <c r="A617" s="2" t="n">
@@ -35019,7 +35021,9 @@
       <c r="Q617" t="n">
         <v>0</v>
       </c>
-      <c r="R617" t="inlineStr"/>
+      <c r="R617" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="618">
       <c r="A618" s="2" t="n">
@@ -35073,7 +35077,9 @@
       <c r="Q618" t="n">
         <v>0</v>
       </c>
-      <c r="R618" t="inlineStr"/>
+      <c r="R618" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="619">
       <c r="A619" s="2" t="n">
@@ -35127,7 +35133,279 @@
       <c r="Q619" t="n">
         <v>0</v>
       </c>
-      <c r="R619" t="inlineStr"/>
+      <c r="R619" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B620" t="n">
+        <v>995</v>
+      </c>
+      <c r="C620" t="n">
+        <v>1024</v>
+      </c>
+      <c r="D620" t="n">
+        <v>923.1500244140625</v>
+      </c>
+      <c r="E620" t="n">
+        <v>934</v>
+      </c>
+      <c r="F620" t="n">
+        <v>934</v>
+      </c>
+      <c r="G620" t="n">
+        <v>99529</v>
+      </c>
+      <c r="H620" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I620" t="n">
+        <v>10</v>
+      </c>
+      <c r="J620" t="n">
+        <v>7</v>
+      </c>
+      <c r="K620" t="n">
+        <v>0</v>
+      </c>
+      <c r="L620" t="n">
+        <v>0</v>
+      </c>
+      <c r="M620" t="n">
+        <v>0</v>
+      </c>
+      <c r="N620" t="n">
+        <v>41</v>
+      </c>
+      <c r="O620" t="n">
+        <v>0</v>
+      </c>
+      <c r="P620" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q620" t="n">
+        <v>0</v>
+      </c>
+      <c r="R620" t="inlineStr"/>
+    </row>
+    <row r="621">
+      <c r="A621" s="2" t="n">
+        <v>45573</v>
+      </c>
+      <c r="B621" t="n">
+        <v>937</v>
+      </c>
+      <c r="C621" t="n">
+        <v>978.5499877929688</v>
+      </c>
+      <c r="D621" t="n">
+        <v>924</v>
+      </c>
+      <c r="E621" t="n">
+        <v>969.25</v>
+      </c>
+      <c r="F621" t="n">
+        <v>969.25</v>
+      </c>
+      <c r="G621" t="n">
+        <v>107943</v>
+      </c>
+      <c r="H621" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I621" t="n">
+        <v>10</v>
+      </c>
+      <c r="J621" t="n">
+        <v>8</v>
+      </c>
+      <c r="K621" t="n">
+        <v>0</v>
+      </c>
+      <c r="L621" t="n">
+        <v>0</v>
+      </c>
+      <c r="M621" t="n">
+        <v>0</v>
+      </c>
+      <c r="N621" t="n">
+        <v>41</v>
+      </c>
+      <c r="O621" t="n">
+        <v>0</v>
+      </c>
+      <c r="P621" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q621" t="n">
+        <v>0</v>
+      </c>
+      <c r="R621" t="inlineStr"/>
+    </row>
+    <row r="622">
+      <c r="A622" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="B622" t="n">
+        <v>974</v>
+      </c>
+      <c r="C622" t="n">
+        <v>990.75</v>
+      </c>
+      <c r="D622" t="n">
+        <v>964.7000122070312</v>
+      </c>
+      <c r="E622" t="n">
+        <v>975.9000244140625</v>
+      </c>
+      <c r="F622" t="n">
+        <v>975.9000244140625</v>
+      </c>
+      <c r="G622" t="n">
+        <v>73366</v>
+      </c>
+      <c r="H622" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I622" t="n">
+        <v>10</v>
+      </c>
+      <c r="J622" t="n">
+        <v>9</v>
+      </c>
+      <c r="K622" t="n">
+        <v>0</v>
+      </c>
+      <c r="L622" t="n">
+        <v>0</v>
+      </c>
+      <c r="M622" t="n">
+        <v>0</v>
+      </c>
+      <c r="N622" t="n">
+        <v>41</v>
+      </c>
+      <c r="O622" t="n">
+        <v>0</v>
+      </c>
+      <c r="P622" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q622" t="n">
+        <v>0</v>
+      </c>
+      <c r="R622" t="inlineStr"/>
+    </row>
+    <row r="623">
+      <c r="A623" s="2" t="n">
+        <v>45575</v>
+      </c>
+      <c r="B623" t="n">
+        <v>977.0499877929688</v>
+      </c>
+      <c r="C623" t="n">
+        <v>1007.549987792969</v>
+      </c>
+      <c r="D623" t="n">
+        <v>972</v>
+      </c>
+      <c r="E623" t="n">
+        <v>986.5</v>
+      </c>
+      <c r="F623" t="n">
+        <v>986.5</v>
+      </c>
+      <c r="G623" t="n">
+        <v>80641</v>
+      </c>
+      <c r="H623" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I623" t="n">
+        <v>10</v>
+      </c>
+      <c r="J623" t="n">
+        <v>10</v>
+      </c>
+      <c r="K623" t="n">
+        <v>0</v>
+      </c>
+      <c r="L623" t="n">
+        <v>0</v>
+      </c>
+      <c r="M623" t="n">
+        <v>0</v>
+      </c>
+      <c r="N623" t="n">
+        <v>41</v>
+      </c>
+      <c r="O623" t="n">
+        <v>0</v>
+      </c>
+      <c r="P623" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q623" t="n">
+        <v>0</v>
+      </c>
+      <c r="R623" t="inlineStr"/>
+    </row>
+    <row r="624">
+      <c r="A624" s="2" t="n">
+        <v>45576</v>
+      </c>
+      <c r="B624" t="n">
+        <v>990</v>
+      </c>
+      <c r="C624" t="n">
+        <v>992.9500122070312</v>
+      </c>
+      <c r="D624" t="n">
+        <v>972</v>
+      </c>
+      <c r="E624" t="n">
+        <v>973.5999755859375</v>
+      </c>
+      <c r="F624" t="n">
+        <v>973.5999755859375</v>
+      </c>
+      <c r="G624" t="n">
+        <v>39283</v>
+      </c>
+      <c r="H624" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I624" t="n">
+        <v>10</v>
+      </c>
+      <c r="J624" t="n">
+        <v>11</v>
+      </c>
+      <c r="K624" t="n">
+        <v>0</v>
+      </c>
+      <c r="L624" t="n">
+        <v>0</v>
+      </c>
+      <c r="M624" t="n">
+        <v>0</v>
+      </c>
+      <c r="N624" t="n">
+        <v>41</v>
+      </c>
+      <c r="O624" t="n">
+        <v>0</v>
+      </c>
+      <c r="P624" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q624" t="n">
+        <v>0</v>
+      </c>
+      <c r="R624" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SHAILY.NS.xlsx
+++ b/stock_historical_data/1d/SHAILY.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R624"/>
+  <dimension ref="A1:R629"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35189,7 +35189,9 @@
       <c r="Q620" t="n">
         <v>0</v>
       </c>
-      <c r="R620" t="inlineStr"/>
+      <c r="R620" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="621">
       <c r="A621" s="2" t="n">
@@ -35243,7 +35245,9 @@
       <c r="Q621" t="n">
         <v>0</v>
       </c>
-      <c r="R621" t="inlineStr"/>
+      <c r="R621" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="622">
       <c r="A622" s="2" t="n">
@@ -35297,7 +35301,9 @@
       <c r="Q622" t="n">
         <v>0</v>
       </c>
-      <c r="R622" t="inlineStr"/>
+      <c r="R622" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="623">
       <c r="A623" s="2" t="n">
@@ -35351,7 +35357,9 @@
       <c r="Q623" t="n">
         <v>0</v>
       </c>
-      <c r="R623" t="inlineStr"/>
+      <c r="R623" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="624">
       <c r="A624" s="2" t="n">
@@ -35405,7 +35413,279 @@
       <c r="Q624" t="n">
         <v>0</v>
       </c>
-      <c r="R624" t="inlineStr"/>
+      <c r="R624" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B625" t="n">
+        <v>973.5999755859375</v>
+      </c>
+      <c r="C625" t="n">
+        <v>983.3499755859375</v>
+      </c>
+      <c r="D625" t="n">
+        <v>968</v>
+      </c>
+      <c r="E625" t="n">
+        <v>973.2999877929688</v>
+      </c>
+      <c r="F625" t="n">
+        <v>973.2999877929688</v>
+      </c>
+      <c r="G625" t="n">
+        <v>37999</v>
+      </c>
+      <c r="H625" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I625" t="n">
+        <v>10</v>
+      </c>
+      <c r="J625" t="n">
+        <v>14</v>
+      </c>
+      <c r="K625" t="n">
+        <v>0</v>
+      </c>
+      <c r="L625" t="n">
+        <v>0</v>
+      </c>
+      <c r="M625" t="n">
+        <v>0</v>
+      </c>
+      <c r="N625" t="n">
+        <v>42</v>
+      </c>
+      <c r="O625" t="n">
+        <v>0</v>
+      </c>
+      <c r="P625" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q625" t="n">
+        <v>0</v>
+      </c>
+      <c r="R625" t="inlineStr"/>
+    </row>
+    <row r="626">
+      <c r="A626" s="2" t="n">
+        <v>45580</v>
+      </c>
+      <c r="B626" t="n">
+        <v>977</v>
+      </c>
+      <c r="C626" t="n">
+        <v>977.25</v>
+      </c>
+      <c r="D626" t="n">
+        <v>965</v>
+      </c>
+      <c r="E626" t="n">
+        <v>973.1500244140625</v>
+      </c>
+      <c r="F626" t="n">
+        <v>973.1500244140625</v>
+      </c>
+      <c r="G626" t="n">
+        <v>22508</v>
+      </c>
+      <c r="H626" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I626" t="n">
+        <v>10</v>
+      </c>
+      <c r="J626" t="n">
+        <v>15</v>
+      </c>
+      <c r="K626" t="n">
+        <v>0</v>
+      </c>
+      <c r="L626" t="n">
+        <v>0</v>
+      </c>
+      <c r="M626" t="n">
+        <v>0</v>
+      </c>
+      <c r="N626" t="n">
+        <v>42</v>
+      </c>
+      <c r="O626" t="n">
+        <v>0</v>
+      </c>
+      <c r="P626" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q626" t="n">
+        <v>0</v>
+      </c>
+      <c r="R626" t="inlineStr"/>
+    </row>
+    <row r="627">
+      <c r="A627" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="B627" t="n">
+        <v>977</v>
+      </c>
+      <c r="C627" t="n">
+        <v>983.1500244140625</v>
+      </c>
+      <c r="D627" t="n">
+        <v>965.25</v>
+      </c>
+      <c r="E627" t="n">
+        <v>975.1500244140625</v>
+      </c>
+      <c r="F627" t="n">
+        <v>975.1500244140625</v>
+      </c>
+      <c r="G627" t="n">
+        <v>62202</v>
+      </c>
+      <c r="H627" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I627" t="n">
+        <v>10</v>
+      </c>
+      <c r="J627" t="n">
+        <v>16</v>
+      </c>
+      <c r="K627" t="n">
+        <v>0</v>
+      </c>
+      <c r="L627" t="n">
+        <v>0</v>
+      </c>
+      <c r="M627" t="n">
+        <v>0</v>
+      </c>
+      <c r="N627" t="n">
+        <v>42</v>
+      </c>
+      <c r="O627" t="n">
+        <v>0</v>
+      </c>
+      <c r="P627" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q627" t="n">
+        <v>0</v>
+      </c>
+      <c r="R627" t="inlineStr"/>
+    </row>
+    <row r="628">
+      <c r="A628" s="2" t="n">
+        <v>45582</v>
+      </c>
+      <c r="B628" t="n">
+        <v>985</v>
+      </c>
+      <c r="C628" t="n">
+        <v>988.7999877929688</v>
+      </c>
+      <c r="D628" t="n">
+        <v>938.5499877929688</v>
+      </c>
+      <c r="E628" t="n">
+        <v>944.2000122070312</v>
+      </c>
+      <c r="F628" t="n">
+        <v>944.2000122070312</v>
+      </c>
+      <c r="G628" t="n">
+        <v>67528</v>
+      </c>
+      <c r="H628" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I628" t="n">
+        <v>10</v>
+      </c>
+      <c r="J628" t="n">
+        <v>17</v>
+      </c>
+      <c r="K628" t="n">
+        <v>0</v>
+      </c>
+      <c r="L628" t="n">
+        <v>0</v>
+      </c>
+      <c r="M628" t="n">
+        <v>0</v>
+      </c>
+      <c r="N628" t="n">
+        <v>42</v>
+      </c>
+      <c r="O628" t="n">
+        <v>0</v>
+      </c>
+      <c r="P628" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q628" t="n">
+        <v>0</v>
+      </c>
+      <c r="R628" t="inlineStr"/>
+    </row>
+    <row r="629">
+      <c r="A629" s="2" t="n">
+        <v>45583</v>
+      </c>
+      <c r="B629" t="n">
+        <v>949.8499755859375</v>
+      </c>
+      <c r="C629" t="n">
+        <v>959.2000122070312</v>
+      </c>
+      <c r="D629" t="n">
+        <v>919.0499877929688</v>
+      </c>
+      <c r="E629" t="n">
+        <v>937.2000122070312</v>
+      </c>
+      <c r="F629" t="n">
+        <v>937.2000122070312</v>
+      </c>
+      <c r="G629" t="n">
+        <v>60784</v>
+      </c>
+      <c r="H629" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I629" t="n">
+        <v>10</v>
+      </c>
+      <c r="J629" t="n">
+        <v>18</v>
+      </c>
+      <c r="K629" t="n">
+        <v>0</v>
+      </c>
+      <c r="L629" t="n">
+        <v>0</v>
+      </c>
+      <c r="M629" t="n">
+        <v>0</v>
+      </c>
+      <c r="N629" t="n">
+        <v>42</v>
+      </c>
+      <c r="O629" t="n">
+        <v>0</v>
+      </c>
+      <c r="P629" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q629" t="n">
+        <v>0</v>
+      </c>
+      <c r="R629" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SHAILY.NS.xlsx
+++ b/stock_historical_data/1d/SHAILY.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R629"/>
+  <dimension ref="A1:R634"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35469,7 +35469,9 @@
       <c r="Q625" t="n">
         <v>0</v>
       </c>
-      <c r="R625" t="inlineStr"/>
+      <c r="R625" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="626">
       <c r="A626" s="2" t="n">
@@ -35523,7 +35525,9 @@
       <c r="Q626" t="n">
         <v>0</v>
       </c>
-      <c r="R626" t="inlineStr"/>
+      <c r="R626" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="627">
       <c r="A627" s="2" t="n">
@@ -35577,7 +35581,9 @@
       <c r="Q627" t="n">
         <v>0</v>
       </c>
-      <c r="R627" t="inlineStr"/>
+      <c r="R627" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="628">
       <c r="A628" s="2" t="n">
@@ -35631,7 +35637,9 @@
       <c r="Q628" t="n">
         <v>0</v>
       </c>
-      <c r="R628" t="inlineStr"/>
+      <c r="R628" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="629">
       <c r="A629" s="2" t="n">
@@ -35685,7 +35693,279 @@
       <c r="Q629" t="n">
         <v>0</v>
       </c>
-      <c r="R629" t="inlineStr"/>
+      <c r="R629" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B630" t="n">
+        <v>940</v>
+      </c>
+      <c r="C630" t="n">
+        <v>943.7999877929688</v>
+      </c>
+      <c r="D630" t="n">
+        <v>905.5499877929688</v>
+      </c>
+      <c r="E630" t="n">
+        <v>914.5</v>
+      </c>
+      <c r="F630" t="n">
+        <v>914.5</v>
+      </c>
+      <c r="G630" t="n">
+        <v>85132</v>
+      </c>
+      <c r="H630" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I630" t="n">
+        <v>10</v>
+      </c>
+      <c r="J630" t="n">
+        <v>21</v>
+      </c>
+      <c r="K630" t="n">
+        <v>0</v>
+      </c>
+      <c r="L630" t="n">
+        <v>0</v>
+      </c>
+      <c r="M630" t="n">
+        <v>0</v>
+      </c>
+      <c r="N630" t="n">
+        <v>43</v>
+      </c>
+      <c r="O630" t="n">
+        <v>0</v>
+      </c>
+      <c r="P630" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q630" t="n">
+        <v>0</v>
+      </c>
+      <c r="R630" t="inlineStr"/>
+    </row>
+    <row r="631">
+      <c r="A631" s="2" t="n">
+        <v>45587</v>
+      </c>
+      <c r="B631" t="n">
+        <v>925</v>
+      </c>
+      <c r="C631" t="n">
+        <v>941.3499755859375</v>
+      </c>
+      <c r="D631" t="n">
+        <v>891.0999755859375</v>
+      </c>
+      <c r="E631" t="n">
+        <v>902.2000122070312</v>
+      </c>
+      <c r="F631" t="n">
+        <v>902.2000122070312</v>
+      </c>
+      <c r="G631" t="n">
+        <v>150189</v>
+      </c>
+      <c r="H631" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I631" t="n">
+        <v>10</v>
+      </c>
+      <c r="J631" t="n">
+        <v>22</v>
+      </c>
+      <c r="K631" t="n">
+        <v>0</v>
+      </c>
+      <c r="L631" t="n">
+        <v>0</v>
+      </c>
+      <c r="M631" t="n">
+        <v>0</v>
+      </c>
+      <c r="N631" t="n">
+        <v>43</v>
+      </c>
+      <c r="O631" t="n">
+        <v>0</v>
+      </c>
+      <c r="P631" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q631" t="n">
+        <v>0</v>
+      </c>
+      <c r="R631" t="inlineStr"/>
+    </row>
+    <row r="632">
+      <c r="A632" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="B632" t="n">
+        <v>914</v>
+      </c>
+      <c r="C632" t="n">
+        <v>939.7000122070312</v>
+      </c>
+      <c r="D632" t="n">
+        <v>889.9000244140625</v>
+      </c>
+      <c r="E632" t="n">
+        <v>926.4500122070312</v>
+      </c>
+      <c r="F632" t="n">
+        <v>926.4500122070312</v>
+      </c>
+      <c r="G632" t="n">
+        <v>77915</v>
+      </c>
+      <c r="H632" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I632" t="n">
+        <v>10</v>
+      </c>
+      <c r="J632" t="n">
+        <v>23</v>
+      </c>
+      <c r="K632" t="n">
+        <v>0</v>
+      </c>
+      <c r="L632" t="n">
+        <v>0</v>
+      </c>
+      <c r="M632" t="n">
+        <v>0</v>
+      </c>
+      <c r="N632" t="n">
+        <v>43</v>
+      </c>
+      <c r="O632" t="n">
+        <v>0</v>
+      </c>
+      <c r="P632" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q632" t="n">
+        <v>0</v>
+      </c>
+      <c r="R632" t="inlineStr"/>
+    </row>
+    <row r="633">
+      <c r="A633" s="2" t="n">
+        <v>45589</v>
+      </c>
+      <c r="B633" t="n">
+        <v>926.4500122070312</v>
+      </c>
+      <c r="C633" t="n">
+        <v>929.7000122070312</v>
+      </c>
+      <c r="D633" t="n">
+        <v>903.3499755859375</v>
+      </c>
+      <c r="E633" t="n">
+        <v>915.9500122070312</v>
+      </c>
+      <c r="F633" t="n">
+        <v>915.9500122070312</v>
+      </c>
+      <c r="G633" t="n">
+        <v>46113</v>
+      </c>
+      <c r="H633" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I633" t="n">
+        <v>10</v>
+      </c>
+      <c r="J633" t="n">
+        <v>24</v>
+      </c>
+      <c r="K633" t="n">
+        <v>0</v>
+      </c>
+      <c r="L633" t="n">
+        <v>0</v>
+      </c>
+      <c r="M633" t="n">
+        <v>0</v>
+      </c>
+      <c r="N633" t="n">
+        <v>43</v>
+      </c>
+      <c r="O633" t="n">
+        <v>0</v>
+      </c>
+      <c r="P633" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q633" t="n">
+        <v>0</v>
+      </c>
+      <c r="R633" t="inlineStr"/>
+    </row>
+    <row r="634">
+      <c r="A634" s="2" t="n">
+        <v>45590</v>
+      </c>
+      <c r="B634" t="n">
+        <v>915</v>
+      </c>
+      <c r="C634" t="n">
+        <v>930</v>
+      </c>
+      <c r="D634" t="n">
+        <v>873.0999755859375</v>
+      </c>
+      <c r="E634" t="n">
+        <v>913.4000244140625</v>
+      </c>
+      <c r="F634" t="n">
+        <v>913.4000244140625</v>
+      </c>
+      <c r="G634" t="n">
+        <v>115813</v>
+      </c>
+      <c r="H634" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I634" t="n">
+        <v>10</v>
+      </c>
+      <c r="J634" t="n">
+        <v>25</v>
+      </c>
+      <c r="K634" t="n">
+        <v>0</v>
+      </c>
+      <c r="L634" t="n">
+        <v>0</v>
+      </c>
+      <c r="M634" t="n">
+        <v>0</v>
+      </c>
+      <c r="N634" t="n">
+        <v>43</v>
+      </c>
+      <c r="O634" t="n">
+        <v>0</v>
+      </c>
+      <c r="P634" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q634" t="n">
+        <v>0</v>
+      </c>
+      <c r="R634" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SHAILY.NS.xlsx
+++ b/stock_historical_data/1d/SHAILY.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R634"/>
+  <dimension ref="A1:R639"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35749,7 +35749,9 @@
       <c r="Q630" t="n">
         <v>0</v>
       </c>
-      <c r="R630" t="inlineStr"/>
+      <c r="R630" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="631">
       <c r="A631" s="2" t="n">
@@ -35803,7 +35805,9 @@
       <c r="Q631" t="n">
         <v>0</v>
       </c>
-      <c r="R631" t="inlineStr"/>
+      <c r="R631" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="632">
       <c r="A632" s="2" t="n">
@@ -35857,7 +35861,9 @@
       <c r="Q632" t="n">
         <v>0</v>
       </c>
-      <c r="R632" t="inlineStr"/>
+      <c r="R632" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="633">
       <c r="A633" s="2" t="n">
@@ -35911,7 +35917,9 @@
       <c r="Q633" t="n">
         <v>0</v>
       </c>
-      <c r="R633" t="inlineStr"/>
+      <c r="R633" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="634">
       <c r="A634" s="2" t="n">
@@ -35965,7 +35973,279 @@
       <c r="Q634" t="n">
         <v>0</v>
       </c>
-      <c r="R634" t="inlineStr"/>
+      <c r="R634" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B635" t="n">
+        <v>921.5999755859375</v>
+      </c>
+      <c r="C635" t="n">
+        <v>947</v>
+      </c>
+      <c r="D635" t="n">
+        <v>901</v>
+      </c>
+      <c r="E635" t="n">
+        <v>938.9500122070312</v>
+      </c>
+      <c r="F635" t="n">
+        <v>938.9500122070312</v>
+      </c>
+      <c r="G635" t="n">
+        <v>102395</v>
+      </c>
+      <c r="H635" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I635" t="n">
+        <v>10</v>
+      </c>
+      <c r="J635" t="n">
+        <v>28</v>
+      </c>
+      <c r="K635" t="n">
+        <v>0</v>
+      </c>
+      <c r="L635" t="n">
+        <v>0</v>
+      </c>
+      <c r="M635" t="n">
+        <v>0</v>
+      </c>
+      <c r="N635" t="n">
+        <v>44</v>
+      </c>
+      <c r="O635" t="n">
+        <v>0</v>
+      </c>
+      <c r="P635" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q635" t="n">
+        <v>0</v>
+      </c>
+      <c r="R635" t="inlineStr"/>
+    </row>
+    <row r="636">
+      <c r="A636" s="2" t="n">
+        <v>45594</v>
+      </c>
+      <c r="B636" t="n">
+        <v>981</v>
+      </c>
+      <c r="C636" t="n">
+        <v>982</v>
+      </c>
+      <c r="D636" t="n">
+        <v>871.0999755859375</v>
+      </c>
+      <c r="E636" t="n">
+        <v>927.1500244140625</v>
+      </c>
+      <c r="F636" t="n">
+        <v>927.1500244140625</v>
+      </c>
+      <c r="G636" t="n">
+        <v>279858</v>
+      </c>
+      <c r="H636" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I636" t="n">
+        <v>10</v>
+      </c>
+      <c r="J636" t="n">
+        <v>29</v>
+      </c>
+      <c r="K636" t="n">
+        <v>0</v>
+      </c>
+      <c r="L636" t="n">
+        <v>0</v>
+      </c>
+      <c r="M636" t="n">
+        <v>0</v>
+      </c>
+      <c r="N636" t="n">
+        <v>44</v>
+      </c>
+      <c r="O636" t="n">
+        <v>0</v>
+      </c>
+      <c r="P636" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q636" t="n">
+        <v>0</v>
+      </c>
+      <c r="R636" t="inlineStr"/>
+    </row>
+    <row r="637">
+      <c r="A637" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="B637" t="n">
+        <v>927</v>
+      </c>
+      <c r="C637" t="n">
+        <v>995</v>
+      </c>
+      <c r="D637" t="n">
+        <v>922.6500244140625</v>
+      </c>
+      <c r="E637" t="n">
+        <v>991.75</v>
+      </c>
+      <c r="F637" t="n">
+        <v>991.75</v>
+      </c>
+      <c r="G637" t="n">
+        <v>240247</v>
+      </c>
+      <c r="H637" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I637" t="n">
+        <v>10</v>
+      </c>
+      <c r="J637" t="n">
+        <v>30</v>
+      </c>
+      <c r="K637" t="n">
+        <v>0</v>
+      </c>
+      <c r="L637" t="n">
+        <v>0</v>
+      </c>
+      <c r="M637" t="n">
+        <v>0</v>
+      </c>
+      <c r="N637" t="n">
+        <v>44</v>
+      </c>
+      <c r="O637" t="n">
+        <v>0</v>
+      </c>
+      <c r="P637" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q637" t="n">
+        <v>0</v>
+      </c>
+      <c r="R637" t="inlineStr"/>
+    </row>
+    <row r="638">
+      <c r="A638" s="2" t="n">
+        <v>45596</v>
+      </c>
+      <c r="B638" t="n">
+        <v>989</v>
+      </c>
+      <c r="C638" t="n">
+        <v>1037</v>
+      </c>
+      <c r="D638" t="n">
+        <v>989</v>
+      </c>
+      <c r="E638" t="n">
+        <v>1008.599975585938</v>
+      </c>
+      <c r="F638" t="n">
+        <v>1008.599975585938</v>
+      </c>
+      <c r="G638" t="n">
+        <v>173904</v>
+      </c>
+      <c r="H638" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I638" t="n">
+        <v>10</v>
+      </c>
+      <c r="J638" t="n">
+        <v>31</v>
+      </c>
+      <c r="K638" t="n">
+        <v>0</v>
+      </c>
+      <c r="L638" t="n">
+        <v>0</v>
+      </c>
+      <c r="M638" t="n">
+        <v>0</v>
+      </c>
+      <c r="N638" t="n">
+        <v>44</v>
+      </c>
+      <c r="O638" t="n">
+        <v>0</v>
+      </c>
+      <c r="P638" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q638" t="n">
+        <v>0</v>
+      </c>
+      <c r="R638" t="inlineStr"/>
+    </row>
+    <row r="639">
+      <c r="A639" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B639" t="n">
+        <v>1010</v>
+      </c>
+      <c r="C639" t="n">
+        <v>1034</v>
+      </c>
+      <c r="D639" t="n">
+        <v>1010</v>
+      </c>
+      <c r="E639" t="n">
+        <v>1029</v>
+      </c>
+      <c r="F639" t="n">
+        <v>1029</v>
+      </c>
+      <c r="G639" t="n">
+        <v>26016</v>
+      </c>
+      <c r="H639" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I639" t="n">
+        <v>11</v>
+      </c>
+      <c r="J639" t="n">
+        <v>1</v>
+      </c>
+      <c r="K639" t="n">
+        <v>0</v>
+      </c>
+      <c r="L639" t="n">
+        <v>0</v>
+      </c>
+      <c r="M639" t="n">
+        <v>0</v>
+      </c>
+      <c r="N639" t="n">
+        <v>44</v>
+      </c>
+      <c r="O639" t="n">
+        <v>0</v>
+      </c>
+      <c r="P639" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q639" t="n">
+        <v>0</v>
+      </c>
+      <c r="R639" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SHAILY.NS.xlsx
+++ b/stock_historical_data/1d/SHAILY.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R639"/>
+  <dimension ref="A1:R644"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36029,7 +36029,9 @@
       <c r="Q635" t="n">
         <v>0</v>
       </c>
-      <c r="R635" t="inlineStr"/>
+      <c r="R635" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="636">
       <c r="A636" s="2" t="n">
@@ -36083,7 +36085,9 @@
       <c r="Q636" t="n">
         <v>0</v>
       </c>
-      <c r="R636" t="inlineStr"/>
+      <c r="R636" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="637">
       <c r="A637" s="2" t="n">
@@ -36137,7 +36141,9 @@
       <c r="Q637" t="n">
         <v>0</v>
       </c>
-      <c r="R637" t="inlineStr"/>
+      <c r="R637" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="638">
       <c r="A638" s="2" t="n">
@@ -36191,7 +36197,9 @@
       <c r="Q638" t="n">
         <v>0</v>
       </c>
-      <c r="R638" t="inlineStr"/>
+      <c r="R638" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="639">
       <c r="A639" s="2" t="n">
@@ -36245,7 +36253,279 @@
       <c r="Q639" t="n">
         <v>0</v>
       </c>
-      <c r="R639" t="inlineStr"/>
+      <c r="R639" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B640" t="n">
+        <v>1032</v>
+      </c>
+      <c r="C640" t="n">
+        <v>1034.650024414062</v>
+      </c>
+      <c r="D640" t="n">
+        <v>973.4000244140625</v>
+      </c>
+      <c r="E640" t="n">
+        <v>979</v>
+      </c>
+      <c r="F640" t="n">
+        <v>979</v>
+      </c>
+      <c r="G640" t="n">
+        <v>74980</v>
+      </c>
+      <c r="H640" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I640" t="n">
+        <v>11</v>
+      </c>
+      <c r="J640" t="n">
+        <v>4</v>
+      </c>
+      <c r="K640" t="n">
+        <v>0</v>
+      </c>
+      <c r="L640" t="n">
+        <v>0</v>
+      </c>
+      <c r="M640" t="n">
+        <v>0</v>
+      </c>
+      <c r="N640" t="n">
+        <v>45</v>
+      </c>
+      <c r="O640" t="n">
+        <v>0</v>
+      </c>
+      <c r="P640" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q640" t="n">
+        <v>0</v>
+      </c>
+      <c r="R640" t="inlineStr"/>
+    </row>
+    <row r="641">
+      <c r="A641" s="2" t="n">
+        <v>45601</v>
+      </c>
+      <c r="B641" t="n">
+        <v>971.0999755859375</v>
+      </c>
+      <c r="C641" t="n">
+        <v>1050</v>
+      </c>
+      <c r="D641" t="n">
+        <v>969.9500122070312</v>
+      </c>
+      <c r="E641" t="n">
+        <v>1045.150024414062</v>
+      </c>
+      <c r="F641" t="n">
+        <v>1045.150024414062</v>
+      </c>
+      <c r="G641" t="n">
+        <v>183873</v>
+      </c>
+      <c r="H641" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I641" t="n">
+        <v>11</v>
+      </c>
+      <c r="J641" t="n">
+        <v>5</v>
+      </c>
+      <c r="K641" t="n">
+        <v>0</v>
+      </c>
+      <c r="L641" t="n">
+        <v>0</v>
+      </c>
+      <c r="M641" t="n">
+        <v>0</v>
+      </c>
+      <c r="N641" t="n">
+        <v>45</v>
+      </c>
+      <c r="O641" t="n">
+        <v>0</v>
+      </c>
+      <c r="P641" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q641" t="n">
+        <v>0</v>
+      </c>
+      <c r="R641" t="inlineStr"/>
+    </row>
+    <row r="642">
+      <c r="A642" s="2" t="n">
+        <v>45602</v>
+      </c>
+      <c r="B642" t="n">
+        <v>1038.849975585938</v>
+      </c>
+      <c r="C642" t="n">
+        <v>1169.449951171875</v>
+      </c>
+      <c r="D642" t="n">
+        <v>1038.849975585938</v>
+      </c>
+      <c r="E642" t="n">
+        <v>1155.650024414062</v>
+      </c>
+      <c r="F642" t="n">
+        <v>1155.650024414062</v>
+      </c>
+      <c r="G642" t="n">
+        <v>547230</v>
+      </c>
+      <c r="H642" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I642" t="n">
+        <v>11</v>
+      </c>
+      <c r="J642" t="n">
+        <v>6</v>
+      </c>
+      <c r="K642" t="n">
+        <v>0</v>
+      </c>
+      <c r="L642" t="n">
+        <v>0</v>
+      </c>
+      <c r="M642" t="n">
+        <v>0</v>
+      </c>
+      <c r="N642" t="n">
+        <v>45</v>
+      </c>
+      <c r="O642" t="n">
+        <v>0</v>
+      </c>
+      <c r="P642" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q642" t="n">
+        <v>0</v>
+      </c>
+      <c r="R642" t="inlineStr"/>
+    </row>
+    <row r="643">
+      <c r="A643" s="2" t="n">
+        <v>45603</v>
+      </c>
+      <c r="B643" t="n">
+        <v>1165</v>
+      </c>
+      <c r="C643" t="n">
+        <v>1187.949951171875</v>
+      </c>
+      <c r="D643" t="n">
+        <v>1130</v>
+      </c>
+      <c r="E643" t="n">
+        <v>1153.400024414062</v>
+      </c>
+      <c r="F643" t="n">
+        <v>1153.400024414062</v>
+      </c>
+      <c r="G643" t="n">
+        <v>156419</v>
+      </c>
+      <c r="H643" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I643" t="n">
+        <v>11</v>
+      </c>
+      <c r="J643" t="n">
+        <v>7</v>
+      </c>
+      <c r="K643" t="n">
+        <v>0</v>
+      </c>
+      <c r="L643" t="n">
+        <v>0</v>
+      </c>
+      <c r="M643" t="n">
+        <v>0</v>
+      </c>
+      <c r="N643" t="n">
+        <v>45</v>
+      </c>
+      <c r="O643" t="n">
+        <v>0</v>
+      </c>
+      <c r="P643" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q643" t="n">
+        <v>0</v>
+      </c>
+      <c r="R643" t="inlineStr"/>
+    </row>
+    <row r="644">
+      <c r="A644" s="2" t="n">
+        <v>45604</v>
+      </c>
+      <c r="B644" t="n">
+        <v>1154.449951171875</v>
+      </c>
+      <c r="C644" t="n">
+        <v>1169.900024414062</v>
+      </c>
+      <c r="D644" t="n">
+        <v>1120.300048828125</v>
+      </c>
+      <c r="E644" t="n">
+        <v>1129.650024414062</v>
+      </c>
+      <c r="F644" t="n">
+        <v>1129.650024414062</v>
+      </c>
+      <c r="G644" t="n">
+        <v>151148</v>
+      </c>
+      <c r="H644" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I644" t="n">
+        <v>11</v>
+      </c>
+      <c r="J644" t="n">
+        <v>8</v>
+      </c>
+      <c r="K644" t="n">
+        <v>0</v>
+      </c>
+      <c r="L644" t="n">
+        <v>0</v>
+      </c>
+      <c r="M644" t="n">
+        <v>0</v>
+      </c>
+      <c r="N644" t="n">
+        <v>45</v>
+      </c>
+      <c r="O644" t="n">
+        <v>0</v>
+      </c>
+      <c r="P644" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q644" t="n">
+        <v>0</v>
+      </c>
+      <c r="R644" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SHAILY.NS.xlsx
+++ b/stock_historical_data/1d/SHAILY.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R644"/>
+  <dimension ref="A1:R648"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36077,7 +36077,7 @@
         <v>44</v>
       </c>
       <c r="O636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P636" t="n">
         <v>0</v>
@@ -36309,7 +36309,9 @@
       <c r="Q640" t="n">
         <v>0</v>
       </c>
-      <c r="R640" t="inlineStr"/>
+      <c r="R640" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="641">
       <c r="A641" s="2" t="n">
@@ -36363,7 +36365,9 @@
       <c r="Q641" t="n">
         <v>0</v>
       </c>
-      <c r="R641" t="inlineStr"/>
+      <c r="R641" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="642">
       <c r="A642" s="2" t="n">
@@ -36417,7 +36421,9 @@
       <c r="Q642" t="n">
         <v>0</v>
       </c>
-      <c r="R642" t="inlineStr"/>
+      <c r="R642" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="643">
       <c r="A643" s="2" t="n">
@@ -36471,7 +36477,9 @@
       <c r="Q643" t="n">
         <v>0</v>
       </c>
-      <c r="R643" t="inlineStr"/>
+      <c r="R643" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="644">
       <c r="A644" s="2" t="n">
@@ -36525,7 +36533,225 @@
       <c r="Q644" t="n">
         <v>0</v>
       </c>
-      <c r="R644" t="inlineStr"/>
+      <c r="R644" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B645" t="n">
+        <v>1129</v>
+      </c>
+      <c r="C645" t="n">
+        <v>1150</v>
+      </c>
+      <c r="D645" t="n">
+        <v>1105.5</v>
+      </c>
+      <c r="E645" t="n">
+        <v>1121.099975585938</v>
+      </c>
+      <c r="F645" t="n">
+        <v>1121.099975585938</v>
+      </c>
+      <c r="G645" t="n">
+        <v>118646</v>
+      </c>
+      <c r="H645" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I645" t="n">
+        <v>11</v>
+      </c>
+      <c r="J645" t="n">
+        <v>11</v>
+      </c>
+      <c r="K645" t="n">
+        <v>0</v>
+      </c>
+      <c r="L645" t="n">
+        <v>0</v>
+      </c>
+      <c r="M645" t="n">
+        <v>0</v>
+      </c>
+      <c r="N645" t="n">
+        <v>46</v>
+      </c>
+      <c r="O645" t="n">
+        <v>0</v>
+      </c>
+      <c r="P645" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q645" t="n">
+        <v>0</v>
+      </c>
+      <c r="R645" t="inlineStr"/>
+    </row>
+    <row r="646">
+      <c r="A646" s="2" t="n">
+        <v>45608</v>
+      </c>
+      <c r="B646" t="n">
+        <v>1125.550048828125</v>
+      </c>
+      <c r="C646" t="n">
+        <v>1144.699951171875</v>
+      </c>
+      <c r="D646" t="n">
+        <v>1088.349975585938</v>
+      </c>
+      <c r="E646" t="n">
+        <v>1107.949951171875</v>
+      </c>
+      <c r="F646" t="n">
+        <v>1107.949951171875</v>
+      </c>
+      <c r="G646" t="n">
+        <v>67968</v>
+      </c>
+      <c r="H646" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I646" t="n">
+        <v>11</v>
+      </c>
+      <c r="J646" t="n">
+        <v>12</v>
+      </c>
+      <c r="K646" t="n">
+        <v>0</v>
+      </c>
+      <c r="L646" t="n">
+        <v>0</v>
+      </c>
+      <c r="M646" t="n">
+        <v>0</v>
+      </c>
+      <c r="N646" t="n">
+        <v>46</v>
+      </c>
+      <c r="O646" t="n">
+        <v>0</v>
+      </c>
+      <c r="P646" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q646" t="n">
+        <v>0</v>
+      </c>
+      <c r="R646" t="inlineStr"/>
+    </row>
+    <row r="647">
+      <c r="A647" s="2" t="n">
+        <v>45609</v>
+      </c>
+      <c r="B647" t="n">
+        <v>1108</v>
+      </c>
+      <c r="C647" t="n">
+        <v>1125.5</v>
+      </c>
+      <c r="D647" t="n">
+        <v>1028.949951171875</v>
+      </c>
+      <c r="E647" t="n">
+        <v>1060.550048828125</v>
+      </c>
+      <c r="F647" t="n">
+        <v>1060.550048828125</v>
+      </c>
+      <c r="G647" t="n">
+        <v>124814</v>
+      </c>
+      <c r="H647" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I647" t="n">
+        <v>11</v>
+      </c>
+      <c r="J647" t="n">
+        <v>13</v>
+      </c>
+      <c r="K647" t="n">
+        <v>0</v>
+      </c>
+      <c r="L647" t="n">
+        <v>0</v>
+      </c>
+      <c r="M647" t="n">
+        <v>0</v>
+      </c>
+      <c r="N647" t="n">
+        <v>46</v>
+      </c>
+      <c r="O647" t="n">
+        <v>0</v>
+      </c>
+      <c r="P647" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q647" t="n">
+        <v>0</v>
+      </c>
+      <c r="R647" t="inlineStr"/>
+    </row>
+    <row r="648">
+      <c r="A648" s="2" t="n">
+        <v>45610</v>
+      </c>
+      <c r="B648" t="n">
+        <v>1064</v>
+      </c>
+      <c r="C648" t="n">
+        <v>1159.900024414062</v>
+      </c>
+      <c r="D648" t="n">
+        <v>1061</v>
+      </c>
+      <c r="E648" t="n">
+        <v>1134.349975585938</v>
+      </c>
+      <c r="F648" t="n">
+        <v>1134.349975585938</v>
+      </c>
+      <c r="G648" t="n">
+        <v>115456</v>
+      </c>
+      <c r="H648" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I648" t="n">
+        <v>11</v>
+      </c>
+      <c r="J648" t="n">
+        <v>14</v>
+      </c>
+      <c r="K648" t="n">
+        <v>0</v>
+      </c>
+      <c r="L648" t="n">
+        <v>0</v>
+      </c>
+      <c r="M648" t="n">
+        <v>0</v>
+      </c>
+      <c r="N648" t="n">
+        <v>46</v>
+      </c>
+      <c r="O648" t="n">
+        <v>0</v>
+      </c>
+      <c r="P648" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q648" t="n">
+        <v>0</v>
+      </c>
+      <c r="R648" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SHAILY.NS.xlsx
+++ b/stock_historical_data/1d/SHAILY.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R648"/>
+  <dimension ref="A1:R652"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36589,7 +36589,9 @@
       <c r="Q645" t="n">
         <v>0</v>
       </c>
-      <c r="R645" t="inlineStr"/>
+      <c r="R645" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="646">
       <c r="A646" s="2" t="n">
@@ -36643,7 +36645,9 @@
       <c r="Q646" t="n">
         <v>0</v>
       </c>
-      <c r="R646" t="inlineStr"/>
+      <c r="R646" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="647">
       <c r="A647" s="2" t="n">
@@ -36697,7 +36701,9 @@
       <c r="Q647" t="n">
         <v>0</v>
       </c>
-      <c r="R647" t="inlineStr"/>
+      <c r="R647" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="648">
       <c r="A648" s="2" t="n">
@@ -36751,7 +36757,225 @@
       <c r="Q648" t="n">
         <v>0</v>
       </c>
-      <c r="R648" t="inlineStr"/>
+      <c r="R648" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B649" t="n">
+        <v>1134.050048828125</v>
+      </c>
+      <c r="C649" t="n">
+        <v>1159.150024414062</v>
+      </c>
+      <c r="D649" t="n">
+        <v>1085</v>
+      </c>
+      <c r="E649" t="n">
+        <v>1093.300048828125</v>
+      </c>
+      <c r="F649" t="n">
+        <v>1093.300048828125</v>
+      </c>
+      <c r="G649" t="n">
+        <v>48921</v>
+      </c>
+      <c r="H649" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I649" t="n">
+        <v>11</v>
+      </c>
+      <c r="J649" t="n">
+        <v>18</v>
+      </c>
+      <c r="K649" t="n">
+        <v>0</v>
+      </c>
+      <c r="L649" t="n">
+        <v>0</v>
+      </c>
+      <c r="M649" t="n">
+        <v>0</v>
+      </c>
+      <c r="N649" t="n">
+        <v>47</v>
+      </c>
+      <c r="O649" t="n">
+        <v>0</v>
+      </c>
+      <c r="P649" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q649" t="n">
+        <v>0</v>
+      </c>
+      <c r="R649" t="inlineStr"/>
+    </row>
+    <row r="650">
+      <c r="A650" s="2" t="n">
+        <v>45615</v>
+      </c>
+      <c r="B650" t="n">
+        <v>1089</v>
+      </c>
+      <c r="C650" t="n">
+        <v>1134.349975585938</v>
+      </c>
+      <c r="D650" t="n">
+        <v>1083.400024414062</v>
+      </c>
+      <c r="E650" t="n">
+        <v>1105.599975585938</v>
+      </c>
+      <c r="F650" t="n">
+        <v>1105.599975585938</v>
+      </c>
+      <c r="G650" t="n">
+        <v>175718</v>
+      </c>
+      <c r="H650" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I650" t="n">
+        <v>11</v>
+      </c>
+      <c r="J650" t="n">
+        <v>19</v>
+      </c>
+      <c r="K650" t="n">
+        <v>0</v>
+      </c>
+      <c r="L650" t="n">
+        <v>0</v>
+      </c>
+      <c r="M650" t="n">
+        <v>0</v>
+      </c>
+      <c r="N650" t="n">
+        <v>47</v>
+      </c>
+      <c r="O650" t="n">
+        <v>0</v>
+      </c>
+      <c r="P650" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q650" t="n">
+        <v>0</v>
+      </c>
+      <c r="R650" t="inlineStr"/>
+    </row>
+    <row r="651">
+      <c r="A651" s="2" t="n">
+        <v>45617</v>
+      </c>
+      <c r="B651" t="n">
+        <v>1106</v>
+      </c>
+      <c r="C651" t="n">
+        <v>1118</v>
+      </c>
+      <c r="D651" t="n">
+        <v>1080.050048828125</v>
+      </c>
+      <c r="E651" t="n">
+        <v>1098.949951171875</v>
+      </c>
+      <c r="F651" t="n">
+        <v>1098.949951171875</v>
+      </c>
+      <c r="G651" t="n">
+        <v>78389</v>
+      </c>
+      <c r="H651" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I651" t="n">
+        <v>11</v>
+      </c>
+      <c r="J651" t="n">
+        <v>21</v>
+      </c>
+      <c r="K651" t="n">
+        <v>0</v>
+      </c>
+      <c r="L651" t="n">
+        <v>0</v>
+      </c>
+      <c r="M651" t="n">
+        <v>0</v>
+      </c>
+      <c r="N651" t="n">
+        <v>47</v>
+      </c>
+      <c r="O651" t="n">
+        <v>0</v>
+      </c>
+      <c r="P651" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q651" t="n">
+        <v>0</v>
+      </c>
+      <c r="R651" t="inlineStr"/>
+    </row>
+    <row r="652">
+      <c r="A652" s="2" t="n">
+        <v>45618</v>
+      </c>
+      <c r="B652" t="n">
+        <v>1103.25</v>
+      </c>
+      <c r="C652" t="n">
+        <v>1126.25</v>
+      </c>
+      <c r="D652" t="n">
+        <v>1084.5</v>
+      </c>
+      <c r="E652" t="n">
+        <v>1096.75</v>
+      </c>
+      <c r="F652" t="n">
+        <v>1096.75</v>
+      </c>
+      <c r="G652" t="n">
+        <v>63223</v>
+      </c>
+      <c r="H652" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I652" t="n">
+        <v>11</v>
+      </c>
+      <c r="J652" t="n">
+        <v>22</v>
+      </c>
+      <c r="K652" t="n">
+        <v>0</v>
+      </c>
+      <c r="L652" t="n">
+        <v>0</v>
+      </c>
+      <c r="M652" t="n">
+        <v>0</v>
+      </c>
+      <c r="N652" t="n">
+        <v>47</v>
+      </c>
+      <c r="O652" t="n">
+        <v>0</v>
+      </c>
+      <c r="P652" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q652" t="n">
+        <v>0</v>
+      </c>
+      <c r="R652" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SHAILY.NS.xlsx
+++ b/stock_historical_data/1d/SHAILY.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R652"/>
+  <dimension ref="A1:R657"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36469,7 +36469,7 @@
         <v>45</v>
       </c>
       <c r="O643" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P643" t="n">
         <v>0</v>
@@ -36813,7 +36813,9 @@
       <c r="Q649" t="n">
         <v>0</v>
       </c>
-      <c r="R649" t="inlineStr"/>
+      <c r="R649" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="650">
       <c r="A650" s="2" t="n">
@@ -36867,7 +36869,9 @@
       <c r="Q650" t="n">
         <v>0</v>
       </c>
-      <c r="R650" t="inlineStr"/>
+      <c r="R650" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="651">
       <c r="A651" s="2" t="n">
@@ -36921,7 +36925,9 @@
       <c r="Q651" t="n">
         <v>0</v>
       </c>
-      <c r="R651" t="inlineStr"/>
+      <c r="R651" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="652">
       <c r="A652" s="2" t="n">
@@ -36975,7 +36981,279 @@
       <c r="Q652" t="n">
         <v>0</v>
       </c>
-      <c r="R652" t="inlineStr"/>
+      <c r="R652" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B653" t="n">
+        <v>1105</v>
+      </c>
+      <c r="C653" t="n">
+        <v>1129.25</v>
+      </c>
+      <c r="D653" t="n">
+        <v>1075</v>
+      </c>
+      <c r="E653" t="n">
+        <v>1087.800048828125</v>
+      </c>
+      <c r="F653" t="n">
+        <v>1087.800048828125</v>
+      </c>
+      <c r="G653" t="n">
+        <v>60122</v>
+      </c>
+      <c r="H653" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I653" t="n">
+        <v>11</v>
+      </c>
+      <c r="J653" t="n">
+        <v>25</v>
+      </c>
+      <c r="K653" t="n">
+        <v>0</v>
+      </c>
+      <c r="L653" t="n">
+        <v>0</v>
+      </c>
+      <c r="M653" t="n">
+        <v>0</v>
+      </c>
+      <c r="N653" t="n">
+        <v>48</v>
+      </c>
+      <c r="O653" t="n">
+        <v>0</v>
+      </c>
+      <c r="P653" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q653" t="n">
+        <v>0</v>
+      </c>
+      <c r="R653" t="inlineStr"/>
+    </row>
+    <row r="654">
+      <c r="A654" s="2" t="n">
+        <v>45622</v>
+      </c>
+      <c r="B654" t="n">
+        <v>1104.099975585938</v>
+      </c>
+      <c r="C654" t="n">
+        <v>1125.599975585938</v>
+      </c>
+      <c r="D654" t="n">
+        <v>1077.050048828125</v>
+      </c>
+      <c r="E654" t="n">
+        <v>1102.199951171875</v>
+      </c>
+      <c r="F654" t="n">
+        <v>1102.199951171875</v>
+      </c>
+      <c r="G654" t="n">
+        <v>77457</v>
+      </c>
+      <c r="H654" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I654" t="n">
+        <v>11</v>
+      </c>
+      <c r="J654" t="n">
+        <v>26</v>
+      </c>
+      <c r="K654" t="n">
+        <v>0</v>
+      </c>
+      <c r="L654" t="n">
+        <v>0</v>
+      </c>
+      <c r="M654" t="n">
+        <v>0</v>
+      </c>
+      <c r="N654" t="n">
+        <v>48</v>
+      </c>
+      <c r="O654" t="n">
+        <v>0</v>
+      </c>
+      <c r="P654" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q654" t="n">
+        <v>2</v>
+      </c>
+      <c r="R654" t="inlineStr"/>
+    </row>
+    <row r="655">
+      <c r="A655" s="2" t="n">
+        <v>45623</v>
+      </c>
+      <c r="B655" t="n">
+        <v>1107.800048828125</v>
+      </c>
+      <c r="C655" t="n">
+        <v>1322.599975585938</v>
+      </c>
+      <c r="D655" t="n">
+        <v>1105.300048828125</v>
+      </c>
+      <c r="E655" t="n">
+        <v>1301.349975585938</v>
+      </c>
+      <c r="F655" t="n">
+        <v>1301.349975585938</v>
+      </c>
+      <c r="G655" t="n">
+        <v>1025378</v>
+      </c>
+      <c r="H655" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I655" t="n">
+        <v>11</v>
+      </c>
+      <c r="J655" t="n">
+        <v>27</v>
+      </c>
+      <c r="K655" t="n">
+        <v>0</v>
+      </c>
+      <c r="L655" t="n">
+        <v>0</v>
+      </c>
+      <c r="M655" t="n">
+        <v>0</v>
+      </c>
+      <c r="N655" t="n">
+        <v>48</v>
+      </c>
+      <c r="O655" t="n">
+        <v>0</v>
+      </c>
+      <c r="P655" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q655" t="n">
+        <v>0</v>
+      </c>
+      <c r="R655" t="inlineStr"/>
+    </row>
+    <row r="656">
+      <c r="A656" s="2" t="n">
+        <v>45624</v>
+      </c>
+      <c r="B656" t="n">
+        <v>1309</v>
+      </c>
+      <c r="C656" t="n">
+        <v>1350</v>
+      </c>
+      <c r="D656" t="n">
+        <v>1246.050048828125</v>
+      </c>
+      <c r="E656" t="n">
+        <v>1293</v>
+      </c>
+      <c r="F656" t="n">
+        <v>1293</v>
+      </c>
+      <c r="G656" t="n">
+        <v>278386</v>
+      </c>
+      <c r="H656" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I656" t="n">
+        <v>11</v>
+      </c>
+      <c r="J656" t="n">
+        <v>28</v>
+      </c>
+      <c r="K656" t="n">
+        <v>0</v>
+      </c>
+      <c r="L656" t="n">
+        <v>0</v>
+      </c>
+      <c r="M656" t="n">
+        <v>0</v>
+      </c>
+      <c r="N656" t="n">
+        <v>48</v>
+      </c>
+      <c r="O656" t="n">
+        <v>0</v>
+      </c>
+      <c r="P656" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q656" t="n">
+        <v>0</v>
+      </c>
+      <c r="R656" t="inlineStr"/>
+    </row>
+    <row r="657">
+      <c r="A657" s="2" t="n">
+        <v>45625</v>
+      </c>
+      <c r="B657" t="n">
+        <v>1297.800048828125</v>
+      </c>
+      <c r="C657" t="n">
+        <v>1321</v>
+      </c>
+      <c r="D657" t="n">
+        <v>1271</v>
+      </c>
+      <c r="E657" t="n">
+        <v>1297.349975585938</v>
+      </c>
+      <c r="F657" t="n">
+        <v>1297.349975585938</v>
+      </c>
+      <c r="G657" t="n">
+        <v>110954</v>
+      </c>
+      <c r="H657" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I657" t="n">
+        <v>11</v>
+      </c>
+      <c r="J657" t="n">
+        <v>29</v>
+      </c>
+      <c r="K657" t="n">
+        <v>0</v>
+      </c>
+      <c r="L657" t="n">
+        <v>0</v>
+      </c>
+      <c r="M657" t="n">
+        <v>0</v>
+      </c>
+      <c r="N657" t="n">
+        <v>48</v>
+      </c>
+      <c r="O657" t="n">
+        <v>0</v>
+      </c>
+      <c r="P657" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q657" t="n">
+        <v>0</v>
+      </c>
+      <c r="R657" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SHAILY.NS.xlsx
+++ b/stock_historical_data/1d/SHAILY.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R657"/>
+  <dimension ref="A1:R662"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37037,7 +37037,9 @@
       <c r="Q653" t="n">
         <v>0</v>
       </c>
-      <c r="R653" t="inlineStr"/>
+      <c r="R653" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="654">
       <c r="A654" s="2" t="n">
@@ -37091,7 +37093,9 @@
       <c r="Q654" t="n">
         <v>2</v>
       </c>
-      <c r="R654" t="inlineStr"/>
+      <c r="R654" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="655">
       <c r="A655" s="2" t="n">
@@ -37145,7 +37149,9 @@
       <c r="Q655" t="n">
         <v>0</v>
       </c>
-      <c r="R655" t="inlineStr"/>
+      <c r="R655" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="656">
       <c r="A656" s="2" t="n">
@@ -37199,7 +37205,9 @@
       <c r="Q656" t="n">
         <v>0</v>
       </c>
-      <c r="R656" t="inlineStr"/>
+      <c r="R656" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="657">
       <c r="A657" s="2" t="n">
@@ -37253,7 +37261,279 @@
       <c r="Q657" t="n">
         <v>0</v>
       </c>
-      <c r="R657" t="inlineStr"/>
+      <c r="R657" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B658" t="n">
+        <v>1312.050048828125</v>
+      </c>
+      <c r="C658" t="n">
+        <v>1400</v>
+      </c>
+      <c r="D658" t="n">
+        <v>1291.75</v>
+      </c>
+      <c r="E658" t="n">
+        <v>1317</v>
+      </c>
+      <c r="F658" t="n">
+        <v>1317</v>
+      </c>
+      <c r="G658" t="n">
+        <v>398847</v>
+      </c>
+      <c r="H658" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I658" t="n">
+        <v>12</v>
+      </c>
+      <c r="J658" t="n">
+        <v>2</v>
+      </c>
+      <c r="K658" t="n">
+        <v>0</v>
+      </c>
+      <c r="L658" t="n">
+        <v>0</v>
+      </c>
+      <c r="M658" t="n">
+        <v>0</v>
+      </c>
+      <c r="N658" t="n">
+        <v>49</v>
+      </c>
+      <c r="O658" t="n">
+        <v>0</v>
+      </c>
+      <c r="P658" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q658" t="n">
+        <v>0</v>
+      </c>
+      <c r="R658" t="inlineStr"/>
+    </row>
+    <row r="659">
+      <c r="A659" s="2" t="n">
+        <v>45629</v>
+      </c>
+      <c r="B659" t="n">
+        <v>1329.949951171875</v>
+      </c>
+      <c r="C659" t="n">
+        <v>1379.900024414062</v>
+      </c>
+      <c r="D659" t="n">
+        <v>1313</v>
+      </c>
+      <c r="E659" t="n">
+        <v>1334.449951171875</v>
+      </c>
+      <c r="F659" t="n">
+        <v>1334.449951171875</v>
+      </c>
+      <c r="G659" t="n">
+        <v>423774</v>
+      </c>
+      <c r="H659" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I659" t="n">
+        <v>12</v>
+      </c>
+      <c r="J659" t="n">
+        <v>3</v>
+      </c>
+      <c r="K659" t="n">
+        <v>0</v>
+      </c>
+      <c r="L659" t="n">
+        <v>0</v>
+      </c>
+      <c r="M659" t="n">
+        <v>0</v>
+      </c>
+      <c r="N659" t="n">
+        <v>49</v>
+      </c>
+      <c r="O659" t="n">
+        <v>0</v>
+      </c>
+      <c r="P659" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q659" t="n">
+        <v>0</v>
+      </c>
+      <c r="R659" t="inlineStr"/>
+    </row>
+    <row r="660">
+      <c r="A660" s="2" t="n">
+        <v>45630</v>
+      </c>
+      <c r="B660" t="n">
+        <v>1359.800048828125</v>
+      </c>
+      <c r="C660" t="n">
+        <v>1375.75</v>
+      </c>
+      <c r="D660" t="n">
+        <v>1300</v>
+      </c>
+      <c r="E660" t="n">
+        <v>1315.5</v>
+      </c>
+      <c r="F660" t="n">
+        <v>1315.5</v>
+      </c>
+      <c r="G660" t="n">
+        <v>255636</v>
+      </c>
+      <c r="H660" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I660" t="n">
+        <v>12</v>
+      </c>
+      <c r="J660" t="n">
+        <v>4</v>
+      </c>
+      <c r="K660" t="n">
+        <v>0</v>
+      </c>
+      <c r="L660" t="n">
+        <v>0</v>
+      </c>
+      <c r="M660" t="n">
+        <v>0</v>
+      </c>
+      <c r="N660" t="n">
+        <v>49</v>
+      </c>
+      <c r="O660" t="n">
+        <v>0</v>
+      </c>
+      <c r="P660" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q660" t="n">
+        <v>0</v>
+      </c>
+      <c r="R660" t="inlineStr"/>
+    </row>
+    <row r="661">
+      <c r="A661" s="2" t="n">
+        <v>45631</v>
+      </c>
+      <c r="B661" t="n">
+        <v>1314.900024414062</v>
+      </c>
+      <c r="C661" t="n">
+        <v>1322.949951171875</v>
+      </c>
+      <c r="D661" t="n">
+        <v>1294.199951171875</v>
+      </c>
+      <c r="E661" t="n">
+        <v>1305.150024414062</v>
+      </c>
+      <c r="F661" t="n">
+        <v>1305.150024414062</v>
+      </c>
+      <c r="G661" t="n">
+        <v>309225</v>
+      </c>
+      <c r="H661" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I661" t="n">
+        <v>12</v>
+      </c>
+      <c r="J661" t="n">
+        <v>5</v>
+      </c>
+      <c r="K661" t="n">
+        <v>0</v>
+      </c>
+      <c r="L661" t="n">
+        <v>0</v>
+      </c>
+      <c r="M661" t="n">
+        <v>0</v>
+      </c>
+      <c r="N661" t="n">
+        <v>49</v>
+      </c>
+      <c r="O661" t="n">
+        <v>0</v>
+      </c>
+      <c r="P661" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q661" t="n">
+        <v>0</v>
+      </c>
+      <c r="R661" t="inlineStr"/>
+    </row>
+    <row r="662">
+      <c r="A662" s="2" t="n">
+        <v>45632</v>
+      </c>
+      <c r="B662" t="n">
+        <v>1302.349975585938</v>
+      </c>
+      <c r="C662" t="n">
+        <v>1348.150024414062</v>
+      </c>
+      <c r="D662" t="n">
+        <v>1285</v>
+      </c>
+      <c r="E662" t="n">
+        <v>1306.900024414062</v>
+      </c>
+      <c r="F662" t="n">
+        <v>1306.900024414062</v>
+      </c>
+      <c r="G662" t="n">
+        <v>199348</v>
+      </c>
+      <c r="H662" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I662" t="n">
+        <v>12</v>
+      </c>
+      <c r="J662" t="n">
+        <v>6</v>
+      </c>
+      <c r="K662" t="n">
+        <v>0</v>
+      </c>
+      <c r="L662" t="n">
+        <v>0</v>
+      </c>
+      <c r="M662" t="n">
+        <v>0</v>
+      </c>
+      <c r="N662" t="n">
+        <v>49</v>
+      </c>
+      <c r="O662" t="n">
+        <v>0</v>
+      </c>
+      <c r="P662" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q662" t="n">
+        <v>0</v>
+      </c>
+      <c r="R662" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SHAILY.NS.xlsx
+++ b/stock_historical_data/1d/SHAILY.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R662"/>
+  <dimension ref="A1:R672"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37317,7 +37317,9 @@
       <c r="Q658" t="n">
         <v>0</v>
       </c>
-      <c r="R658" t="inlineStr"/>
+      <c r="R658" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="659">
       <c r="A659" s="2" t="n">
@@ -37371,7 +37373,9 @@
       <c r="Q659" t="n">
         <v>0</v>
       </c>
-      <c r="R659" t="inlineStr"/>
+      <c r="R659" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="660">
       <c r="A660" s="2" t="n">
@@ -37425,7 +37429,9 @@
       <c r="Q660" t="n">
         <v>0</v>
       </c>
-      <c r="R660" t="inlineStr"/>
+      <c r="R660" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="661">
       <c r="A661" s="2" t="n">
@@ -37479,7 +37485,9 @@
       <c r="Q661" t="n">
         <v>0</v>
       </c>
-      <c r="R661" t="inlineStr"/>
+      <c r="R661" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="662">
       <c r="A662" s="2" t="n">
@@ -37533,7 +37541,529 @@
       <c r="Q662" t="n">
         <v>0</v>
       </c>
-      <c r="R662" t="inlineStr"/>
+      <c r="R662" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B663" t="n">
+        <v>1323</v>
+      </c>
+      <c r="C663" t="n">
+        <v>1410</v>
+      </c>
+      <c r="D663" t="n">
+        <v>1313.25</v>
+      </c>
+      <c r="E663" t="n">
+        <v>1345.449951171875</v>
+      </c>
+      <c r="F663" t="inlineStr"/>
+      <c r="G663" t="n">
+        <v>525263</v>
+      </c>
+      <c r="H663" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I663" t="n">
+        <v>12</v>
+      </c>
+      <c r="J663" t="n">
+        <v>9</v>
+      </c>
+      <c r="K663" t="n">
+        <v>0</v>
+      </c>
+      <c r="L663" t="n">
+        <v>0</v>
+      </c>
+      <c r="M663" t="n">
+        <v>0</v>
+      </c>
+      <c r="N663" t="n">
+        <v>50</v>
+      </c>
+      <c r="O663" t="n">
+        <v>0</v>
+      </c>
+      <c r="P663" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q663" t="n">
+        <v>0</v>
+      </c>
+      <c r="R663" t="inlineStr"/>
+    </row>
+    <row r="664">
+      <c r="A664" s="2" t="n">
+        <v>45636</v>
+      </c>
+      <c r="B664" t="n">
+        <v>1355.699951171875</v>
+      </c>
+      <c r="C664" t="n">
+        <v>1390</v>
+      </c>
+      <c r="D664" t="n">
+        <v>1335</v>
+      </c>
+      <c r="E664" t="n">
+        <v>1355.5</v>
+      </c>
+      <c r="F664" t="inlineStr"/>
+      <c r="G664" t="n">
+        <v>228954</v>
+      </c>
+      <c r="H664" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I664" t="n">
+        <v>12</v>
+      </c>
+      <c r="J664" t="n">
+        <v>10</v>
+      </c>
+      <c r="K664" t="n">
+        <v>0</v>
+      </c>
+      <c r="L664" t="n">
+        <v>0</v>
+      </c>
+      <c r="M664" t="n">
+        <v>0</v>
+      </c>
+      <c r="N664" t="n">
+        <v>50</v>
+      </c>
+      <c r="O664" t="n">
+        <v>0</v>
+      </c>
+      <c r="P664" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q664" t="n">
+        <v>0</v>
+      </c>
+      <c r="R664" t="inlineStr"/>
+    </row>
+    <row r="665">
+      <c r="A665" s="2" t="n">
+        <v>45637</v>
+      </c>
+      <c r="B665" t="n">
+        <v>1359.5</v>
+      </c>
+      <c r="C665" t="n">
+        <v>1469.800048828125</v>
+      </c>
+      <c r="D665" t="n">
+        <v>1352.050048828125</v>
+      </c>
+      <c r="E665" t="n">
+        <v>1449</v>
+      </c>
+      <c r="F665" t="inlineStr"/>
+      <c r="G665" t="n">
+        <v>1173291</v>
+      </c>
+      <c r="H665" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I665" t="n">
+        <v>12</v>
+      </c>
+      <c r="J665" t="n">
+        <v>11</v>
+      </c>
+      <c r="K665" t="n">
+        <v>0</v>
+      </c>
+      <c r="L665" t="n">
+        <v>0</v>
+      </c>
+      <c r="M665" t="n">
+        <v>0</v>
+      </c>
+      <c r="N665" t="n">
+        <v>50</v>
+      </c>
+      <c r="O665" t="n">
+        <v>0</v>
+      </c>
+      <c r="P665" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q665" t="n">
+        <v>0</v>
+      </c>
+      <c r="R665" t="inlineStr"/>
+    </row>
+    <row r="666">
+      <c r="A666" s="2" t="n">
+        <v>45638</v>
+      </c>
+      <c r="B666" t="n">
+        <v>1461</v>
+      </c>
+      <c r="C666" t="n">
+        <v>1478.849975585938</v>
+      </c>
+      <c r="D666" t="n">
+        <v>1417</v>
+      </c>
+      <c r="E666" t="n">
+        <v>1439.349975585938</v>
+      </c>
+      <c r="F666" t="inlineStr"/>
+      <c r="G666" t="n">
+        <v>444613</v>
+      </c>
+      <c r="H666" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I666" t="n">
+        <v>12</v>
+      </c>
+      <c r="J666" t="n">
+        <v>12</v>
+      </c>
+      <c r="K666" t="n">
+        <v>0</v>
+      </c>
+      <c r="L666" t="n">
+        <v>0</v>
+      </c>
+      <c r="M666" t="n">
+        <v>0</v>
+      </c>
+      <c r="N666" t="n">
+        <v>50</v>
+      </c>
+      <c r="O666" t="n">
+        <v>0</v>
+      </c>
+      <c r="P666" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q666" t="n">
+        <v>0</v>
+      </c>
+      <c r="R666" t="inlineStr"/>
+    </row>
+    <row r="667">
+      <c r="A667" s="2" t="n">
+        <v>45639</v>
+      </c>
+      <c r="B667" t="n">
+        <v>1435.099975585938</v>
+      </c>
+      <c r="C667" t="n">
+        <v>1495</v>
+      </c>
+      <c r="D667" t="n">
+        <v>1421.75</v>
+      </c>
+      <c r="E667" t="n">
+        <v>1489.400024414062</v>
+      </c>
+      <c r="F667" t="inlineStr"/>
+      <c r="G667" t="n">
+        <v>302441</v>
+      </c>
+      <c r="H667" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I667" t="n">
+        <v>12</v>
+      </c>
+      <c r="J667" t="n">
+        <v>13</v>
+      </c>
+      <c r="K667" t="n">
+        <v>0</v>
+      </c>
+      <c r="L667" t="n">
+        <v>0</v>
+      </c>
+      <c r="M667" t="n">
+        <v>0</v>
+      </c>
+      <c r="N667" t="n">
+        <v>50</v>
+      </c>
+      <c r="O667" t="n">
+        <v>0</v>
+      </c>
+      <c r="P667" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q667" t="n">
+        <v>0</v>
+      </c>
+      <c r="R667" t="inlineStr"/>
+    </row>
+    <row r="668">
+      <c r="A668" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B668" t="n">
+        <v>1490.800048828125</v>
+      </c>
+      <c r="C668" t="n">
+        <v>1517</v>
+      </c>
+      <c r="D668" t="n">
+        <v>1482</v>
+      </c>
+      <c r="E668" t="n">
+        <v>1489.800048828125</v>
+      </c>
+      <c r="F668" t="inlineStr"/>
+      <c r="G668" t="n">
+        <v>158157</v>
+      </c>
+      <c r="H668" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I668" t="n">
+        <v>12</v>
+      </c>
+      <c r="J668" t="n">
+        <v>16</v>
+      </c>
+      <c r="K668" t="n">
+        <v>0</v>
+      </c>
+      <c r="L668" t="n">
+        <v>0</v>
+      </c>
+      <c r="M668" t="n">
+        <v>0</v>
+      </c>
+      <c r="N668" t="n">
+        <v>51</v>
+      </c>
+      <c r="O668" t="n">
+        <v>0</v>
+      </c>
+      <c r="P668" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q668" t="n">
+        <v>0</v>
+      </c>
+      <c r="R668" t="inlineStr"/>
+    </row>
+    <row r="669">
+      <c r="A669" s="2" t="n">
+        <v>45643</v>
+      </c>
+      <c r="B669" t="n">
+        <v>1499.699951171875</v>
+      </c>
+      <c r="C669" t="n">
+        <v>1540</v>
+      </c>
+      <c r="D669" t="n">
+        <v>1470.449951171875</v>
+      </c>
+      <c r="E669" t="n">
+        <v>1519</v>
+      </c>
+      <c r="F669" t="inlineStr"/>
+      <c r="G669" t="n">
+        <v>317741</v>
+      </c>
+      <c r="H669" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I669" t="n">
+        <v>12</v>
+      </c>
+      <c r="J669" t="n">
+        <v>17</v>
+      </c>
+      <c r="K669" t="n">
+        <v>0</v>
+      </c>
+      <c r="L669" t="n">
+        <v>0</v>
+      </c>
+      <c r="M669" t="n">
+        <v>0</v>
+      </c>
+      <c r="N669" t="n">
+        <v>51</v>
+      </c>
+      <c r="O669" t="n">
+        <v>0</v>
+      </c>
+      <c r="P669" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q669" t="n">
+        <v>0</v>
+      </c>
+      <c r="R669" t="inlineStr"/>
+    </row>
+    <row r="670">
+      <c r="A670" s="2" t="n">
+        <v>45644</v>
+      </c>
+      <c r="B670" t="n">
+        <v>1527.699951171875</v>
+      </c>
+      <c r="C670" t="n">
+        <v>1528.599975585938</v>
+      </c>
+      <c r="D670" t="n">
+        <v>1455</v>
+      </c>
+      <c r="E670" t="n">
+        <v>1464.800048828125</v>
+      </c>
+      <c r="F670" t="inlineStr"/>
+      <c r="G670" t="n">
+        <v>205208</v>
+      </c>
+      <c r="H670" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I670" t="n">
+        <v>12</v>
+      </c>
+      <c r="J670" t="n">
+        <v>18</v>
+      </c>
+      <c r="K670" t="n">
+        <v>0</v>
+      </c>
+      <c r="L670" t="n">
+        <v>0</v>
+      </c>
+      <c r="M670" t="n">
+        <v>0</v>
+      </c>
+      <c r="N670" t="n">
+        <v>51</v>
+      </c>
+      <c r="O670" t="n">
+        <v>0</v>
+      </c>
+      <c r="P670" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q670" t="n">
+        <v>0</v>
+      </c>
+      <c r="R670" t="inlineStr"/>
+    </row>
+    <row r="671">
+      <c r="A671" s="2" t="n">
+        <v>45645</v>
+      </c>
+      <c r="B671" t="n">
+        <v>1441.199951171875</v>
+      </c>
+      <c r="C671" t="n">
+        <v>1520</v>
+      </c>
+      <c r="D671" t="n">
+        <v>1439.300048828125</v>
+      </c>
+      <c r="E671" t="n">
+        <v>1498.650024414062</v>
+      </c>
+      <c r="F671" t="inlineStr"/>
+      <c r="G671" t="n">
+        <v>243269</v>
+      </c>
+      <c r="H671" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I671" t="n">
+        <v>12</v>
+      </c>
+      <c r="J671" t="n">
+        <v>19</v>
+      </c>
+      <c r="K671" t="n">
+        <v>0</v>
+      </c>
+      <c r="L671" t="n">
+        <v>0</v>
+      </c>
+      <c r="M671" t="n">
+        <v>0</v>
+      </c>
+      <c r="N671" t="n">
+        <v>51</v>
+      </c>
+      <c r="O671" t="n">
+        <v>0</v>
+      </c>
+      <c r="P671" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q671" t="n">
+        <v>0</v>
+      </c>
+      <c r="R671" t="inlineStr"/>
+    </row>
+    <row r="672">
+      <c r="A672" s="2" t="n">
+        <v>45646</v>
+      </c>
+      <c r="B672" t="n">
+        <v>1519</v>
+      </c>
+      <c r="C672" t="n">
+        <v>1525.849975585938</v>
+      </c>
+      <c r="D672" t="n">
+        <v>1428.599975585938</v>
+      </c>
+      <c r="E672" t="n">
+        <v>1447.949951171875</v>
+      </c>
+      <c r="F672" t="inlineStr"/>
+      <c r="G672" t="n">
+        <v>228917</v>
+      </c>
+      <c r="H672" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I672" t="n">
+        <v>12</v>
+      </c>
+      <c r="J672" t="n">
+        <v>20</v>
+      </c>
+      <c r="K672" t="n">
+        <v>0</v>
+      </c>
+      <c r="L672" t="n">
+        <v>0</v>
+      </c>
+      <c r="M672" t="n">
+        <v>0</v>
+      </c>
+      <c r="N672" t="n">
+        <v>51</v>
+      </c>
+      <c r="O672" t="n">
+        <v>0</v>
+      </c>
+      <c r="P672" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q672" t="n">
+        <v>0</v>
+      </c>
+      <c r="R672" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SHAILY.NS.xlsx
+++ b/stock_historical_data/1d/SHAILY.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R672"/>
+  <dimension ref="A1:R676"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37595,7 +37595,9 @@
       <c r="Q663" t="n">
         <v>0</v>
       </c>
-      <c r="R663" t="inlineStr"/>
+      <c r="R663" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="664">
       <c r="A664" s="2" t="n">
@@ -37647,7 +37649,9 @@
       <c r="Q664" t="n">
         <v>0</v>
       </c>
-      <c r="R664" t="inlineStr"/>
+      <c r="R664" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="665">
       <c r="A665" s="2" t="n">
@@ -37699,7 +37703,9 @@
       <c r="Q665" t="n">
         <v>0</v>
       </c>
-      <c r="R665" t="inlineStr"/>
+      <c r="R665" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="666">
       <c r="A666" s="2" t="n">
@@ -37751,7 +37757,9 @@
       <c r="Q666" t="n">
         <v>0</v>
       </c>
-      <c r="R666" t="inlineStr"/>
+      <c r="R666" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="667">
       <c r="A667" s="2" t="n">
@@ -37803,7 +37811,9 @@
       <c r="Q667" t="n">
         <v>0</v>
       </c>
-      <c r="R667" t="inlineStr"/>
+      <c r="R667" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="668">
       <c r="A668" s="2" t="n">
@@ -37855,7 +37865,9 @@
       <c r="Q668" t="n">
         <v>0</v>
       </c>
-      <c r="R668" t="inlineStr"/>
+      <c r="R668" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="669">
       <c r="A669" s="2" t="n">
@@ -37907,7 +37919,9 @@
       <c r="Q669" t="n">
         <v>0</v>
       </c>
-      <c r="R669" t="inlineStr"/>
+      <c r="R669" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="670">
       <c r="A670" s="2" t="n">
@@ -37959,7 +37973,9 @@
       <c r="Q670" t="n">
         <v>0</v>
       </c>
-      <c r="R670" t="inlineStr"/>
+      <c r="R670" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="671">
       <c r="A671" s="2" t="n">
@@ -38011,7 +38027,9 @@
       <c r="Q671" t="n">
         <v>0</v>
       </c>
-      <c r="R671" t="inlineStr"/>
+      <c r="R671" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="672">
       <c r="A672" s="2" t="n">
@@ -38063,7 +38081,217 @@
       <c r="Q672" t="n">
         <v>0</v>
       </c>
-      <c r="R672" t="inlineStr"/>
+      <c r="R672" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B673" t="n">
+        <v>1451.949951171875</v>
+      </c>
+      <c r="C673" t="n">
+        <v>1459.5</v>
+      </c>
+      <c r="D673" t="n">
+        <v>1394.050048828125</v>
+      </c>
+      <c r="E673" t="n">
+        <v>1406.900024414062</v>
+      </c>
+      <c r="F673" t="inlineStr"/>
+      <c r="G673" t="n">
+        <v>129658</v>
+      </c>
+      <c r="H673" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I673" t="n">
+        <v>12</v>
+      </c>
+      <c r="J673" t="n">
+        <v>23</v>
+      </c>
+      <c r="K673" t="n">
+        <v>0</v>
+      </c>
+      <c r="L673" t="n">
+        <v>0</v>
+      </c>
+      <c r="M673" t="n">
+        <v>0</v>
+      </c>
+      <c r="N673" t="n">
+        <v>52</v>
+      </c>
+      <c r="O673" t="n">
+        <v>0</v>
+      </c>
+      <c r="P673" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q673" t="n">
+        <v>0</v>
+      </c>
+      <c r="R673" t="inlineStr"/>
+    </row>
+    <row r="674">
+      <c r="A674" s="2" t="n">
+        <v>45650</v>
+      </c>
+      <c r="B674" t="n">
+        <v>1414.300048828125</v>
+      </c>
+      <c r="C674" t="n">
+        <v>1485</v>
+      </c>
+      <c r="D674" t="n">
+        <v>1395.650024414062</v>
+      </c>
+      <c r="E674" t="n">
+        <v>1470.449951171875</v>
+      </c>
+      <c r="F674" t="inlineStr"/>
+      <c r="G674" t="n">
+        <v>151266</v>
+      </c>
+      <c r="H674" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I674" t="n">
+        <v>12</v>
+      </c>
+      <c r="J674" t="n">
+        <v>24</v>
+      </c>
+      <c r="K674" t="n">
+        <v>0</v>
+      </c>
+      <c r="L674" t="n">
+        <v>0</v>
+      </c>
+      <c r="M674" t="n">
+        <v>0</v>
+      </c>
+      <c r="N674" t="n">
+        <v>52</v>
+      </c>
+      <c r="O674" t="n">
+        <v>0</v>
+      </c>
+      <c r="P674" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q674" t="n">
+        <v>0</v>
+      </c>
+      <c r="R674" t="inlineStr"/>
+    </row>
+    <row r="675">
+      <c r="A675" s="2" t="n">
+        <v>45652</v>
+      </c>
+      <c r="B675" t="n">
+        <v>1482.199951171875</v>
+      </c>
+      <c r="C675" t="n">
+        <v>1515</v>
+      </c>
+      <c r="D675" t="n">
+        <v>1466.550048828125</v>
+      </c>
+      <c r="E675" t="n">
+        <v>1499.5</v>
+      </c>
+      <c r="F675" t="inlineStr"/>
+      <c r="G675" t="n">
+        <v>154441</v>
+      </c>
+      <c r="H675" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I675" t="n">
+        <v>12</v>
+      </c>
+      <c r="J675" t="n">
+        <v>26</v>
+      </c>
+      <c r="K675" t="n">
+        <v>0</v>
+      </c>
+      <c r="L675" t="n">
+        <v>0</v>
+      </c>
+      <c r="M675" t="n">
+        <v>0</v>
+      </c>
+      <c r="N675" t="n">
+        <v>52</v>
+      </c>
+      <c r="O675" t="n">
+        <v>0</v>
+      </c>
+      <c r="P675" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q675" t="n">
+        <v>0</v>
+      </c>
+      <c r="R675" t="inlineStr"/>
+    </row>
+    <row r="676">
+      <c r="A676" s="2" t="n">
+        <v>45653</v>
+      </c>
+      <c r="B676" t="n">
+        <v>1496</v>
+      </c>
+      <c r="C676" t="n">
+        <v>1500.449951171875</v>
+      </c>
+      <c r="D676" t="n">
+        <v>1437.949951171875</v>
+      </c>
+      <c r="E676" t="n">
+        <v>1467.099975585938</v>
+      </c>
+      <c r="F676" t="inlineStr"/>
+      <c r="G676" t="n">
+        <v>191510</v>
+      </c>
+      <c r="H676" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I676" t="n">
+        <v>12</v>
+      </c>
+      <c r="J676" t="n">
+        <v>27</v>
+      </c>
+      <c r="K676" t="n">
+        <v>0</v>
+      </c>
+      <c r="L676" t="n">
+        <v>0</v>
+      </c>
+      <c r="M676" t="n">
+        <v>0</v>
+      </c>
+      <c r="N676" t="n">
+        <v>52</v>
+      </c>
+      <c r="O676" t="n">
+        <v>0</v>
+      </c>
+      <c r="P676" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q676" t="n">
+        <v>0</v>
+      </c>
+      <c r="R676" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SHAILY.NS.xlsx
+++ b/stock_historical_data/1d/SHAILY.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R676"/>
+  <dimension ref="A1:R681"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8142,7 +8142,7 @@
         <v>0</v>
       </c>
       <c r="R137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -9934,7 +9934,7 @@
         <v>0</v>
       </c>
       <c r="R169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -10270,7 +10270,7 @@
         <v>0</v>
       </c>
       <c r="R175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -14582,7 +14582,7 @@
         <v>1</v>
       </c>
       <c r="R252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
@@ -15198,7 +15198,7 @@
         <v>2</v>
       </c>
       <c r="R263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264">
@@ -15590,7 +15590,7 @@
         <v>1</v>
       </c>
       <c r="R270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
@@ -22590,7 +22590,7 @@
         <v>2</v>
       </c>
       <c r="R395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396">
@@ -25950,7 +25950,7 @@
         <v>0</v>
       </c>
       <c r="R455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456">
@@ -28134,7 +28134,7 @@
         <v>0</v>
       </c>
       <c r="R494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495">
@@ -30542,7 +30542,7 @@
         <v>2</v>
       </c>
       <c r="R537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538">
@@ -33398,7 +33398,7 @@
         <v>0</v>
       </c>
       <c r="R588" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589">
@@ -36702,7 +36702,7 @@
         <v>0</v>
       </c>
       <c r="R647" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648">
@@ -37094,7 +37094,7 @@
         <v>2</v>
       </c>
       <c r="R654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655">
@@ -37911,7 +37911,7 @@
         <v>51</v>
       </c>
       <c r="O669" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P669" t="n">
         <v>0</v>
@@ -38135,7 +38135,9 @@
       <c r="Q673" t="n">
         <v>0</v>
       </c>
-      <c r="R673" t="inlineStr"/>
+      <c r="R673" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="674">
       <c r="A674" s="2" t="n">
@@ -38187,7 +38189,9 @@
       <c r="Q674" t="n">
         <v>0</v>
       </c>
-      <c r="R674" t="inlineStr"/>
+      <c r="R674" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="675">
       <c r="A675" s="2" t="n">
@@ -38239,7 +38243,9 @@
       <c r="Q675" t="n">
         <v>0</v>
       </c>
-      <c r="R675" t="inlineStr"/>
+      <c r="R675" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="676">
       <c r="A676" s="2" t="n">
@@ -38291,7 +38297,269 @@
       <c r="Q676" t="n">
         <v>0</v>
       </c>
-      <c r="R676" t="inlineStr"/>
+      <c r="R676" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B677" t="n">
+        <v>1477.349975585938</v>
+      </c>
+      <c r="C677" t="n">
+        <v>1498.900024414062</v>
+      </c>
+      <c r="D677" t="n">
+        <v>1448.050048828125</v>
+      </c>
+      <c r="E677" t="n">
+        <v>1465.75</v>
+      </c>
+      <c r="F677" t="inlineStr"/>
+      <c r="G677" t="n">
+        <v>121639</v>
+      </c>
+      <c r="H677" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I677" t="n">
+        <v>12</v>
+      </c>
+      <c r="J677" t="n">
+        <v>30</v>
+      </c>
+      <c r="K677" t="n">
+        <v>0</v>
+      </c>
+      <c r="L677" t="n">
+        <v>0</v>
+      </c>
+      <c r="M677" t="n">
+        <v>0</v>
+      </c>
+      <c r="N677" t="n">
+        <v>1</v>
+      </c>
+      <c r="O677" t="n">
+        <v>0</v>
+      </c>
+      <c r="P677" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q677" t="n">
+        <v>0</v>
+      </c>
+      <c r="R677" t="inlineStr"/>
+    </row>
+    <row r="678">
+      <c r="A678" s="2" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B678" t="n">
+        <v>1465.75</v>
+      </c>
+      <c r="C678" t="n">
+        <v>1475</v>
+      </c>
+      <c r="D678" t="n">
+        <v>1402.25</v>
+      </c>
+      <c r="E678" t="n">
+        <v>1439.599975585938</v>
+      </c>
+      <c r="F678" t="inlineStr"/>
+      <c r="G678" t="n">
+        <v>25582</v>
+      </c>
+      <c r="H678" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I678" t="n">
+        <v>12</v>
+      </c>
+      <c r="J678" t="n">
+        <v>31</v>
+      </c>
+      <c r="K678" t="n">
+        <v>0</v>
+      </c>
+      <c r="L678" t="n">
+        <v>0</v>
+      </c>
+      <c r="M678" t="n">
+        <v>0</v>
+      </c>
+      <c r="N678" t="n">
+        <v>1</v>
+      </c>
+      <c r="O678" t="n">
+        <v>0</v>
+      </c>
+      <c r="P678" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q678" t="n">
+        <v>0</v>
+      </c>
+      <c r="R678" t="inlineStr"/>
+    </row>
+    <row r="679">
+      <c r="A679" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B679" t="n">
+        <v>1444.900024414062</v>
+      </c>
+      <c r="C679" t="n">
+        <v>1474</v>
+      </c>
+      <c r="D679" t="n">
+        <v>1405.099975585938</v>
+      </c>
+      <c r="E679" t="n">
+        <v>1439</v>
+      </c>
+      <c r="F679" t="inlineStr"/>
+      <c r="G679" t="n">
+        <v>24302</v>
+      </c>
+      <c r="H679" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I679" t="n">
+        <v>1</v>
+      </c>
+      <c r="J679" t="n">
+        <v>1</v>
+      </c>
+      <c r="K679" t="n">
+        <v>0</v>
+      </c>
+      <c r="L679" t="n">
+        <v>0</v>
+      </c>
+      <c r="M679" t="n">
+        <v>0</v>
+      </c>
+      <c r="N679" t="n">
+        <v>1</v>
+      </c>
+      <c r="O679" t="n">
+        <v>0</v>
+      </c>
+      <c r="P679" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q679" t="n">
+        <v>0</v>
+      </c>
+      <c r="R679" t="inlineStr"/>
+    </row>
+    <row r="680">
+      <c r="A680" s="2" t="n">
+        <v>45659</v>
+      </c>
+      <c r="B680" t="n">
+        <v>1425.099975585938</v>
+      </c>
+      <c r="C680" t="n">
+        <v>1510.949951171875</v>
+      </c>
+      <c r="D680" t="n">
+        <v>1375</v>
+      </c>
+      <c r="E680" t="n">
+        <v>1490.349975585938</v>
+      </c>
+      <c r="F680" t="inlineStr"/>
+      <c r="G680" t="n">
+        <v>89483</v>
+      </c>
+      <c r="H680" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I680" t="n">
+        <v>1</v>
+      </c>
+      <c r="J680" t="n">
+        <v>2</v>
+      </c>
+      <c r="K680" t="n">
+        <v>0</v>
+      </c>
+      <c r="L680" t="n">
+        <v>0</v>
+      </c>
+      <c r="M680" t="n">
+        <v>0</v>
+      </c>
+      <c r="N680" t="n">
+        <v>1</v>
+      </c>
+      <c r="O680" t="n">
+        <v>0</v>
+      </c>
+      <c r="P680" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q680" t="n">
+        <v>2</v>
+      </c>
+      <c r="R680" t="inlineStr"/>
+    </row>
+    <row r="681">
+      <c r="A681" s="2" t="n">
+        <v>45660</v>
+      </c>
+      <c r="B681" t="n">
+        <v>1490.349975585938</v>
+      </c>
+      <c r="C681" t="n">
+        <v>1564.849975585938</v>
+      </c>
+      <c r="D681" t="n">
+        <v>1456</v>
+      </c>
+      <c r="E681" t="n">
+        <v>1549.199951171875</v>
+      </c>
+      <c r="F681" t="inlineStr"/>
+      <c r="G681" t="n">
+        <v>88088</v>
+      </c>
+      <c r="H681" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I681" t="n">
+        <v>1</v>
+      </c>
+      <c r="J681" t="n">
+        <v>3</v>
+      </c>
+      <c r="K681" t="n">
+        <v>0</v>
+      </c>
+      <c r="L681" t="n">
+        <v>0</v>
+      </c>
+      <c r="M681" t="n">
+        <v>0</v>
+      </c>
+      <c r="N681" t="n">
+        <v>1</v>
+      </c>
+      <c r="O681" t="n">
+        <v>0</v>
+      </c>
+      <c r="P681" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q681" t="n">
+        <v>0</v>
+      </c>
+      <c r="R681" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SHAILY.NS.xlsx
+++ b/stock_historical_data/1d/SHAILY.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R681"/>
+  <dimension ref="A1:R686"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8142,7 +8142,7 @@
         <v>0</v>
       </c>
       <c r="R137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -9934,7 +9934,7 @@
         <v>0</v>
       </c>
       <c r="R169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -10270,7 +10270,7 @@
         <v>0</v>
       </c>
       <c r="R175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176">
@@ -14582,7 +14582,7 @@
         <v>1</v>
       </c>
       <c r="R252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
@@ -15198,7 +15198,7 @@
         <v>2</v>
       </c>
       <c r="R263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264">
@@ -15590,7 +15590,7 @@
         <v>1</v>
       </c>
       <c r="R270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
@@ -22590,7 +22590,7 @@
         <v>2</v>
       </c>
       <c r="R395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396">
@@ -25950,7 +25950,7 @@
         <v>0</v>
       </c>
       <c r="R455" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456">
@@ -28134,7 +28134,7 @@
         <v>0</v>
       </c>
       <c r="R494" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495">
@@ -30542,7 +30542,7 @@
         <v>2</v>
       </c>
       <c r="R537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538">
@@ -33398,7 +33398,7 @@
         <v>0</v>
       </c>
       <c r="R588" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589">
@@ -36702,7 +36702,7 @@
         <v>0</v>
       </c>
       <c r="R647" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648">
@@ -37094,7 +37094,7 @@
         <v>2</v>
       </c>
       <c r="R654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655">
@@ -38351,7 +38351,9 @@
       <c r="Q677" t="n">
         <v>0</v>
       </c>
-      <c r="R677" t="inlineStr"/>
+      <c r="R677" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="678">
       <c r="A678" s="2" t="n">
@@ -38403,7 +38405,9 @@
       <c r="Q678" t="n">
         <v>0</v>
       </c>
-      <c r="R678" t="inlineStr"/>
+      <c r="R678" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="679">
       <c r="A679" s="2" t="n">
@@ -38455,7 +38459,9 @@
       <c r="Q679" t="n">
         <v>0</v>
       </c>
-      <c r="R679" t="inlineStr"/>
+      <c r="R679" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="680">
       <c r="A680" s="2" t="n">
@@ -38507,7 +38513,9 @@
       <c r="Q680" t="n">
         <v>2</v>
       </c>
-      <c r="R680" t="inlineStr"/>
+      <c r="R680" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="681">
       <c r="A681" s="2" t="n">
@@ -38559,7 +38567,269 @@
       <c r="Q681" t="n">
         <v>0</v>
       </c>
-      <c r="R681" t="inlineStr"/>
+      <c r="R681" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B682" t="n">
+        <v>1569.900024414062</v>
+      </c>
+      <c r="C682" t="n">
+        <v>1594</v>
+      </c>
+      <c r="D682" t="n">
+        <v>1471.75</v>
+      </c>
+      <c r="E682" t="n">
+        <v>1474.900024414062</v>
+      </c>
+      <c r="F682" t="inlineStr"/>
+      <c r="G682" t="n">
+        <v>161403</v>
+      </c>
+      <c r="H682" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I682" t="n">
+        <v>1</v>
+      </c>
+      <c r="J682" t="n">
+        <v>6</v>
+      </c>
+      <c r="K682" t="n">
+        <v>0</v>
+      </c>
+      <c r="L682" t="n">
+        <v>0</v>
+      </c>
+      <c r="M682" t="n">
+        <v>0</v>
+      </c>
+      <c r="N682" t="n">
+        <v>2</v>
+      </c>
+      <c r="O682" t="n">
+        <v>0</v>
+      </c>
+      <c r="P682" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q682" t="n">
+        <v>0</v>
+      </c>
+      <c r="R682" t="inlineStr"/>
+    </row>
+    <row r="683">
+      <c r="A683" s="2" t="n">
+        <v>45664</v>
+      </c>
+      <c r="B683" t="n">
+        <v>1471.75</v>
+      </c>
+      <c r="C683" t="n">
+        <v>1529.949951171875</v>
+      </c>
+      <c r="D683" t="n">
+        <v>1450</v>
+      </c>
+      <c r="E683" t="n">
+        <v>1509.849975585938</v>
+      </c>
+      <c r="F683" t="inlineStr"/>
+      <c r="G683" t="n">
+        <v>101059</v>
+      </c>
+      <c r="H683" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I683" t="n">
+        <v>1</v>
+      </c>
+      <c r="J683" t="n">
+        <v>7</v>
+      </c>
+      <c r="K683" t="n">
+        <v>0</v>
+      </c>
+      <c r="L683" t="n">
+        <v>0</v>
+      </c>
+      <c r="M683" t="n">
+        <v>0</v>
+      </c>
+      <c r="N683" t="n">
+        <v>2</v>
+      </c>
+      <c r="O683" t="n">
+        <v>0</v>
+      </c>
+      <c r="P683" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q683" t="n">
+        <v>0</v>
+      </c>
+      <c r="R683" t="inlineStr"/>
+    </row>
+    <row r="684">
+      <c r="A684" s="2" t="n">
+        <v>45665</v>
+      </c>
+      <c r="B684" t="n">
+        <v>1534.900024414062</v>
+      </c>
+      <c r="C684" t="n">
+        <v>1585.300048828125</v>
+      </c>
+      <c r="D684" t="n">
+        <v>1482</v>
+      </c>
+      <c r="E684" t="n">
+        <v>1573.050048828125</v>
+      </c>
+      <c r="F684" t="inlineStr"/>
+      <c r="G684" t="n">
+        <v>147571</v>
+      </c>
+      <c r="H684" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I684" t="n">
+        <v>1</v>
+      </c>
+      <c r="J684" t="n">
+        <v>8</v>
+      </c>
+      <c r="K684" t="n">
+        <v>0</v>
+      </c>
+      <c r="L684" t="n">
+        <v>0</v>
+      </c>
+      <c r="M684" t="n">
+        <v>0</v>
+      </c>
+      <c r="N684" t="n">
+        <v>2</v>
+      </c>
+      <c r="O684" t="n">
+        <v>0</v>
+      </c>
+      <c r="P684" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q684" t="n">
+        <v>0</v>
+      </c>
+      <c r="R684" t="inlineStr"/>
+    </row>
+    <row r="685">
+      <c r="A685" s="2" t="n">
+        <v>45666</v>
+      </c>
+      <c r="B685" t="n">
+        <v>1598.400024414062</v>
+      </c>
+      <c r="C685" t="n">
+        <v>1651.699951171875</v>
+      </c>
+      <c r="D685" t="n">
+        <v>1548.650024414062</v>
+      </c>
+      <c r="E685" t="n">
+        <v>1630.699951171875</v>
+      </c>
+      <c r="F685" t="inlineStr"/>
+      <c r="G685" t="n">
+        <v>206201</v>
+      </c>
+      <c r="H685" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I685" t="n">
+        <v>1</v>
+      </c>
+      <c r="J685" t="n">
+        <v>9</v>
+      </c>
+      <c r="K685" t="n">
+        <v>0</v>
+      </c>
+      <c r="L685" t="n">
+        <v>0</v>
+      </c>
+      <c r="M685" t="n">
+        <v>0</v>
+      </c>
+      <c r="N685" t="n">
+        <v>2</v>
+      </c>
+      <c r="O685" t="n">
+        <v>0</v>
+      </c>
+      <c r="P685" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q685" t="n">
+        <v>0</v>
+      </c>
+      <c r="R685" t="inlineStr"/>
+    </row>
+    <row r="686">
+      <c r="A686" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="B686" t="n">
+        <v>1630</v>
+      </c>
+      <c r="C686" t="n">
+        <v>1630</v>
+      </c>
+      <c r="D686" t="n">
+        <v>1560</v>
+      </c>
+      <c r="E686" t="n">
+        <v>1564.900024414062</v>
+      </c>
+      <c r="F686" t="inlineStr"/>
+      <c r="G686" t="n">
+        <v>192292</v>
+      </c>
+      <c r="H686" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I686" t="n">
+        <v>1</v>
+      </c>
+      <c r="J686" t="n">
+        <v>10</v>
+      </c>
+      <c r="K686" t="n">
+        <v>0</v>
+      </c>
+      <c r="L686" t="n">
+        <v>0</v>
+      </c>
+      <c r="M686" t="n">
+        <v>0</v>
+      </c>
+      <c r="N686" t="n">
+        <v>2</v>
+      </c>
+      <c r="O686" t="n">
+        <v>0</v>
+      </c>
+      <c r="P686" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q686" t="n">
+        <v>0</v>
+      </c>
+      <c r="R686" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SHAILY.NS.xlsx
+++ b/stock_historical_data/1d/SHAILY.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R686"/>
+  <dimension ref="A1:R691"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38505,7 +38505,7 @@
         <v>1</v>
       </c>
       <c r="O680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P680" t="n">
         <v>0</v>
@@ -38621,7 +38621,9 @@
       <c r="Q682" t="n">
         <v>0</v>
       </c>
-      <c r="R682" t="inlineStr"/>
+      <c r="R682" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="683">
       <c r="A683" s="2" t="n">
@@ -38673,7 +38675,9 @@
       <c r="Q683" t="n">
         <v>0</v>
       </c>
-      <c r="R683" t="inlineStr"/>
+      <c r="R683" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="684">
       <c r="A684" s="2" t="n">
@@ -38725,7 +38729,9 @@
       <c r="Q684" t="n">
         <v>0</v>
       </c>
-      <c r="R684" t="inlineStr"/>
+      <c r="R684" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="685">
       <c r="A685" s="2" t="n">
@@ -38777,7 +38783,9 @@
       <c r="Q685" t="n">
         <v>0</v>
       </c>
-      <c r="R685" t="inlineStr"/>
+      <c r="R685" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="686">
       <c r="A686" s="2" t="n">
@@ -38829,7 +38837,269 @@
       <c r="Q686" t="n">
         <v>0</v>
       </c>
-      <c r="R686" t="inlineStr"/>
+      <c r="R686" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B687" t="n">
+        <v>1540</v>
+      </c>
+      <c r="C687" t="n">
+        <v>1544.400024414062</v>
+      </c>
+      <c r="D687" t="n">
+        <v>1486.650024414062</v>
+      </c>
+      <c r="E687" t="n">
+        <v>1486.650024414062</v>
+      </c>
+      <c r="F687" t="inlineStr"/>
+      <c r="G687" t="n">
+        <v>163873</v>
+      </c>
+      <c r="H687" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I687" t="n">
+        <v>1</v>
+      </c>
+      <c r="J687" t="n">
+        <v>13</v>
+      </c>
+      <c r="K687" t="n">
+        <v>0</v>
+      </c>
+      <c r="L687" t="n">
+        <v>0</v>
+      </c>
+      <c r="M687" t="n">
+        <v>0</v>
+      </c>
+      <c r="N687" t="n">
+        <v>3</v>
+      </c>
+      <c r="O687" t="n">
+        <v>0</v>
+      </c>
+      <c r="P687" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q687" t="n">
+        <v>0</v>
+      </c>
+      <c r="R687" t="inlineStr"/>
+    </row>
+    <row r="688">
+      <c r="A688" s="2" t="n">
+        <v>45671</v>
+      </c>
+      <c r="B688" t="n">
+        <v>1452</v>
+      </c>
+      <c r="C688" t="n">
+        <v>1560.949951171875</v>
+      </c>
+      <c r="D688" t="n">
+        <v>1423.050048828125</v>
+      </c>
+      <c r="E688" t="n">
+        <v>1544.849975585938</v>
+      </c>
+      <c r="F688" t="inlineStr"/>
+      <c r="G688" t="n">
+        <v>144124</v>
+      </c>
+      <c r="H688" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I688" t="n">
+        <v>1</v>
+      </c>
+      <c r="J688" t="n">
+        <v>14</v>
+      </c>
+      <c r="K688" t="n">
+        <v>0</v>
+      </c>
+      <c r="L688" t="n">
+        <v>0</v>
+      </c>
+      <c r="M688" t="n">
+        <v>0</v>
+      </c>
+      <c r="N688" t="n">
+        <v>3</v>
+      </c>
+      <c r="O688" t="n">
+        <v>0</v>
+      </c>
+      <c r="P688" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q688" t="n">
+        <v>0</v>
+      </c>
+      <c r="R688" t="inlineStr"/>
+    </row>
+    <row r="689">
+      <c r="A689" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="B689" t="n">
+        <v>1574.900024414062</v>
+      </c>
+      <c r="C689" t="n">
+        <v>1574.900024414062</v>
+      </c>
+      <c r="D689" t="n">
+        <v>1500</v>
+      </c>
+      <c r="E689" t="n">
+        <v>1517.599975585938</v>
+      </c>
+      <c r="F689" t="inlineStr"/>
+      <c r="G689" t="n">
+        <v>49668</v>
+      </c>
+      <c r="H689" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I689" t="n">
+        <v>1</v>
+      </c>
+      <c r="J689" t="n">
+        <v>15</v>
+      </c>
+      <c r="K689" t="n">
+        <v>0</v>
+      </c>
+      <c r="L689" t="n">
+        <v>0</v>
+      </c>
+      <c r="M689" t="n">
+        <v>0</v>
+      </c>
+      <c r="N689" t="n">
+        <v>3</v>
+      </c>
+      <c r="O689" t="n">
+        <v>0</v>
+      </c>
+      <c r="P689" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q689" t="n">
+        <v>0</v>
+      </c>
+      <c r="R689" t="inlineStr"/>
+    </row>
+    <row r="690">
+      <c r="A690" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="B690" t="n">
+        <v>1538.800048828125</v>
+      </c>
+      <c r="C690" t="n">
+        <v>1539.949951171875</v>
+      </c>
+      <c r="D690" t="n">
+        <v>1500</v>
+      </c>
+      <c r="E690" t="n">
+        <v>1516.900024414062</v>
+      </c>
+      <c r="F690" t="inlineStr"/>
+      <c r="G690" t="n">
+        <v>40827</v>
+      </c>
+      <c r="H690" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I690" t="n">
+        <v>1</v>
+      </c>
+      <c r="J690" t="n">
+        <v>16</v>
+      </c>
+      <c r="K690" t="n">
+        <v>0</v>
+      </c>
+      <c r="L690" t="n">
+        <v>0</v>
+      </c>
+      <c r="M690" t="n">
+        <v>0</v>
+      </c>
+      <c r="N690" t="n">
+        <v>3</v>
+      </c>
+      <c r="O690" t="n">
+        <v>0</v>
+      </c>
+      <c r="P690" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q690" t="n">
+        <v>0</v>
+      </c>
+      <c r="R690" t="inlineStr"/>
+    </row>
+    <row r="691">
+      <c r="A691" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="B691" t="n">
+        <v>1495</v>
+      </c>
+      <c r="C691" t="n">
+        <v>1534</v>
+      </c>
+      <c r="D691" t="n">
+        <v>1472.800048828125</v>
+      </c>
+      <c r="E691" t="n">
+        <v>1495.900024414062</v>
+      </c>
+      <c r="F691" t="inlineStr"/>
+      <c r="G691" t="n">
+        <v>27744</v>
+      </c>
+      <c r="H691" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I691" t="n">
+        <v>1</v>
+      </c>
+      <c r="J691" t="n">
+        <v>17</v>
+      </c>
+      <c r="K691" t="n">
+        <v>0</v>
+      </c>
+      <c r="L691" t="n">
+        <v>0</v>
+      </c>
+      <c r="M691" t="n">
+        <v>0</v>
+      </c>
+      <c r="N691" t="n">
+        <v>3</v>
+      </c>
+      <c r="O691" t="n">
+        <v>0</v>
+      </c>
+      <c r="P691" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q691" t="n">
+        <v>0</v>
+      </c>
+      <c r="R691" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SHAILY.NS.xlsx
+++ b/stock_historical_data/1d/SHAILY.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R691"/>
+  <dimension ref="A1:R696"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38775,7 +38775,7 @@
         <v>2</v>
       </c>
       <c r="O685" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P685" t="n">
         <v>0</v>
@@ -38891,7 +38891,9 @@
       <c r="Q687" t="n">
         <v>0</v>
       </c>
-      <c r="R687" t="inlineStr"/>
+      <c r="R687" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="688">
       <c r="A688" s="2" t="n">
@@ -38943,7 +38945,9 @@
       <c r="Q688" t="n">
         <v>0</v>
       </c>
-      <c r="R688" t="inlineStr"/>
+      <c r="R688" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="689">
       <c r="A689" s="2" t="n">
@@ -38995,7 +38999,9 @@
       <c r="Q689" t="n">
         <v>0</v>
       </c>
-      <c r="R689" t="inlineStr"/>
+      <c r="R689" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="690">
       <c r="A690" s="2" t="n">
@@ -39047,7 +39053,9 @@
       <c r="Q690" t="n">
         <v>0</v>
       </c>
-      <c r="R690" t="inlineStr"/>
+      <c r="R690" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="691">
       <c r="A691" s="2" t="n">
@@ -39099,7 +39107,269 @@
       <c r="Q691" t="n">
         <v>0</v>
       </c>
-      <c r="R691" t="inlineStr"/>
+      <c r="R691" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B692" t="n">
+        <v>1520</v>
+      </c>
+      <c r="C692" t="n">
+        <v>1568</v>
+      </c>
+      <c r="D692" t="n">
+        <v>1460.5</v>
+      </c>
+      <c r="E692" t="n">
+        <v>1535.150024414062</v>
+      </c>
+      <c r="F692" t="inlineStr"/>
+      <c r="G692" t="n">
+        <v>39737</v>
+      </c>
+      <c r="H692" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I692" t="n">
+        <v>1</v>
+      </c>
+      <c r="J692" t="n">
+        <v>20</v>
+      </c>
+      <c r="K692" t="n">
+        <v>0</v>
+      </c>
+      <c r="L692" t="n">
+        <v>0</v>
+      </c>
+      <c r="M692" t="n">
+        <v>0</v>
+      </c>
+      <c r="N692" t="n">
+        <v>4</v>
+      </c>
+      <c r="O692" t="n">
+        <v>0</v>
+      </c>
+      <c r="P692" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q692" t="n">
+        <v>0</v>
+      </c>
+      <c r="R692" t="inlineStr"/>
+    </row>
+    <row r="693">
+      <c r="A693" s="2" t="n">
+        <v>45678</v>
+      </c>
+      <c r="B693" t="n">
+        <v>1548.699951171875</v>
+      </c>
+      <c r="C693" t="n">
+        <v>1570</v>
+      </c>
+      <c r="D693" t="n">
+        <v>1498</v>
+      </c>
+      <c r="E693" t="n">
+        <v>1505.050048828125</v>
+      </c>
+      <c r="F693" t="inlineStr"/>
+      <c r="G693" t="n">
+        <v>51331</v>
+      </c>
+      <c r="H693" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I693" t="n">
+        <v>1</v>
+      </c>
+      <c r="J693" t="n">
+        <v>21</v>
+      </c>
+      <c r="K693" t="n">
+        <v>0</v>
+      </c>
+      <c r="L693" t="n">
+        <v>0</v>
+      </c>
+      <c r="M693" t="n">
+        <v>0</v>
+      </c>
+      <c r="N693" t="n">
+        <v>4</v>
+      </c>
+      <c r="O693" t="n">
+        <v>0</v>
+      </c>
+      <c r="P693" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q693" t="n">
+        <v>0</v>
+      </c>
+      <c r="R693" t="inlineStr"/>
+    </row>
+    <row r="694">
+      <c r="A694" s="2" t="n">
+        <v>45679</v>
+      </c>
+      <c r="B694" t="n">
+        <v>1505.050048828125</v>
+      </c>
+      <c r="C694" t="n">
+        <v>1524</v>
+      </c>
+      <c r="D694" t="n">
+        <v>1462.650024414062</v>
+      </c>
+      <c r="E694" t="n">
+        <v>1513.5</v>
+      </c>
+      <c r="F694" t="inlineStr"/>
+      <c r="G694" t="n">
+        <v>84399</v>
+      </c>
+      <c r="H694" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I694" t="n">
+        <v>1</v>
+      </c>
+      <c r="J694" t="n">
+        <v>22</v>
+      </c>
+      <c r="K694" t="n">
+        <v>0</v>
+      </c>
+      <c r="L694" t="n">
+        <v>0</v>
+      </c>
+      <c r="M694" t="n">
+        <v>0</v>
+      </c>
+      <c r="N694" t="n">
+        <v>4</v>
+      </c>
+      <c r="O694" t="n">
+        <v>0</v>
+      </c>
+      <c r="P694" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q694" t="n">
+        <v>0</v>
+      </c>
+      <c r="R694" t="inlineStr"/>
+    </row>
+    <row r="695">
+      <c r="A695" s="2" t="n">
+        <v>45680</v>
+      </c>
+      <c r="B695" t="n">
+        <v>1493</v>
+      </c>
+      <c r="C695" t="n">
+        <v>1519</v>
+      </c>
+      <c r="D695" t="n">
+        <v>1490</v>
+      </c>
+      <c r="E695" t="n">
+        <v>1510.550048828125</v>
+      </c>
+      <c r="F695" t="inlineStr"/>
+      <c r="G695" t="n">
+        <v>51572</v>
+      </c>
+      <c r="H695" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I695" t="n">
+        <v>1</v>
+      </c>
+      <c r="J695" t="n">
+        <v>23</v>
+      </c>
+      <c r="K695" t="n">
+        <v>0</v>
+      </c>
+      <c r="L695" t="n">
+        <v>0</v>
+      </c>
+      <c r="M695" t="n">
+        <v>0</v>
+      </c>
+      <c r="N695" t="n">
+        <v>4</v>
+      </c>
+      <c r="O695" t="n">
+        <v>0</v>
+      </c>
+      <c r="P695" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q695" t="n">
+        <v>0</v>
+      </c>
+      <c r="R695" t="inlineStr"/>
+    </row>
+    <row r="696">
+      <c r="A696" s="2" t="n">
+        <v>45681</v>
+      </c>
+      <c r="B696" t="n">
+        <v>1535</v>
+      </c>
+      <c r="C696" t="n">
+        <v>1535</v>
+      </c>
+      <c r="D696" t="n">
+        <v>1435.050048828125</v>
+      </c>
+      <c r="E696" t="n">
+        <v>1441.25</v>
+      </c>
+      <c r="F696" t="inlineStr"/>
+      <c r="G696" t="n">
+        <v>70544</v>
+      </c>
+      <c r="H696" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I696" t="n">
+        <v>1</v>
+      </c>
+      <c r="J696" t="n">
+        <v>24</v>
+      </c>
+      <c r="K696" t="n">
+        <v>0</v>
+      </c>
+      <c r="L696" t="n">
+        <v>0</v>
+      </c>
+      <c r="M696" t="n">
+        <v>0</v>
+      </c>
+      <c r="N696" t="n">
+        <v>4</v>
+      </c>
+      <c r="O696" t="n">
+        <v>0</v>
+      </c>
+      <c r="P696" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q696" t="n">
+        <v>2</v>
+      </c>
+      <c r="R696" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SHAILY.NS.xlsx
+++ b/stock_historical_data/1d/SHAILY.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R696"/>
+  <dimension ref="A1:R701"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39161,7 +39161,9 @@
       <c r="Q692" t="n">
         <v>0</v>
       </c>
-      <c r="R692" t="inlineStr"/>
+      <c r="R692" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="693">
       <c r="A693" s="2" t="n">
@@ -39213,7 +39215,9 @@
       <c r="Q693" t="n">
         <v>0</v>
       </c>
-      <c r="R693" t="inlineStr"/>
+      <c r="R693" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="694">
       <c r="A694" s="2" t="n">
@@ -39265,7 +39269,9 @@
       <c r="Q694" t="n">
         <v>0</v>
       </c>
-      <c r="R694" t="inlineStr"/>
+      <c r="R694" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="695">
       <c r="A695" s="2" t="n">
@@ -39317,7 +39323,9 @@
       <c r="Q695" t="n">
         <v>0</v>
       </c>
-      <c r="R695" t="inlineStr"/>
+      <c r="R695" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="696">
       <c r="A696" s="2" t="n">
@@ -39369,7 +39377,269 @@
       <c r="Q696" t="n">
         <v>2</v>
       </c>
-      <c r="R696" t="inlineStr"/>
+      <c r="R696" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B697" t="n">
+        <v>1494.949951171875</v>
+      </c>
+      <c r="C697" t="n">
+        <v>1494.949951171875</v>
+      </c>
+      <c r="D697" t="n">
+        <v>1369.199951171875</v>
+      </c>
+      <c r="E697" t="n">
+        <v>1369.199951171875</v>
+      </c>
+      <c r="F697" t="inlineStr"/>
+      <c r="G697" t="n">
+        <v>102977</v>
+      </c>
+      <c r="H697" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I697" t="n">
+        <v>1</v>
+      </c>
+      <c r="J697" t="n">
+        <v>27</v>
+      </c>
+      <c r="K697" t="n">
+        <v>0</v>
+      </c>
+      <c r="L697" t="n">
+        <v>0</v>
+      </c>
+      <c r="M697" t="n">
+        <v>0</v>
+      </c>
+      <c r="N697" t="n">
+        <v>5</v>
+      </c>
+      <c r="O697" t="n">
+        <v>0</v>
+      </c>
+      <c r="P697" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q697" t="n">
+        <v>0</v>
+      </c>
+      <c r="R697" t="inlineStr"/>
+    </row>
+    <row r="698">
+      <c r="A698" s="2" t="n">
+        <v>45685</v>
+      </c>
+      <c r="B698" t="n">
+        <v>1365</v>
+      </c>
+      <c r="C698" t="n">
+        <v>1390</v>
+      </c>
+      <c r="D698" t="n">
+        <v>1310</v>
+      </c>
+      <c r="E698" t="n">
+        <v>1328.550048828125</v>
+      </c>
+      <c r="F698" t="inlineStr"/>
+      <c r="G698" t="n">
+        <v>108736</v>
+      </c>
+      <c r="H698" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I698" t="n">
+        <v>1</v>
+      </c>
+      <c r="J698" t="n">
+        <v>28</v>
+      </c>
+      <c r="K698" t="n">
+        <v>0</v>
+      </c>
+      <c r="L698" t="n">
+        <v>0</v>
+      </c>
+      <c r="M698" t="n">
+        <v>0</v>
+      </c>
+      <c r="N698" t="n">
+        <v>5</v>
+      </c>
+      <c r="O698" t="n">
+        <v>0</v>
+      </c>
+      <c r="P698" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q698" t="n">
+        <v>0</v>
+      </c>
+      <c r="R698" t="inlineStr"/>
+    </row>
+    <row r="699">
+      <c r="A699" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="B699" t="n">
+        <v>1301</v>
+      </c>
+      <c r="C699" t="n">
+        <v>1394.949951171875</v>
+      </c>
+      <c r="D699" t="n">
+        <v>1301</v>
+      </c>
+      <c r="E699" t="n">
+        <v>1394.949951171875</v>
+      </c>
+      <c r="F699" t="inlineStr"/>
+      <c r="G699" t="n">
+        <v>32232</v>
+      </c>
+      <c r="H699" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I699" t="n">
+        <v>1</v>
+      </c>
+      <c r="J699" t="n">
+        <v>29</v>
+      </c>
+      <c r="K699" t="n">
+        <v>0</v>
+      </c>
+      <c r="L699" t="n">
+        <v>0</v>
+      </c>
+      <c r="M699" t="n">
+        <v>0</v>
+      </c>
+      <c r="N699" t="n">
+        <v>5</v>
+      </c>
+      <c r="O699" t="n">
+        <v>0</v>
+      </c>
+      <c r="P699" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q699" t="n">
+        <v>0</v>
+      </c>
+      <c r="R699" t="inlineStr"/>
+    </row>
+    <row r="700">
+      <c r="A700" s="2" t="n">
+        <v>45687</v>
+      </c>
+      <c r="B700" t="n">
+        <v>1445</v>
+      </c>
+      <c r="C700" t="n">
+        <v>1464.650024414062</v>
+      </c>
+      <c r="D700" t="n">
+        <v>1400</v>
+      </c>
+      <c r="E700" t="n">
+        <v>1464.650024414062</v>
+      </c>
+      <c r="F700" t="inlineStr"/>
+      <c r="G700" t="n">
+        <v>32556</v>
+      </c>
+      <c r="H700" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I700" t="n">
+        <v>1</v>
+      </c>
+      <c r="J700" t="n">
+        <v>30</v>
+      </c>
+      <c r="K700" t="n">
+        <v>0</v>
+      </c>
+      <c r="L700" t="n">
+        <v>0</v>
+      </c>
+      <c r="M700" t="n">
+        <v>0</v>
+      </c>
+      <c r="N700" t="n">
+        <v>5</v>
+      </c>
+      <c r="O700" t="n">
+        <v>0</v>
+      </c>
+      <c r="P700" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q700" t="n">
+        <v>0</v>
+      </c>
+      <c r="R700" t="inlineStr"/>
+    </row>
+    <row r="701">
+      <c r="A701" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="B701" t="n">
+        <v>1519</v>
+      </c>
+      <c r="C701" t="n">
+        <v>1537.849975585938</v>
+      </c>
+      <c r="D701" t="n">
+        <v>1481.050048828125</v>
+      </c>
+      <c r="E701" t="n">
+        <v>1537.849975585938</v>
+      </c>
+      <c r="F701" t="inlineStr"/>
+      <c r="G701" t="n">
+        <v>34774</v>
+      </c>
+      <c r="H701" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I701" t="n">
+        <v>1</v>
+      </c>
+      <c r="J701" t="n">
+        <v>31</v>
+      </c>
+      <c r="K701" t="n">
+        <v>0</v>
+      </c>
+      <c r="L701" t="n">
+        <v>0</v>
+      </c>
+      <c r="M701" t="n">
+        <v>0</v>
+      </c>
+      <c r="N701" t="n">
+        <v>5</v>
+      </c>
+      <c r="O701" t="n">
+        <v>0</v>
+      </c>
+      <c r="P701" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q701" t="n">
+        <v>0</v>
+      </c>
+      <c r="R701" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SHAILY.NS.xlsx
+++ b/stock_historical_data/1d/SHAILY.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R701"/>
+  <dimension ref="A1:R706"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39431,7 +39431,9 @@
       <c r="Q697" t="n">
         <v>0</v>
       </c>
-      <c r="R697" t="inlineStr"/>
+      <c r="R697" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="698">
       <c r="A698" s="2" t="n">
@@ -39483,7 +39485,9 @@
       <c r="Q698" t="n">
         <v>0</v>
       </c>
-      <c r="R698" t="inlineStr"/>
+      <c r="R698" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="699">
       <c r="A699" s="2" t="n">
@@ -39535,7 +39539,9 @@
       <c r="Q699" t="n">
         <v>0</v>
       </c>
-      <c r="R699" t="inlineStr"/>
+      <c r="R699" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="700">
       <c r="A700" s="2" t="n">
@@ -39587,7 +39593,9 @@
       <c r="Q700" t="n">
         <v>0</v>
       </c>
-      <c r="R700" t="inlineStr"/>
+      <c r="R700" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="701">
       <c r="A701" s="2" t="n">
@@ -39639,7 +39647,269 @@
       <c r="Q701" t="n">
         <v>0</v>
       </c>
-      <c r="R701" t="inlineStr"/>
+      <c r="R701" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B702" t="n">
+        <v>1624.349975585938</v>
+      </c>
+      <c r="C702" t="n">
+        <v>1694.050048828125</v>
+      </c>
+      <c r="D702" t="n">
+        <v>1534.050048828125</v>
+      </c>
+      <c r="E702" t="n">
+        <v>1691.150024414062</v>
+      </c>
+      <c r="F702" t="inlineStr"/>
+      <c r="G702" t="n">
+        <v>126730</v>
+      </c>
+      <c r="H702" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I702" t="n">
+        <v>2</v>
+      </c>
+      <c r="J702" t="n">
+        <v>3</v>
+      </c>
+      <c r="K702" t="n">
+        <v>0</v>
+      </c>
+      <c r="L702" t="n">
+        <v>0</v>
+      </c>
+      <c r="M702" t="n">
+        <v>0</v>
+      </c>
+      <c r="N702" t="n">
+        <v>6</v>
+      </c>
+      <c r="O702" t="n">
+        <v>0</v>
+      </c>
+      <c r="P702" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q702" t="n">
+        <v>0</v>
+      </c>
+      <c r="R702" t="inlineStr"/>
+    </row>
+    <row r="703">
+      <c r="A703" s="2" t="n">
+        <v>45692</v>
+      </c>
+      <c r="B703" t="n">
+        <v>1679</v>
+      </c>
+      <c r="C703" t="n">
+        <v>1747.949951171875</v>
+      </c>
+      <c r="D703" t="n">
+        <v>1640</v>
+      </c>
+      <c r="E703" t="n">
+        <v>1664.75</v>
+      </c>
+      <c r="F703" t="inlineStr"/>
+      <c r="G703" t="n">
+        <v>70498</v>
+      </c>
+      <c r="H703" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I703" t="n">
+        <v>2</v>
+      </c>
+      <c r="J703" t="n">
+        <v>4</v>
+      </c>
+      <c r="K703" t="n">
+        <v>0</v>
+      </c>
+      <c r="L703" t="n">
+        <v>0</v>
+      </c>
+      <c r="M703" t="n">
+        <v>0</v>
+      </c>
+      <c r="N703" t="n">
+        <v>6</v>
+      </c>
+      <c r="O703" t="n">
+        <v>0</v>
+      </c>
+      <c r="P703" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q703" t="n">
+        <v>0</v>
+      </c>
+      <c r="R703" t="inlineStr"/>
+    </row>
+    <row r="704">
+      <c r="A704" s="2" t="n">
+        <v>45693</v>
+      </c>
+      <c r="B704" t="n">
+        <v>1660</v>
+      </c>
+      <c r="C704" t="n">
+        <v>1682</v>
+      </c>
+      <c r="D704" t="n">
+        <v>1610</v>
+      </c>
+      <c r="E704" t="n">
+        <v>1628.150024414062</v>
+      </c>
+      <c r="F704" t="inlineStr"/>
+      <c r="G704" t="n">
+        <v>44691</v>
+      </c>
+      <c r="H704" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I704" t="n">
+        <v>2</v>
+      </c>
+      <c r="J704" t="n">
+        <v>5</v>
+      </c>
+      <c r="K704" t="n">
+        <v>0</v>
+      </c>
+      <c r="L704" t="n">
+        <v>0</v>
+      </c>
+      <c r="M704" t="n">
+        <v>0</v>
+      </c>
+      <c r="N704" t="n">
+        <v>6</v>
+      </c>
+      <c r="O704" t="n">
+        <v>0</v>
+      </c>
+      <c r="P704" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q704" t="n">
+        <v>0</v>
+      </c>
+      <c r="R704" t="inlineStr"/>
+    </row>
+    <row r="705">
+      <c r="A705" s="2" t="n">
+        <v>45694</v>
+      </c>
+      <c r="B705" t="n">
+        <v>1665</v>
+      </c>
+      <c r="C705" t="n">
+        <v>1689.900024414062</v>
+      </c>
+      <c r="D705" t="n">
+        <v>1620.099975585938</v>
+      </c>
+      <c r="E705" t="n">
+        <v>1642.650024414062</v>
+      </c>
+      <c r="F705" t="inlineStr"/>
+      <c r="G705" t="n">
+        <v>29402</v>
+      </c>
+      <c r="H705" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I705" t="n">
+        <v>2</v>
+      </c>
+      <c r="J705" t="n">
+        <v>6</v>
+      </c>
+      <c r="K705" t="n">
+        <v>0</v>
+      </c>
+      <c r="L705" t="n">
+        <v>0</v>
+      </c>
+      <c r="M705" t="n">
+        <v>0</v>
+      </c>
+      <c r="N705" t="n">
+        <v>6</v>
+      </c>
+      <c r="O705" t="n">
+        <v>0</v>
+      </c>
+      <c r="P705" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q705" t="n">
+        <v>0</v>
+      </c>
+      <c r="R705" t="inlineStr"/>
+    </row>
+    <row r="706">
+      <c r="A706" s="2" t="n">
+        <v>45695</v>
+      </c>
+      <c r="B706" t="n">
+        <v>1668</v>
+      </c>
+      <c r="C706" t="n">
+        <v>1679.099975585938</v>
+      </c>
+      <c r="D706" t="n">
+        <v>1590</v>
+      </c>
+      <c r="E706" t="n">
+        <v>1604.400024414062</v>
+      </c>
+      <c r="F706" t="inlineStr"/>
+      <c r="G706" t="n">
+        <v>20347</v>
+      </c>
+      <c r="H706" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I706" t="n">
+        <v>2</v>
+      </c>
+      <c r="J706" t="n">
+        <v>7</v>
+      </c>
+      <c r="K706" t="n">
+        <v>0</v>
+      </c>
+      <c r="L706" t="n">
+        <v>0</v>
+      </c>
+      <c r="M706" t="n">
+        <v>0</v>
+      </c>
+      <c r="N706" t="n">
+        <v>6</v>
+      </c>
+      <c r="O706" t="n">
+        <v>0</v>
+      </c>
+      <c r="P706" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q706" t="n">
+        <v>0</v>
+      </c>
+      <c r="R706" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SHAILY.NS.xlsx
+++ b/stock_historical_data/1d/SHAILY.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R706"/>
+  <dimension ref="A1:R711"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39531,7 +39531,7 @@
         <v>5</v>
       </c>
       <c r="O699" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P699" t="n">
         <v>0</v>
@@ -39701,7 +39701,9 @@
       <c r="Q702" t="n">
         <v>0</v>
       </c>
-      <c r="R702" t="inlineStr"/>
+      <c r="R702" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="703">
       <c r="A703" s="2" t="n">
@@ -39753,7 +39755,9 @@
       <c r="Q703" t="n">
         <v>0</v>
       </c>
-      <c r="R703" t="inlineStr"/>
+      <c r="R703" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="704">
       <c r="A704" s="2" t="n">
@@ -39805,7 +39809,9 @@
       <c r="Q704" t="n">
         <v>0</v>
       </c>
-      <c r="R704" t="inlineStr"/>
+      <c r="R704" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="705">
       <c r="A705" s="2" t="n">
@@ -39857,7 +39863,9 @@
       <c r="Q705" t="n">
         <v>0</v>
       </c>
-      <c r="R705" t="inlineStr"/>
+      <c r="R705" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="706">
       <c r="A706" s="2" t="n">
@@ -39909,7 +39917,269 @@
       <c r="Q706" t="n">
         <v>0</v>
       </c>
-      <c r="R706" t="inlineStr"/>
+      <c r="R706" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B707" t="n">
+        <v>1684</v>
+      </c>
+      <c r="C707" t="n">
+        <v>1684</v>
+      </c>
+      <c r="D707" t="n">
+        <v>1536</v>
+      </c>
+      <c r="E707" t="n">
+        <v>1586.349975585938</v>
+      </c>
+      <c r="F707" t="inlineStr"/>
+      <c r="G707" t="n">
+        <v>33401</v>
+      </c>
+      <c r="H707" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I707" t="n">
+        <v>2</v>
+      </c>
+      <c r="J707" t="n">
+        <v>10</v>
+      </c>
+      <c r="K707" t="n">
+        <v>0</v>
+      </c>
+      <c r="L707" t="n">
+        <v>0</v>
+      </c>
+      <c r="M707" t="n">
+        <v>0</v>
+      </c>
+      <c r="N707" t="n">
+        <v>7</v>
+      </c>
+      <c r="O707" t="n">
+        <v>0</v>
+      </c>
+      <c r="P707" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q707" t="n">
+        <v>0</v>
+      </c>
+      <c r="R707" t="inlineStr"/>
+    </row>
+    <row r="708">
+      <c r="A708" s="2" t="n">
+        <v>45699</v>
+      </c>
+      <c r="B708" t="n">
+        <v>1625</v>
+      </c>
+      <c r="C708" t="n">
+        <v>1640</v>
+      </c>
+      <c r="D708" t="n">
+        <v>1507.050048828125</v>
+      </c>
+      <c r="E708" t="n">
+        <v>1507.050048828125</v>
+      </c>
+      <c r="F708" t="inlineStr"/>
+      <c r="G708" t="n">
+        <v>23682</v>
+      </c>
+      <c r="H708" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I708" t="n">
+        <v>2</v>
+      </c>
+      <c r="J708" t="n">
+        <v>11</v>
+      </c>
+      <c r="K708" t="n">
+        <v>0</v>
+      </c>
+      <c r="L708" t="n">
+        <v>0</v>
+      </c>
+      <c r="M708" t="n">
+        <v>0</v>
+      </c>
+      <c r="N708" t="n">
+        <v>7</v>
+      </c>
+      <c r="O708" t="n">
+        <v>0</v>
+      </c>
+      <c r="P708" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q708" t="n">
+        <v>0</v>
+      </c>
+      <c r="R708" t="inlineStr"/>
+    </row>
+    <row r="709">
+      <c r="A709" s="2" t="n">
+        <v>45700</v>
+      </c>
+      <c r="B709" t="n">
+        <v>1442.650024414062</v>
+      </c>
+      <c r="C709" t="n">
+        <v>1579.900024414062</v>
+      </c>
+      <c r="D709" t="n">
+        <v>1431.699951171875</v>
+      </c>
+      <c r="E709" t="n">
+        <v>1543.400024414062</v>
+      </c>
+      <c r="F709" t="inlineStr"/>
+      <c r="G709" t="n">
+        <v>111679</v>
+      </c>
+      <c r="H709" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I709" t="n">
+        <v>2</v>
+      </c>
+      <c r="J709" t="n">
+        <v>12</v>
+      </c>
+      <c r="K709" t="n">
+        <v>0</v>
+      </c>
+      <c r="L709" t="n">
+        <v>0</v>
+      </c>
+      <c r="M709" t="n">
+        <v>0</v>
+      </c>
+      <c r="N709" t="n">
+        <v>7</v>
+      </c>
+      <c r="O709" t="n">
+        <v>0</v>
+      </c>
+      <c r="P709" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q709" t="n">
+        <v>0</v>
+      </c>
+      <c r="R709" t="inlineStr"/>
+    </row>
+    <row r="710">
+      <c r="A710" s="2" t="n">
+        <v>45701</v>
+      </c>
+      <c r="B710" t="n">
+        <v>1572</v>
+      </c>
+      <c r="C710" t="n">
+        <v>1579.900024414062</v>
+      </c>
+      <c r="D710" t="n">
+        <v>1481.349975585938</v>
+      </c>
+      <c r="E710" t="n">
+        <v>1570.199951171875</v>
+      </c>
+      <c r="F710" t="inlineStr"/>
+      <c r="G710" t="n">
+        <v>56609</v>
+      </c>
+      <c r="H710" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I710" t="n">
+        <v>2</v>
+      </c>
+      <c r="J710" t="n">
+        <v>13</v>
+      </c>
+      <c r="K710" t="n">
+        <v>0</v>
+      </c>
+      <c r="L710" t="n">
+        <v>0</v>
+      </c>
+      <c r="M710" t="n">
+        <v>0</v>
+      </c>
+      <c r="N710" t="n">
+        <v>7</v>
+      </c>
+      <c r="O710" t="n">
+        <v>0</v>
+      </c>
+      <c r="P710" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q710" t="n">
+        <v>0</v>
+      </c>
+      <c r="R710" t="inlineStr"/>
+    </row>
+    <row r="711">
+      <c r="A711" s="2" t="n">
+        <v>45702</v>
+      </c>
+      <c r="B711" t="n">
+        <v>1565</v>
+      </c>
+      <c r="C711" t="n">
+        <v>1565</v>
+      </c>
+      <c r="D711" t="n">
+        <v>1491.699951171875</v>
+      </c>
+      <c r="E711" t="n">
+        <v>1526.300048828125</v>
+      </c>
+      <c r="F711" t="inlineStr"/>
+      <c r="G711" t="n">
+        <v>61116</v>
+      </c>
+      <c r="H711" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I711" t="n">
+        <v>2</v>
+      </c>
+      <c r="J711" t="n">
+        <v>14</v>
+      </c>
+      <c r="K711" t="n">
+        <v>0</v>
+      </c>
+      <c r="L711" t="n">
+        <v>0</v>
+      </c>
+      <c r="M711" t="n">
+        <v>0</v>
+      </c>
+      <c r="N711" t="n">
+        <v>7</v>
+      </c>
+      <c r="O711" t="n">
+        <v>0</v>
+      </c>
+      <c r="P711" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q711" t="n">
+        <v>0</v>
+      </c>
+      <c r="R711" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SHAILY.NS.xlsx
+++ b/stock_historical_data/1d/SHAILY.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R711"/>
+  <dimension ref="A1:R720"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39747,7 +39747,7 @@
         <v>6</v>
       </c>
       <c r="O703" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P703" t="n">
         <v>0</v>
@@ -39971,7 +39971,9 @@
       <c r="Q707" t="n">
         <v>0</v>
       </c>
-      <c r="R707" t="inlineStr"/>
+      <c r="R707" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="708">
       <c r="A708" s="2" t="n">
@@ -40023,7 +40025,9 @@
       <c r="Q708" t="n">
         <v>0</v>
       </c>
-      <c r="R708" t="inlineStr"/>
+      <c r="R708" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="709">
       <c r="A709" s="2" t="n">
@@ -40075,7 +40079,9 @@
       <c r="Q709" t="n">
         <v>0</v>
       </c>
-      <c r="R709" t="inlineStr"/>
+      <c r="R709" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="710">
       <c r="A710" s="2" t="n">
@@ -40127,7 +40133,9 @@
       <c r="Q710" t="n">
         <v>0</v>
       </c>
-      <c r="R710" t="inlineStr"/>
+      <c r="R710" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="711">
       <c r="A711" s="2" t="n">
@@ -40179,7 +40187,477 @@
       <c r="Q711" t="n">
         <v>0</v>
       </c>
-      <c r="R711" t="inlineStr"/>
+      <c r="R711" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B712" t="n">
+        <v>1500</v>
+      </c>
+      <c r="C712" t="n">
+        <v>1501.400024414062</v>
+      </c>
+      <c r="D712" t="n">
+        <v>1450</v>
+      </c>
+      <c r="E712" t="n">
+        <v>1450</v>
+      </c>
+      <c r="F712" t="inlineStr"/>
+      <c r="G712" t="n">
+        <v>52462</v>
+      </c>
+      <c r="H712" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I712" t="n">
+        <v>2</v>
+      </c>
+      <c r="J712" t="n">
+        <v>17</v>
+      </c>
+      <c r="K712" t="n">
+        <v>0</v>
+      </c>
+      <c r="L712" t="n">
+        <v>0</v>
+      </c>
+      <c r="M712" t="n">
+        <v>0</v>
+      </c>
+      <c r="N712" t="n">
+        <v>8</v>
+      </c>
+      <c r="O712" t="n">
+        <v>0</v>
+      </c>
+      <c r="P712" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q712" t="n">
+        <v>0</v>
+      </c>
+      <c r="R712" t="inlineStr"/>
+    </row>
+    <row r="713">
+      <c r="A713" s="2" t="n">
+        <v>45706</v>
+      </c>
+      <c r="B713" t="n">
+        <v>1393</v>
+      </c>
+      <c r="C713" t="n">
+        <v>1446.349975585938</v>
+      </c>
+      <c r="D713" t="n">
+        <v>1377.5</v>
+      </c>
+      <c r="E713" t="n">
+        <v>1377.5</v>
+      </c>
+      <c r="F713" t="inlineStr"/>
+      <c r="G713" t="n">
+        <v>62497</v>
+      </c>
+      <c r="H713" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I713" t="n">
+        <v>2</v>
+      </c>
+      <c r="J713" t="n">
+        <v>18</v>
+      </c>
+      <c r="K713" t="n">
+        <v>0</v>
+      </c>
+      <c r="L713" t="n">
+        <v>0</v>
+      </c>
+      <c r="M713" t="n">
+        <v>0</v>
+      </c>
+      <c r="N713" t="n">
+        <v>8</v>
+      </c>
+      <c r="O713" t="n">
+        <v>0</v>
+      </c>
+      <c r="P713" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q713" t="n">
+        <v>0</v>
+      </c>
+      <c r="R713" t="inlineStr"/>
+    </row>
+    <row r="714">
+      <c r="A714" s="2" t="n">
+        <v>45707</v>
+      </c>
+      <c r="B714" t="n">
+        <v>1308.650024414062</v>
+      </c>
+      <c r="C714" t="n">
+        <v>1446.349975585938</v>
+      </c>
+      <c r="D714" t="n">
+        <v>1308.650024414062</v>
+      </c>
+      <c r="E714" t="n">
+        <v>1424.5</v>
+      </c>
+      <c r="F714" t="inlineStr"/>
+      <c r="G714" t="n">
+        <v>69123</v>
+      </c>
+      <c r="H714" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I714" t="n">
+        <v>2</v>
+      </c>
+      <c r="J714" t="n">
+        <v>19</v>
+      </c>
+      <c r="K714" t="n">
+        <v>0</v>
+      </c>
+      <c r="L714" t="n">
+        <v>0</v>
+      </c>
+      <c r="M714" t="n">
+        <v>0</v>
+      </c>
+      <c r="N714" t="n">
+        <v>8</v>
+      </c>
+      <c r="O714" t="n">
+        <v>0</v>
+      </c>
+      <c r="P714" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q714" t="n">
+        <v>2</v>
+      </c>
+      <c r="R714" t="inlineStr"/>
+    </row>
+    <row r="715">
+      <c r="A715" s="2" t="n">
+        <v>45708</v>
+      </c>
+      <c r="B715" t="n">
+        <v>1438</v>
+      </c>
+      <c r="C715" t="n">
+        <v>1495.699951171875</v>
+      </c>
+      <c r="D715" t="n">
+        <v>1400</v>
+      </c>
+      <c r="E715" t="n">
+        <v>1489.349975585938</v>
+      </c>
+      <c r="F715" t="inlineStr"/>
+      <c r="G715" t="n">
+        <v>44179</v>
+      </c>
+      <c r="H715" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I715" t="n">
+        <v>2</v>
+      </c>
+      <c r="J715" t="n">
+        <v>20</v>
+      </c>
+      <c r="K715" t="n">
+        <v>0</v>
+      </c>
+      <c r="L715" t="n">
+        <v>0</v>
+      </c>
+      <c r="M715" t="n">
+        <v>0</v>
+      </c>
+      <c r="N715" t="n">
+        <v>8</v>
+      </c>
+      <c r="O715" t="n">
+        <v>0</v>
+      </c>
+      <c r="P715" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q715" t="n">
+        <v>0</v>
+      </c>
+      <c r="R715" t="inlineStr"/>
+    </row>
+    <row r="716">
+      <c r="A716" s="2" t="n">
+        <v>45709</v>
+      </c>
+      <c r="B716" t="n">
+        <v>1495.699951171875</v>
+      </c>
+      <c r="C716" t="n">
+        <v>1536</v>
+      </c>
+      <c r="D716" t="n">
+        <v>1421.550048828125</v>
+      </c>
+      <c r="E716" t="n">
+        <v>1461.599975585938</v>
+      </c>
+      <c r="F716" t="inlineStr"/>
+      <c r="G716" t="n">
+        <v>44413</v>
+      </c>
+      <c r="H716" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I716" t="n">
+        <v>2</v>
+      </c>
+      <c r="J716" t="n">
+        <v>21</v>
+      </c>
+      <c r="K716" t="n">
+        <v>0</v>
+      </c>
+      <c r="L716" t="n">
+        <v>0</v>
+      </c>
+      <c r="M716" t="n">
+        <v>0</v>
+      </c>
+      <c r="N716" t="n">
+        <v>8</v>
+      </c>
+      <c r="O716" t="n">
+        <v>0</v>
+      </c>
+      <c r="P716" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q716" t="n">
+        <v>0</v>
+      </c>
+      <c r="R716" t="inlineStr"/>
+    </row>
+    <row r="717">
+      <c r="A717" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B717" t="n">
+        <v>1406</v>
+      </c>
+      <c r="C717" t="n">
+        <v>1505</v>
+      </c>
+      <c r="D717" t="n">
+        <v>1388.550048828125</v>
+      </c>
+      <c r="E717" t="n">
+        <v>1479.5</v>
+      </c>
+      <c r="F717" t="inlineStr"/>
+      <c r="G717" t="n">
+        <v>41650</v>
+      </c>
+      <c r="H717" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I717" t="n">
+        <v>2</v>
+      </c>
+      <c r="J717" t="n">
+        <v>24</v>
+      </c>
+      <c r="K717" t="n">
+        <v>0</v>
+      </c>
+      <c r="L717" t="n">
+        <v>0</v>
+      </c>
+      <c r="M717" t="n">
+        <v>0</v>
+      </c>
+      <c r="N717" t="n">
+        <v>9</v>
+      </c>
+      <c r="O717" t="n">
+        <v>0</v>
+      </c>
+      <c r="P717" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q717" t="n">
+        <v>0</v>
+      </c>
+      <c r="R717" t="inlineStr"/>
+    </row>
+    <row r="718">
+      <c r="A718" s="2" t="n">
+        <v>45713</v>
+      </c>
+      <c r="B718" t="n">
+        <v>1499</v>
+      </c>
+      <c r="C718" t="n">
+        <v>1553.449951171875</v>
+      </c>
+      <c r="D718" t="n">
+        <v>1444</v>
+      </c>
+      <c r="E718" t="n">
+        <v>1518.199951171875</v>
+      </c>
+      <c r="F718" t="inlineStr"/>
+      <c r="G718" t="n">
+        <v>188262</v>
+      </c>
+      <c r="H718" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I718" t="n">
+        <v>2</v>
+      </c>
+      <c r="J718" t="n">
+        <v>25</v>
+      </c>
+      <c r="K718" t="n">
+        <v>0</v>
+      </c>
+      <c r="L718" t="n">
+        <v>0</v>
+      </c>
+      <c r="M718" t="n">
+        <v>0</v>
+      </c>
+      <c r="N718" t="n">
+        <v>9</v>
+      </c>
+      <c r="O718" t="n">
+        <v>0</v>
+      </c>
+      <c r="P718" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q718" t="n">
+        <v>0</v>
+      </c>
+      <c r="R718" t="inlineStr"/>
+    </row>
+    <row r="719">
+      <c r="A719" s="2" t="n">
+        <v>45715</v>
+      </c>
+      <c r="B719" t="n">
+        <v>1515</v>
+      </c>
+      <c r="C719" t="n">
+        <v>1565.25</v>
+      </c>
+      <c r="D719" t="n">
+        <v>1467.150024414062</v>
+      </c>
+      <c r="E719" t="n">
+        <v>1486.599975585938</v>
+      </c>
+      <c r="F719" t="inlineStr"/>
+      <c r="G719" t="n">
+        <v>67532</v>
+      </c>
+      <c r="H719" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I719" t="n">
+        <v>2</v>
+      </c>
+      <c r="J719" t="n">
+        <v>27</v>
+      </c>
+      <c r="K719" t="n">
+        <v>0</v>
+      </c>
+      <c r="L719" t="n">
+        <v>0</v>
+      </c>
+      <c r="M719" t="n">
+        <v>0</v>
+      </c>
+      <c r="N719" t="n">
+        <v>9</v>
+      </c>
+      <c r="O719" t="n">
+        <v>0</v>
+      </c>
+      <c r="P719" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q719" t="n">
+        <v>0</v>
+      </c>
+      <c r="R719" t="inlineStr"/>
+    </row>
+    <row r="720">
+      <c r="A720" s="2" t="n">
+        <v>45716</v>
+      </c>
+      <c r="B720" t="n">
+        <v>1470</v>
+      </c>
+      <c r="C720" t="n">
+        <v>1560.900024414062</v>
+      </c>
+      <c r="D720" t="n">
+        <v>1413</v>
+      </c>
+      <c r="E720" t="n">
+        <v>1518.599975585938</v>
+      </c>
+      <c r="F720" t="inlineStr"/>
+      <c r="G720" t="n">
+        <v>499774</v>
+      </c>
+      <c r="H720" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I720" t="n">
+        <v>2</v>
+      </c>
+      <c r="J720" t="n">
+        <v>28</v>
+      </c>
+      <c r="K720" t="n">
+        <v>0</v>
+      </c>
+      <c r="L720" t="n">
+        <v>0</v>
+      </c>
+      <c r="M720" t="n">
+        <v>0</v>
+      </c>
+      <c r="N720" t="n">
+        <v>9</v>
+      </c>
+      <c r="O720" t="n">
+        <v>0</v>
+      </c>
+      <c r="P720" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q720" t="n">
+        <v>0</v>
+      </c>
+      <c r="R720" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SHAILY.NS.xlsx
+++ b/stock_historical_data/1d/SHAILY.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R720"/>
+  <dimension ref="A1:R730"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39653,23 +39653,23 @@
     </row>
     <row r="702">
       <c r="A702" s="2" t="n">
-        <v>45691</v>
+        <v>45689</v>
       </c>
       <c r="B702" t="n">
-        <v>1624.349975585938</v>
+        <v>1575.199951171875</v>
       </c>
       <c r="C702" t="n">
-        <v>1694.050048828125</v>
+        <v>1614.699951171875</v>
       </c>
       <c r="D702" t="n">
-        <v>1534.050048828125</v>
+        <v>1540.099975585938</v>
       </c>
       <c r="E702" t="n">
-        <v>1691.150024414062</v>
+        <v>1613.400024414062</v>
       </c>
       <c r="F702" t="inlineStr"/>
       <c r="G702" t="n">
-        <v>126730</v>
+        <v>80400</v>
       </c>
       <c r="H702" t="n">
         <v>2025</v>
@@ -39678,7 +39678,7 @@
         <v>2</v>
       </c>
       <c r="J702" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K702" t="n">
         <v>0</v>
@@ -39690,7 +39690,7 @@
         <v>0</v>
       </c>
       <c r="N702" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O702" t="n">
         <v>0</v>
@@ -39701,29 +39701,27 @@
       <c r="Q702" t="n">
         <v>0</v>
       </c>
-      <c r="R702" t="n">
-        <v>0</v>
-      </c>
+      <c r="R702" t="inlineStr"/>
     </row>
     <row r="703">
       <c r="A703" s="2" t="n">
-        <v>45692</v>
+        <v>45691</v>
       </c>
       <c r="B703" t="n">
-        <v>1679</v>
+        <v>1624.349975585938</v>
       </c>
       <c r="C703" t="n">
-        <v>1747.949951171875</v>
+        <v>1694.050048828125</v>
       </c>
       <c r="D703" t="n">
-        <v>1640</v>
+        <v>1534.050048828125</v>
       </c>
       <c r="E703" t="n">
-        <v>1664.75</v>
+        <v>1691.150024414062</v>
       </c>
       <c r="F703" t="inlineStr"/>
       <c r="G703" t="n">
-        <v>70498</v>
+        <v>126730</v>
       </c>
       <c r="H703" t="n">
         <v>2025</v>
@@ -39732,7 +39730,7 @@
         <v>2</v>
       </c>
       <c r="J703" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K703" t="n">
         <v>0</v>
@@ -39747,7 +39745,7 @@
         <v>6</v>
       </c>
       <c r="O703" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P703" t="n">
         <v>0</v>
@@ -39761,23 +39759,23 @@
     </row>
     <row r="704">
       <c r="A704" s="2" t="n">
-        <v>45693</v>
+        <v>45692</v>
       </c>
       <c r="B704" t="n">
-        <v>1660</v>
+        <v>1679</v>
       </c>
       <c r="C704" t="n">
-        <v>1682</v>
+        <v>1747.949951171875</v>
       </c>
       <c r="D704" t="n">
-        <v>1610</v>
+        <v>1640</v>
       </c>
       <c r="E704" t="n">
-        <v>1628.150024414062</v>
+        <v>1664.75</v>
       </c>
       <c r="F704" t="inlineStr"/>
       <c r="G704" t="n">
-        <v>44691</v>
+        <v>70498</v>
       </c>
       <c r="H704" t="n">
         <v>2025</v>
@@ -39786,7 +39784,7 @@
         <v>2</v>
       </c>
       <c r="J704" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K704" t="n">
         <v>0</v>
@@ -39801,7 +39799,7 @@
         <v>6</v>
       </c>
       <c r="O704" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P704" t="n">
         <v>0</v>
@@ -39815,23 +39813,23 @@
     </row>
     <row r="705">
       <c r="A705" s="2" t="n">
-        <v>45694</v>
+        <v>45693</v>
       </c>
       <c r="B705" t="n">
-        <v>1665</v>
+        <v>1660</v>
       </c>
       <c r="C705" t="n">
-        <v>1689.900024414062</v>
+        <v>1682</v>
       </c>
       <c r="D705" t="n">
-        <v>1620.099975585938</v>
+        <v>1610</v>
       </c>
       <c r="E705" t="n">
-        <v>1642.650024414062</v>
+        <v>1628.150024414062</v>
       </c>
       <c r="F705" t="inlineStr"/>
       <c r="G705" t="n">
-        <v>29402</v>
+        <v>44691</v>
       </c>
       <c r="H705" t="n">
         <v>2025</v>
@@ -39840,7 +39838,7 @@
         <v>2</v>
       </c>
       <c r="J705" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K705" t="n">
         <v>0</v>
@@ -39869,23 +39867,23 @@
     </row>
     <row r="706">
       <c r="A706" s="2" t="n">
-        <v>45695</v>
+        <v>45694</v>
       </c>
       <c r="B706" t="n">
-        <v>1668</v>
+        <v>1665</v>
       </c>
       <c r="C706" t="n">
-        <v>1679.099975585938</v>
+        <v>1689.900024414062</v>
       </c>
       <c r="D706" t="n">
-        <v>1590</v>
+        <v>1620.099975585938</v>
       </c>
       <c r="E706" t="n">
-        <v>1604.400024414062</v>
+        <v>1642.650024414062</v>
       </c>
       <c r="F706" t="inlineStr"/>
       <c r="G706" t="n">
-        <v>20347</v>
+        <v>29402</v>
       </c>
       <c r="H706" t="n">
         <v>2025</v>
@@ -39894,7 +39892,7 @@
         <v>2</v>
       </c>
       <c r="J706" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K706" t="n">
         <v>0</v>
@@ -39923,23 +39921,23 @@
     </row>
     <row r="707">
       <c r="A707" s="2" t="n">
-        <v>45698</v>
+        <v>45695</v>
       </c>
       <c r="B707" t="n">
-        <v>1684</v>
+        <v>1668</v>
       </c>
       <c r="C707" t="n">
-        <v>1684</v>
+        <v>1679.099975585938</v>
       </c>
       <c r="D707" t="n">
-        <v>1536</v>
+        <v>1590</v>
       </c>
       <c r="E707" t="n">
-        <v>1586.349975585938</v>
+        <v>1604.400024414062</v>
       </c>
       <c r="F707" t="inlineStr"/>
       <c r="G707" t="n">
-        <v>33401</v>
+        <v>20347</v>
       </c>
       <c r="H707" t="n">
         <v>2025</v>
@@ -39948,7 +39946,7 @@
         <v>2</v>
       </c>
       <c r="J707" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K707" t="n">
         <v>0</v>
@@ -39960,7 +39958,7 @@
         <v>0</v>
       </c>
       <c r="N707" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O707" t="n">
         <v>0</v>
@@ -39977,23 +39975,23 @@
     </row>
     <row r="708">
       <c r="A708" s="2" t="n">
-        <v>45699</v>
+        <v>45698</v>
       </c>
       <c r="B708" t="n">
-        <v>1625</v>
+        <v>1684</v>
       </c>
       <c r="C708" t="n">
-        <v>1640</v>
+        <v>1684</v>
       </c>
       <c r="D708" t="n">
-        <v>1507.050048828125</v>
+        <v>1536</v>
       </c>
       <c r="E708" t="n">
-        <v>1507.050048828125</v>
+        <v>1586.349975585938</v>
       </c>
       <c r="F708" t="inlineStr"/>
       <c r="G708" t="n">
-        <v>23682</v>
+        <v>33401</v>
       </c>
       <c r="H708" t="n">
         <v>2025</v>
@@ -40002,7 +40000,7 @@
         <v>2</v>
       </c>
       <c r="J708" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K708" t="n">
         <v>0</v>
@@ -40031,23 +40029,23 @@
     </row>
     <row r="709">
       <c r="A709" s="2" t="n">
-        <v>45700</v>
+        <v>45699</v>
       </c>
       <c r="B709" t="n">
-        <v>1442.650024414062</v>
+        <v>1625</v>
       </c>
       <c r="C709" t="n">
-        <v>1579.900024414062</v>
+        <v>1640</v>
       </c>
       <c r="D709" t="n">
-        <v>1431.699951171875</v>
+        <v>1507.050048828125</v>
       </c>
       <c r="E709" t="n">
-        <v>1543.400024414062</v>
+        <v>1507.050048828125</v>
       </c>
       <c r="F709" t="inlineStr"/>
       <c r="G709" t="n">
-        <v>111679</v>
+        <v>23682</v>
       </c>
       <c r="H709" t="n">
         <v>2025</v>
@@ -40056,7 +40054,7 @@
         <v>2</v>
       </c>
       <c r="J709" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K709" t="n">
         <v>0</v>
@@ -40085,23 +40083,23 @@
     </row>
     <row r="710">
       <c r="A710" s="2" t="n">
-        <v>45701</v>
+        <v>45700</v>
       </c>
       <c r="B710" t="n">
-        <v>1572</v>
+        <v>1442.650024414062</v>
       </c>
       <c r="C710" t="n">
         <v>1579.900024414062</v>
       </c>
       <c r="D710" t="n">
-        <v>1481.349975585938</v>
+        <v>1431.699951171875</v>
       </c>
       <c r="E710" t="n">
-        <v>1570.199951171875</v>
+        <v>1543.400024414062</v>
       </c>
       <c r="F710" t="inlineStr"/>
       <c r="G710" t="n">
-        <v>56609</v>
+        <v>111679</v>
       </c>
       <c r="H710" t="n">
         <v>2025</v>
@@ -40110,7 +40108,7 @@
         <v>2</v>
       </c>
       <c r="J710" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K710" t="n">
         <v>0</v>
@@ -40139,23 +40137,23 @@
     </row>
     <row r="711">
       <c r="A711" s="2" t="n">
-        <v>45702</v>
+        <v>45701</v>
       </c>
       <c r="B711" t="n">
-        <v>1565</v>
+        <v>1572</v>
       </c>
       <c r="C711" t="n">
-        <v>1565</v>
+        <v>1579.900024414062</v>
       </c>
       <c r="D711" t="n">
-        <v>1491.699951171875</v>
+        <v>1481.349975585938</v>
       </c>
       <c r="E711" t="n">
-        <v>1526.300048828125</v>
+        <v>1570.199951171875</v>
       </c>
       <c r="F711" t="inlineStr"/>
       <c r="G711" t="n">
-        <v>61116</v>
+        <v>56609</v>
       </c>
       <c r="H711" t="n">
         <v>2025</v>
@@ -40164,7 +40162,7 @@
         <v>2</v>
       </c>
       <c r="J711" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K711" t="n">
         <v>0</v>
@@ -40193,23 +40191,23 @@
     </row>
     <row r="712">
       <c r="A712" s="2" t="n">
-        <v>45705</v>
+        <v>45702</v>
       </c>
       <c r="B712" t="n">
-        <v>1500</v>
+        <v>1565</v>
       </c>
       <c r="C712" t="n">
-        <v>1501.400024414062</v>
+        <v>1565</v>
       </c>
       <c r="D712" t="n">
-        <v>1450</v>
+        <v>1491.699951171875</v>
       </c>
       <c r="E712" t="n">
-        <v>1450</v>
+        <v>1526.300048828125</v>
       </c>
       <c r="F712" t="inlineStr"/>
       <c r="G712" t="n">
-        <v>52462</v>
+        <v>61116</v>
       </c>
       <c r="H712" t="n">
         <v>2025</v>
@@ -40218,7 +40216,7 @@
         <v>2</v>
       </c>
       <c r="J712" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K712" t="n">
         <v>0</v>
@@ -40230,7 +40228,7 @@
         <v>0</v>
       </c>
       <c r="N712" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O712" t="n">
         <v>0</v>
@@ -40241,27 +40239,29 @@
       <c r="Q712" t="n">
         <v>0</v>
       </c>
-      <c r="R712" t="inlineStr"/>
+      <c r="R712" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="713">
       <c r="A713" s="2" t="n">
-        <v>45706</v>
+        <v>45705</v>
       </c>
       <c r="B713" t="n">
-        <v>1393</v>
+        <v>1500</v>
       </c>
       <c r="C713" t="n">
-        <v>1446.349975585938</v>
+        <v>1501.400024414062</v>
       </c>
       <c r="D713" t="n">
-        <v>1377.5</v>
+        <v>1450</v>
       </c>
       <c r="E713" t="n">
-        <v>1377.5</v>
+        <v>1450</v>
       </c>
       <c r="F713" t="inlineStr"/>
       <c r="G713" t="n">
-        <v>62497</v>
+        <v>52462</v>
       </c>
       <c r="H713" t="n">
         <v>2025</v>
@@ -40270,7 +40270,7 @@
         <v>2</v>
       </c>
       <c r="J713" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K713" t="n">
         <v>0</v>
@@ -40293,27 +40293,29 @@
       <c r="Q713" t="n">
         <v>0</v>
       </c>
-      <c r="R713" t="inlineStr"/>
+      <c r="R713" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="714">
       <c r="A714" s="2" t="n">
-        <v>45707</v>
+        <v>45706</v>
       </c>
       <c r="B714" t="n">
-        <v>1308.650024414062</v>
+        <v>1393</v>
       </c>
       <c r="C714" t="n">
         <v>1446.349975585938</v>
       </c>
       <c r="D714" t="n">
-        <v>1308.650024414062</v>
+        <v>1377.5</v>
       </c>
       <c r="E714" t="n">
-        <v>1424.5</v>
+        <v>1377.5</v>
       </c>
       <c r="F714" t="inlineStr"/>
       <c r="G714" t="n">
-        <v>69123</v>
+        <v>62497</v>
       </c>
       <c r="H714" t="n">
         <v>2025</v>
@@ -40322,7 +40324,7 @@
         <v>2</v>
       </c>
       <c r="J714" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K714" t="n">
         <v>0</v>
@@ -40343,29 +40345,31 @@
         <v>0</v>
       </c>
       <c r="Q714" t="n">
-        <v>2</v>
-      </c>
-      <c r="R714" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="R714" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="715">
       <c r="A715" s="2" t="n">
-        <v>45708</v>
+        <v>45707</v>
       </c>
       <c r="B715" t="n">
-        <v>1438</v>
+        <v>1308.650024414062</v>
       </c>
       <c r="C715" t="n">
-        <v>1495.699951171875</v>
+        <v>1446.349975585938</v>
       </c>
       <c r="D715" t="n">
-        <v>1400</v>
+        <v>1308.650024414062</v>
       </c>
       <c r="E715" t="n">
-        <v>1489.349975585938</v>
+        <v>1424.5</v>
       </c>
       <c r="F715" t="inlineStr"/>
       <c r="G715" t="n">
-        <v>44179</v>
+        <v>69123</v>
       </c>
       <c r="H715" t="n">
         <v>2025</v>
@@ -40374,7 +40378,7 @@
         <v>2</v>
       </c>
       <c r="J715" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K715" t="n">
         <v>0</v>
@@ -40389,35 +40393,37 @@
         <v>8</v>
       </c>
       <c r="O715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P715" t="n">
         <v>0</v>
       </c>
       <c r="Q715" t="n">
-        <v>0</v>
-      </c>
-      <c r="R715" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="R715" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="716">
       <c r="A716" s="2" t="n">
-        <v>45709</v>
+        <v>45708</v>
       </c>
       <c r="B716" t="n">
+        <v>1438</v>
+      </c>
+      <c r="C716" t="n">
         <v>1495.699951171875</v>
       </c>
-      <c r="C716" t="n">
-        <v>1536</v>
-      </c>
       <c r="D716" t="n">
-        <v>1421.550048828125</v>
+        <v>1400</v>
       </c>
       <c r="E716" t="n">
-        <v>1461.599975585938</v>
+        <v>1489.349975585938</v>
       </c>
       <c r="F716" t="inlineStr"/>
       <c r="G716" t="n">
-        <v>44413</v>
+        <v>44179</v>
       </c>
       <c r="H716" t="n">
         <v>2025</v>
@@ -40426,7 +40432,7 @@
         <v>2</v>
       </c>
       <c r="J716" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K716" t="n">
         <v>0</v>
@@ -40449,27 +40455,29 @@
       <c r="Q716" t="n">
         <v>0</v>
       </c>
-      <c r="R716" t="inlineStr"/>
+      <c r="R716" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="717">
       <c r="A717" s="2" t="n">
-        <v>45712</v>
+        <v>45709</v>
       </c>
       <c r="B717" t="n">
-        <v>1406</v>
+        <v>1495.699951171875</v>
       </c>
       <c r="C717" t="n">
-        <v>1505</v>
+        <v>1536</v>
       </c>
       <c r="D717" t="n">
-        <v>1388.550048828125</v>
+        <v>1421.550048828125</v>
       </c>
       <c r="E717" t="n">
-        <v>1479.5</v>
+        <v>1461.599975585938</v>
       </c>
       <c r="F717" t="inlineStr"/>
       <c r="G717" t="n">
-        <v>41650</v>
+        <v>44413</v>
       </c>
       <c r="H717" t="n">
         <v>2025</v>
@@ -40478,7 +40486,7 @@
         <v>2</v>
       </c>
       <c r="J717" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K717" t="n">
         <v>0</v>
@@ -40490,7 +40498,7 @@
         <v>0</v>
       </c>
       <c r="N717" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O717" t="n">
         <v>0</v>
@@ -40501,27 +40509,29 @@
       <c r="Q717" t="n">
         <v>0</v>
       </c>
-      <c r="R717" t="inlineStr"/>
+      <c r="R717" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="718">
       <c r="A718" s="2" t="n">
-        <v>45713</v>
+        <v>45712</v>
       </c>
       <c r="B718" t="n">
-        <v>1499</v>
+        <v>1406</v>
       </c>
       <c r="C718" t="n">
-        <v>1553.449951171875</v>
+        <v>1505</v>
       </c>
       <c r="D718" t="n">
-        <v>1444</v>
+        <v>1388.550048828125</v>
       </c>
       <c r="E718" t="n">
-        <v>1518.199951171875</v>
+        <v>1479.5</v>
       </c>
       <c r="F718" t="inlineStr"/>
       <c r="G718" t="n">
-        <v>188262</v>
+        <v>41650</v>
       </c>
       <c r="H718" t="n">
         <v>2025</v>
@@ -40530,7 +40540,7 @@
         <v>2</v>
       </c>
       <c r="J718" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K718" t="n">
         <v>0</v>
@@ -40553,27 +40563,29 @@
       <c r="Q718" t="n">
         <v>0</v>
       </c>
-      <c r="R718" t="inlineStr"/>
+      <c r="R718" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="719">
       <c r="A719" s="2" t="n">
-        <v>45715</v>
+        <v>45713</v>
       </c>
       <c r="B719" t="n">
-        <v>1515</v>
+        <v>1499</v>
       </c>
       <c r="C719" t="n">
-        <v>1565.25</v>
+        <v>1553.449951171875</v>
       </c>
       <c r="D719" t="n">
-        <v>1467.150024414062</v>
+        <v>1444</v>
       </c>
       <c r="E719" t="n">
-        <v>1486.599975585938</v>
+        <v>1518.199951171875</v>
       </c>
       <c r="F719" t="inlineStr"/>
       <c r="G719" t="n">
-        <v>67532</v>
+        <v>188262</v>
       </c>
       <c r="H719" t="n">
         <v>2025</v>
@@ -40582,7 +40594,7 @@
         <v>2</v>
       </c>
       <c r="J719" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K719" t="n">
         <v>0</v>
@@ -40605,27 +40617,29 @@
       <c r="Q719" t="n">
         <v>0</v>
       </c>
-      <c r="R719" t="inlineStr"/>
+      <c r="R719" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="720">
       <c r="A720" s="2" t="n">
-        <v>45716</v>
+        <v>45715</v>
       </c>
       <c r="B720" t="n">
-        <v>1470</v>
+        <v>1515</v>
       </c>
       <c r="C720" t="n">
-        <v>1560.900024414062</v>
+        <v>1565.25</v>
       </c>
       <c r="D720" t="n">
-        <v>1413</v>
+        <v>1467.150024414062</v>
       </c>
       <c r="E720" t="n">
-        <v>1518.599975585938</v>
+        <v>1486.599975585938</v>
       </c>
       <c r="F720" t="inlineStr"/>
       <c r="G720" t="n">
-        <v>499774</v>
+        <v>67532</v>
       </c>
       <c r="H720" t="n">
         <v>2025</v>
@@ -40634,7 +40648,7 @@
         <v>2</v>
       </c>
       <c r="J720" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K720" t="n">
         <v>0</v>
@@ -40657,7 +40671,531 @@
       <c r="Q720" t="n">
         <v>0</v>
       </c>
-      <c r="R720" t="inlineStr"/>
+      <c r="R720" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="2" t="n">
+        <v>45716</v>
+      </c>
+      <c r="B721" t="n">
+        <v>1470</v>
+      </c>
+      <c r="C721" t="n">
+        <v>1560.900024414062</v>
+      </c>
+      <c r="D721" t="n">
+        <v>1413</v>
+      </c>
+      <c r="E721" t="n">
+        <v>1518.599975585938</v>
+      </c>
+      <c r="F721" t="inlineStr"/>
+      <c r="G721" t="n">
+        <v>499774</v>
+      </c>
+      <c r="H721" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I721" t="n">
+        <v>2</v>
+      </c>
+      <c r="J721" t="n">
+        <v>28</v>
+      </c>
+      <c r="K721" t="n">
+        <v>0</v>
+      </c>
+      <c r="L721" t="n">
+        <v>0</v>
+      </c>
+      <c r="M721" t="n">
+        <v>0</v>
+      </c>
+      <c r="N721" t="n">
+        <v>9</v>
+      </c>
+      <c r="O721" t="n">
+        <v>0</v>
+      </c>
+      <c r="P721" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q721" t="n">
+        <v>0</v>
+      </c>
+      <c r="R721" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B722" t="n">
+        <v>1545</v>
+      </c>
+      <c r="C722" t="n">
+        <v>1594.5</v>
+      </c>
+      <c r="D722" t="n">
+        <v>1479.25</v>
+      </c>
+      <c r="E722" t="n">
+        <v>1543.849975585938</v>
+      </c>
+      <c r="F722" t="inlineStr"/>
+      <c r="G722" t="n">
+        <v>95238</v>
+      </c>
+      <c r="H722" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I722" t="n">
+        <v>3</v>
+      </c>
+      <c r="J722" t="n">
+        <v>3</v>
+      </c>
+      <c r="K722" t="n">
+        <v>0</v>
+      </c>
+      <c r="L722" t="n">
+        <v>0</v>
+      </c>
+      <c r="M722" t="n">
+        <v>0</v>
+      </c>
+      <c r="N722" t="n">
+        <v>10</v>
+      </c>
+      <c r="O722" t="n">
+        <v>0</v>
+      </c>
+      <c r="P722" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q722" t="n">
+        <v>0</v>
+      </c>
+      <c r="R722" t="inlineStr"/>
+    </row>
+    <row r="723">
+      <c r="A723" s="2" t="n">
+        <v>45720</v>
+      </c>
+      <c r="B723" t="n">
+        <v>1547.900024414062</v>
+      </c>
+      <c r="C723" t="n">
+        <v>1621</v>
+      </c>
+      <c r="D723" t="n">
+        <v>1500</v>
+      </c>
+      <c r="E723" t="n">
+        <v>1593.150024414062</v>
+      </c>
+      <c r="F723" t="inlineStr"/>
+      <c r="G723" t="n">
+        <v>107487</v>
+      </c>
+      <c r="H723" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I723" t="n">
+        <v>3</v>
+      </c>
+      <c r="J723" t="n">
+        <v>4</v>
+      </c>
+      <c r="K723" t="n">
+        <v>0</v>
+      </c>
+      <c r="L723" t="n">
+        <v>0</v>
+      </c>
+      <c r="M723" t="n">
+        <v>0</v>
+      </c>
+      <c r="N723" t="n">
+        <v>10</v>
+      </c>
+      <c r="O723" t="n">
+        <v>0</v>
+      </c>
+      <c r="P723" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q723" t="n">
+        <v>0</v>
+      </c>
+      <c r="R723" t="inlineStr"/>
+    </row>
+    <row r="724">
+      <c r="A724" s="2" t="n">
+        <v>45721</v>
+      </c>
+      <c r="B724" t="n">
+        <v>1593.25</v>
+      </c>
+      <c r="C724" t="n">
+        <v>1672.800048828125</v>
+      </c>
+      <c r="D724" t="n">
+        <v>1555</v>
+      </c>
+      <c r="E724" t="n">
+        <v>1669.75</v>
+      </c>
+      <c r="F724" t="inlineStr"/>
+      <c r="G724" t="n">
+        <v>196515</v>
+      </c>
+      <c r="H724" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I724" t="n">
+        <v>3</v>
+      </c>
+      <c r="J724" t="n">
+        <v>5</v>
+      </c>
+      <c r="K724" t="n">
+        <v>0</v>
+      </c>
+      <c r="L724" t="n">
+        <v>0</v>
+      </c>
+      <c r="M724" t="n">
+        <v>0</v>
+      </c>
+      <c r="N724" t="n">
+        <v>10</v>
+      </c>
+      <c r="O724" t="n">
+        <v>0</v>
+      </c>
+      <c r="P724" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q724" t="n">
+        <v>0</v>
+      </c>
+      <c r="R724" t="inlineStr"/>
+    </row>
+    <row r="725">
+      <c r="A725" s="2" t="n">
+        <v>45722</v>
+      </c>
+      <c r="B725" t="n">
+        <v>1720</v>
+      </c>
+      <c r="C725" t="n">
+        <v>1750</v>
+      </c>
+      <c r="D725" t="n">
+        <v>1670.050048828125</v>
+      </c>
+      <c r="E725" t="n">
+        <v>1710.800048828125</v>
+      </c>
+      <c r="F725" t="inlineStr"/>
+      <c r="G725" t="n">
+        <v>39667</v>
+      </c>
+      <c r="H725" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I725" t="n">
+        <v>3</v>
+      </c>
+      <c r="J725" t="n">
+        <v>6</v>
+      </c>
+      <c r="K725" t="n">
+        <v>0</v>
+      </c>
+      <c r="L725" t="n">
+        <v>0</v>
+      </c>
+      <c r="M725" t="n">
+        <v>0</v>
+      </c>
+      <c r="N725" t="n">
+        <v>10</v>
+      </c>
+      <c r="O725" t="n">
+        <v>0</v>
+      </c>
+      <c r="P725" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q725" t="n">
+        <v>0</v>
+      </c>
+      <c r="R725" t="inlineStr"/>
+    </row>
+    <row r="726">
+      <c r="A726" s="2" t="n">
+        <v>45723</v>
+      </c>
+      <c r="B726" t="n">
+        <v>1729.800048828125</v>
+      </c>
+      <c r="C726" t="n">
+        <v>1796.300048828125</v>
+      </c>
+      <c r="D726" t="n">
+        <v>1660</v>
+      </c>
+      <c r="E726" t="n">
+        <v>1796</v>
+      </c>
+      <c r="F726" t="inlineStr"/>
+      <c r="G726" t="n">
+        <v>76664</v>
+      </c>
+      <c r="H726" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I726" t="n">
+        <v>3</v>
+      </c>
+      <c r="J726" t="n">
+        <v>7</v>
+      </c>
+      <c r="K726" t="n">
+        <v>0</v>
+      </c>
+      <c r="L726" t="n">
+        <v>0</v>
+      </c>
+      <c r="M726" t="n">
+        <v>0</v>
+      </c>
+      <c r="N726" t="n">
+        <v>10</v>
+      </c>
+      <c r="O726" t="n">
+        <v>0</v>
+      </c>
+      <c r="P726" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q726" t="n">
+        <v>0</v>
+      </c>
+      <c r="R726" t="inlineStr"/>
+    </row>
+    <row r="727">
+      <c r="A727" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B727" t="n">
+        <v>1814.449951171875</v>
+      </c>
+      <c r="C727" t="n">
+        <v>1874.400024414062</v>
+      </c>
+      <c r="D727" t="n">
+        <v>1750</v>
+      </c>
+      <c r="E727" t="n">
+        <v>1771.75</v>
+      </c>
+      <c r="F727" t="inlineStr"/>
+      <c r="G727" t="n">
+        <v>51407</v>
+      </c>
+      <c r="H727" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I727" t="n">
+        <v>3</v>
+      </c>
+      <c r="J727" t="n">
+        <v>10</v>
+      </c>
+      <c r="K727" t="n">
+        <v>0</v>
+      </c>
+      <c r="L727" t="n">
+        <v>0</v>
+      </c>
+      <c r="M727" t="n">
+        <v>0</v>
+      </c>
+      <c r="N727" t="n">
+        <v>11</v>
+      </c>
+      <c r="O727" t="n">
+        <v>0</v>
+      </c>
+      <c r="P727" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q727" t="n">
+        <v>0</v>
+      </c>
+      <c r="R727" t="inlineStr"/>
+    </row>
+    <row r="728">
+      <c r="A728" s="2" t="n">
+        <v>45727</v>
+      </c>
+      <c r="B728" t="n">
+        <v>1799.849975585938</v>
+      </c>
+      <c r="C728" t="n">
+        <v>1830</v>
+      </c>
+      <c r="D728" t="n">
+        <v>1710</v>
+      </c>
+      <c r="E728" t="n">
+        <v>1793.449951171875</v>
+      </c>
+      <c r="F728" t="inlineStr"/>
+      <c r="G728" t="n">
+        <v>31375</v>
+      </c>
+      <c r="H728" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I728" t="n">
+        <v>3</v>
+      </c>
+      <c r="J728" t="n">
+        <v>11</v>
+      </c>
+      <c r="K728" t="n">
+        <v>0</v>
+      </c>
+      <c r="L728" t="n">
+        <v>0</v>
+      </c>
+      <c r="M728" t="n">
+        <v>0</v>
+      </c>
+      <c r="N728" t="n">
+        <v>11</v>
+      </c>
+      <c r="O728" t="n">
+        <v>0</v>
+      </c>
+      <c r="P728" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q728" t="n">
+        <v>0</v>
+      </c>
+      <c r="R728" t="inlineStr"/>
+    </row>
+    <row r="729">
+      <c r="A729" s="2" t="n">
+        <v>45728</v>
+      </c>
+      <c r="B729" t="n">
+        <v>1789.849975585938</v>
+      </c>
+      <c r="C729" t="n">
+        <v>1855</v>
+      </c>
+      <c r="D729" t="n">
+        <v>1744</v>
+      </c>
+      <c r="E729" t="n">
+        <v>1844.25</v>
+      </c>
+      <c r="F729" t="inlineStr"/>
+      <c r="G729" t="n">
+        <v>30815</v>
+      </c>
+      <c r="H729" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I729" t="n">
+        <v>3</v>
+      </c>
+      <c r="J729" t="n">
+        <v>12</v>
+      </c>
+      <c r="K729" t="n">
+        <v>0</v>
+      </c>
+      <c r="L729" t="n">
+        <v>0</v>
+      </c>
+      <c r="M729" t="n">
+        <v>0</v>
+      </c>
+      <c r="N729" t="n">
+        <v>11</v>
+      </c>
+      <c r="O729" t="n">
+        <v>0</v>
+      </c>
+      <c r="P729" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q729" t="n">
+        <v>0</v>
+      </c>
+      <c r="R729" t="inlineStr"/>
+    </row>
+    <row r="730">
+      <c r="A730" s="2" t="n">
+        <v>45729</v>
+      </c>
+      <c r="B730" t="n">
+        <v>1849.900024414062</v>
+      </c>
+      <c r="C730" t="n">
+        <v>1849.900024414062</v>
+      </c>
+      <c r="D730" t="n">
+        <v>1780</v>
+      </c>
+      <c r="E730" t="n">
+        <v>1809.5</v>
+      </c>
+      <c r="F730" t="inlineStr"/>
+      <c r="G730" t="n">
+        <v>22085</v>
+      </c>
+      <c r="H730" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I730" t="n">
+        <v>3</v>
+      </c>
+      <c r="J730" t="n">
+        <v>13</v>
+      </c>
+      <c r="K730" t="n">
+        <v>0</v>
+      </c>
+      <c r="L730" t="n">
+        <v>0</v>
+      </c>
+      <c r="M730" t="n">
+        <v>0</v>
+      </c>
+      <c r="N730" t="n">
+        <v>11</v>
+      </c>
+      <c r="O730" t="n">
+        <v>0</v>
+      </c>
+      <c r="P730" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q730" t="n">
+        <v>0</v>
+      </c>
+      <c r="R730" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SHAILY.NS.xlsx
+++ b/stock_historical_data/1d/SHAILY.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R730"/>
+  <dimension ref="A1:R740"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39701,7 +39701,9 @@
       <c r="Q702" t="n">
         <v>0</v>
       </c>
-      <c r="R702" t="inlineStr"/>
+      <c r="R702" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="703">
       <c r="A703" s="2" t="n">
@@ -40779,7 +40781,9 @@
       <c r="Q722" t="n">
         <v>0</v>
       </c>
-      <c r="R722" t="inlineStr"/>
+      <c r="R722" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="723">
       <c r="A723" s="2" t="n">
@@ -40831,7 +40835,9 @@
       <c r="Q723" t="n">
         <v>0</v>
       </c>
-      <c r="R723" t="inlineStr"/>
+      <c r="R723" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="724">
       <c r="A724" s="2" t="n">
@@ -40883,7 +40889,9 @@
       <c r="Q724" t="n">
         <v>0</v>
       </c>
-      <c r="R724" t="inlineStr"/>
+      <c r="R724" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="725">
       <c r="A725" s="2" t="n">
@@ -40935,7 +40943,9 @@
       <c r="Q725" t="n">
         <v>0</v>
       </c>
-      <c r="R725" t="inlineStr"/>
+      <c r="R725" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="726">
       <c r="A726" s="2" t="n">
@@ -40987,7 +40997,9 @@
       <c r="Q726" t="n">
         <v>0</v>
       </c>
-      <c r="R726" t="inlineStr"/>
+      <c r="R726" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="727">
       <c r="A727" s="2" t="n">
@@ -41031,7 +41043,7 @@
         <v>11</v>
       </c>
       <c r="O727" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P727" t="n">
         <v>0</v>
@@ -41039,7 +41051,9 @@
       <c r="Q727" t="n">
         <v>0</v>
       </c>
-      <c r="R727" t="inlineStr"/>
+      <c r="R727" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="728">
       <c r="A728" s="2" t="n">
@@ -41091,7 +41105,9 @@
       <c r="Q728" t="n">
         <v>0</v>
       </c>
-      <c r="R728" t="inlineStr"/>
+      <c r="R728" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="729">
       <c r="A729" s="2" t="n">
@@ -41143,7 +41159,9 @@
       <c r="Q729" t="n">
         <v>0</v>
       </c>
-      <c r="R729" t="inlineStr"/>
+      <c r="R729" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="730">
       <c r="A730" s="2" t="n">
@@ -41195,7 +41213,529 @@
       <c r="Q730" t="n">
         <v>0</v>
       </c>
-      <c r="R730" t="inlineStr"/>
+      <c r="R730" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B731" t="n">
+        <v>1859</v>
+      </c>
+      <c r="C731" t="n">
+        <v>1859</v>
+      </c>
+      <c r="D731" t="n">
+        <v>1749</v>
+      </c>
+      <c r="E731" t="n">
+        <v>1775.199951171875</v>
+      </c>
+      <c r="F731" t="inlineStr"/>
+      <c r="G731" t="n">
+        <v>18425</v>
+      </c>
+      <c r="H731" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I731" t="n">
+        <v>3</v>
+      </c>
+      <c r="J731" t="n">
+        <v>17</v>
+      </c>
+      <c r="K731" t="n">
+        <v>0</v>
+      </c>
+      <c r="L731" t="n">
+        <v>0</v>
+      </c>
+      <c r="M731" t="n">
+        <v>0</v>
+      </c>
+      <c r="N731" t="n">
+        <v>12</v>
+      </c>
+      <c r="O731" t="n">
+        <v>0</v>
+      </c>
+      <c r="P731" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q731" t="n">
+        <v>0</v>
+      </c>
+      <c r="R731" t="inlineStr"/>
+    </row>
+    <row r="732">
+      <c r="A732" s="2" t="n">
+        <v>45734</v>
+      </c>
+      <c r="B732" t="n">
+        <v>1775.199951171875</v>
+      </c>
+      <c r="C732" t="n">
+        <v>1775.199951171875</v>
+      </c>
+      <c r="D732" t="n">
+        <v>1775.199951171875</v>
+      </c>
+      <c r="E732" t="n">
+        <v>1775.199951171875</v>
+      </c>
+      <c r="F732" t="inlineStr"/>
+      <c r="G732" t="n">
+        <v>0</v>
+      </c>
+      <c r="H732" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I732" t="n">
+        <v>3</v>
+      </c>
+      <c r="J732" t="n">
+        <v>18</v>
+      </c>
+      <c r="K732" t="n">
+        <v>0</v>
+      </c>
+      <c r="L732" t="n">
+        <v>0</v>
+      </c>
+      <c r="M732" t="n">
+        <v>0</v>
+      </c>
+      <c r="N732" t="n">
+        <v>12</v>
+      </c>
+      <c r="O732" t="n">
+        <v>0</v>
+      </c>
+      <c r="P732" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q732" t="n">
+        <v>0</v>
+      </c>
+      <c r="R732" t="inlineStr"/>
+    </row>
+    <row r="733">
+      <c r="A733" s="2" t="n">
+        <v>45735</v>
+      </c>
+      <c r="B733" t="n">
+        <v>1834</v>
+      </c>
+      <c r="C733" t="n">
+        <v>1870</v>
+      </c>
+      <c r="D733" t="n">
+        <v>1790.099975585938</v>
+      </c>
+      <c r="E733" t="n">
+        <v>1811.400024414062</v>
+      </c>
+      <c r="F733" t="inlineStr"/>
+      <c r="G733" t="n">
+        <v>44732</v>
+      </c>
+      <c r="H733" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I733" t="n">
+        <v>3</v>
+      </c>
+      <c r="J733" t="n">
+        <v>19</v>
+      </c>
+      <c r="K733" t="n">
+        <v>0</v>
+      </c>
+      <c r="L733" t="n">
+        <v>0</v>
+      </c>
+      <c r="M733" t="n">
+        <v>0</v>
+      </c>
+      <c r="N733" t="n">
+        <v>12</v>
+      </c>
+      <c r="O733" t="n">
+        <v>0</v>
+      </c>
+      <c r="P733" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q733" t="n">
+        <v>0</v>
+      </c>
+      <c r="R733" t="inlineStr"/>
+    </row>
+    <row r="734">
+      <c r="A734" s="2" t="n">
+        <v>45736</v>
+      </c>
+      <c r="B734" t="n">
+        <v>1840</v>
+      </c>
+      <c r="C734" t="n">
+        <v>1840</v>
+      </c>
+      <c r="D734" t="n">
+        <v>1759</v>
+      </c>
+      <c r="E734" t="n">
+        <v>1784.599975585938</v>
+      </c>
+      <c r="F734" t="inlineStr"/>
+      <c r="G734" t="n">
+        <v>19418</v>
+      </c>
+      <c r="H734" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I734" t="n">
+        <v>3</v>
+      </c>
+      <c r="J734" t="n">
+        <v>20</v>
+      </c>
+      <c r="K734" t="n">
+        <v>0</v>
+      </c>
+      <c r="L734" t="n">
+        <v>0</v>
+      </c>
+      <c r="M734" t="n">
+        <v>0</v>
+      </c>
+      <c r="N734" t="n">
+        <v>12</v>
+      </c>
+      <c r="O734" t="n">
+        <v>0</v>
+      </c>
+      <c r="P734" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q734" t="n">
+        <v>0</v>
+      </c>
+      <c r="R734" t="inlineStr"/>
+    </row>
+    <row r="735">
+      <c r="A735" s="2" t="n">
+        <v>45737</v>
+      </c>
+      <c r="B735" t="n">
+        <v>1797</v>
+      </c>
+      <c r="C735" t="n">
+        <v>1830</v>
+      </c>
+      <c r="D735" t="n">
+        <v>1725.099975585938</v>
+      </c>
+      <c r="E735" t="n">
+        <v>1752.300048828125</v>
+      </c>
+      <c r="F735" t="inlineStr"/>
+      <c r="G735" t="n">
+        <v>23552</v>
+      </c>
+      <c r="H735" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I735" t="n">
+        <v>3</v>
+      </c>
+      <c r="J735" t="n">
+        <v>21</v>
+      </c>
+      <c r="K735" t="n">
+        <v>0</v>
+      </c>
+      <c r="L735" t="n">
+        <v>0</v>
+      </c>
+      <c r="M735" t="n">
+        <v>0</v>
+      </c>
+      <c r="N735" t="n">
+        <v>12</v>
+      </c>
+      <c r="O735" t="n">
+        <v>0</v>
+      </c>
+      <c r="P735" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q735" t="n">
+        <v>0</v>
+      </c>
+      <c r="R735" t="inlineStr"/>
+    </row>
+    <row r="736">
+      <c r="A736" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B736" t="n">
+        <v>1752.300048828125</v>
+      </c>
+      <c r="C736" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D736" t="n">
+        <v>1711</v>
+      </c>
+      <c r="E736" t="n">
+        <v>1764.949951171875</v>
+      </c>
+      <c r="F736" t="inlineStr"/>
+      <c r="G736" t="n">
+        <v>39165</v>
+      </c>
+      <c r="H736" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I736" t="n">
+        <v>3</v>
+      </c>
+      <c r="J736" t="n">
+        <v>24</v>
+      </c>
+      <c r="K736" t="n">
+        <v>0</v>
+      </c>
+      <c r="L736" t="n">
+        <v>0</v>
+      </c>
+      <c r="M736" t="n">
+        <v>0</v>
+      </c>
+      <c r="N736" t="n">
+        <v>13</v>
+      </c>
+      <c r="O736" t="n">
+        <v>0</v>
+      </c>
+      <c r="P736" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q736" t="n">
+        <v>0</v>
+      </c>
+      <c r="R736" t="inlineStr"/>
+    </row>
+    <row r="737">
+      <c r="A737" s="2" t="n">
+        <v>45741</v>
+      </c>
+      <c r="B737" t="n">
+        <v>1810</v>
+      </c>
+      <c r="C737" t="n">
+        <v>1853.150024414062</v>
+      </c>
+      <c r="D737" t="n">
+        <v>1789.449951171875</v>
+      </c>
+      <c r="E737" t="n">
+        <v>1852.199951171875</v>
+      </c>
+      <c r="F737" t="inlineStr"/>
+      <c r="G737" t="n">
+        <v>118013</v>
+      </c>
+      <c r="H737" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I737" t="n">
+        <v>3</v>
+      </c>
+      <c r="J737" t="n">
+        <v>25</v>
+      </c>
+      <c r="K737" t="n">
+        <v>0</v>
+      </c>
+      <c r="L737" t="n">
+        <v>0</v>
+      </c>
+      <c r="M737" t="n">
+        <v>0</v>
+      </c>
+      <c r="N737" t="n">
+        <v>13</v>
+      </c>
+      <c r="O737" t="n">
+        <v>0</v>
+      </c>
+      <c r="P737" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q737" t="n">
+        <v>0</v>
+      </c>
+      <c r="R737" t="inlineStr"/>
+    </row>
+    <row r="738">
+      <c r="A738" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="B738" t="n">
+        <v>1908</v>
+      </c>
+      <c r="C738" t="n">
+        <v>1940</v>
+      </c>
+      <c r="D738" t="n">
+        <v>1775.150024414062</v>
+      </c>
+      <c r="E738" t="n">
+        <v>1848.75</v>
+      </c>
+      <c r="F738" t="inlineStr"/>
+      <c r="G738" t="n">
+        <v>110187</v>
+      </c>
+      <c r="H738" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I738" t="n">
+        <v>3</v>
+      </c>
+      <c r="J738" t="n">
+        <v>26</v>
+      </c>
+      <c r="K738" t="n">
+        <v>0</v>
+      </c>
+      <c r="L738" t="n">
+        <v>0</v>
+      </c>
+      <c r="M738" t="n">
+        <v>0</v>
+      </c>
+      <c r="N738" t="n">
+        <v>13</v>
+      </c>
+      <c r="O738" t="n">
+        <v>0</v>
+      </c>
+      <c r="P738" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q738" t="n">
+        <v>2</v>
+      </c>
+      <c r="R738" t="inlineStr"/>
+    </row>
+    <row r="739">
+      <c r="A739" s="2" t="n">
+        <v>45743</v>
+      </c>
+      <c r="B739" t="n">
+        <v>1756.400024414062</v>
+      </c>
+      <c r="C739" t="n">
+        <v>1939.900024414062</v>
+      </c>
+      <c r="D739" t="n">
+        <v>1756.400024414062</v>
+      </c>
+      <c r="E739" t="n">
+        <v>1923.5</v>
+      </c>
+      <c r="F739" t="inlineStr"/>
+      <c r="G739" t="n">
+        <v>137695</v>
+      </c>
+      <c r="H739" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I739" t="n">
+        <v>3</v>
+      </c>
+      <c r="J739" t="n">
+        <v>27</v>
+      </c>
+      <c r="K739" t="n">
+        <v>0</v>
+      </c>
+      <c r="L739" t="n">
+        <v>0</v>
+      </c>
+      <c r="M739" t="n">
+        <v>0</v>
+      </c>
+      <c r="N739" t="n">
+        <v>13</v>
+      </c>
+      <c r="O739" t="n">
+        <v>0</v>
+      </c>
+      <c r="P739" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q739" t="n">
+        <v>0</v>
+      </c>
+      <c r="R739" t="inlineStr"/>
+    </row>
+    <row r="740">
+      <c r="A740" s="2" t="n">
+        <v>45744</v>
+      </c>
+      <c r="B740" t="n">
+        <v>1942.75</v>
+      </c>
+      <c r="C740" t="n">
+        <v>1942.75</v>
+      </c>
+      <c r="D740" t="n">
+        <v>1827.349975585938</v>
+      </c>
+      <c r="E740" t="n">
+        <v>1827.349975585938</v>
+      </c>
+      <c r="F740" t="inlineStr"/>
+      <c r="G740" t="n">
+        <v>55612</v>
+      </c>
+      <c r="H740" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I740" t="n">
+        <v>3</v>
+      </c>
+      <c r="J740" t="n">
+        <v>28</v>
+      </c>
+      <c r="K740" t="n">
+        <v>0</v>
+      </c>
+      <c r="L740" t="n">
+        <v>0</v>
+      </c>
+      <c r="M740" t="n">
+        <v>0</v>
+      </c>
+      <c r="N740" t="n">
+        <v>13</v>
+      </c>
+      <c r="O740" t="n">
+        <v>0</v>
+      </c>
+      <c r="P740" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q740" t="n">
+        <v>0</v>
+      </c>
+      <c r="R740" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SHAILY.NS.xlsx
+++ b/stock_historical_data/1d/SHAILY.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R740"/>
+  <dimension ref="A1:R744"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41267,7 +41267,9 @@
       <c r="Q731" t="n">
         <v>0</v>
       </c>
-      <c r="R731" t="inlineStr"/>
+      <c r="R731" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="732">
       <c r="A732" s="2" t="n">
@@ -41319,7 +41321,9 @@
       <c r="Q732" t="n">
         <v>0</v>
       </c>
-      <c r="R732" t="inlineStr"/>
+      <c r="R732" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="733">
       <c r="A733" s="2" t="n">
@@ -41371,7 +41375,9 @@
       <c r="Q733" t="n">
         <v>0</v>
       </c>
-      <c r="R733" t="inlineStr"/>
+      <c r="R733" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="734">
       <c r="A734" s="2" t="n">
@@ -41423,7 +41429,9 @@
       <c r="Q734" t="n">
         <v>0</v>
       </c>
-      <c r="R734" t="inlineStr"/>
+      <c r="R734" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="735">
       <c r="A735" s="2" t="n">
@@ -41475,7 +41483,9 @@
       <c r="Q735" t="n">
         <v>0</v>
       </c>
-      <c r="R735" t="inlineStr"/>
+      <c r="R735" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="736">
       <c r="A736" s="2" t="n">
@@ -41527,7 +41537,9 @@
       <c r="Q736" t="n">
         <v>0</v>
       </c>
-      <c r="R736" t="inlineStr"/>
+      <c r="R736" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="737">
       <c r="A737" s="2" t="n">
@@ -41579,7 +41591,9 @@
       <c r="Q737" t="n">
         <v>0</v>
       </c>
-      <c r="R737" t="inlineStr"/>
+      <c r="R737" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="738">
       <c r="A738" s="2" t="n">
@@ -41631,7 +41645,9 @@
       <c r="Q738" t="n">
         <v>2</v>
       </c>
-      <c r="R738" t="inlineStr"/>
+      <c r="R738" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="739">
       <c r="A739" s="2" t="n">
@@ -41683,7 +41699,9 @@
       <c r="Q739" t="n">
         <v>0</v>
       </c>
-      <c r="R739" t="inlineStr"/>
+      <c r="R739" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="740">
       <c r="A740" s="2" t="n">
@@ -41735,7 +41753,217 @@
       <c r="Q740" t="n">
         <v>0</v>
       </c>
-      <c r="R740" t="inlineStr"/>
+      <c r="R740" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="2" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B741" t="n">
+        <v>1827.550048828125</v>
+      </c>
+      <c r="C741" t="n">
+        <v>1850</v>
+      </c>
+      <c r="D741" t="n">
+        <v>1750</v>
+      </c>
+      <c r="E741" t="n">
+        <v>1778.849975585938</v>
+      </c>
+      <c r="F741" t="inlineStr"/>
+      <c r="G741" t="n">
+        <v>57100</v>
+      </c>
+      <c r="H741" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I741" t="n">
+        <v>4</v>
+      </c>
+      <c r="J741" t="n">
+        <v>1</v>
+      </c>
+      <c r="K741" t="n">
+        <v>0</v>
+      </c>
+      <c r="L741" t="n">
+        <v>0</v>
+      </c>
+      <c r="M741" t="n">
+        <v>0</v>
+      </c>
+      <c r="N741" t="n">
+        <v>14</v>
+      </c>
+      <c r="O741" t="n">
+        <v>0</v>
+      </c>
+      <c r="P741" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q741" t="n">
+        <v>0</v>
+      </c>
+      <c r="R741" t="inlineStr"/>
+    </row>
+    <row r="742">
+      <c r="A742" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B742" t="n">
+        <v>1760</v>
+      </c>
+      <c r="C742" t="n">
+        <v>1794</v>
+      </c>
+      <c r="D742" t="n">
+        <v>1689.900024414062</v>
+      </c>
+      <c r="E742" t="n">
+        <v>1689.900024414062</v>
+      </c>
+      <c r="F742" t="inlineStr"/>
+      <c r="G742" t="n">
+        <v>150858</v>
+      </c>
+      <c r="H742" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I742" t="n">
+        <v>4</v>
+      </c>
+      <c r="J742" t="n">
+        <v>2</v>
+      </c>
+      <c r="K742" t="n">
+        <v>0</v>
+      </c>
+      <c r="L742" t="n">
+        <v>0</v>
+      </c>
+      <c r="M742" t="n">
+        <v>0</v>
+      </c>
+      <c r="N742" t="n">
+        <v>14</v>
+      </c>
+      <c r="O742" t="n">
+        <v>0</v>
+      </c>
+      <c r="P742" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q742" t="n">
+        <v>0</v>
+      </c>
+      <c r="R742" t="inlineStr"/>
+    </row>
+    <row r="743">
+      <c r="A743" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B743" t="n">
+        <v>1650</v>
+      </c>
+      <c r="C743" t="n">
+        <v>1671.900024414062</v>
+      </c>
+      <c r="D743" t="n">
+        <v>1605.400024414062</v>
+      </c>
+      <c r="E743" t="n">
+        <v>1605.400024414062</v>
+      </c>
+      <c r="F743" t="inlineStr"/>
+      <c r="G743" t="n">
+        <v>190394</v>
+      </c>
+      <c r="H743" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I743" t="n">
+        <v>4</v>
+      </c>
+      <c r="J743" t="n">
+        <v>3</v>
+      </c>
+      <c r="K743" t="n">
+        <v>0</v>
+      </c>
+      <c r="L743" t="n">
+        <v>0</v>
+      </c>
+      <c r="M743" t="n">
+        <v>0</v>
+      </c>
+      <c r="N743" t="n">
+        <v>14</v>
+      </c>
+      <c r="O743" t="n">
+        <v>0</v>
+      </c>
+      <c r="P743" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q743" t="n">
+        <v>0</v>
+      </c>
+      <c r="R743" t="inlineStr"/>
+    </row>
+    <row r="744">
+      <c r="A744" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B744" t="n">
+        <v>1551</v>
+      </c>
+      <c r="C744" t="n">
+        <v>1574.949951171875</v>
+      </c>
+      <c r="D744" t="n">
+        <v>1525.150024414062</v>
+      </c>
+      <c r="E744" t="n">
+        <v>1525.150024414062</v>
+      </c>
+      <c r="F744" t="inlineStr"/>
+      <c r="G744" t="n">
+        <v>191275</v>
+      </c>
+      <c r="H744" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I744" t="n">
+        <v>4</v>
+      </c>
+      <c r="J744" t="n">
+        <v>4</v>
+      </c>
+      <c r="K744" t="n">
+        <v>0</v>
+      </c>
+      <c r="L744" t="n">
+        <v>0</v>
+      </c>
+      <c r="M744" t="n">
+        <v>0</v>
+      </c>
+      <c r="N744" t="n">
+        <v>14</v>
+      </c>
+      <c r="O744" t="n">
+        <v>0</v>
+      </c>
+      <c r="P744" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q744" t="n">
+        <v>0</v>
+      </c>
+      <c r="R744" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SHAILY.NS.xlsx
+++ b/stock_historical_data/1d/SHAILY.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R744"/>
+  <dimension ref="A1:R748"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8139,7 +8139,7 @@
         <v>1</v>
       </c>
       <c r="Q137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R137" t="n">
         <v>1</v>
@@ -41807,7 +41807,9 @@
       <c r="Q741" t="n">
         <v>0</v>
       </c>
-      <c r="R741" t="inlineStr"/>
+      <c r="R741" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="742">
       <c r="A742" s="2" t="n">
@@ -41859,7 +41861,9 @@
       <c r="Q742" t="n">
         <v>0</v>
       </c>
-      <c r="R742" t="inlineStr"/>
+      <c r="R742" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="743">
       <c r="A743" s="2" t="n">
@@ -41911,7 +41915,9 @@
       <c r="Q743" t="n">
         <v>0</v>
       </c>
-      <c r="R743" t="inlineStr"/>
+      <c r="R743" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="744">
       <c r="A744" s="2" t="n">
@@ -41963,7 +41969,217 @@
       <c r="Q744" t="n">
         <v>0</v>
       </c>
-      <c r="R744" t="inlineStr"/>
+      <c r="R744" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B745" t="n">
+        <v>1372.650024414062</v>
+      </c>
+      <c r="C745" t="n">
+        <v>1540.400024414062</v>
+      </c>
+      <c r="D745" t="n">
+        <v>1372.650024414062</v>
+      </c>
+      <c r="E745" t="n">
+        <v>1476.050048828125</v>
+      </c>
+      <c r="F745" t="inlineStr"/>
+      <c r="G745" t="n">
+        <v>310785</v>
+      </c>
+      <c r="H745" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I745" t="n">
+        <v>4</v>
+      </c>
+      <c r="J745" t="n">
+        <v>7</v>
+      </c>
+      <c r="K745" t="n">
+        <v>0</v>
+      </c>
+      <c r="L745" t="n">
+        <v>0</v>
+      </c>
+      <c r="M745" t="n">
+        <v>0</v>
+      </c>
+      <c r="N745" t="n">
+        <v>15</v>
+      </c>
+      <c r="O745" t="n">
+        <v>0</v>
+      </c>
+      <c r="P745" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q745" t="n">
+        <v>0</v>
+      </c>
+      <c r="R745" t="inlineStr"/>
+    </row>
+    <row r="746">
+      <c r="A746" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="B746" t="n">
+        <v>1540.400024414062</v>
+      </c>
+      <c r="C746" t="n">
+        <v>1577.800048828125</v>
+      </c>
+      <c r="D746" t="n">
+        <v>1402.050048828125</v>
+      </c>
+      <c r="E746" t="n">
+        <v>1463.75</v>
+      </c>
+      <c r="F746" t="inlineStr"/>
+      <c r="G746" t="n">
+        <v>149816</v>
+      </c>
+      <c r="H746" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I746" t="n">
+        <v>4</v>
+      </c>
+      <c r="J746" t="n">
+        <v>8</v>
+      </c>
+      <c r="K746" t="n">
+        <v>0</v>
+      </c>
+      <c r="L746" t="n">
+        <v>0</v>
+      </c>
+      <c r="M746" t="n">
+        <v>0</v>
+      </c>
+      <c r="N746" t="n">
+        <v>15</v>
+      </c>
+      <c r="O746" t="n">
+        <v>0</v>
+      </c>
+      <c r="P746" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q746" t="n">
+        <v>0</v>
+      </c>
+      <c r="R746" t="inlineStr"/>
+    </row>
+    <row r="747">
+      <c r="A747" s="2" t="n">
+        <v>45756</v>
+      </c>
+      <c r="B747" t="n">
+        <v>1440</v>
+      </c>
+      <c r="C747" t="n">
+        <v>1460.900024414062</v>
+      </c>
+      <c r="D747" t="n">
+        <v>1381</v>
+      </c>
+      <c r="E747" t="n">
+        <v>1390.449951171875</v>
+      </c>
+      <c r="F747" t="inlineStr"/>
+      <c r="G747" t="n">
+        <v>75556</v>
+      </c>
+      <c r="H747" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I747" t="n">
+        <v>4</v>
+      </c>
+      <c r="J747" t="n">
+        <v>9</v>
+      </c>
+      <c r="K747" t="n">
+        <v>0</v>
+      </c>
+      <c r="L747" t="n">
+        <v>0</v>
+      </c>
+      <c r="M747" t="n">
+        <v>0</v>
+      </c>
+      <c r="N747" t="n">
+        <v>15</v>
+      </c>
+      <c r="O747" t="n">
+        <v>0</v>
+      </c>
+      <c r="P747" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q747" t="n">
+        <v>0</v>
+      </c>
+      <c r="R747" t="inlineStr"/>
+    </row>
+    <row r="748">
+      <c r="A748" s="2" t="n">
+        <v>45758</v>
+      </c>
+      <c r="B748" t="n">
+        <v>1454.949951171875</v>
+      </c>
+      <c r="C748" t="n">
+        <v>1529.449951171875</v>
+      </c>
+      <c r="D748" t="n">
+        <v>1432</v>
+      </c>
+      <c r="E748" t="n">
+        <v>1496.25</v>
+      </c>
+      <c r="F748" t="inlineStr"/>
+      <c r="G748" t="n">
+        <v>180853</v>
+      </c>
+      <c r="H748" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I748" t="n">
+        <v>4</v>
+      </c>
+      <c r="J748" t="n">
+        <v>11</v>
+      </c>
+      <c r="K748" t="n">
+        <v>0</v>
+      </c>
+      <c r="L748" t="n">
+        <v>0</v>
+      </c>
+      <c r="M748" t="n">
+        <v>0</v>
+      </c>
+      <c r="N748" t="n">
+        <v>15</v>
+      </c>
+      <c r="O748" t="n">
+        <v>0</v>
+      </c>
+      <c r="P748" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q748" t="n">
+        <v>0</v>
+      </c>
+      <c r="R748" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SHAILY.NS.xlsx
+++ b/stock_historical_data/1d/SHAILY.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R748"/>
+  <dimension ref="A1:R751"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41745,7 +41745,7 @@
         <v>13</v>
       </c>
       <c r="O740" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P740" t="n">
         <v>0</v>
@@ -42023,7 +42023,9 @@
       <c r="Q745" t="n">
         <v>0</v>
       </c>
-      <c r="R745" t="inlineStr"/>
+      <c r="R745" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="746">
       <c r="A746" s="2" t="n">
@@ -42075,7 +42077,9 @@
       <c r="Q746" t="n">
         <v>0</v>
       </c>
-      <c r="R746" t="inlineStr"/>
+      <c r="R746" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="747">
       <c r="A747" s="2" t="n">
@@ -42127,7 +42131,9 @@
       <c r="Q747" t="n">
         <v>0</v>
       </c>
-      <c r="R747" t="inlineStr"/>
+      <c r="R747" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="748">
       <c r="A748" s="2" t="n">
@@ -42179,7 +42185,165 @@
       <c r="Q748" t="n">
         <v>0</v>
       </c>
-      <c r="R748" t="inlineStr"/>
+      <c r="R748" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="2" t="n">
+        <v>45762</v>
+      </c>
+      <c r="B749" t="n">
+        <v>1540</v>
+      </c>
+      <c r="C749" t="n">
+        <v>1645.900024414062</v>
+      </c>
+      <c r="D749" t="n">
+        <v>1540</v>
+      </c>
+      <c r="E749" t="n">
+        <v>1645.900024414062</v>
+      </c>
+      <c r="F749" t="inlineStr"/>
+      <c r="G749" t="n">
+        <v>117262</v>
+      </c>
+      <c r="H749" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I749" t="n">
+        <v>4</v>
+      </c>
+      <c r="J749" t="n">
+        <v>15</v>
+      </c>
+      <c r="K749" t="n">
+        <v>0</v>
+      </c>
+      <c r="L749" t="n">
+        <v>0</v>
+      </c>
+      <c r="M749" t="n">
+        <v>0</v>
+      </c>
+      <c r="N749" t="n">
+        <v>16</v>
+      </c>
+      <c r="O749" t="n">
+        <v>0</v>
+      </c>
+      <c r="P749" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q749" t="n">
+        <v>0</v>
+      </c>
+      <c r="R749" t="inlineStr"/>
+    </row>
+    <row r="750">
+      <c r="A750" s="2" t="n">
+        <v>45763</v>
+      </c>
+      <c r="B750" t="n">
+        <v>1660</v>
+      </c>
+      <c r="C750" t="n">
+        <v>1810.400024414062</v>
+      </c>
+      <c r="D750" t="n">
+        <v>1656.099975585938</v>
+      </c>
+      <c r="E750" t="n">
+        <v>1795.800048828125</v>
+      </c>
+      <c r="F750" t="inlineStr"/>
+      <c r="G750" t="n">
+        <v>254986</v>
+      </c>
+      <c r="H750" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I750" t="n">
+        <v>4</v>
+      </c>
+      <c r="J750" t="n">
+        <v>16</v>
+      </c>
+      <c r="K750" t="n">
+        <v>0</v>
+      </c>
+      <c r="L750" t="n">
+        <v>0</v>
+      </c>
+      <c r="M750" t="n">
+        <v>0</v>
+      </c>
+      <c r="N750" t="n">
+        <v>16</v>
+      </c>
+      <c r="O750" t="n">
+        <v>0</v>
+      </c>
+      <c r="P750" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q750" t="n">
+        <v>0</v>
+      </c>
+      <c r="R750" t="inlineStr"/>
+    </row>
+    <row r="751">
+      <c r="A751" s="2" t="n">
+        <v>45764</v>
+      </c>
+      <c r="B751" t="n">
+        <v>1832.900024414062</v>
+      </c>
+      <c r="C751" t="n">
+        <v>1849.699951171875</v>
+      </c>
+      <c r="D751" t="n">
+        <v>1775</v>
+      </c>
+      <c r="E751" t="n">
+        <v>1830.800048828125</v>
+      </c>
+      <c r="F751" t="inlineStr"/>
+      <c r="G751" t="n">
+        <v>138236</v>
+      </c>
+      <c r="H751" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I751" t="n">
+        <v>4</v>
+      </c>
+      <c r="J751" t="n">
+        <v>17</v>
+      </c>
+      <c r="K751" t="n">
+        <v>0</v>
+      </c>
+      <c r="L751" t="n">
+        <v>0</v>
+      </c>
+      <c r="M751" t="n">
+        <v>0</v>
+      </c>
+      <c r="N751" t="n">
+        <v>16</v>
+      </c>
+      <c r="O751" t="n">
+        <v>0</v>
+      </c>
+      <c r="P751" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q751" t="n">
+        <v>2</v>
+      </c>
+      <c r="R751" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SHAILY.NS.xlsx
+++ b/stock_historical_data/1d/SHAILY.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R751"/>
+  <dimension ref="A1:R760"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42015,7 +42015,7 @@
         <v>15</v>
       </c>
       <c r="O745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P745" t="n">
         <v>0</v>
@@ -42239,7 +42239,9 @@
       <c r="Q749" t="n">
         <v>0</v>
       </c>
-      <c r="R749" t="inlineStr"/>
+      <c r="R749" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="750">
       <c r="A750" s="2" t="n">
@@ -42291,7 +42293,9 @@
       <c r="Q750" t="n">
         <v>0</v>
       </c>
-      <c r="R750" t="inlineStr"/>
+      <c r="R750" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="751">
       <c r="A751" s="2" t="n">
@@ -42343,7 +42347,477 @@
       <c r="Q751" t="n">
         <v>2</v>
       </c>
-      <c r="R751" t="inlineStr"/>
+      <c r="R751" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B752" t="n">
+        <v>1762.099975585938</v>
+      </c>
+      <c r="C752" t="n">
+        <v>1779.800048828125</v>
+      </c>
+      <c r="D752" t="n">
+        <v>1647.800048828125</v>
+      </c>
+      <c r="E752" t="n">
+        <v>1653.400024414062</v>
+      </c>
+      <c r="F752" t="inlineStr"/>
+      <c r="G752" t="n">
+        <v>239093</v>
+      </c>
+      <c r="H752" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I752" t="n">
+        <v>4</v>
+      </c>
+      <c r="J752" t="n">
+        <v>21</v>
+      </c>
+      <c r="K752" t="n">
+        <v>0</v>
+      </c>
+      <c r="L752" t="n">
+        <v>0</v>
+      </c>
+      <c r="M752" t="n">
+        <v>0</v>
+      </c>
+      <c r="N752" t="n">
+        <v>17</v>
+      </c>
+      <c r="O752" t="n">
+        <v>0</v>
+      </c>
+      <c r="P752" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q752" t="n">
+        <v>0</v>
+      </c>
+      <c r="R752" t="inlineStr"/>
+    </row>
+    <row r="753">
+      <c r="A753" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B753" t="n">
+        <v>1650</v>
+      </c>
+      <c r="C753" t="n">
+        <v>1690</v>
+      </c>
+      <c r="D753" t="n">
+        <v>1626.099975585938</v>
+      </c>
+      <c r="E753" t="n">
+        <v>1647.199951171875</v>
+      </c>
+      <c r="F753" t="inlineStr"/>
+      <c r="G753" t="n">
+        <v>100422</v>
+      </c>
+      <c r="H753" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I753" t="n">
+        <v>4</v>
+      </c>
+      <c r="J753" t="n">
+        <v>22</v>
+      </c>
+      <c r="K753" t="n">
+        <v>0</v>
+      </c>
+      <c r="L753" t="n">
+        <v>0</v>
+      </c>
+      <c r="M753" t="n">
+        <v>0</v>
+      </c>
+      <c r="N753" t="n">
+        <v>17</v>
+      </c>
+      <c r="O753" t="n">
+        <v>0</v>
+      </c>
+      <c r="P753" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q753" t="n">
+        <v>0</v>
+      </c>
+      <c r="R753" t="inlineStr"/>
+    </row>
+    <row r="754">
+      <c r="A754" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B754" t="n">
+        <v>1652.099975585938</v>
+      </c>
+      <c r="C754" t="n">
+        <v>1676.900024414062</v>
+      </c>
+      <c r="D754" t="n">
+        <v>1592.099975585938</v>
+      </c>
+      <c r="E754" t="n">
+        <v>1619.699951171875</v>
+      </c>
+      <c r="F754" t="inlineStr"/>
+      <c r="G754" t="n">
+        <v>112928</v>
+      </c>
+      <c r="H754" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I754" t="n">
+        <v>4</v>
+      </c>
+      <c r="J754" t="n">
+        <v>23</v>
+      </c>
+      <c r="K754" t="n">
+        <v>0</v>
+      </c>
+      <c r="L754" t="n">
+        <v>0</v>
+      </c>
+      <c r="M754" t="n">
+        <v>0</v>
+      </c>
+      <c r="N754" t="n">
+        <v>17</v>
+      </c>
+      <c r="O754" t="n">
+        <v>0</v>
+      </c>
+      <c r="P754" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q754" t="n">
+        <v>0</v>
+      </c>
+      <c r="R754" t="inlineStr"/>
+    </row>
+    <row r="755">
+      <c r="A755" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B755" t="n">
+        <v>1617</v>
+      </c>
+      <c r="C755" t="n">
+        <v>1654.699951171875</v>
+      </c>
+      <c r="D755" t="n">
+        <v>1580.099975585938</v>
+      </c>
+      <c r="E755" t="n">
+        <v>1592.599975585938</v>
+      </c>
+      <c r="F755" t="inlineStr"/>
+      <c r="G755" t="n">
+        <v>77268</v>
+      </c>
+      <c r="H755" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I755" t="n">
+        <v>4</v>
+      </c>
+      <c r="J755" t="n">
+        <v>24</v>
+      </c>
+      <c r="K755" t="n">
+        <v>0</v>
+      </c>
+      <c r="L755" t="n">
+        <v>0</v>
+      </c>
+      <c r="M755" t="n">
+        <v>0</v>
+      </c>
+      <c r="N755" t="n">
+        <v>17</v>
+      </c>
+      <c r="O755" t="n">
+        <v>0</v>
+      </c>
+      <c r="P755" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q755" t="n">
+        <v>0</v>
+      </c>
+      <c r="R755" t="inlineStr"/>
+    </row>
+    <row r="756">
+      <c r="A756" s="2" t="n">
+        <v>45772</v>
+      </c>
+      <c r="B756" t="n">
+        <v>1570</v>
+      </c>
+      <c r="C756" t="n">
+        <v>1617.800048828125</v>
+      </c>
+      <c r="D756" t="n">
+        <v>1524.5</v>
+      </c>
+      <c r="E756" t="n">
+        <v>1607.400024414062</v>
+      </c>
+      <c r="F756" t="inlineStr"/>
+      <c r="G756" t="n">
+        <v>91490</v>
+      </c>
+      <c r="H756" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I756" t="n">
+        <v>4</v>
+      </c>
+      <c r="J756" t="n">
+        <v>25</v>
+      </c>
+      <c r="K756" t="n">
+        <v>0</v>
+      </c>
+      <c r="L756" t="n">
+        <v>0</v>
+      </c>
+      <c r="M756" t="n">
+        <v>0</v>
+      </c>
+      <c r="N756" t="n">
+        <v>17</v>
+      </c>
+      <c r="O756" t="n">
+        <v>0</v>
+      </c>
+      <c r="P756" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q756" t="n">
+        <v>0</v>
+      </c>
+      <c r="R756" t="inlineStr"/>
+    </row>
+    <row r="757">
+      <c r="A757" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B757" t="n">
+        <v>1604</v>
+      </c>
+      <c r="C757" t="n">
+        <v>1620</v>
+      </c>
+      <c r="D757" t="n">
+        <v>1546.599975585938</v>
+      </c>
+      <c r="E757" t="n">
+        <v>1562.099975585938</v>
+      </c>
+      <c r="F757" t="inlineStr"/>
+      <c r="G757" t="n">
+        <v>50970</v>
+      </c>
+      <c r="H757" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I757" t="n">
+        <v>4</v>
+      </c>
+      <c r="J757" t="n">
+        <v>28</v>
+      </c>
+      <c r="K757" t="n">
+        <v>0</v>
+      </c>
+      <c r="L757" t="n">
+        <v>0</v>
+      </c>
+      <c r="M757" t="n">
+        <v>0</v>
+      </c>
+      <c r="N757" t="n">
+        <v>18</v>
+      </c>
+      <c r="O757" t="n">
+        <v>0</v>
+      </c>
+      <c r="P757" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q757" t="n">
+        <v>0</v>
+      </c>
+      <c r="R757" t="inlineStr"/>
+    </row>
+    <row r="758">
+      <c r="A758" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B758" t="n">
+        <v>1560</v>
+      </c>
+      <c r="C758" t="n">
+        <v>1618</v>
+      </c>
+      <c r="D758" t="n">
+        <v>1557.099975585938</v>
+      </c>
+      <c r="E758" t="n">
+        <v>1562.099975585938</v>
+      </c>
+      <c r="F758" t="inlineStr"/>
+      <c r="G758" t="n">
+        <v>67195</v>
+      </c>
+      <c r="H758" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I758" t="n">
+        <v>4</v>
+      </c>
+      <c r="J758" t="n">
+        <v>29</v>
+      </c>
+      <c r="K758" t="n">
+        <v>0</v>
+      </c>
+      <c r="L758" t="n">
+        <v>0</v>
+      </c>
+      <c r="M758" t="n">
+        <v>0</v>
+      </c>
+      <c r="N758" t="n">
+        <v>18</v>
+      </c>
+      <c r="O758" t="n">
+        <v>0</v>
+      </c>
+      <c r="P758" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q758" t="n">
+        <v>0</v>
+      </c>
+      <c r="R758" t="inlineStr"/>
+    </row>
+    <row r="759">
+      <c r="A759" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B759" t="n">
+        <v>1589.900024414062</v>
+      </c>
+      <c r="C759" t="n">
+        <v>1589.900024414062</v>
+      </c>
+      <c r="D759" t="n">
+        <v>1505.199951171875</v>
+      </c>
+      <c r="E759" t="n">
+        <v>1530</v>
+      </c>
+      <c r="F759" t="inlineStr"/>
+      <c r="G759" t="n">
+        <v>58903</v>
+      </c>
+      <c r="H759" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I759" t="n">
+        <v>4</v>
+      </c>
+      <c r="J759" t="n">
+        <v>30</v>
+      </c>
+      <c r="K759" t="n">
+        <v>0</v>
+      </c>
+      <c r="L759" t="n">
+        <v>0</v>
+      </c>
+      <c r="M759" t="n">
+        <v>0</v>
+      </c>
+      <c r="N759" t="n">
+        <v>18</v>
+      </c>
+      <c r="O759" t="n">
+        <v>0</v>
+      </c>
+      <c r="P759" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q759" t="n">
+        <v>0</v>
+      </c>
+      <c r="R759" t="inlineStr"/>
+    </row>
+    <row r="760">
+      <c r="A760" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B760" t="n">
+        <v>1506</v>
+      </c>
+      <c r="C760" t="n">
+        <v>1582.900024414062</v>
+      </c>
+      <c r="D760" t="n">
+        <v>1503.199951171875</v>
+      </c>
+      <c r="E760" t="n">
+        <v>1550.400024414062</v>
+      </c>
+      <c r="F760" t="inlineStr"/>
+      <c r="G760" t="n">
+        <v>63640</v>
+      </c>
+      <c r="H760" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I760" t="n">
+        <v>5</v>
+      </c>
+      <c r="J760" t="n">
+        <v>2</v>
+      </c>
+      <c r="K760" t="n">
+        <v>0</v>
+      </c>
+      <c r="L760" t="n">
+        <v>0</v>
+      </c>
+      <c r="M760" t="n">
+        <v>0</v>
+      </c>
+      <c r="N760" t="n">
+        <v>18</v>
+      </c>
+      <c r="O760" t="n">
+        <v>0</v>
+      </c>
+      <c r="P760" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q760" t="n">
+        <v>0</v>
+      </c>
+      <c r="R760" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SHAILY.NS.xlsx
+++ b/stock_historical_data/1d/SHAILY.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R760"/>
+  <dimension ref="A1:R770"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42401,7 +42401,9 @@
       <c r="Q752" t="n">
         <v>0</v>
       </c>
-      <c r="R752" t="inlineStr"/>
+      <c r="R752" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="753">
       <c r="A753" s="2" t="n">
@@ -42453,7 +42455,9 @@
       <c r="Q753" t="n">
         <v>0</v>
       </c>
-      <c r="R753" t="inlineStr"/>
+      <c r="R753" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="754">
       <c r="A754" s="2" t="n">
@@ -42505,7 +42509,9 @@
       <c r="Q754" t="n">
         <v>0</v>
       </c>
-      <c r="R754" t="inlineStr"/>
+      <c r="R754" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="755">
       <c r="A755" s="2" t="n">
@@ -42557,7 +42563,9 @@
       <c r="Q755" t="n">
         <v>0</v>
       </c>
-      <c r="R755" t="inlineStr"/>
+      <c r="R755" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="756">
       <c r="A756" s="2" t="n">
@@ -42609,7 +42617,9 @@
       <c r="Q756" t="n">
         <v>0</v>
       </c>
-      <c r="R756" t="inlineStr"/>
+      <c r="R756" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="757">
       <c r="A757" s="2" t="n">
@@ -42661,7 +42671,9 @@
       <c r="Q757" t="n">
         <v>0</v>
       </c>
-      <c r="R757" t="inlineStr"/>
+      <c r="R757" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="758">
       <c r="A758" s="2" t="n">
@@ -42713,7 +42725,9 @@
       <c r="Q758" t="n">
         <v>0</v>
       </c>
-      <c r="R758" t="inlineStr"/>
+      <c r="R758" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="759">
       <c r="A759" s="2" t="n">
@@ -42765,7 +42779,9 @@
       <c r="Q759" t="n">
         <v>0</v>
       </c>
-      <c r="R759" t="inlineStr"/>
+      <c r="R759" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="760">
       <c r="A760" s="2" t="n">
@@ -42817,7 +42833,529 @@
       <c r="Q760" t="n">
         <v>0</v>
       </c>
-      <c r="R760" t="inlineStr"/>
+      <c r="R760" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B761" t="n">
+        <v>1580.400024414062</v>
+      </c>
+      <c r="C761" t="n">
+        <v>1620</v>
+      </c>
+      <c r="D761" t="n">
+        <v>1533.099975585938</v>
+      </c>
+      <c r="E761" t="n">
+        <v>1611.099975585938</v>
+      </c>
+      <c r="F761" t="inlineStr"/>
+      <c r="G761" t="n">
+        <v>43701</v>
+      </c>
+      <c r="H761" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I761" t="n">
+        <v>5</v>
+      </c>
+      <c r="J761" t="n">
+        <v>5</v>
+      </c>
+      <c r="K761" t="n">
+        <v>0</v>
+      </c>
+      <c r="L761" t="n">
+        <v>0</v>
+      </c>
+      <c r="M761" t="n">
+        <v>0</v>
+      </c>
+      <c r="N761" t="n">
+        <v>19</v>
+      </c>
+      <c r="O761" t="n">
+        <v>0</v>
+      </c>
+      <c r="P761" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q761" t="n">
+        <v>0</v>
+      </c>
+      <c r="R761" t="inlineStr"/>
+    </row>
+    <row r="762">
+      <c r="A762" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B762" t="n">
+        <v>1638.900024414062</v>
+      </c>
+      <c r="C762" t="n">
+        <v>1638.900024414062</v>
+      </c>
+      <c r="D762" t="n">
+        <v>1540.300048828125</v>
+      </c>
+      <c r="E762" t="n">
+        <v>1546.699951171875</v>
+      </c>
+      <c r="F762" t="inlineStr"/>
+      <c r="G762" t="n">
+        <v>45572</v>
+      </c>
+      <c r="H762" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I762" t="n">
+        <v>5</v>
+      </c>
+      <c r="J762" t="n">
+        <v>6</v>
+      </c>
+      <c r="K762" t="n">
+        <v>0</v>
+      </c>
+      <c r="L762" t="n">
+        <v>0</v>
+      </c>
+      <c r="M762" t="n">
+        <v>0</v>
+      </c>
+      <c r="N762" t="n">
+        <v>19</v>
+      </c>
+      <c r="O762" t="n">
+        <v>0</v>
+      </c>
+      <c r="P762" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q762" t="n">
+        <v>0</v>
+      </c>
+      <c r="R762" t="inlineStr"/>
+    </row>
+    <row r="763">
+      <c r="A763" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="B763" t="n">
+        <v>1500.099975585938</v>
+      </c>
+      <c r="C763" t="n">
+        <v>1641.5</v>
+      </c>
+      <c r="D763" t="n">
+        <v>1500.099975585938</v>
+      </c>
+      <c r="E763" t="n">
+        <v>1598.5</v>
+      </c>
+      <c r="F763" t="inlineStr"/>
+      <c r="G763" t="n">
+        <v>109846</v>
+      </c>
+      <c r="H763" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I763" t="n">
+        <v>5</v>
+      </c>
+      <c r="J763" t="n">
+        <v>7</v>
+      </c>
+      <c r="K763" t="n">
+        <v>0</v>
+      </c>
+      <c r="L763" t="n">
+        <v>0</v>
+      </c>
+      <c r="M763" t="n">
+        <v>0</v>
+      </c>
+      <c r="N763" t="n">
+        <v>19</v>
+      </c>
+      <c r="O763" t="n">
+        <v>0</v>
+      </c>
+      <c r="P763" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q763" t="n">
+        <v>0</v>
+      </c>
+      <c r="R763" t="inlineStr"/>
+    </row>
+    <row r="764">
+      <c r="A764" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="B764" t="n">
+        <v>1630</v>
+      </c>
+      <c r="C764" t="n">
+        <v>1690</v>
+      </c>
+      <c r="D764" t="n">
+        <v>1596.099975585938</v>
+      </c>
+      <c r="E764" t="n">
+        <v>1635.099975585938</v>
+      </c>
+      <c r="F764" t="inlineStr"/>
+      <c r="G764" t="n">
+        <v>167909</v>
+      </c>
+      <c r="H764" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I764" t="n">
+        <v>5</v>
+      </c>
+      <c r="J764" t="n">
+        <v>8</v>
+      </c>
+      <c r="K764" t="n">
+        <v>0</v>
+      </c>
+      <c r="L764" t="n">
+        <v>0</v>
+      </c>
+      <c r="M764" t="n">
+        <v>0</v>
+      </c>
+      <c r="N764" t="n">
+        <v>19</v>
+      </c>
+      <c r="O764" t="n">
+        <v>0</v>
+      </c>
+      <c r="P764" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q764" t="n">
+        <v>0</v>
+      </c>
+      <c r="R764" t="inlineStr"/>
+    </row>
+    <row r="765">
+      <c r="A765" s="2" t="n">
+        <v>45786</v>
+      </c>
+      <c r="B765" t="n">
+        <v>1617</v>
+      </c>
+      <c r="C765" t="n">
+        <v>1649.900024414062</v>
+      </c>
+      <c r="D765" t="n">
+        <v>1600.599975585938</v>
+      </c>
+      <c r="E765" t="n">
+        <v>1639.300048828125</v>
+      </c>
+      <c r="F765" t="inlineStr"/>
+      <c r="G765" t="n">
+        <v>56507</v>
+      </c>
+      <c r="H765" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I765" t="n">
+        <v>5</v>
+      </c>
+      <c r="J765" t="n">
+        <v>9</v>
+      </c>
+      <c r="K765" t="n">
+        <v>0</v>
+      </c>
+      <c r="L765" t="n">
+        <v>0</v>
+      </c>
+      <c r="M765" t="n">
+        <v>0</v>
+      </c>
+      <c r="N765" t="n">
+        <v>19</v>
+      </c>
+      <c r="O765" t="n">
+        <v>0</v>
+      </c>
+      <c r="P765" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q765" t="n">
+        <v>0</v>
+      </c>
+      <c r="R765" t="inlineStr"/>
+    </row>
+    <row r="766">
+      <c r="A766" s="2" t="n">
+        <v>45789</v>
+      </c>
+      <c r="B766" t="n">
+        <v>1719</v>
+      </c>
+      <c r="C766" t="n">
+        <v>1787</v>
+      </c>
+      <c r="D766" t="n">
+        <v>1698</v>
+      </c>
+      <c r="E766" t="n">
+        <v>1748.400024414062</v>
+      </c>
+      <c r="F766" t="inlineStr"/>
+      <c r="G766" t="n">
+        <v>140701</v>
+      </c>
+      <c r="H766" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I766" t="n">
+        <v>5</v>
+      </c>
+      <c r="J766" t="n">
+        <v>12</v>
+      </c>
+      <c r="K766" t="n">
+        <v>0</v>
+      </c>
+      <c r="L766" t="n">
+        <v>0</v>
+      </c>
+      <c r="M766" t="n">
+        <v>0</v>
+      </c>
+      <c r="N766" t="n">
+        <v>20</v>
+      </c>
+      <c r="O766" t="n">
+        <v>0</v>
+      </c>
+      <c r="P766" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q766" t="n">
+        <v>0</v>
+      </c>
+      <c r="R766" t="inlineStr"/>
+    </row>
+    <row r="767">
+      <c r="A767" s="2" t="n">
+        <v>45790</v>
+      </c>
+      <c r="B767" t="n">
+        <v>1749</v>
+      </c>
+      <c r="C767" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D767" t="n">
+        <v>1703.300048828125</v>
+      </c>
+      <c r="E767" t="n">
+        <v>1764.699951171875</v>
+      </c>
+      <c r="F767" t="inlineStr"/>
+      <c r="G767" t="n">
+        <v>194641</v>
+      </c>
+      <c r="H767" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I767" t="n">
+        <v>5</v>
+      </c>
+      <c r="J767" t="n">
+        <v>13</v>
+      </c>
+      <c r="K767" t="n">
+        <v>0</v>
+      </c>
+      <c r="L767" t="n">
+        <v>0</v>
+      </c>
+      <c r="M767" t="n">
+        <v>0</v>
+      </c>
+      <c r="N767" t="n">
+        <v>20</v>
+      </c>
+      <c r="O767" t="n">
+        <v>0</v>
+      </c>
+      <c r="P767" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q767" t="n">
+        <v>0</v>
+      </c>
+      <c r="R767" t="inlineStr"/>
+    </row>
+    <row r="768">
+      <c r="A768" s="2" t="n">
+        <v>45791</v>
+      </c>
+      <c r="B768" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C768" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D768" t="n">
+        <v>1675.599975585938</v>
+      </c>
+      <c r="E768" t="n">
+        <v>1708</v>
+      </c>
+      <c r="F768" t="inlineStr"/>
+      <c r="G768" t="n">
+        <v>455728</v>
+      </c>
+      <c r="H768" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I768" t="n">
+        <v>5</v>
+      </c>
+      <c r="J768" t="n">
+        <v>14</v>
+      </c>
+      <c r="K768" t="n">
+        <v>0</v>
+      </c>
+      <c r="L768" t="n">
+        <v>0</v>
+      </c>
+      <c r="M768" t="n">
+        <v>0</v>
+      </c>
+      <c r="N768" t="n">
+        <v>20</v>
+      </c>
+      <c r="O768" t="n">
+        <v>0</v>
+      </c>
+      <c r="P768" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q768" t="n">
+        <v>0</v>
+      </c>
+      <c r="R768" t="inlineStr"/>
+    </row>
+    <row r="769">
+      <c r="A769" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B769" t="n">
+        <v>1708</v>
+      </c>
+      <c r="C769" t="n">
+        <v>1715.800048828125</v>
+      </c>
+      <c r="D769" t="n">
+        <v>1660</v>
+      </c>
+      <c r="E769" t="n">
+        <v>1666.900024414062</v>
+      </c>
+      <c r="F769" t="inlineStr"/>
+      <c r="G769" t="n">
+        <v>98352</v>
+      </c>
+      <c r="H769" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I769" t="n">
+        <v>5</v>
+      </c>
+      <c r="J769" t="n">
+        <v>15</v>
+      </c>
+      <c r="K769" t="n">
+        <v>0</v>
+      </c>
+      <c r="L769" t="n">
+        <v>0</v>
+      </c>
+      <c r="M769" t="n">
+        <v>0</v>
+      </c>
+      <c r="N769" t="n">
+        <v>20</v>
+      </c>
+      <c r="O769" t="n">
+        <v>0</v>
+      </c>
+      <c r="P769" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q769" t="n">
+        <v>0</v>
+      </c>
+      <c r="R769" t="inlineStr"/>
+    </row>
+    <row r="770">
+      <c r="A770" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="B770" t="n">
+        <v>1668.400024414062</v>
+      </c>
+      <c r="C770" t="n">
+        <v>1711.900024414062</v>
+      </c>
+      <c r="D770" t="n">
+        <v>1661.099975585938</v>
+      </c>
+      <c r="E770" t="n">
+        <v>1671.599975585938</v>
+      </c>
+      <c r="F770" t="inlineStr"/>
+      <c r="G770" t="n">
+        <v>77730</v>
+      </c>
+      <c r="H770" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I770" t="n">
+        <v>5</v>
+      </c>
+      <c r="J770" t="n">
+        <v>16</v>
+      </c>
+      <c r="K770" t="n">
+        <v>0</v>
+      </c>
+      <c r="L770" t="n">
+        <v>0</v>
+      </c>
+      <c r="M770" t="n">
+        <v>0</v>
+      </c>
+      <c r="N770" t="n">
+        <v>20</v>
+      </c>
+      <c r="O770" t="n">
+        <v>0</v>
+      </c>
+      <c r="P770" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q770" t="n">
+        <v>0</v>
+      </c>
+      <c r="R770" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
